--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>500</v>
@@ -662,7 +662,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n"/>
+      <c r="H2" s="4" t="n">
+        <v>348.1894150417825</v>
+      </c>
       <c r="I2" s="5" t="n">
         <v>2.6</v>
       </c>
@@ -736,7 +738,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>110</v>
+        <v>15.32033426183843</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>3</v>
@@ -746,7 +748,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n"/>
+      <c r="H3" s="4" t="n">
+        <v>45.96100278551529</v>
+      </c>
       <c r="I3" s="5" t="n">
         <v>1.1</v>
       </c>
@@ -820,7 +824,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>78</v>
+        <v>10.86350974930361</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2</v>
@@ -830,7 +834,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n"/>
+      <c r="H4" s="4" t="n">
+        <v>21.72701949860723</v>
+      </c>
       <c r="I4" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -904,7 +910,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>78</v>
+        <v>10.86350974930361</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
@@ -914,7 +920,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n"/>
+      <c r="H5" s="4" t="n">
+        <v>10.86350974930361</v>
+      </c>
       <c r="I5" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -988,7 +996,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>110</v>
+        <v>15.32033426183843</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>3</v>
@@ -998,7 +1006,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n"/>
+      <c r="H6" s="4" t="n">
+        <v>45.96100278551529</v>
+      </c>
       <c r="I6" s="5" t="n">
         <v>1.55</v>
       </c>
@@ -1072,7 +1082,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.6</v>
+        <v>3.147632311977714</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>100</v>
@@ -1082,7 +1092,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n"/>
+      <c r="H7" s="4" t="n">
+        <v>314.7632311977713</v>
+      </c>
       <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
@@ -1162,7 +1174,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.1114206128133704</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>137</v>
@@ -1172,7 +1184,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n"/>
+      <c r="H8" s="4" t="n">
+        <v>15.26462395543174</v>
+      </c>
       <c r="I8" s="5" t="n">
         <v>2.1</v>
       </c>
@@ -1247,7 +1261,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>1140</v>
+        <v>158.7743732590528</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
@@ -1257,7 +1271,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n"/>
+      <c r="H9" s="4" t="n">
+        <v>158.7743732590528</v>
+      </c>
       <c r="I9" s="5" t="n">
         <v>3</v>
       </c>
@@ -1331,7 +1347,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
@@ -1341,7 +1357,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n"/>
+      <c r="H10" s="4" t="n">
+        <v>32.03342618384399</v>
+      </c>
       <c r="I10" s="5" t="n">
         <v>5</v>
       </c>
@@ -1415,7 +1433,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>185</v>
+        <v>25.7660167130919</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>3</v>
@@ -1425,7 +1443,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n"/>
+      <c r="H11" s="4" t="n">
+        <v>77.29805013927572</v>
+      </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
       </c>
@@ -1495,7 +1515,7 @@
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n">
-        <v>350</v>
+        <v>48.74651810584955</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>5</v>
@@ -1505,7 +1525,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n"/>
+      <c r="H12" s="4" t="n">
+        <v>243.7325905292477</v>
+      </c>
       <c r="I12" s="5" t="n">
         <v>1.23</v>
       </c>
@@ -1579,7 +1601,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>30</v>
@@ -1589,7 +1611,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n"/>
+      <c r="H13" s="4" t="n">
+        <v>20.89136490250695</v>
+      </c>
       <c r="I13" s="5" t="n">
         <v>0.15</v>
       </c>
@@ -1665,7 +1689,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>500</v>
@@ -1675,7 +1699,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n"/>
+      <c r="H14" s="4" t="n">
+        <v>348.1894150417825</v>
+      </c>
       <c r="I14" s="5" t="n">
         <v>2.5</v>
       </c>
@@ -1749,7 +1775,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>400</v>
@@ -1759,7 +1785,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n"/>
+      <c r="H15" s="4" t="n">
+        <v>278.551532033426</v>
+      </c>
       <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
@@ -1833,7 +1861,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>40</v>
@@ -1843,7 +1871,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n"/>
+      <c r="H16" s="4" t="n">
+        <v>27.8551532033426</v>
+      </c>
       <c r="I16" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -1917,7 +1947,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>3</v>
+        <v>0.417827298050139</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>40</v>
@@ -1927,7 +1957,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n"/>
+      <c r="H17" s="4" t="n">
+        <v>16.71309192200556</v>
+      </c>
       <c r="I17" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -2001,7 +2033,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>1.2</v>
+        <v>0.1671309192200556</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>140</v>
@@ -2011,7 +2043,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n"/>
+      <c r="H18" s="4" t="n">
+        <v>23.39832869080778</v>
+      </c>
       <c r="I18" s="5" t="n">
         <v>0.7</v>
       </c>
@@ -2085,7 +2119,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1378830083565458</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>250</v>
@@ -2095,7 +2129,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n"/>
+      <c r="H19" s="4" t="n">
+        <v>34.47075208913646</v>
+      </c>
       <c r="I19" s="5" t="n">
         <v>1.25</v>
       </c>
@@ -2169,7 +2205,7 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>388</v>
@@ -2179,7 +2215,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n"/>
+      <c r="H20" s="4" t="n">
+        <v>71.33147632311972</v>
+      </c>
       <c r="I20" s="5" t="n">
         <v>3.49</v>
       </c>
@@ -2253,7 +2291,7 @@
         </is>
       </c>
       <c r="E21" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>457</v>
@@ -2263,7 +2301,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n"/>
+      <c r="H21" s="4" t="n">
+        <v>84.01671309192194</v>
+      </c>
       <c r="I21" s="5" t="n">
         <v>4.11</v>
       </c>
@@ -2337,7 +2377,7 @@
         </is>
       </c>
       <c r="E22" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>458</v>
@@ -2347,7 +2387,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n"/>
+      <c r="H22" s="4" t="n">
+        <v>84.200557103064</v>
+      </c>
       <c r="I22" s="5" t="n">
         <v>4.12</v>
       </c>
@@ -2421,7 +2463,7 @@
         </is>
       </c>
       <c r="E23" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>287</v>
@@ -2431,7 +2473,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n"/>
+      <c r="H23" s="4" t="n">
+        <v>52.76323119777155</v>
+      </c>
       <c r="I23" s="5" t="n">
         <v>2.58</v>
       </c>
@@ -2505,7 +2549,7 @@
         </is>
       </c>
       <c r="E24" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>40</v>
@@ -2515,7 +2559,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n"/>
+      <c r="H24" s="4" t="n">
+        <v>7.353760445682446</v>
+      </c>
       <c r="I24" s="5" t="n">
         <v>0.36</v>
       </c>
@@ -2589,7 +2635,7 @@
         </is>
       </c>
       <c r="E25" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>60</v>
@@ -2599,7 +2645,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n"/>
+      <c r="H25" s="4" t="n">
+        <v>11.03064066852367</v>
+      </c>
       <c r="I25" s="5" t="n">
         <v>0.54</v>
       </c>
@@ -2673,7 +2721,7 @@
         </is>
       </c>
       <c r="E26" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>50</v>
@@ -2683,7 +2731,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n"/>
+      <c r="H26" s="4" t="n">
+        <v>9.192200557103057</v>
+      </c>
       <c r="I26" s="5" t="n">
         <v>0.45</v>
       </c>
@@ -2757,7 +2807,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>50</v>
@@ -2767,7 +2817,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n"/>
+      <c r="H27" s="4" t="n">
+        <v>9.192200557103057</v>
+      </c>
       <c r="I27" s="5" t="n">
         <v>0.45</v>
       </c>
@@ -2841,7 +2893,7 @@
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1838440111420611</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>110</v>
@@ -2851,7 +2903,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n"/>
+      <c r="H28" s="4" t="n">
+        <v>20.22284122562673</v>
+      </c>
       <c r="I28" s="5" t="n">
         <v>0.99</v>
       </c>
@@ -2925,7 +2979,7 @@
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>14.8</v>
+        <v>2.061281337047352</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>2040</v>
@@ -2935,7 +2989,9 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n"/>
+      <c r="H29" s="4" t="n">
+        <v>4205.013927576599</v>
+      </c>
       <c r="I29" s="5" t="n">
         <v>1200</v>
       </c>
@@ -3009,7 +3065,7 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>7.3</v>
+        <v>1.016713091922005</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>2800</v>
@@ -3019,7 +3075,9 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n"/>
+      <c r="H30" s="4" t="n">
+        <v>2846.796657381614</v>
+      </c>
       <c r="I30" s="5" t="n">
         <v>866</v>
       </c>
@@ -3094,7 +3152,7 @@
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>580</v>
+        <v>80.77994428969353</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>2</v>
@@ -3104,7 +3162,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n"/>
+      <c r="H31" s="4" t="n">
+        <v>161.5598885793871</v>
+      </c>
       <c r="I31" s="5" t="n">
         <v>0.3</v>
       </c>
@@ -3178,7 +3238,7 @@
         </is>
       </c>
       <c r="E32" s="4" t="n">
-        <v>80</v>
+        <v>11.14206128133704</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>5</v>
@@ -3188,7 +3248,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n"/>
+      <c r="H32" s="4" t="n">
+        <v>55.71030640668519</v>
+      </c>
       <c r="I32" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -3262,7 +3324,7 @@
         </is>
       </c>
       <c r="E33" s="4" t="n">
-        <v>450</v>
+        <v>62.67409470752084</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>2</v>
@@ -3272,7 +3334,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n"/>
+      <c r="H33" s="4" t="n">
+        <v>125.3481894150417</v>
+      </c>
       <c r="I33" s="5" t="n">
         <v>0.05</v>
       </c>
@@ -3350,7 +3414,7 @@
         </is>
       </c>
       <c r="E34" s="4" t="n">
-        <v>1160</v>
+        <v>161.5598885793871</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3</v>
@@ -3360,7 +3424,9 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n"/>
+      <c r="H34" s="4" t="n">
+        <v>484.6796657381612</v>
+      </c>
       <c r="I34" s="5" t="n">
         <v>34</v>
       </c>
@@ -3438,7 +3504,7 @@
         </is>
       </c>
       <c r="E35" s="4" t="n">
-        <v>1300</v>
+        <v>181.0584958217269</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>12</v>
@@ -3448,7 +3514,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H35" s="4" t="n"/>
+      <c r="H35" s="4" t="n">
+        <v>2172.701949860723</v>
+      </c>
       <c r="I35" s="5" t="n">
         <v>34</v>
       </c>
@@ -3525,7 +3593,7 @@
         </is>
       </c>
       <c r="E36" s="4" t="n">
-        <v>300</v>
+        <v>41.78272980501389</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>9</v>
@@ -3535,7 +3603,9 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n"/>
+      <c r="H36" s="4" t="n">
+        <v>376.044568245125</v>
+      </c>
       <c r="I36" s="5" t="n">
         <v>205</v>
       </c>
@@ -3609,7 +3679,7 @@
         </is>
       </c>
       <c r="E37" s="4" t="n">
-        <v>3400</v>
+        <v>473.5376044568242</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>10</v>
@@ -3619,7 +3689,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H37" s="4" t="n"/>
+      <c r="H37" s="4" t="n">
+        <v>4735.376044568242</v>
+      </c>
       <c r="I37" s="5" t="n">
         <v>270</v>
       </c>
@@ -3693,7 +3765,7 @@
         </is>
       </c>
       <c r="E38" s="4" t="n">
-        <v>5150</v>
+        <v>717.2701949860718</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>10</v>
@@ -3703,7 +3775,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n"/>
+      <c r="H38" s="4" t="n">
+        <v>7172.701949860719</v>
+      </c>
       <c r="I38" s="5" t="n">
         <v>440</v>
       </c>
@@ -3777,7 +3851,7 @@
         </is>
       </c>
       <c r="E39" s="4" t="n">
-        <v>935</v>
+        <v>130.2228412256266</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>1</v>
@@ -3787,7 +3861,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n"/>
+      <c r="H39" s="4" t="n">
+        <v>130.2228412256266</v>
+      </c>
       <c r="I39" s="5" t="n">
         <v>15</v>
       </c>
@@ -3861,7 +3937,7 @@
         </is>
       </c>
       <c r="E40" s="4" t="n">
-        <v>22</v>
+        <v>3.064066852367686</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>10</v>
@@ -3871,7 +3947,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H40" s="4" t="n"/>
+      <c r="H40" s="4" t="n">
+        <v>30.64066852367686</v>
+      </c>
       <c r="I40" s="5" t="n">
         <v>0.09</v>
       </c>
@@ -3947,7 +4025,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>350</v>
+        <v>48.74651810584955</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>5</v>
@@ -3957,7 +4035,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n"/>
+      <c r="H41" s="4" t="n">
+        <v>243.7325905292477</v>
+      </c>
       <c r="I41" s="5" t="n">
         <v>0.04</v>
       </c>
@@ -4031,7 +4111,7 @@
         </is>
       </c>
       <c r="E42" s="4" t="n">
-        <v>8</v>
+        <v>1.114206128133704</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>500</v>
@@ -4041,7 +4121,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H42" s="4" t="n"/>
+      <c r="H42" s="4" t="n">
+        <v>557.103064066852</v>
+      </c>
       <c r="I42" s="5" t="n">
         <v>4.5</v>
       </c>
@@ -4111,7 +4193,7 @@
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n">
-        <v>110</v>
+        <v>15.32033426183843</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>4</v>
@@ -4121,7 +4203,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H43" s="4" t="n"/>
+      <c r="H43" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I43" s="5" t="n">
         <v>0.04</v>
       </c>
@@ -4191,7 +4275,7 @@
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n">
-        <v>186.45</v>
+        <v>25.96796657381613</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>5</v>
@@ -4201,7 +4285,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n"/>
+      <c r="H44" s="4" t="n">
+        <v>129.8398328690807</v>
+      </c>
       <c r="I44" s="5" t="n">
         <v>0.04</v>
       </c>
@@ -4275,7 +4361,7 @@
         </is>
       </c>
       <c r="E45" s="4" t="n">
-        <v>4950</v>
+        <v>689.4150417827293</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>2</v>
@@ -4285,7 +4371,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H45" s="4" t="n"/>
+      <c r="H45" s="4" t="n">
+        <v>1378.830083565459</v>
+      </c>
       <c r="I45" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -4359,7 +4447,7 @@
         </is>
       </c>
       <c r="E46" s="4" t="n">
-        <v>6.5</v>
+        <v>0.9052924791086344</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>10</v>
@@ -4369,7 +4457,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H46" s="4" t="n"/>
+      <c r="H46" s="4" t="n">
+        <v>9.052924791086344</v>
+      </c>
       <c r="I46" s="5" t="n">
         <v>0.09</v>
       </c>
@@ -4443,7 +4533,7 @@
         </is>
       </c>
       <c r="E47" s="4" t="n">
-        <v>6.5</v>
+        <v>0.9052924791086344</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>10</v>
@@ -4453,7 +4543,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H47" s="4" t="n"/>
+      <c r="H47" s="4" t="n">
+        <v>9.052924791086344</v>
+      </c>
       <c r="I47" s="5" t="n">
         <v>0.09</v>
       </c>
@@ -4527,7 +4619,7 @@
         </is>
       </c>
       <c r="E48" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>2</v>
@@ -4537,7 +4629,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H48" s="4" t="n"/>
+      <c r="H48" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I48" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -4611,7 +4705,7 @@
         </is>
       </c>
       <c r="E49" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>2</v>
@@ -4621,7 +4715,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H49" s="4" t="n"/>
+      <c r="H49" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I49" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -4695,7 +4791,7 @@
         </is>
       </c>
       <c r="E50" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>2</v>
@@ -4705,7 +4801,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H50" s="4" t="n"/>
+      <c r="H50" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I50" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -4779,7 +4877,7 @@
         </is>
       </c>
       <c r="E51" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>2</v>
@@ -4789,7 +4887,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H51" s="4" t="n"/>
+      <c r="H51" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I51" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -4863,7 +4963,7 @@
         </is>
       </c>
       <c r="E52" s="4" t="n">
-        <v>328</v>
+        <v>45.68245125348186</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2</v>
@@ -4873,7 +4973,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H52" s="4" t="n"/>
+      <c r="H52" s="4" t="n">
+        <v>91.36490250696372</v>
+      </c>
       <c r="I52" s="5" t="n">
         <v>4.2</v>
       </c>
@@ -4947,7 +5049,7 @@
         </is>
       </c>
       <c r="E53" s="4" t="n">
-        <v>328</v>
+        <v>45.68245125348186</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>2</v>
@@ -4957,7 +5059,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H53" s="4" t="n"/>
+      <c r="H53" s="4" t="n">
+        <v>91.36490250696372</v>
+      </c>
       <c r="I53" s="5" t="n">
         <v>4</v>
       </c>
@@ -5031,7 +5135,7 @@
         </is>
       </c>
       <c r="E54" s="4" t="n">
-        <v>520</v>
+        <v>72.42339832869075</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>3</v>
@@ -5041,7 +5145,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H54" s="4" t="n"/>
+      <c r="H54" s="4" t="n">
+        <v>217.2701949860723</v>
+      </c>
       <c r="I54" s="5" t="n">
         <v>2.88</v>
       </c>
@@ -5115,7 +5221,7 @@
         </is>
       </c>
       <c r="E55" s="4" t="n">
-        <v>158.2</v>
+        <v>22.03342618384399</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>4</v>
@@ -5125,7 +5231,9 @@
           <t>瓶</t>
         </is>
       </c>
-      <c r="H55" s="4" t="n"/>
+      <c r="H55" s="4" t="n">
+        <v>88.13370473537597</v>
+      </c>
       <c r="I55" s="5" t="n">
         <v>3.5</v>
       </c>
@@ -5199,7 +5307,7 @@
         </is>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1300</v>
+        <v>181.0584958217269</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>2</v>
@@ -5209,7 +5317,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H56" s="4" t="n"/>
+      <c r="H56" s="4" t="n">
+        <v>362.1169916434538</v>
+      </c>
       <c r="I56" s="5" t="n">
         <v>2.5</v>
       </c>
@@ -5283,7 +5393,7 @@
         </is>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1380</v>
+        <v>192.2005571030639</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>1</v>
@@ -5293,7 +5403,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H57" s="4" t="n"/>
+      <c r="H57" s="4" t="n">
+        <v>192.2005571030639</v>
+      </c>
       <c r="I57" s="5" t="n">
         <v>1.2</v>
       </c>
@@ -5367,7 +5479,7 @@
         </is>
       </c>
       <c r="E58" s="4" t="n">
-        <v>15.06</v>
+        <v>2.097493036211698</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>45</v>
@@ -5377,7 +5489,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H58" s="4" t="n"/>
+      <c r="H58" s="4" t="n">
+        <v>94.3871866295264</v>
+      </c>
       <c r="I58" s="5" t="n">
         <v>2.12</v>
       </c>
@@ -5451,7 +5565,7 @@
         </is>
       </c>
       <c r="E59" s="4" t="n">
-        <v>3.5</v>
+        <v>0.4874651810584955</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>25</v>
@@ -5461,7 +5575,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H59" s="4" t="n"/>
+      <c r="H59" s="4" t="n">
+        <v>12.18662952646239</v>
+      </c>
       <c r="I59" s="5" t="n">
         <v>0.1</v>
       </c>
@@ -5535,7 +5651,7 @@
         </is>
       </c>
       <c r="E60" s="4" t="n">
-        <v>14.6</v>
+        <v>2.03342618384401</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>5</v>
@@ -5545,7 +5661,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H60" s="4" t="n"/>
+      <c r="H60" s="4" t="n">
+        <v>10.16713091922005</v>
+      </c>
       <c r="I60" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5619,7 +5737,7 @@
         </is>
       </c>
       <c r="E61" s="4" t="n">
-        <v>10</v>
+        <v>1.39275766016713</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>2</v>
@@ -5629,7 +5747,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H61" s="4" t="n"/>
+      <c r="H61" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I61" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5703,7 +5823,7 @@
         </is>
       </c>
       <c r="E62" s="4" t="n">
-        <v>10</v>
+        <v>1.39275766016713</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>2</v>
@@ -5713,7 +5833,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H62" s="4" t="n"/>
+      <c r="H62" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I62" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5787,7 +5909,7 @@
         </is>
       </c>
       <c r="E63" s="4" t="n">
-        <v>10</v>
+        <v>1.39275766016713</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>2</v>
@@ -5797,7 +5919,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H63" s="4" t="n"/>
+      <c r="H63" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I63" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -5873,7 +5997,7 @@
         </is>
       </c>
       <c r="E64" s="4" t="n">
-        <v>55</v>
+        <v>7.660167130919215</v>
       </c>
       <c r="F64" s="5" t="n">
         <v>15</v>
@@ -5883,7 +6007,9 @@
           <t>盒</t>
         </is>
       </c>
-      <c r="H64" s="4" t="n"/>
+      <c r="H64" s="4" t="n">
+        <v>114.9025069637882</v>
+      </c>
       <c r="I64" s="5" t="n">
         <v>0.1</v>
       </c>
@@ -5958,7 +6084,7 @@
         </is>
       </c>
       <c r="E65" s="4" t="n">
-        <v>55</v>
+        <v>7.660167130919215</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>5</v>
@@ -5968,7 +6094,9 @@
           <t>盒</t>
         </is>
       </c>
-      <c r="H65" s="4" t="n"/>
+      <c r="H65" s="4" t="n">
+        <v>38.30083565459607</v>
+      </c>
       <c r="I65" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -6042,7 +6170,7 @@
         </is>
       </c>
       <c r="E66" s="4" t="n">
-        <v>20</v>
+        <v>2.78551532033426</v>
       </c>
       <c r="F66" s="5" t="n">
         <v>5</v>
@@ -6052,7 +6180,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H66" s="4" t="n"/>
+      <c r="H66" s="4" t="n">
+        <v>13.9275766016713</v>
+      </c>
       <c r="I66" s="5" t="n">
         <v>0.14</v>
       </c>
@@ -6127,7 +6257,7 @@
         </is>
       </c>
       <c r="E67" s="4" t="n">
-        <v>0.2</v>
+        <v>0.0278551532033426</v>
       </c>
       <c r="F67" s="5" t="n">
         <v>33</v>
@@ -6137,7 +6267,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H67" s="4" t="n"/>
+      <c r="H67" s="4" t="n">
+        <v>0.9192200557103059</v>
+      </c>
       <c r="I67" s="5" t="n">
         <v>0.16</v>
       </c>
@@ -6211,7 +6343,7 @@
         </is>
       </c>
       <c r="E68" s="4" t="n">
-        <v>4.6</v>
+        <v>0.6406685236768797</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>100</v>
@@ -6221,7 +6353,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H68" s="4" t="n"/>
+      <c r="H68" s="4" t="n">
+        <v>64.06685236768797</v>
+      </c>
       <c r="I68" s="5" t="n">
         <v>3</v>
       </c>
@@ -6295,7 +6429,7 @@
         </is>
       </c>
       <c r="E69" s="4" t="n">
-        <v>2.28</v>
+        <v>0.3175487465181056</v>
       </c>
       <c r="F69" s="5" t="n">
         <v>60</v>
@@ -6305,7 +6439,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H69" s="4" t="n"/>
+      <c r="H69" s="4" t="n">
+        <v>19.05292479108634</v>
+      </c>
       <c r="I69" s="5" t="n">
         <v>1</v>
       </c>
@@ -6379,7 +6515,7 @@
         </is>
       </c>
       <c r="E70" s="4" t="n">
-        <v>157</v>
+        <v>21.86629526462394</v>
       </c>
       <c r="F70" s="5" t="n">
         <v>2</v>
@@ -6389,7 +6525,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H70" s="4" t="n"/>
+      <c r="H70" s="4" t="n">
+        <v>43.73259052924788</v>
+      </c>
       <c r="I70" s="5" t="n">
         <v>2.3</v>
       </c>
@@ -6463,7 +6601,7 @@
         </is>
       </c>
       <c r="E71" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F71" s="5" t="n">
         <v>20</v>
@@ -6473,7 +6611,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H71" s="4" t="n"/>
+      <c r="H71" s="4" t="n">
+        <v>13.9275766016713</v>
+      </c>
       <c r="I71" s="5" t="n">
         <v>2.06</v>
       </c>
@@ -6547,7 +6687,7 @@
         </is>
       </c>
       <c r="E72" s="4" t="n">
-        <v>31.18</v>
+        <v>4.342618384401111</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>2</v>
@@ -6557,7 +6697,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H72" s="4" t="n"/>
+      <c r="H72" s="4" t="n">
+        <v>8.685236768802222</v>
+      </c>
       <c r="I72" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -6631,7 +6773,7 @@
         </is>
       </c>
       <c r="E73" s="4" t="n">
-        <v>255.27</v>
+        <v>35.55292479108633</v>
       </c>
       <c r="F73" s="5" t="n">
         <v>1</v>
@@ -6641,7 +6783,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H73" s="4" t="n"/>
+      <c r="H73" s="4" t="n">
+        <v>35.55292479108633</v>
+      </c>
       <c r="I73" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -6715,7 +6859,7 @@
         </is>
       </c>
       <c r="E74" s="4" t="n">
-        <v>15</v>
+        <v>2.089136490250695</v>
       </c>
       <c r="F74" s="5" t="n">
         <v>10</v>
@@ -6725,7 +6869,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H74" s="4" t="n"/>
+      <c r="H74" s="4" t="n">
+        <v>20.89136490250695</v>
+      </c>
       <c r="I74" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -6799,7 +6945,7 @@
         </is>
       </c>
       <c r="E75" s="4" t="n">
-        <v>1.08</v>
+        <v>0.15041782729805</v>
       </c>
       <c r="F75" s="5" t="n">
         <v>50</v>
@@ -6809,7 +6955,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H75" s="4" t="n"/>
+      <c r="H75" s="4" t="n">
+        <v>7.520891364902502</v>
+      </c>
       <c r="I75" s="5" t="n">
         <v>0.55</v>
       </c>
@@ -6887,7 +7035,7 @@
         </is>
       </c>
       <c r="E76" s="4" t="n">
-        <v>11</v>
+        <v>1.532033426183843</v>
       </c>
       <c r="F76" s="5" t="n">
         <v>5</v>
@@ -6897,7 +7045,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H76" s="4" t="n"/>
+      <c r="H76" s="4" t="n">
+        <v>7.660167130919215</v>
+      </c>
       <c r="I76" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -6971,7 +7121,7 @@
         </is>
       </c>
       <c r="E77" s="4" t="n">
-        <v>0.04</v>
+        <v>0.005571030640668519</v>
       </c>
       <c r="F77" s="5" t="n">
         <v>410</v>
@@ -6981,7 +7131,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H77" s="4" t="n"/>
+      <c r="H77" s="4" t="n">
+        <v>2.284122562674093</v>
+      </c>
       <c r="I77" s="5" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7207,7 @@
         </is>
       </c>
       <c r="E78" s="4" t="n">
-        <v>4.5</v>
+        <v>0.6267409470752084</v>
       </c>
       <c r="F78" s="5" t="n">
         <v>100</v>
@@ -7065,7 +7217,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H78" s="4" t="n"/>
+      <c r="H78" s="4" t="n">
+        <v>62.67409470752084</v>
+      </c>
       <c r="I78" s="5" t="n">
         <v>5</v>
       </c>
@@ -7139,7 +7293,7 @@
         </is>
       </c>
       <c r="E79" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>1.178272980501392</v>
       </c>
       <c r="F79" s="5" t="n">
         <v>90</v>
@@ -7149,7 +7303,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H79" s="4" t="n"/>
+      <c r="H79" s="4" t="n">
+        <v>106.0445682451253</v>
+      </c>
       <c r="I79" s="5" t="n">
         <v>11</v>
       </c>
@@ -7223,7 +7379,7 @@
         </is>
       </c>
       <c r="E80" s="4" t="n">
-        <v>450</v>
+        <v>62.67409470752084</v>
       </c>
       <c r="F80" s="5" t="n">
         <v>2</v>
@@ -7233,7 +7389,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H80" s="4" t="n"/>
+      <c r="H80" s="4" t="n">
+        <v>125.3481894150417</v>
+      </c>
       <c r="I80" s="5" t="n">
         <v>1.09</v>
       </c>
@@ -7307,7 +7465,7 @@
         </is>
       </c>
       <c r="E81" s="4" t="n">
-        <v>0.83</v>
+        <v>0.1155988857938718</v>
       </c>
       <c r="F81" s="5" t="n">
         <v>31</v>
@@ -7317,7 +7475,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H81" s="4" t="n"/>
+      <c r="H81" s="4" t="n">
+        <v>3.583565459610025</v>
+      </c>
       <c r="I81" s="5" t="n">
         <v>0.3</v>
       </c>
@@ -7391,7 +7551,7 @@
         </is>
       </c>
       <c r="E82" s="4" t="n">
-        <v>0.37</v>
+        <v>0.0515320334261838</v>
       </c>
       <c r="F82" s="5" t="n">
         <v>100</v>
@@ -7401,7 +7561,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H82" s="4" t="n"/>
+      <c r="H82" s="4" t="n">
+        <v>5.15320334261838</v>
+      </c>
       <c r="I82" s="5" t="n">
         <v>0.1</v>
       </c>
@@ -7475,7 +7637,7 @@
         </is>
       </c>
       <c r="E83" s="4" t="n">
-        <v>9.1</v>
+        <v>1.267409470752088</v>
       </c>
       <c r="F83" s="5" t="n">
         <v>6</v>
@@ -7485,7 +7647,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H83" s="4" t="n"/>
+      <c r="H83" s="4" t="n">
+        <v>7.604456824512529</v>
+      </c>
       <c r="I83" s="5" t="n">
         <v>1.6</v>
       </c>
@@ -7559,7 +7723,7 @@
         </is>
       </c>
       <c r="E84" s="4" t="n">
-        <v>720</v>
+        <v>100.2785515320333</v>
       </c>
       <c r="F84" s="5" t="n">
         <v>2</v>
@@ -7569,7 +7733,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H84" s="4" t="n"/>
+      <c r="H84" s="4" t="n">
+        <v>200.5571030640667</v>
+      </c>
       <c r="I84" s="5" t="n">
         <v>4.2</v>
       </c>
@@ -7643,7 +7809,7 @@
         </is>
       </c>
       <c r="E85" s="4" t="n">
-        <v>2.1</v>
+        <v>0.2924791086350973</v>
       </c>
       <c r="F85" s="5" t="n">
         <v>40</v>
@@ -7653,7 +7819,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H85" s="4" t="n"/>
+      <c r="H85" s="4" t="n">
+        <v>11.69916434540389</v>
+      </c>
       <c r="I85" s="5" t="n">
         <v>1</v>
       </c>
@@ -7727,7 +7895,7 @@
         </is>
       </c>
       <c r="E86" s="4" t="n">
-        <v>145</v>
+        <v>20.19498607242338</v>
       </c>
       <c r="F86" s="5" t="n">
         <v>2</v>
@@ -7737,7 +7905,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H86" s="4" t="n"/>
+      <c r="H86" s="4" t="n">
+        <v>40.38997214484677</v>
+      </c>
       <c r="I86" s="5" t="n">
         <v>0.8</v>
       </c>
@@ -7811,7 +7981,7 @@
         </is>
       </c>
       <c r="E87" s="4" t="n">
-        <v>16.7</v>
+        <v>2.325905292479107</v>
       </c>
       <c r="F87" s="5" t="n">
         <v>50</v>
@@ -7821,7 +7991,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H87" s="4" t="n"/>
+      <c r="H87" s="4" t="n">
+        <v>116.2952646239553</v>
+      </c>
       <c r="I87" s="5" t="n">
         <v>5</v>
       </c>
@@ -7895,7 +8067,7 @@
         </is>
       </c>
       <c r="E88" s="4" t="n">
-        <v>9.9</v>
+        <v>1.378830083565459</v>
       </c>
       <c r="F88" s="5" t="n">
         <v>100</v>
@@ -7905,7 +8077,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H88" s="4" t="n"/>
+      <c r="H88" s="4" t="n">
+        <v>137.8830083565458</v>
+      </c>
       <c r="I88" s="5" t="n">
         <v>5.2</v>
       </c>
@@ -7979,7 +8153,7 @@
         </is>
       </c>
       <c r="E89" s="4" t="n">
-        <v>55.9</v>
+        <v>7.785515320334256</v>
       </c>
       <c r="F89" s="5" t="n">
         <v>2</v>
@@ -7989,7 +8163,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H89" s="4" t="n"/>
+      <c r="H89" s="4" t="n">
+        <v>15.57103064066851</v>
+      </c>
       <c r="I89" s="5" t="n">
         <v>5.8</v>
       </c>
@@ -8063,7 +8239,7 @@
         </is>
       </c>
       <c r="E90" s="4" t="n">
-        <v>9.9</v>
+        <v>1.378830083565459</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>93</v>
@@ -8073,7 +8249,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H90" s="4" t="n"/>
+      <c r="H90" s="4" t="n">
+        <v>128.2311977715877</v>
+      </c>
       <c r="I90" s="5" t="n">
         <v>5.2</v>
       </c>
@@ -8147,7 +8325,7 @@
         </is>
       </c>
       <c r="E91" s="4" t="n">
-        <v>1.36</v>
+        <v>0.1894150417827297</v>
       </c>
       <c r="F91" s="5" t="n">
         <v>42</v>
@@ -8157,7 +8335,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H91" s="4" t="n"/>
+      <c r="H91" s="4" t="n">
+        <v>7.955431754874646</v>
+      </c>
       <c r="I91" s="5" t="n">
         <v>5.8</v>
       </c>
@@ -8231,7 +8411,7 @@
         </is>
       </c>
       <c r="E92" s="4" t="n">
-        <v>1550</v>
+        <v>215.8774373259051</v>
       </c>
       <c r="F92" s="5" t="n">
         <v>9</v>
@@ -8241,7 +8421,9 @@
           <t>瓶</t>
         </is>
       </c>
-      <c r="H92" s="4" t="n"/>
+      <c r="H92" s="4" t="n">
+        <v>1942.896935933146</v>
+      </c>
       <c r="I92" s="5" t="n">
         <v>11</v>
       </c>
@@ -8315,7 +8497,7 @@
         </is>
       </c>
       <c r="E93" s="4" t="n">
-        <v>200</v>
+        <v>27.8551532033426</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>12</v>
@@ -8325,7 +8507,9 @@
           <t>瓶</t>
         </is>
       </c>
-      <c r="H93" s="4" t="n"/>
+      <c r="H93" s="4" t="n">
+        <v>334.2618384401111</v>
+      </c>
       <c r="I93" s="5" t="n">
         <v>2.98</v>
       </c>
@@ -8399,7 +8583,7 @@
         </is>
       </c>
       <c r="E94" s="4" t="n">
-        <v>260</v>
+        <v>36.21169916434538</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>2</v>
@@ -8409,7 +8593,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H94" s="4" t="n"/>
+      <c r="H94" s="4" t="n">
+        <v>72.42339832869075</v>
+      </c>
       <c r="I94" s="5" t="n">
         <v>5</v>
       </c>
@@ -8483,7 +8669,7 @@
         </is>
       </c>
       <c r="E95" s="4" t="n">
-        <v>26</v>
+        <v>3.621169916434538</v>
       </c>
       <c r="F95" s="5" t="n">
         <v>10</v>
@@ -8493,7 +8679,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H95" s="4" t="n"/>
+      <c r="H95" s="4" t="n">
+        <v>36.21169916434538</v>
+      </c>
       <c r="I95" s="5" t="n">
         <v>5.78</v>
       </c>
@@ -8567,7 +8755,7 @@
         </is>
       </c>
       <c r="E96" s="4" t="n">
-        <v>2.45</v>
+        <v>0.3412256267409469</v>
       </c>
       <c r="F96" s="5" t="n">
         <v>70</v>
@@ -8577,7 +8765,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H96" s="4" t="n"/>
+      <c r="H96" s="4" t="n">
+        <v>23.88579387186628</v>
+      </c>
       <c r="I96" s="5" t="n">
         <v>1.5</v>
       </c>
@@ -8651,7 +8841,7 @@
         </is>
       </c>
       <c r="E97" s="4" t="n">
-        <v>1.18</v>
+        <v>0.1643454038997213</v>
       </c>
       <c r="F97" s="5" t="n">
         <v>70</v>
@@ -8661,7 +8851,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H97" s="4" t="n"/>
+      <c r="H97" s="4" t="n">
+        <v>11.50417827298049</v>
+      </c>
       <c r="I97" s="5" t="n">
         <v>1.5</v>
       </c>
@@ -8735,7 +8927,7 @@
         </is>
       </c>
       <c r="E98" s="4" t="n">
-        <v>18.5</v>
+        <v>2.57660167130919</v>
       </c>
       <c r="F98" s="5" t="n">
         <v>50</v>
@@ -8745,7 +8937,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H98" s="4" t="n"/>
+      <c r="H98" s="4" t="n">
+        <v>128.8300835654595</v>
+      </c>
       <c r="I98" s="5" t="n">
         <v>1</v>
       </c>
@@ -8819,7 +9013,7 @@
         </is>
       </c>
       <c r="E99" s="4" t="n">
-        <v>2.5</v>
+        <v>0.3481894150417825</v>
       </c>
       <c r="F99" s="5" t="n">
         <v>348</v>
@@ -8829,7 +9023,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H99" s="4" t="n"/>
+      <c r="H99" s="4" t="n">
+        <v>121.1699164345403</v>
+      </c>
       <c r="I99" s="5" t="n">
         <v>9.300000000000001</v>
       </c>
@@ -8903,7 +9099,7 @@
         </is>
       </c>
       <c r="E100" s="4" t="n">
-        <v>42</v>
+        <v>5.849582172701945</v>
       </c>
       <c r="F100" s="5" t="n">
         <v>20</v>
@@ -8913,7 +9109,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H100" s="4" t="n"/>
+      <c r="H100" s="4" t="n">
+        <v>116.9916434540389</v>
+      </c>
       <c r="I100" s="5" t="n">
         <v>2.56</v>
       </c>
@@ -8987,7 +9185,7 @@
         </is>
       </c>
       <c r="E101" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F101" s="5" t="n">
         <v>100</v>
@@ -8997,7 +9195,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H101" s="4" t="n"/>
+      <c r="H101" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I101" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9071,7 +9271,7 @@
         </is>
       </c>
       <c r="E102" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F102" s="5" t="n">
         <v>100</v>
@@ -9081,7 +9281,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H102" s="4" t="n"/>
+      <c r="H102" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I102" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9155,7 +9357,7 @@
         </is>
       </c>
       <c r="E103" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F103" s="5" t="n">
         <v>100</v>
@@ -9165,7 +9367,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H103" s="4" t="n"/>
+      <c r="H103" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I103" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9239,7 +9443,7 @@
         </is>
       </c>
       <c r="E104" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F104" s="5" t="n">
         <v>100</v>
@@ -9249,7 +9453,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H104" s="4" t="n"/>
+      <c r="H104" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I104" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9323,7 +9529,7 @@
         </is>
       </c>
       <c r="E105" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F105" s="5" t="n">
         <v>100</v>
@@ -9333,7 +9539,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H105" s="4" t="n"/>
+      <c r="H105" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I105" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9407,7 +9615,7 @@
         </is>
       </c>
       <c r="E106" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F106" s="5" t="n">
         <v>100</v>
@@ -9417,7 +9625,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H106" s="4" t="n"/>
+      <c r="H106" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I106" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9491,7 +9701,7 @@
         </is>
       </c>
       <c r="E107" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>100</v>
@@ -9501,7 +9711,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H107" s="4" t="n"/>
+      <c r="H107" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I107" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9575,7 +9787,7 @@
         </is>
       </c>
       <c r="E108" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01810584958217269</v>
       </c>
       <c r="F108" s="5" t="n">
         <v>100</v>
@@ -9585,7 +9797,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H108" s="4" t="n"/>
+      <c r="H108" s="4" t="n">
+        <v>1.810584958217269</v>
+      </c>
       <c r="I108" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9659,7 +9873,7 @@
         </is>
       </c>
       <c r="E109" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03899721448467964</v>
       </c>
       <c r="F109" s="5" t="n">
         <v>100</v>
@@ -9669,7 +9883,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H109" s="4" t="n"/>
+      <c r="H109" s="4" t="n">
+        <v>3.899721448467964</v>
+      </c>
       <c r="I109" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9743,7 +9959,7 @@
         </is>
       </c>
       <c r="E110" s="4" t="n">
-        <v>0.6</v>
+        <v>0.08356545961002779</v>
       </c>
       <c r="F110" s="5" t="n">
         <v>100</v>
@@ -9753,7 +9969,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H110" s="4" t="n"/>
+      <c r="H110" s="4" t="n">
+        <v>8.356545961002778</v>
+      </c>
       <c r="I110" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9827,7 +10045,7 @@
         </is>
       </c>
       <c r="E111" s="4" t="n">
-        <v>0.24</v>
+        <v>0.03342618384401112</v>
       </c>
       <c r="F111" s="5" t="n">
         <v>100</v>
@@ -9837,7 +10055,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H111" s="4" t="n"/>
+      <c r="H111" s="4" t="n">
+        <v>3.342618384401112</v>
+      </c>
       <c r="I111" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9911,7 +10131,7 @@
         </is>
       </c>
       <c r="E112" s="4" t="n">
-        <v>0.38</v>
+        <v>0.05292479108635094</v>
       </c>
       <c r="F112" s="5" t="n">
         <v>100</v>
@@ -9921,7 +10141,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H112" s="4" t="n"/>
+      <c r="H112" s="4" t="n">
+        <v>5.292479108635094</v>
+      </c>
       <c r="I112" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -9995,7 +10217,7 @@
         </is>
       </c>
       <c r="E113" s="4" t="n">
-        <v>0.2</v>
+        <v>0.0278551532033426</v>
       </c>
       <c r="F113" s="5" t="n">
         <v>100</v>
@@ -10005,7 +10227,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H113" s="4" t="n"/>
+      <c r="H113" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I113" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -10079,7 +10303,7 @@
         </is>
       </c>
       <c r="E114" s="4" t="n">
-        <v>1.2</v>
+        <v>0.1671309192200556</v>
       </c>
       <c r="F114" s="5" t="n">
         <v>420</v>
@@ -10089,7 +10313,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H114" s="4" t="n"/>
+      <c r="H114" s="4" t="n">
+        <v>70.19498607242335</v>
+      </c>
       <c r="I114" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -10163,7 +10389,7 @@
         </is>
       </c>
       <c r="E115" s="4" t="n">
-        <v>3.5</v>
+        <v>0.4874651810584955</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>100</v>
@@ -10173,7 +10399,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H115" s="4" t="n"/>
+      <c r="H115" s="4" t="n">
+        <v>48.74651810584955</v>
+      </c>
       <c r="I115" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -10247,7 +10475,7 @@
         </is>
       </c>
       <c r="E116" s="4" t="n">
-        <v>80</v>
+        <v>11.14206128133704</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>1</v>
@@ -10257,7 +10485,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H116" s="4" t="n"/>
+      <c r="H116" s="4" t="n">
+        <v>11.14206128133704</v>
+      </c>
       <c r="I116" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -10331,7 +10561,7 @@
         </is>
       </c>
       <c r="E117" s="4" t="n">
-        <v>1700</v>
+        <v>236.7688022284121</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>2</v>
@@ -10341,7 +10571,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H117" s="4" t="n"/>
+      <c r="H117" s="4" t="n">
+        <v>473.5376044568242</v>
+      </c>
       <c r="I117" s="5" t="n">
         <v>1</v>
       </c>
@@ -10415,7 +10647,7 @@
         </is>
       </c>
       <c r="E118" s="4" t="n">
-        <v>2700</v>
+        <v>376.044568245125</v>
       </c>
       <c r="F118" s="5" t="n">
         <v>5</v>
@@ -10425,7 +10657,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H118" s="4" t="n"/>
+      <c r="H118" s="4" t="n">
+        <v>1880.222841225625</v>
+      </c>
       <c r="I118" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -10499,7 +10733,7 @@
         </is>
       </c>
       <c r="E119" s="4" t="n">
-        <v>1100</v>
+        <v>153.2033426183843</v>
       </c>
       <c r="F119" s="5" t="n">
         <v>1</v>
@@ -10509,7 +10743,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H119" s="4" t="n"/>
+      <c r="H119" s="4" t="n">
+        <v>153.2033426183843</v>
+      </c>
       <c r="I119" s="5" t="n">
         <v>0.4</v>
       </c>
@@ -10583,7 +10819,7 @@
         </is>
       </c>
       <c r="E120" s="4" t="n">
-        <v>1100</v>
+        <v>153.2033426183843</v>
       </c>
       <c r="F120" s="5" t="n">
         <v>1</v>
@@ -10593,7 +10829,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H120" s="4" t="n"/>
+      <c r="H120" s="4" t="n">
+        <v>153.2033426183843</v>
+      </c>
       <c r="I120" s="5" t="n">
         <v>0.4</v>
       </c>
@@ -10667,7 +10905,7 @@
         </is>
       </c>
       <c r="E121" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F121" s="5" t="n">
         <v>96</v>
@@ -10677,7 +10915,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H121" s="4" t="n"/>
+      <c r="H121" s="4" t="n">
+        <v>3075.208913649023</v>
+      </c>
       <c r="I121" s="5" t="n">
         <v>96</v>
       </c>
@@ -10751,7 +10991,7 @@
         </is>
       </c>
       <c r="E122" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F122" s="5" t="n">
         <v>4</v>
@@ -10761,7 +11001,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H122" s="4" t="n"/>
+      <c r="H122" s="4" t="n">
+        <v>128.1337047353759</v>
+      </c>
       <c r="I122" s="5" t="n">
         <v>4</v>
       </c>
@@ -10841,7 +11083,7 @@
         </is>
       </c>
       <c r="E123" s="4" t="n">
-        <v>298</v>
+        <v>41.50417827298047</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>4</v>
@@ -10851,7 +11093,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H123" s="4" t="n"/>
+      <c r="H123" s="4" t="n">
+        <v>166.0167130919219</v>
+      </c>
       <c r="I123" s="5" t="n">
         <v>18</v>
       </c>
@@ -10931,7 +11175,7 @@
         </is>
       </c>
       <c r="E124" s="4" t="n">
-        <v>298</v>
+        <v>41.50417827298047</v>
       </c>
       <c r="F124" s="5" t="n">
         <v>3</v>
@@ -10941,7 +11185,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H124" s="4" t="n"/>
+      <c r="H124" s="4" t="n">
+        <v>124.5125348189414</v>
+      </c>
       <c r="I124" s="5" t="n">
         <v>13</v>
       </c>
@@ -11015,7 +11261,7 @@
         </is>
       </c>
       <c r="E125" s="4" t="n">
-        <v>133</v>
+        <v>18.52367688022283</v>
       </c>
       <c r="F125" s="5" t="n">
         <v>6</v>
@@ -11025,7 +11271,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H125" s="4" t="n"/>
+      <c r="H125" s="4" t="n">
+        <v>111.142061281337</v>
+      </c>
       <c r="I125" s="5" t="n">
         <v>2</v>
       </c>
@@ -11099,7 +11347,7 @@
         </is>
       </c>
       <c r="E126" s="4" t="n">
-        <v>450</v>
+        <v>62.67409470752084</v>
       </c>
       <c r="F126" s="5" t="n">
         <v>1</v>
@@ -11109,7 +11357,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H126" s="4" t="n"/>
+      <c r="H126" s="4" t="n">
+        <v>62.67409470752084</v>
+      </c>
       <c r="I126" s="5" t="n">
         <v>5</v>
       </c>
@@ -11183,7 +11433,7 @@
         </is>
       </c>
       <c r="E127" s="4" t="n">
-        <v>720</v>
+        <v>100.2785515320333</v>
       </c>
       <c r="F127" s="5" t="n">
         <v>2</v>
@@ -11193,7 +11443,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H127" s="4" t="n"/>
+      <c r="H127" s="4" t="n">
+        <v>200.5571030640667</v>
+      </c>
       <c r="I127" s="5" t="n">
         <v>1</v>
       </c>
@@ -11267,7 +11519,7 @@
         </is>
       </c>
       <c r="E128" s="4" t="n">
-        <v>720</v>
+        <v>100.2785515320333</v>
       </c>
       <c r="F128" s="5" t="n">
         <v>2</v>
@@ -11277,7 +11529,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H128" s="4" t="n"/>
+      <c r="H128" s="4" t="n">
+        <v>200.5571030640667</v>
+      </c>
       <c r="I128" s="5" t="n">
         <v>1</v>
       </c>
@@ -11351,7 +11605,7 @@
         </is>
       </c>
       <c r="E129" s="4" t="n">
-        <v>62</v>
+        <v>8.635097493036206</v>
       </c>
       <c r="F129" s="5" t="n">
         <v>2</v>
@@ -11361,7 +11615,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H129" s="4" t="n"/>
+      <c r="H129" s="4" t="n">
+        <v>17.27019498607241</v>
+      </c>
       <c r="I129" s="5" t="n">
         <v>1</v>
       </c>
@@ -11435,7 +11691,7 @@
         </is>
       </c>
       <c r="E130" s="4" t="n">
-        <v>240</v>
+        <v>33.42618384401112</v>
       </c>
       <c r="F130" s="5" t="n">
         <v>2</v>
@@ -11445,7 +11701,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H130" s="4" t="n"/>
+      <c r="H130" s="4" t="n">
+        <v>66.85236768802224</v>
+      </c>
       <c r="I130" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -11519,7 +11777,7 @@
         </is>
       </c>
       <c r="E131" s="4" t="n">
-        <v>3.15</v>
+        <v>0.4387186629526459</v>
       </c>
       <c r="F131" s="5" t="n">
         <v>10</v>
@@ -11529,7 +11787,9 @@
           <t>米</t>
         </is>
       </c>
-      <c r="H131" s="4" t="n"/>
+      <c r="H131" s="4" t="n">
+        <v>4.387186629526459</v>
+      </c>
       <c r="I131" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -11603,7 +11863,7 @@
         </is>
       </c>
       <c r="E132" s="4" t="n">
-        <v>4.5</v>
+        <v>0.6267409470752084</v>
       </c>
       <c r="F132" s="5" t="n">
         <v>10</v>
@@ -11613,7 +11873,9 @@
           <t>米</t>
         </is>
       </c>
-      <c r="H132" s="4" t="n"/>
+      <c r="H132" s="4" t="n">
+        <v>6.267409470752084</v>
+      </c>
       <c r="I132" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -11687,7 +11949,7 @@
         </is>
       </c>
       <c r="E133" s="4" t="n">
-        <v>3.8</v>
+        <v>0.5292479108635093</v>
       </c>
       <c r="F133" s="5" t="n">
         <v>10</v>
@@ -11697,7 +11959,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H133" s="4" t="n"/>
+      <c r="H133" s="4" t="n">
+        <v>5.292479108635093</v>
+      </c>
       <c r="I133" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -11771,7 +12035,7 @@
         </is>
       </c>
       <c r="E134" s="4" t="n">
-        <v>15.3</v>
+        <v>2.130919220055709</v>
       </c>
       <c r="F134" s="5" t="n">
         <v>10</v>
@@ -11781,7 +12045,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H134" s="4" t="n"/>
+      <c r="H134" s="4" t="n">
+        <v>21.30919220055709</v>
+      </c>
       <c r="I134" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -11855,7 +12121,7 @@
         </is>
       </c>
       <c r="E135" s="4" t="n">
-        <v>1290</v>
+        <v>179.6657381615597</v>
       </c>
       <c r="F135" s="5" t="n">
         <v>2</v>
@@ -11865,7 +12131,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H135" s="4" t="n"/>
+      <c r="H135" s="4" t="n">
+        <v>359.3314763231195</v>
+      </c>
       <c r="I135" s="5" t="n">
         <v>4.2</v>
       </c>
@@ -11939,7 +12207,7 @@
         </is>
       </c>
       <c r="E136" s="4" t="n">
-        <v>3.2</v>
+        <v>0.4456824512534816</v>
       </c>
       <c r="F136" s="5" t="n">
         <v>40</v>
@@ -11949,7 +12217,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H136" s="4" t="n"/>
+      <c r="H136" s="4" t="n">
+        <v>17.82729805013926</v>
+      </c>
       <c r="I136" s="5" t="n">
         <v>1.5</v>
       </c>
@@ -12023,7 +12293,7 @@
         </is>
       </c>
       <c r="E137" s="4" t="n">
-        <v>79</v>
+        <v>11.00278551532033</v>
       </c>
       <c r="F137" s="5" t="n">
         <v>8</v>
@@ -12033,7 +12303,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H137" s="4" t="n"/>
+      <c r="H137" s="4" t="n">
+        <v>88.02228412256261</v>
+      </c>
       <c r="I137" s="5" t="n">
         <v>16.5</v>
       </c>
@@ -12107,7 +12379,7 @@
         </is>
       </c>
       <c r="E138" s="4" t="n">
-        <v>52</v>
+        <v>7.242339832869075</v>
       </c>
       <c r="F138" s="5" t="n">
         <v>8</v>
@@ -12117,7 +12389,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H138" s="4" t="n"/>
+      <c r="H138" s="4" t="n">
+        <v>57.9387186629526</v>
+      </c>
       <c r="I138" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -12191,7 +12465,7 @@
         </is>
       </c>
       <c r="E139" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F139" s="5" t="n">
         <v>96</v>
@@ -12201,7 +12475,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H139" s="4" t="n"/>
+      <c r="H139" s="4" t="n">
+        <v>3075.208913649023</v>
+      </c>
       <c r="I139" s="5" t="n">
         <v>96</v>
       </c>
@@ -12275,7 +12551,7 @@
         </is>
       </c>
       <c r="E140" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F140" s="5" t="n">
         <v>4</v>
@@ -12285,7 +12561,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H140" s="4" t="n"/>
+      <c r="H140" s="4" t="n">
+        <v>128.1337047353759</v>
+      </c>
       <c r="I140" s="5" t="n">
         <v>4</v>
       </c>
@@ -12359,7 +12637,7 @@
         </is>
       </c>
       <c r="E141" s="4" t="n">
-        <v>54</v>
+        <v>7.520891364902502</v>
       </c>
       <c r="F141" s="5" t="n">
         <v>2</v>
@@ -12369,7 +12647,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H141" s="4" t="n"/>
+      <c r="H141" s="4" t="n">
+        <v>15.041782729805</v>
+      </c>
       <c r="I141" s="5" t="n">
         <v>0.36</v>
       </c>
@@ -12443,7 +12723,7 @@
         </is>
       </c>
       <c r="E142" s="4" t="n">
-        <v>250</v>
+        <v>34.81894150417825</v>
       </c>
       <c r="F142" s="5" t="n">
         <v>2</v>
@@ -12453,7 +12733,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H142" s="4" t="n"/>
+      <c r="H142" s="4" t="n">
+        <v>69.6378830083565</v>
+      </c>
       <c r="I142" s="5" t="n">
         <v>0.4</v>
       </c>
@@ -12527,7 +12809,7 @@
         </is>
       </c>
       <c r="E143" s="4" t="n">
-        <v>25</v>
+        <v>3.481894150417824</v>
       </c>
       <c r="F143" s="5" t="n">
         <v>4</v>
@@ -12537,7 +12819,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H143" s="4" t="n"/>
+      <c r="H143" s="4" t="n">
+        <v>13.9275766016713</v>
+      </c>
       <c r="I143" s="5" t="n">
         <v>0.2</v>
       </c>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -571,12 +571,12 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>保费</t>
+          <t>总保费</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>运费</t>
+          <t>总运费</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>500</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>348.1894150417825</v>
+        <v>348.189415</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>2.6</v>
@@ -681,19 +681,19 @@
         <v>2625</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>4.13</v>
+        <v>6339.01</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>5.57</v>
+        <v>5.36</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>2630.57</v>
+        <v>2630.36</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>5.26</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.32033426183843</v>
+        <v>15.32033426</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>3</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.96100278551529</v>
+        <v>45.96100278</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1.1</v>
@@ -767,25 +767,25 @@
         <v>346.5</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>0.06</v>
+        <v>172.5893015</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>1.75</v>
+        <v>6339.01</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>1.94</v>
+        <v>2.27</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>348.44</v>
+        <v>348.77</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>116.15</v>
+        <v>116.26</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>833.92</v>
+        <v>834.72</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.86350974930361</v>
+        <v>10.86350975</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.72701949860723</v>
+        <v>21.7270195</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5</v>
@@ -853,25 +853,25 @@
         <v>163.8</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>164.68</v>
+        <v>164.83</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82.34</v>
+        <v>82.42</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>591.21</v>
+        <v>591.74</v>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.86350974930361</v>
+        <v>10.86350975</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.86350974930361</v>
+        <v>10.86350975</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0.2</v>
@@ -939,25 +939,25 @@
         <v>81.90000000000001</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P5" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>82.26000000000001</v>
+        <v>82.31</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82.26000000000001</v>
+        <v>82.31</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>590.64</v>
+        <v>591</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15.32033426183843</v>
+        <v>15.32033426</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>3</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>45.96100278551529</v>
+        <v>45.96100278</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>1.55</v>
@@ -1025,25 +1025,25 @@
         <v>346.5</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06</v>
+        <v>172.5893015</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>2.46</v>
+        <v>6339.01</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>349.15</v>
+        <v>349.7</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>116.38</v>
+        <v>116.57</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835.63</v>
+        <v>836.9400000000001</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.147632311977714</v>
+        <v>3.14763231</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>100</v>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>314.7632311977713</v>
+        <v>314.763231</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>2</v>
@@ -1111,25 +1111,25 @@
         <v>2373</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>3.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>4.48</v>
+        <v>4.13</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>2377.48</v>
+        <v>2377.13</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>23.77</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170.7</v>
+        <v>170.68</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.1114206128133704</v>
+        <v>0.11142061</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>137</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>15.26462395543174</v>
+        <v>15.26462357</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>2.1</v>
@@ -1203,25 +1203,25 @@
         <v>115.08</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>3.33</v>
+        <v>6339.01</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>118.48</v>
+        <v>119.41</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6.21</v>
+        <v>6.26</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>158.7743732590528</v>
+        <v>158.77437326</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>158.7743732590528</v>
+        <v>158.77437326</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>3</v>
@@ -1290,25 +1290,25 @@
         <v>1197</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.66</v>
+        <v>172.5893015</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>4.76</v>
+        <v>6339.01</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>5.42</v>
+        <v>6.19</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>1202.42</v>
+        <v>1203.19</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1202.42</v>
+        <v>1203.19</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8633.370000000001</v>
+        <v>8638.889999999999</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5</v>
@@ -1376,25 +1376,25 @@
         <v>241.5</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>8.07</v>
+        <v>10.31</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>249.57</v>
+        <v>251.81</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249.57</v>
+        <v>251.81</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1791.89</v>
+        <v>1808.02</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>25.7660167130919</v>
+        <v>25.76601671</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>77.29805013927572</v>
+        <v>77.29805012999999</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
@@ -1462,25 +1462,25 @@
         <v>582.75</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.11</v>
+        <v>172.5893015</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P11" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>8.25</v>
+        <v>10.31</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>591</v>
+        <v>593.0599999999999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>197</v>
+        <v>197.69</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1414.47</v>
+        <v>1419.4</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n">
-        <v>48.74651810584955</v>
+        <v>48.74651811</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>5</v>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>243.7325905292477</v>
+        <v>243.73259055</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>1.23</v>
@@ -1544,25 +1544,25 @@
         <v>1837.5</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2</v>
+        <v>172.5893015</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>1.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P12" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>1840.46</v>
+        <v>1840.04</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>368.09</v>
+        <v>368.01</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2642.9</v>
+        <v>2642.29</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>30</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>20.89136490250695</v>
+        <v>20.8913649</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.15</v>
@@ -1630,19 +1630,19 @@
         <v>157.5</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O13" s="5" t="n">
-        <v>0.24</v>
+        <v>6339.01</v>
       </c>
       <c r="P13" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>157.82</v>
+        <v>157.81</v>
       </c>
       <c r="S13" s="5" t="n">
         <v>5.26</v>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>500</v>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>348.1894150417825</v>
+        <v>348.189415</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>2.5</v>
@@ -1718,19 +1718,19 @@
         <v>2625</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O14" s="5" t="n">
-        <v>3.97</v>
+        <v>6339.01</v>
       </c>
       <c r="P14" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>5.41</v>
+        <v>5.16</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>2630.41</v>
+        <v>2630.16</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>5.26</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>400</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>278.551532033426</v>
+        <v>278.551532</v>
       </c>
       <c r="I15" s="5" t="n">
         <v>2</v>
@@ -1804,19 +1804,19 @@
         <v>2100</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>3.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>4.33</v>
+        <v>4.13</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>2104.33</v>
+        <v>2104.13</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>5.26</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>40</v>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>27.8551532033426</v>
+        <v>27.8551532</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2</v>
@@ -1890,19 +1890,19 @@
         <v>210</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>210.43</v>
+        <v>210.41</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>5.26</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.417827298050139</v>
+        <v>0.4178273</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>40</v>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>16.71309192200556</v>
+        <v>16.713092</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0.2</v>
@@ -1976,19 +1976,19 @@
         <v>126</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>126.39</v>
+        <v>126.41</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>3.16</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.1671309192200556</v>
+        <v>0.16713092</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>140</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>23.39832869080778</v>
+        <v>23.3983288</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>0.7</v>
@@ -2062,25 +2062,25 @@
         <v>176.4</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>1.11</v>
+        <v>6339.01</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>177.61</v>
+        <v>177.84</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>1.27</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9.109999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0.1378830083565458</v>
+        <v>0.13788301</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>250</v>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>34.47075208913646</v>
+        <v>34.4707525</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>1.25</v>
@@ -2148,25 +2148,25 @@
         <v>259.88</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>1.98</v>
+        <v>6339.01</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>2.13</v>
+        <v>2.58</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>262</v>
+        <v>262.45</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>1.05</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7.52</v>
+        <v>7.54</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>388</v>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>71.33147632311972</v>
+        <v>71.33147588</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>3.49</v>
@@ -2234,25 +2234,25 @@
         <v>537.77</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>5.54</v>
+        <v>6339.01</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>5.83</v>
+        <v>7.2</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>543.6</v>
+        <v>544.97</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>457</v>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>84.01671309192194</v>
+        <v>84.01671257</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>4.11</v>
@@ -2320,25 +2320,25 @@
         <v>633.4</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>6.52</v>
+        <v>6339.01</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>6.87</v>
+        <v>8.48</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>640.27</v>
+        <v>641.88</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>458</v>
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>84.200557103064</v>
+        <v>84.20055658</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.12</v>
@@ -2406,25 +2406,25 @@
         <v>634.79</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>6.54</v>
+        <v>6339.01</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>6.89</v>
+        <v>8.5</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>641.67</v>
+        <v>643.29</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="E23" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>287</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>52.76323119777155</v>
+        <v>52.76323087</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>2.58</v>
@@ -2492,25 +2492,25 @@
         <v>397.78</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>4.09</v>
+        <v>6339.01</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>4.31</v>
+        <v>5.32</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>402.09</v>
+        <v>403.1</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="E24" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>40</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>7.353760445682446</v>
+        <v>7.3537604</v>
       </c>
       <c r="I24" s="5" t="n">
         <v>0.36</v>
@@ -2578,25 +2578,25 @@
         <v>55.44</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>0.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>56.04</v>
+        <v>56.18</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="E25" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>60</v>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>11.03064066852367</v>
+        <v>11.0306406</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.54</v>
@@ -2664,25 +2664,25 @@
         <v>83.16</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>0.86</v>
+        <v>6339.01</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>0.9</v>
+        <v>1.11</v>
       </c>
       <c r="R25" s="5" t="n">
-        <v>84.06</v>
+        <v>84.27</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E26" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>50</v>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>9.192200557103057</v>
+        <v>9.1922005</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>0.45</v>
@@ -2750,25 +2750,25 @@
         <v>69.3</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>0.71</v>
+        <v>6339.01</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="R26" s="5" t="n">
-        <v>70.05</v>
+        <v>70.23</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>50</v>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>9.192200557103057</v>
+        <v>9.1922005</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>0.45</v>
@@ -2836,25 +2836,25 @@
         <v>69.3</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O27" s="5" t="n">
-        <v>0.71</v>
+        <v>6339.01</v>
       </c>
       <c r="P27" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" s="5" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="R27" s="5" t="n">
-        <v>70.05</v>
+        <v>70.23</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>0.1838440111420611</v>
+        <v>0.18384401</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>110</v>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>20.22284122562673</v>
+        <v>20.2228411</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.99</v>
@@ -2922,25 +2922,25 @@
         <v>152.46</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O28" s="5" t="n">
-        <v>1.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P28" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" s="5" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="R28" s="5" t="n">
-        <v>154.11</v>
+        <v>154.5</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>1.4</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>2.061281337047352</v>
+        <v>2.06128134</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>2040</v>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>4205.013927576599</v>
+        <v>4205.0139336</v>
       </c>
       <c r="I29" s="5" t="n">
         <v>1200</v>
@@ -3008,25 +3008,25 @@
         <v>31701.6</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O29" s="5" t="n">
-        <v>1904.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P29" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" s="5" t="n">
-        <v>1921.57</v>
+        <v>2475.38</v>
       </c>
       <c r="R29" s="5" t="n">
-        <v>33623.17</v>
+        <v>34176.98</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16.48</v>
+        <v>16.75</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>118.34</v>
+        <v>120.29</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>1.016713091922005</v>
+        <v>1.01671309</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>2800</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>2846.796657381614</v>
+        <v>2846.796652</v>
       </c>
       <c r="I30" s="5" t="n">
         <v>866</v>
@@ -3094,25 +3094,25 @@
         <v>21462</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O30" s="5" t="n">
-        <v>1374.15</v>
+        <v>6339.01</v>
       </c>
       <c r="P30" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" s="5" t="n">
-        <v>1385.96</v>
+        <v>1786.4</v>
       </c>
       <c r="R30" s="5" t="n">
-        <v>22847.96</v>
+        <v>23248.4</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8.16</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>58.59</v>
+        <v>59.62</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>80.77994428969353</v>
+        <v>80.77994429</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>2</v>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>161.5598885793871</v>
+        <v>161.55988858</v>
       </c>
       <c r="I31" s="5" t="n">
         <v>0.3</v>
@@ -3181,25 +3181,25 @@
         <v>1218</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>0.33</v>
+        <v>172.5893015</v>
       </c>
       <c r="O31" s="5" t="n">
-        <v>0.48</v>
+        <v>6339.01</v>
       </c>
       <c r="P31" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q31" s="5" t="n">
-        <v>1.15</v>
+        <v>0.62</v>
       </c>
       <c r="R31" s="5" t="n">
-        <v>1219.15</v>
+        <v>1218.62</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>609.5700000000001</v>
+        <v>609.3099999999999</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4376.73</v>
+        <v>4374.84</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="E32" s="4" t="n">
-        <v>11.14206128133704</v>
+        <v>11.14206128</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>5</v>
@@ -3249,7 +3249,7 @@
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>55.71030640668519</v>
+        <v>55.7103064</v>
       </c>
       <c r="I32" s="5" t="n">
         <v>0.6</v>
@@ -3267,25 +3267,25 @@
         <v>420</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O32" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P32" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" s="5" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="R32" s="5" t="n">
-        <v>421.18</v>
+        <v>421.24</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>84.23999999999999</v>
+        <v>84.25</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>604.8200000000001</v>
+        <v>604.9</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="E33" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>125.3481894150417</v>
+        <v>125.34818942</v>
       </c>
       <c r="I33" s="5" t="n">
         <v>0.05</v>
@@ -3353,25 +3353,25 @@
         <v>945</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>0.26</v>
+        <v>172.5893015</v>
       </c>
       <c r="O33" s="5" t="n">
-        <v>0.08</v>
+        <v>6339.01</v>
       </c>
       <c r="P33" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" s="5" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="R33" s="5" t="n">
-        <v>945.6</v>
+        <v>945.1</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>472.8</v>
+        <v>472.55</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3394.7</v>
+        <v>3392.92</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="E34" s="4" t="n">
-        <v>161.5598885793871</v>
+        <v>161.55988858</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>484.6796657381612</v>
+        <v>484.67966574</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>34</v>
@@ -3443,25 +3443,25 @@
         <v>3654</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>0.67</v>
+        <v>172.5893015</v>
       </c>
       <c r="O34" s="5" t="n">
-        <v>53.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P34" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" s="5" t="n">
-        <v>55.96</v>
+        <v>70.14</v>
       </c>
       <c r="R34" s="5" t="n">
-        <v>3709.96</v>
+        <v>3724.14</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1236.65</v>
+        <v>1241.38</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8879.17</v>
+        <v>8913.1</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="E35" s="4" t="n">
-        <v>181.0584958217269</v>
+        <v>181.05849582</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>12</v>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>2172.701949860723</v>
+        <v>2172.70194984</v>
       </c>
       <c r="I35" s="5" t="n">
         <v>34</v>
@@ -3533,25 +3533,25 @@
         <v>16380</v>
       </c>
       <c r="N35" s="5" t="n">
-        <v>0.75</v>
+        <v>172.5893015</v>
       </c>
       <c r="O35" s="5" t="n">
-        <v>53.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P35" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" s="5" t="n">
-        <v>62.96</v>
+        <v>70.14</v>
       </c>
       <c r="R35" s="5" t="n">
-        <v>16442.96</v>
+        <v>16450.14</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1370.25</v>
+        <v>1370.84</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9838.370000000001</v>
+        <v>9842.66</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="E36" s="4" t="n">
-        <v>41.78272980501389</v>
+        <v>41.78272981</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>9</v>
@@ -3604,7 +3604,7 @@
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>376.044568245125</v>
+        <v>376.04456829</v>
       </c>
       <c r="I36" s="5" t="n">
         <v>205</v>
@@ -3622,25 +3622,25 @@
         <v>2835</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>0.17</v>
+        <v>172.5893015</v>
       </c>
       <c r="O36" s="5" t="n">
-        <v>325.29</v>
+        <v>6339.01</v>
       </c>
       <c r="P36" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" s="5" t="n">
-        <v>326.85</v>
+        <v>422.88</v>
       </c>
       <c r="R36" s="5" t="n">
-        <v>3161.85</v>
+        <v>3257.88</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>351.32</v>
+        <v>361.99</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2522.45</v>
+        <v>2599.06</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="E37" s="4" t="n">
-        <v>473.5376044568242</v>
+        <v>473.53760446</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>10</v>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>4735.376044568242</v>
+        <v>4735.3760446</v>
       </c>
       <c r="I37" s="5" t="n">
         <v>270</v>
@@ -3708,25 +3708,25 @@
         <v>35700</v>
       </c>
       <c r="N37" s="5" t="n">
-        <v>1.96</v>
+        <v>172.5893015</v>
       </c>
       <c r="O37" s="5" t="n">
-        <v>428.43</v>
+        <v>6339.01</v>
       </c>
       <c r="P37" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q37" s="5" t="n">
-        <v>448.07</v>
+        <v>556.96</v>
       </c>
       <c r="R37" s="5" t="n">
-        <v>36148.07</v>
+        <v>36256.96</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3614.81</v>
+        <v>3625.7</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>25954.31</v>
+        <v>26032.5</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="E38" s="4" t="n">
-        <v>717.2701949860718</v>
+        <v>717.27019499</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>10</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>7172.701949860719</v>
+        <v>7172.7019499</v>
       </c>
       <c r="I38" s="5" t="n">
         <v>440</v>
@@ -3794,25 +3794,25 @@
         <v>54075</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>2.97</v>
+        <v>172.5893015</v>
       </c>
       <c r="O38" s="5" t="n">
-        <v>698.1799999999999</v>
+        <v>6339.01</v>
       </c>
       <c r="P38" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q38" s="5" t="n">
-        <v>727.92</v>
+        <v>907.64</v>
       </c>
       <c r="R38" s="5" t="n">
-        <v>54802.92</v>
+        <v>54982.64</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5480.29</v>
+        <v>5498.26</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>39348.5</v>
+        <v>39477.53</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="E39" s="4" t="n">
-        <v>130.2228412256266</v>
+        <v>130.22284123</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>1</v>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>130.2228412256266</v>
+        <v>130.22284123</v>
       </c>
       <c r="I39" s="5" t="n">
         <v>15</v>
@@ -3880,25 +3880,25 @@
         <v>981.75</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>0.54</v>
+        <v>172.5893015</v>
       </c>
       <c r="O39" s="5" t="n">
-        <v>23.8</v>
+        <v>6339.01</v>
       </c>
       <c r="P39" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q39" s="5" t="n">
-        <v>24.34</v>
+        <v>30.94</v>
       </c>
       <c r="R39" s="5" t="n">
-        <v>1006.09</v>
+        <v>1012.69</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1006.09</v>
+        <v>1012.69</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7223.74</v>
+        <v>7271.13</v>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="E40" s="4" t="n">
-        <v>3.064066852367686</v>
+        <v>3.06406685</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>10</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.6406685</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.09</v>
@@ -3966,25 +3966,25 @@
         <v>231</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O40" s="5" t="n">
-        <v>0.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P40" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q40" s="5" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="R40" s="5" t="n">
-        <v>231.27</v>
+        <v>231.19</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>23.13</v>
+        <v>23.12</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>166.05</v>
+        <v>165.99</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>48.74651810584955</v>
+        <v>48.74651811</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>5</v>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>243.7325905292477</v>
+        <v>243.73259055</v>
       </c>
       <c r="I41" s="5" t="n">
         <v>0.04</v>
@@ -4054,25 +4054,25 @@
         <v>1837.5</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>0.2</v>
+        <v>172.5893015</v>
       </c>
       <c r="O41" s="5" t="n">
-        <v>0.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P41" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q41" s="5" t="n">
-        <v>1.07</v>
+        <v>0.08</v>
       </c>
       <c r="R41" s="5" t="n">
-        <v>1838.57</v>
+        <v>1837.58</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>367.71</v>
+        <v>367.52</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2640.19</v>
+        <v>2638.77</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.114206128133704</v>
+        <v>1.11420613</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>500</v>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>557.103064066852</v>
+        <v>557.103065</v>
       </c>
       <c r="I42" s="5" t="n">
         <v>4.5</v>
@@ -4140,19 +4140,19 @@
         <v>4200</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O42" s="5" t="n">
-        <v>7.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P42" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q42" s="5" t="n">
-        <v>9.449999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="R42" s="5" t="n">
-        <v>4209.45</v>
+        <v>4209.28</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>8.42</v>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n">
-        <v>15.32033426183843</v>
+        <v>15.32033426</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>4</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I43" s="5" t="n">
         <v>0.04</v>
@@ -4222,25 +4222,25 @@
         <v>462</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>0.06</v>
+        <v>172.5893015</v>
       </c>
       <c r="O43" s="5" t="n">
-        <v>0.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P43" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q43" s="5" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="R43" s="5" t="n">
-        <v>462.32</v>
+        <v>462.08</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>115.58</v>
+        <v>115.52</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>829.86</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n">
-        <v>25.96796657381613</v>
+        <v>25.96796657</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>5</v>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>129.8398328690807</v>
+        <v>129.83983285</v>
       </c>
       <c r="I44" s="5" t="n">
         <v>0.04</v>
@@ -4304,25 +4304,25 @@
         <v>978.86</v>
       </c>
       <c r="N44" s="5" t="n">
-        <v>0.11</v>
+        <v>172.5893015</v>
       </c>
       <c r="O44" s="5" t="n">
-        <v>0.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P44" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" s="5" t="n">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="R44" s="5" t="n">
-        <v>979.46</v>
+        <v>978.95</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>195.89</v>
+        <v>195.79</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1406.51</v>
+        <v>1405.77</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="E45" s="4" t="n">
-        <v>689.4150417827293</v>
+        <v>689.41504178</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>2</v>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1378.830083565459</v>
+        <v>1378.83008356</v>
       </c>
       <c r="I45" s="5" t="n">
         <v>0.02</v>
@@ -4390,25 +4390,25 @@
         <v>10395</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>2.86</v>
+        <v>172.5893015</v>
       </c>
       <c r="O45" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P45" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q45" s="5" t="n">
-        <v>5.75</v>
+        <v>0.04</v>
       </c>
       <c r="R45" s="5" t="n">
-        <v>10400.75</v>
+        <v>10395.04</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>5200.37</v>
+        <v>5197.52</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>37338.69</v>
+        <v>37318.2</v>
       </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.9052924791086344</v>
+        <v>0.90529248</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>10</v>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>9.052924791086344</v>
+        <v>9.0529248</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.09</v>
@@ -4476,25 +4476,25 @@
         <v>68.25</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O46" s="5" t="n">
-        <v>0.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P46" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R46" s="5" t="n">
-        <v>68.43000000000001</v>
+        <v>68.44</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>6.84</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.9052924791086344</v>
+        <v>0.90529248</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>10</v>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>9.052924791086344</v>
+        <v>9.0529248</v>
       </c>
       <c r="I47" s="5" t="n">
         <v>0.09</v>
@@ -4562,25 +4562,25 @@
         <v>68.25</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O47" s="5" t="n">
-        <v>0.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P47" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q47" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R47" s="5" t="n">
-        <v>68.43000000000001</v>
+        <v>68.44</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>6.84</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="E48" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I48" s="5" t="n">
         <v>0.02</v>
@@ -4648,25 +4648,25 @@
         <v>462</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O48" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P48" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q48" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R48" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="E49" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I49" s="5" t="n">
         <v>0.02</v>
@@ -4734,25 +4734,25 @@
         <v>462</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O49" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P49" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q49" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R49" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="E50" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>2</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I50" s="5" t="n">
         <v>0.02</v>
@@ -4820,25 +4820,25 @@
         <v>462</v>
       </c>
       <c r="N50" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O50" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P50" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q50" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R50" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="E51" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>2</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I51" s="5" t="n">
         <v>0.02</v>
@@ -4906,25 +4906,25 @@
         <v>462</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O51" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P51" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q51" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R51" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="E52" s="4" t="n">
-        <v>45.68245125348186</v>
+        <v>45.68245125</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2</v>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>91.36490250696372</v>
+        <v>91.3649025</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>4.2</v>
@@ -4992,25 +4992,25 @@
         <v>688.8</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>0.19</v>
+        <v>172.5893015</v>
       </c>
       <c r="O52" s="5" t="n">
-        <v>6.66</v>
+        <v>6339.01</v>
       </c>
       <c r="P52" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" s="5" t="n">
-        <v>7.04</v>
+        <v>8.66</v>
       </c>
       <c r="R52" s="5" t="n">
-        <v>695.84</v>
+        <v>697.46</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>347.92</v>
+        <v>348.73</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2498.08</v>
+        <v>2503.9</v>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         </is>
       </c>
       <c r="E53" s="4" t="n">
-        <v>45.68245125348186</v>
+        <v>45.68245125</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>2</v>
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>91.36490250696372</v>
+        <v>91.3649025</v>
       </c>
       <c r="I53" s="5" t="n">
         <v>4</v>
@@ -5078,25 +5078,25 @@
         <v>688.8</v>
       </c>
       <c r="N53" s="5" t="n">
-        <v>0.19</v>
+        <v>172.5893015</v>
       </c>
       <c r="O53" s="5" t="n">
-        <v>6.35</v>
+        <v>6339.01</v>
       </c>
       <c r="P53" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q53" s="5" t="n">
-        <v>6.73</v>
+        <v>8.25</v>
       </c>
       <c r="R53" s="5" t="n">
-        <v>695.53</v>
+        <v>697.05</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>347.76</v>
+        <v>348.53</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2496.94</v>
+        <v>2502.41</v>
       </c>
       <c r="U53" s="4" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="E54" s="4" t="n">
-        <v>72.42339832869075</v>
+        <v>72.42339833</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>3</v>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>217.2701949860723</v>
+        <v>217.27019499</v>
       </c>
       <c r="I54" s="5" t="n">
         <v>2.88</v>
@@ -5164,25 +5164,25 @@
         <v>1638</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>0.3</v>
+        <v>172.5893015</v>
       </c>
       <c r="O54" s="5" t="n">
-        <v>4.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P54" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q54" s="5" t="n">
-        <v>5.47</v>
+        <v>5.94</v>
       </c>
       <c r="R54" s="5" t="n">
-        <v>1643.47</v>
+        <v>1643.94</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>547.8200000000001</v>
+        <v>547.98</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3933.37</v>
+        <v>3934.5</v>
       </c>
       <c r="U54" s="4" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E55" s="4" t="n">
-        <v>22.03342618384399</v>
+        <v>22.03342618</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>4</v>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>88.13370473537597</v>
+        <v>88.13370472</v>
       </c>
       <c r="I55" s="5" t="n">
         <v>3.5</v>
@@ -5250,25 +5250,25 @@
         <v>664.4400000000001</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>0.09</v>
+        <v>172.5893015</v>
       </c>
       <c r="O55" s="5" t="n">
-        <v>5.55</v>
+        <v>6339.01</v>
       </c>
       <c r="P55" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q55" s="5" t="n">
-        <v>5.92</v>
+        <v>7.22</v>
       </c>
       <c r="R55" s="5" t="n">
-        <v>670.36</v>
+        <v>671.66</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>167.59</v>
+        <v>167.91</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1203.29</v>
+        <v>1205.63</v>
       </c>
       <c r="U55" s="4" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="E56" s="4" t="n">
-        <v>181.0584958217269</v>
+        <v>181.05849582</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>2</v>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>362.1169916434538</v>
+        <v>362.11699164</v>
       </c>
       <c r="I56" s="5" t="n">
         <v>2.5</v>
@@ -5336,25 +5336,25 @@
         <v>2730</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>0.75</v>
+        <v>172.5893015</v>
       </c>
       <c r="O56" s="5" t="n">
-        <v>3.97</v>
+        <v>6339.01</v>
       </c>
       <c r="P56" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q56" s="5" t="n">
-        <v>5.47</v>
+        <v>5.16</v>
       </c>
       <c r="R56" s="5" t="n">
-        <v>2735.47</v>
+        <v>2735.16</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1367.73</v>
+        <v>1367.58</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>9820.33</v>
+        <v>9819.209999999999</v>
       </c>
       <c r="U56" s="4" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="E57" s="4" t="n">
-        <v>192.2005571030639</v>
+        <v>192.2005571</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>192.2005571030639</v>
+        <v>192.2005571</v>
       </c>
       <c r="I57" s="5" t="n">
         <v>1.2</v>
@@ -5422,25 +5422,25 @@
         <v>1449</v>
       </c>
       <c r="N57" s="5" t="n">
-        <v>0.8</v>
+        <v>172.5893015</v>
       </c>
       <c r="O57" s="5" t="n">
-        <v>1.9</v>
+        <v>6339.01</v>
       </c>
       <c r="P57" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q57" s="5" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="R57" s="5" t="n">
-        <v>1451.7</v>
+        <v>1451.48</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>1451.7</v>
+        <v>1451.48</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>10423.21</v>
+        <v>10421.59</v>
       </c>
       <c r="U57" s="4" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="E58" s="4" t="n">
-        <v>2.097493036211698</v>
+        <v>2.09749304</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>45</v>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>94.3871866295264</v>
+        <v>94.38718679999999</v>
       </c>
       <c r="I58" s="5" t="n">
         <v>2.12</v>
@@ -5508,25 +5508,25 @@
         <v>711.58</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O58" s="5" t="n">
-        <v>3.36</v>
+        <v>6339.01</v>
       </c>
       <c r="P58" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q58" s="5" t="n">
-        <v>3.76</v>
+        <v>4.37</v>
       </c>
       <c r="R58" s="5" t="n">
-        <v>715.34</v>
+        <v>715.96</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>15.9</v>
+        <v>15.91</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>114.14</v>
+        <v>114.24</v>
       </c>
       <c r="U58" s="4" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="E59" s="4" t="n">
-        <v>0.4874651810584955</v>
+        <v>0.48746518</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>25</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>12.18662952646239</v>
+        <v>12.1866295</v>
       </c>
       <c r="I59" s="5" t="n">
         <v>0.1</v>
@@ -5594,13 +5594,13 @@
         <v>91.88</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O59" s="5" t="n">
-        <v>0.16</v>
+        <v>6339.01</v>
       </c>
       <c r="P59" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>0.21</v>
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="E60" s="4" t="n">
-        <v>2.03342618384401</v>
+        <v>2.03342618</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>5</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>10.16713091922005</v>
+        <v>10.1671309</v>
       </c>
       <c r="I60" s="5" t="n">
         <v>0.2</v>
@@ -5680,25 +5680,25 @@
         <v>76.65000000000001</v>
       </c>
       <c r="N60" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O60" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P60" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q60" s="5" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="R60" s="5" t="n">
-        <v>77.01000000000001</v>
+        <v>77.06</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>15.4</v>
+        <v>15.41</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>110.59</v>
+        <v>110.66</v>
       </c>
       <c r="U60" s="4" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="E61" s="4" t="n">
-        <v>1.39275766016713</v>
+        <v>1.39275766</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>2</v>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="I61" s="5" t="n">
         <v>0.2</v>
@@ -5766,25 +5766,25 @@
         <v>21</v>
       </c>
       <c r="N61" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O61" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P61" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q61" s="5" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R61" s="5" t="n">
-        <v>21.33</v>
+        <v>21.41</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>10.66</v>
+        <v>10.71</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>76.56999999999999</v>
+        <v>76.87</v>
       </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="E62" s="4" t="n">
-        <v>1.39275766016713</v>
+        <v>1.39275766</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>2</v>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="I62" s="5" t="n">
         <v>0.2</v>
@@ -5852,25 +5852,25 @@
         <v>21</v>
       </c>
       <c r="N62" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O62" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P62" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q62" s="5" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R62" s="5" t="n">
-        <v>21.33</v>
+        <v>21.41</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>10.66</v>
+        <v>10.71</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>76.56999999999999</v>
+        <v>76.87</v>
       </c>
       <c r="U62" s="4" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="E63" s="4" t="n">
-        <v>1.39275766016713</v>
+        <v>1.39275766</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>2</v>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="I63" s="5" t="n">
         <v>0.2</v>
@@ -5938,25 +5938,25 @@
         <v>21</v>
       </c>
       <c r="N63" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O63" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P63" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q63" s="5" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R63" s="5" t="n">
-        <v>21.33</v>
+        <v>21.41</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>10.66</v>
+        <v>10.71</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>76.56999999999999</v>
+        <v>76.87</v>
       </c>
       <c r="U63" s="4" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="E64" s="4" t="n">
-        <v>7.660167130919215</v>
+        <v>7.66016713</v>
       </c>
       <c r="F64" s="5" t="n">
         <v>15</v>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>114.9025069637882</v>
+        <v>114.90250695</v>
       </c>
       <c r="I64" s="5" t="n">
         <v>0.1</v>
@@ -6026,25 +6026,25 @@
         <v>866.25</v>
       </c>
       <c r="N64" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O64" s="5" t="n">
-        <v>0.16</v>
+        <v>6339.01</v>
       </c>
       <c r="P64" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q64" s="5" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="R64" s="5" t="n">
-        <v>866.89</v>
+        <v>866.46</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>57.79</v>
+        <v>57.76</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>414.95</v>
+        <v>414.74</v>
       </c>
       <c r="U64" s="4" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         </is>
       </c>
       <c r="E65" s="4" t="n">
-        <v>7.660167130919215</v>
+        <v>7.66016713</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>5</v>
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>38.30083565459607</v>
+        <v>38.30083565</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>0.2</v>
@@ -6113,25 +6113,25 @@
         <v>288.75</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O65" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P65" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q65" s="5" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="R65" s="5" t="n">
-        <v>289.23</v>
+        <v>289.16</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>57.85</v>
+        <v>57.83</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>415.33</v>
+        <v>415.24</v>
       </c>
       <c r="U65" s="4" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         </is>
       </c>
       <c r="E66" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="F66" s="5" t="n">
         <v>5</v>
@@ -6181,7 +6181,7 @@
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>13.9275766016713</v>
+        <v>13.9275766</v>
       </c>
       <c r="I66" s="5" t="n">
         <v>0.14</v>
@@ -6199,25 +6199,25 @@
         <v>105</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O66" s="5" t="n">
-        <v>0.22</v>
+        <v>6339.01</v>
       </c>
       <c r="P66" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q66" s="5" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="R66" s="5" t="n">
-        <v>105.28</v>
+        <v>105.29</v>
       </c>
       <c r="S66" s="5" t="n">
         <v>21.06</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>151.18</v>
+        <v>151.19</v>
       </c>
       <c r="U66" s="4" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="E67" s="4" t="n">
-        <v>0.0278551532033426</v>
+        <v>0.02785515</v>
       </c>
       <c r="F67" s="5" t="n">
         <v>33</v>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="H67" s="4" t="n">
-        <v>0.9192200557103059</v>
+        <v>0.91921995</v>
       </c>
       <c r="I67" s="5" t="n">
         <v>0.16</v>
@@ -6286,25 +6286,25 @@
         <v>6.93</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O67" s="5" t="n">
-        <v>0.25</v>
+        <v>6339.01</v>
       </c>
       <c r="P67" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q67" s="5" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="R67" s="5" t="n">
-        <v>7.19</v>
+        <v>7.26</v>
       </c>
       <c r="S67" s="5" t="n">
         <v>0.22</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U67" s="4" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="E68" s="4" t="n">
-        <v>0.6406685236768797</v>
+        <v>0.64066852</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>100</v>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>64.06685236768797</v>
+        <v>64.066852</v>
       </c>
       <c r="I68" s="5" t="n">
         <v>3</v>
@@ -6372,25 +6372,25 @@
         <v>483</v>
       </c>
       <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O68" s="5" t="n">
-        <v>4.76</v>
+        <v>6339.01</v>
       </c>
       <c r="P68" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q68" s="5" t="n">
-        <v>5.03</v>
+        <v>6.19</v>
       </c>
       <c r="R68" s="5" t="n">
-        <v>488.03</v>
+        <v>489.19</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>35.04</v>
+        <v>35.12</v>
       </c>
       <c r="U68" s="4" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         </is>
       </c>
       <c r="E69" s="4" t="n">
-        <v>0.3175487465181056</v>
+        <v>0.31754875</v>
       </c>
       <c r="F69" s="5" t="n">
         <v>60</v>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>19.05292479108634</v>
+        <v>19.052925</v>
       </c>
       <c r="I69" s="5" t="n">
         <v>1</v>
@@ -6458,25 +6458,25 @@
         <v>143.64</v>
       </c>
       <c r="N69" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O69" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P69" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q69" s="5" t="n">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="R69" s="5" t="n">
-        <v>145.31</v>
+        <v>145.7</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>17.39</v>
+        <v>17.44</v>
       </c>
       <c r="U69" s="4" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         </is>
       </c>
       <c r="E70" s="4" t="n">
-        <v>21.86629526462394</v>
+        <v>21.86629526</v>
       </c>
       <c r="F70" s="5" t="n">
         <v>2</v>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>43.73259052924788</v>
+        <v>43.73259052</v>
       </c>
       <c r="I70" s="5" t="n">
         <v>2.3</v>
@@ -6544,25 +6544,25 @@
         <v>329.7</v>
       </c>
       <c r="N70" s="5" t="n">
-        <v>0.09</v>
+        <v>172.5893015</v>
       </c>
       <c r="O70" s="5" t="n">
-        <v>3.65</v>
+        <v>6339.01</v>
       </c>
       <c r="P70" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q70" s="5" t="n">
-        <v>3.83</v>
+        <v>4.74</v>
       </c>
       <c r="R70" s="5" t="n">
-        <v>333.53</v>
+        <v>334.44</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>166.77</v>
+        <v>167.22</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>1197.38</v>
+        <v>1200.66</v>
       </c>
       <c r="U70" s="4" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="E71" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F71" s="5" t="n">
         <v>20</v>
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>13.9275766016713</v>
+        <v>13.9275766</v>
       </c>
       <c r="I71" s="5" t="n">
         <v>2.06</v>
@@ -6630,25 +6630,25 @@
         <v>105</v>
       </c>
       <c r="N71" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O71" s="5" t="n">
-        <v>3.27</v>
+        <v>6339.01</v>
       </c>
       <c r="P71" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q71" s="5" t="n">
-        <v>3.33</v>
+        <v>4.25</v>
       </c>
       <c r="R71" s="5" t="n">
-        <v>108.33</v>
+        <v>109.25</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>38.89</v>
+        <v>39.22</v>
       </c>
       <c r="U71" s="4" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="E72" s="4" t="n">
-        <v>4.342618384401111</v>
+        <v>4.34261838</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>2</v>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>8.685236768802222</v>
+        <v>8.68523676</v>
       </c>
       <c r="I72" s="5" t="n">
         <v>0.2</v>
@@ -6716,25 +6716,25 @@
         <v>65.48</v>
       </c>
       <c r="N72" s="5" t="n">
-        <v>0.02</v>
+        <v>172.5893015</v>
       </c>
       <c r="O72" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P72" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q72" s="5" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="R72" s="5" t="n">
-        <v>65.83</v>
+        <v>65.89</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>32.92</v>
+        <v>32.95</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>236.33</v>
+        <v>236.55</v>
       </c>
       <c r="U72" s="4" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="E73" s="4" t="n">
-        <v>35.55292479108633</v>
+        <v>35.55292479</v>
       </c>
       <c r="F73" s="5" t="n">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>35.55292479108633</v>
+        <v>35.55292479</v>
       </c>
       <c r="I73" s="5" t="n">
         <v>0.2</v>
@@ -6802,25 +6802,25 @@
         <v>268.03</v>
       </c>
       <c r="N73" s="5" t="n">
-        <v>0.15</v>
+        <v>172.5893015</v>
       </c>
       <c r="O73" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P73" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q73" s="5" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="R73" s="5" t="n">
-        <v>268.5</v>
+        <v>268.45</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>268.5</v>
+        <v>268.45</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>1927.82</v>
+        <v>1927.44</v>
       </c>
       <c r="U73" s="4" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="E74" s="4" t="n">
-        <v>2.089136490250695</v>
+        <v>2.08913649</v>
       </c>
       <c r="F74" s="5" t="n">
         <v>10</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>20.89136490250695</v>
+        <v>20.8913649</v>
       </c>
       <c r="I74" s="5" t="n">
         <v>0.5</v>
@@ -6888,25 +6888,25 @@
         <v>157.5</v>
       </c>
       <c r="N74" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O74" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P74" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q74" s="5" t="n">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="R74" s="5" t="n">
-        <v>158.38</v>
+        <v>158.53</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>15.84</v>
+        <v>15.85</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>113.72</v>
+        <v>113.83</v>
       </c>
       <c r="U74" s="4" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         </is>
       </c>
       <c r="E75" s="4" t="n">
-        <v>0.15041782729805</v>
+        <v>0.15041783</v>
       </c>
       <c r="F75" s="5" t="n">
         <v>50</v>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>7.520891364902502</v>
+        <v>7.5208915</v>
       </c>
       <c r="I75" s="5" t="n">
         <v>0.55</v>
@@ -6974,25 +6974,25 @@
         <v>56.7</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O75" s="5" t="n">
-        <v>0.87</v>
+        <v>6339.01</v>
       </c>
       <c r="P75" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q75" s="5" t="n">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="R75" s="5" t="n">
-        <v>57.6</v>
+        <v>57.83</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>8.27</v>
+        <v>8.31</v>
       </c>
       <c r="U75" s="4" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="E76" s="4" t="n">
-        <v>1.532033426183843</v>
+        <v>1.53203343</v>
       </c>
       <c r="F76" s="5" t="n">
         <v>5</v>
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>7.660167130919215</v>
+        <v>7.66016715</v>
       </c>
       <c r="I76" s="5" t="n">
         <v>0.6</v>
@@ -7064,25 +7064,25 @@
         <v>57.75</v>
       </c>
       <c r="N76" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O76" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P76" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q76" s="5" t="n">
-        <v>0.98</v>
+        <v>1.24</v>
       </c>
       <c r="R76" s="5" t="n">
-        <v>58.73</v>
+        <v>58.99</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>11.75</v>
+        <v>11.8</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>84.34</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="U76" s="4" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E77" s="4" t="n">
-        <v>0.005571030640668519</v>
+        <v>0.00557103</v>
       </c>
       <c r="F77" s="5" t="n">
         <v>410</v>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>2.284122562674093</v>
+        <v>2.2841223</v>
       </c>
       <c r="I77" s="5" t="n">
         <v>1</v>
@@ -7150,25 +7150,25 @@
         <v>17.22</v>
       </c>
       <c r="N77" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O77" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P77" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q77" s="5" t="n">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="R77" s="5" t="n">
-        <v>18.82</v>
+        <v>19.28</v>
       </c>
       <c r="S77" s="5" t="n">
         <v>0.05</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="U77" s="4" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E78" s="4" t="n">
-        <v>0.6267409470752084</v>
+        <v>0.62674095</v>
       </c>
       <c r="F78" s="5" t="n">
         <v>100</v>
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="H78" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.674095</v>
       </c>
       <c r="I78" s="5" t="n">
         <v>5</v>
@@ -7236,25 +7236,25 @@
         <v>472.5</v>
       </c>
       <c r="N78" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O78" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P78" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q78" s="5" t="n">
-        <v>8.19</v>
+        <v>10.31</v>
       </c>
       <c r="R78" s="5" t="n">
-        <v>480.69</v>
+        <v>482.81</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>34.51</v>
+        <v>34.67</v>
       </c>
       <c r="U78" s="4" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         </is>
       </c>
       <c r="E79" s="4" t="n">
-        <v>1.178272980501392</v>
+        <v>1.17827298</v>
       </c>
       <c r="F79" s="5" t="n">
         <v>90</v>
@@ -7304,7 +7304,7 @@
         </is>
       </c>
       <c r="H79" s="4" t="n">
-        <v>106.0445682451253</v>
+        <v>106.0445682</v>
       </c>
       <c r="I79" s="5" t="n">
         <v>11</v>
@@ -7322,25 +7322,25 @@
         <v>799.47</v>
       </c>
       <c r="N79" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O79" s="5" t="n">
-        <v>17.45</v>
+        <v>6339.01</v>
       </c>
       <c r="P79" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q79" s="5" t="n">
-        <v>17.89</v>
+        <v>22.69</v>
       </c>
       <c r="R79" s="5" t="n">
-        <v>817.36</v>
+        <v>822.16</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>9.08</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>65.20999999999999</v>
+        <v>65.59</v>
       </c>
       <c r="U79" s="4" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="E80" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="F80" s="5" t="n">
         <v>2</v>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="H80" s="4" t="n">
-        <v>125.3481894150417</v>
+        <v>125.34818942</v>
       </c>
       <c r="I80" s="5" t="n">
         <v>1.09</v>
@@ -7408,13 +7408,13 @@
         <v>945</v>
       </c>
       <c r="N80" s="5" t="n">
-        <v>0.26</v>
+        <v>172.5893015</v>
       </c>
       <c r="O80" s="5" t="n">
-        <v>1.73</v>
+        <v>6339.01</v>
       </c>
       <c r="P80" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>2.25</v>
@@ -7426,7 +7426,7 @@
         <v>473.62</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>3400.63</v>
+        <v>3400.62</v>
       </c>
       <c r="U80" s="4" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="E81" s="4" t="n">
-        <v>0.1155988857938718</v>
+        <v>0.11559889</v>
       </c>
       <c r="F81" s="5" t="n">
         <v>31</v>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="H81" s="4" t="n">
-        <v>3.583565459610025</v>
+        <v>3.58356559</v>
       </c>
       <c r="I81" s="5" t="n">
         <v>0.3</v>
@@ -7494,25 +7494,25 @@
         <v>27.02</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O81" s="5" t="n">
-        <v>0.48</v>
+        <v>6339.01</v>
       </c>
       <c r="P81" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q81" s="5" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="R81" s="5" t="n">
-        <v>27.51</v>
+        <v>27.64</v>
       </c>
       <c r="S81" s="5" t="n">
         <v>0.89</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>6.37</v>
+        <v>6.4</v>
       </c>
       <c r="U81" s="4" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="E82" s="4" t="n">
-        <v>0.0515320334261838</v>
+        <v>0.05153203</v>
       </c>
       <c r="F82" s="5" t="n">
         <v>100</v>
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="H82" s="4" t="n">
-        <v>5.15320334261838</v>
+        <v>5.153203</v>
       </c>
       <c r="I82" s="5" t="n">
         <v>0.1</v>
@@ -7580,19 +7580,19 @@
         <v>38.85</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O82" s="5" t="n">
-        <v>0.16</v>
+        <v>6339.01</v>
       </c>
       <c r="P82" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q82" s="5" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="R82" s="5" t="n">
-        <v>39.03</v>
+        <v>39.06</v>
       </c>
       <c r="S82" s="5" t="n">
         <v>0.39</v>
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="E83" s="4" t="n">
-        <v>1.267409470752088</v>
+        <v>1.26740947</v>
       </c>
       <c r="F83" s="5" t="n">
         <v>6</v>
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="H83" s="4" t="n">
-        <v>7.604456824512529</v>
+        <v>7.60445682</v>
       </c>
       <c r="I83" s="5" t="n">
         <v>1.6</v>
@@ -7666,25 +7666,25 @@
         <v>57.33</v>
       </c>
       <c r="N83" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O83" s="5" t="n">
-        <v>2.54</v>
+        <v>6339.01</v>
       </c>
       <c r="P83" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q83" s="5" t="n">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="R83" s="5" t="n">
-        <v>59.9</v>
+        <v>60.63</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>9.98</v>
+        <v>10.11</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>71.68000000000001</v>
+        <v>72.55</v>
       </c>
       <c r="U83" s="4" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="E84" s="4" t="n">
-        <v>100.2785515320333</v>
+        <v>100.27855153</v>
       </c>
       <c r="F84" s="5" t="n">
         <v>2</v>
@@ -7734,7 +7734,7 @@
         </is>
       </c>
       <c r="H84" s="4" t="n">
-        <v>200.5571030640667</v>
+        <v>200.55710306</v>
       </c>
       <c r="I84" s="5" t="n">
         <v>4.2</v>
@@ -7752,25 +7752,25 @@
         <v>1512</v>
       </c>
       <c r="N84" s="5" t="n">
-        <v>0.42</v>
+        <v>172.5893015</v>
       </c>
       <c r="O84" s="5" t="n">
-        <v>6.66</v>
+        <v>6339.01</v>
       </c>
       <c r="P84" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q84" s="5" t="n">
-        <v>7.5</v>
+        <v>8.66</v>
       </c>
       <c r="R84" s="5" t="n">
-        <v>1519.5</v>
+        <v>1520.66</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>759.75</v>
+        <v>760.33</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>5454.99</v>
+        <v>5459.18</v>
       </c>
       <c r="U84" s="4" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         </is>
       </c>
       <c r="E85" s="4" t="n">
-        <v>0.2924791086350973</v>
+        <v>0.29247911</v>
       </c>
       <c r="F85" s="5" t="n">
         <v>40</v>
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="H85" s="4" t="n">
-        <v>11.69916434540389</v>
+        <v>11.6991644</v>
       </c>
       <c r="I85" s="5" t="n">
         <v>1</v>
@@ -7838,25 +7838,25 @@
         <v>88.2</v>
       </c>
       <c r="N85" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O85" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P85" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q85" s="5" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="R85" s="5" t="n">
-        <v>89.84</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>16.13</v>
+        <v>16.2</v>
       </c>
       <c r="U85" s="4" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="E86" s="4" t="n">
-        <v>20.19498607242338</v>
+        <v>20.19498607</v>
       </c>
       <c r="F86" s="5" t="n">
         <v>2</v>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="H86" s="4" t="n">
-        <v>40.38997214484677</v>
+        <v>40.38997214</v>
       </c>
       <c r="I86" s="5" t="n">
         <v>0.8</v>
@@ -7924,25 +7924,25 @@
         <v>304.5</v>
       </c>
       <c r="N86" s="5" t="n">
-        <v>0.08</v>
+        <v>172.5893015</v>
       </c>
       <c r="O86" s="5" t="n">
-        <v>1.27</v>
+        <v>6339.01</v>
       </c>
       <c r="P86" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q86" s="5" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="R86" s="5" t="n">
-        <v>305.94</v>
+        <v>306.15</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>152.97</v>
+        <v>153.08</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>1098.31</v>
+        <v>1099.08</v>
       </c>
       <c r="U86" s="4" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="E87" s="4" t="n">
-        <v>2.325905292479107</v>
+        <v>2.32590529</v>
       </c>
       <c r="F87" s="5" t="n">
         <v>50</v>
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="H87" s="4" t="n">
-        <v>116.2952646239553</v>
+        <v>116.2952645</v>
       </c>
       <c r="I87" s="5" t="n">
         <v>5</v>
@@ -8010,25 +8010,25 @@
         <v>876.75</v>
       </c>
       <c r="N87" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O87" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P87" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q87" s="5" t="n">
-        <v>8.42</v>
+        <v>10.31</v>
       </c>
       <c r="R87" s="5" t="n">
-        <v>885.17</v>
+        <v>887.0599999999999</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>17.7</v>
+        <v>17.74</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>127.11</v>
+        <v>127.38</v>
       </c>
       <c r="U87" s="4" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="E88" s="4" t="n">
-        <v>1.378830083565459</v>
+        <v>1.37883008</v>
       </c>
       <c r="F88" s="5" t="n">
         <v>100</v>
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="H88" s="4" t="n">
-        <v>137.8830083565458</v>
+        <v>137.883008</v>
       </c>
       <c r="I88" s="5" t="n">
         <v>5.2</v>
@@ -8096,25 +8096,25 @@
         <v>1039.5</v>
       </c>
       <c r="N88" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O88" s="5" t="n">
-        <v>8.25</v>
+        <v>6339.01</v>
       </c>
       <c r="P88" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q88" s="5" t="n">
-        <v>8.82</v>
+        <v>10.73</v>
       </c>
       <c r="R88" s="5" t="n">
-        <v>1048.32</v>
+        <v>1050.23</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>10.48</v>
+        <v>10.5</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>75.27</v>
+        <v>75.41</v>
       </c>
       <c r="U88" s="4" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="E89" s="4" t="n">
-        <v>7.785515320334256</v>
+        <v>7.78551532</v>
       </c>
       <c r="F89" s="5" t="n">
         <v>2</v>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="H89" s="4" t="n">
-        <v>15.57103064066851</v>
+        <v>15.57103064</v>
       </c>
       <c r="I89" s="5" t="n">
         <v>5.8</v>
@@ -8182,25 +8182,25 @@
         <v>117.39</v>
       </c>
       <c r="N89" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O89" s="5" t="n">
-        <v>9.199999999999999</v>
+        <v>6339.01</v>
       </c>
       <c r="P89" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q89" s="5" t="n">
-        <v>9.27</v>
+        <v>11.96</v>
       </c>
       <c r="R89" s="5" t="n">
-        <v>126.66</v>
+        <v>129.35</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>63.33</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>454.7</v>
+        <v>464.38</v>
       </c>
       <c r="U89" s="4" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="E90" s="4" t="n">
-        <v>1.378830083565459</v>
+        <v>1.37883008</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>93</v>
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="H90" s="4" t="n">
-        <v>128.2311977715877</v>
+        <v>128.23119744</v>
       </c>
       <c r="I90" s="5" t="n">
         <v>5.2</v>
@@ -8268,25 +8268,25 @@
         <v>966.74</v>
       </c>
       <c r="N90" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O90" s="5" t="n">
-        <v>8.25</v>
+        <v>6339.01</v>
       </c>
       <c r="P90" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q90" s="5" t="n">
-        <v>8.779999999999999</v>
+        <v>10.73</v>
       </c>
       <c r="R90" s="5" t="n">
-        <v>975.52</v>
+        <v>977.46</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>75.31</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="U90" s="4" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="E91" s="4" t="n">
-        <v>0.1894150417827297</v>
+        <v>0.18941504</v>
       </c>
       <c r="F91" s="5" t="n">
         <v>42</v>
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="H91" s="4" t="n">
-        <v>7.955431754874646</v>
+        <v>7.95543168</v>
       </c>
       <c r="I91" s="5" t="n">
         <v>5.8</v>
@@ -8354,25 +8354,25 @@
         <v>59.98</v>
       </c>
       <c r="N91" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O91" s="5" t="n">
-        <v>9.199999999999999</v>
+        <v>6339.01</v>
       </c>
       <c r="P91" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q91" s="5" t="n">
-        <v>9.24</v>
+        <v>11.96</v>
       </c>
       <c r="R91" s="5" t="n">
-        <v>69.20999999999999</v>
+        <v>71.94</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>11.83</v>
+        <v>12.3</v>
       </c>
       <c r="U91" s="4" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="E92" s="4" t="n">
-        <v>215.8774373259051</v>
+        <v>215.87743733</v>
       </c>
       <c r="F92" s="5" t="n">
         <v>9</v>
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="H92" s="4" t="n">
-        <v>1942.896935933146</v>
+        <v>1942.89693597</v>
       </c>
       <c r="I92" s="5" t="n">
         <v>11</v>
@@ -8440,25 +8440,25 @@
         <v>14647.5</v>
       </c>
       <c r="N92" s="5" t="n">
-        <v>0.9</v>
+        <v>172.5893015</v>
       </c>
       <c r="O92" s="5" t="n">
-        <v>17.45</v>
+        <v>6339.01</v>
       </c>
       <c r="P92" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q92" s="5" t="n">
-        <v>25.51</v>
+        <v>22.69</v>
       </c>
       <c r="R92" s="5" t="n">
-        <v>14673.01</v>
+        <v>14670.19</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>1630.33</v>
+        <v>1630.02</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>11705.8</v>
+        <v>11703.55</v>
       </c>
       <c r="U92" s="4" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="E93" s="4" t="n">
-        <v>27.8551532033426</v>
+        <v>27.8551532</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>12</v>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="H93" s="4" t="n">
-        <v>334.2618384401111</v>
+        <v>334.2618384</v>
       </c>
       <c r="I93" s="5" t="n">
         <v>2.98</v>
@@ -8526,25 +8526,25 @@
         <v>2520</v>
       </c>
       <c r="N93" s="5" t="n">
-        <v>0.12</v>
+        <v>172.5893015</v>
       </c>
       <c r="O93" s="5" t="n">
-        <v>4.73</v>
+        <v>6339.01</v>
       </c>
       <c r="P93" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q93" s="5" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="R93" s="5" t="n">
-        <v>2526.11</v>
+        <v>2526.15</v>
       </c>
       <c r="S93" s="5" t="n">
         <v>210.51</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>1511.46</v>
+        <v>1511.48</v>
       </c>
       <c r="U93" s="4" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         </is>
       </c>
       <c r="E94" s="4" t="n">
-        <v>36.21169916434538</v>
+        <v>36.21169916</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>2</v>
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="H94" s="4" t="n">
-        <v>72.42339832869075</v>
+        <v>72.42339832</v>
       </c>
       <c r="I94" s="5" t="n">
         <v>5</v>
@@ -8612,25 +8612,25 @@
         <v>546</v>
       </c>
       <c r="N94" s="5" t="n">
-        <v>0.15</v>
+        <v>172.5893015</v>
       </c>
       <c r="O94" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P94" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q94" s="5" t="n">
-        <v>8.23</v>
+        <v>10.31</v>
       </c>
       <c r="R94" s="5" t="n">
-        <v>554.23</v>
+        <v>556.3099999999999</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>277.12</v>
+        <v>278.16</v>
       </c>
       <c r="T94" s="5" t="n">
-        <v>1989.7</v>
+        <v>1997.17</v>
       </c>
       <c r="U94" s="4" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="E95" s="4" t="n">
-        <v>3.621169916434538</v>
+        <v>3.62116992</v>
       </c>
       <c r="F95" s="5" t="n">
         <v>10</v>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="H95" s="4" t="n">
-        <v>36.21169916434538</v>
+        <v>36.2116992</v>
       </c>
       <c r="I95" s="5" t="n">
         <v>5.78</v>
@@ -8698,25 +8698,25 @@
         <v>273</v>
       </c>
       <c r="N95" s="5" t="n">
-        <v>0.02</v>
+        <v>172.5893015</v>
       </c>
       <c r="O95" s="5" t="n">
-        <v>9.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P95" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q95" s="5" t="n">
-        <v>9.32</v>
+        <v>11.92</v>
       </c>
       <c r="R95" s="5" t="n">
-        <v>282.32</v>
+        <v>284.92</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>28.23</v>
+        <v>28.49</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>202.71</v>
+        <v>204.57</v>
       </c>
       <c r="U95" s="4" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="E96" s="4" t="n">
-        <v>0.3412256267409469</v>
+        <v>0.34122563</v>
       </c>
       <c r="F96" s="5" t="n">
         <v>70</v>
@@ -8766,7 +8766,7 @@
         </is>
       </c>
       <c r="H96" s="4" t="n">
-        <v>23.88579387186628</v>
+        <v>23.8857941</v>
       </c>
       <c r="I96" s="5" t="n">
         <v>1.5</v>
@@ -8784,25 +8784,25 @@
         <v>180.08</v>
       </c>
       <c r="N96" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O96" s="5" t="n">
-        <v>2.38</v>
+        <v>6339.01</v>
       </c>
       <c r="P96" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q96" s="5" t="n">
-        <v>2.48</v>
+        <v>3.09</v>
       </c>
       <c r="R96" s="5" t="n">
-        <v>182.55</v>
+        <v>183.17</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="T96" s="5" t="n">
-        <v>18.72</v>
+        <v>18.79</v>
       </c>
       <c r="U96" s="4" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="E97" s="4" t="n">
-        <v>0.1643454038997213</v>
+        <v>0.1643454</v>
       </c>
       <c r="F97" s="5" t="n">
         <v>70</v>
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="H97" s="4" t="n">
-        <v>11.50417827298049</v>
+        <v>11.504178</v>
       </c>
       <c r="I97" s="5" t="n">
         <v>1.5</v>
@@ -8870,25 +8870,25 @@
         <v>86.73</v>
       </c>
       <c r="N97" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O97" s="5" t="n">
-        <v>2.38</v>
+        <v>6339.01</v>
       </c>
       <c r="P97" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q97" s="5" t="n">
-        <v>2.43</v>
+        <v>3.09</v>
       </c>
       <c r="R97" s="5" t="n">
-        <v>89.16</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>9.15</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="U97" s="4" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="E98" s="4" t="n">
-        <v>2.57660167130919</v>
+        <v>2.57660167</v>
       </c>
       <c r="F98" s="5" t="n">
         <v>50</v>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="H98" s="4" t="n">
-        <v>128.8300835654595</v>
+        <v>128.8300835</v>
       </c>
       <c r="I98" s="5" t="n">
         <v>1</v>
@@ -8956,25 +8956,25 @@
         <v>971.25</v>
       </c>
       <c r="N98" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O98" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P98" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q98" s="5" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R98" s="5" t="n">
-        <v>973.37</v>
+        <v>973.3099999999999</v>
       </c>
       <c r="S98" s="5" t="n">
         <v>19.47</v>
       </c>
       <c r="T98" s="5" t="n">
-        <v>139.78</v>
+        <v>139.77</v>
       </c>
       <c r="U98" s="4" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         </is>
       </c>
       <c r="E99" s="4" t="n">
-        <v>0.3481894150417825</v>
+        <v>0.34818942</v>
       </c>
       <c r="F99" s="5" t="n">
         <v>348</v>
@@ -9024,7 +9024,7 @@
         </is>
       </c>
       <c r="H99" s="4" t="n">
-        <v>121.1699164345403</v>
+        <v>121.16991816</v>
       </c>
       <c r="I99" s="5" t="n">
         <v>9.300000000000001</v>
@@ -9042,25 +9042,25 @@
         <v>913.5</v>
       </c>
       <c r="N99" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O99" s="5" t="n">
-        <v>14.76</v>
+        <v>6339.01</v>
       </c>
       <c r="P99" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q99" s="5" t="n">
-        <v>15.26</v>
+        <v>19.18</v>
       </c>
       <c r="R99" s="5" t="n">
-        <v>928.76</v>
+        <v>932.6799999999999</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="T99" s="5" t="n">
-        <v>19.16</v>
+        <v>19.24</v>
       </c>
       <c r="U99" s="4" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="E100" s="4" t="n">
-        <v>5.849582172701945</v>
+        <v>5.84958217</v>
       </c>
       <c r="F100" s="5" t="n">
         <v>20</v>
@@ -9110,7 +9110,7 @@
         </is>
       </c>
       <c r="H100" s="4" t="n">
-        <v>116.9916434540389</v>
+        <v>116.9916434</v>
       </c>
       <c r="I100" s="5" t="n">
         <v>2.56</v>
@@ -9128,25 +9128,25 @@
         <v>882</v>
       </c>
       <c r="N100" s="5" t="n">
-        <v>0.02</v>
+        <v>172.5893015</v>
       </c>
       <c r="O100" s="5" t="n">
-        <v>4.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P100" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q100" s="5" t="n">
-        <v>4.55</v>
+        <v>5.28</v>
       </c>
       <c r="R100" s="5" t="n">
-        <v>886.55</v>
+        <v>887.28</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>44.33</v>
+        <v>44.36</v>
       </c>
       <c r="T100" s="5" t="n">
-        <v>318.27</v>
+        <v>318.53</v>
       </c>
       <c r="U100" s="4" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         </is>
       </c>
       <c r="E101" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F101" s="5" t="n">
         <v>100</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="H101" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I101" s="5" t="n">
         <v>0.5</v>
@@ -9214,25 +9214,25 @@
         <v>13.65</v>
       </c>
       <c r="N101" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O101" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P101" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q101" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R101" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T101" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U101" s="4" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E102" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F102" s="5" t="n">
         <v>100</v>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="H102" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I102" s="5" t="n">
         <v>0.5</v>
@@ -9300,25 +9300,25 @@
         <v>13.65</v>
       </c>
       <c r="N102" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O102" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P102" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q102" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R102" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U102" s="4" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="E103" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F103" s="5" t="n">
         <v>100</v>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="H103" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I103" s="5" t="n">
         <v>0.5</v>
@@ -9386,25 +9386,25 @@
         <v>13.65</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O103" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P103" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q103" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R103" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T103" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U103" s="4" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="E104" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F104" s="5" t="n">
         <v>100</v>
@@ -9454,7 +9454,7 @@
         </is>
       </c>
       <c r="H104" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I104" s="5" t="n">
         <v>0.5</v>
@@ -9472,25 +9472,25 @@
         <v>13.65</v>
       </c>
       <c r="N104" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O104" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P104" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q104" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R104" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S104" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T104" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U104" s="4" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="E105" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F105" s="5" t="n">
         <v>100</v>
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="H105" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I105" s="5" t="n">
         <v>0.5</v>
@@ -9558,25 +9558,25 @@
         <v>13.65</v>
       </c>
       <c r="N105" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O105" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P105" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q105" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R105" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T105" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U105" s="4" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="E106" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F106" s="5" t="n">
         <v>100</v>
@@ -9626,7 +9626,7 @@
         </is>
       </c>
       <c r="H106" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I106" s="5" t="n">
         <v>0.5</v>
@@ -9644,25 +9644,25 @@
         <v>13.65</v>
       </c>
       <c r="N106" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O106" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P106" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q106" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R106" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T106" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U106" s="4" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="E107" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>100</v>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="H107" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I107" s="5" t="n">
         <v>0.5</v>
@@ -9730,25 +9730,25 @@
         <v>13.65</v>
       </c>
       <c r="N107" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O107" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P107" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q107" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R107" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S107" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T107" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U107" s="4" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         </is>
       </c>
       <c r="E108" s="4" t="n">
-        <v>0.01810584958217269</v>
+        <v>0.01810585</v>
       </c>
       <c r="F108" s="5" t="n">
         <v>100</v>
@@ -9798,7 +9798,7 @@
         </is>
       </c>
       <c r="H108" s="4" t="n">
-        <v>1.810584958217269</v>
+        <v>1.810585</v>
       </c>
       <c r="I108" s="5" t="n">
         <v>0.5</v>
@@ -9816,25 +9816,25 @@
         <v>13.65</v>
       </c>
       <c r="N108" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O108" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P108" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q108" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R108" s="5" t="n">
-        <v>14.45</v>
+        <v>14.68</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="T108" s="5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U108" s="4" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         </is>
       </c>
       <c r="E109" s="4" t="n">
-        <v>0.03899721448467964</v>
+        <v>0.03899721</v>
       </c>
       <c r="F109" s="5" t="n">
         <v>100</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="H109" s="4" t="n">
-        <v>3.899721448467964</v>
+        <v>3.899721</v>
       </c>
       <c r="I109" s="5" t="n">
         <v>0.5</v>
@@ -9902,25 +9902,25 @@
         <v>29.4</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O109" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P109" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q109" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="R109" s="5" t="n">
-        <v>30.21</v>
+        <v>30.43</v>
       </c>
       <c r="S109" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="T109" s="5" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="U109" s="4" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         </is>
       </c>
       <c r="E110" s="4" t="n">
-        <v>0.08356545961002779</v>
+        <v>0.08356545999999999</v>
       </c>
       <c r="F110" s="5" t="n">
         <v>100</v>
@@ -9970,7 +9970,7 @@
         </is>
       </c>
       <c r="H110" s="4" t="n">
-        <v>8.356545961002778</v>
+        <v>8.356546</v>
       </c>
       <c r="I110" s="5" t="n">
         <v>0.5</v>
@@ -9988,25 +9988,25 @@
         <v>63</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O110" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P110" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q110" s="5" t="n">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="R110" s="5" t="n">
-        <v>63.83</v>
+        <v>64.03</v>
       </c>
       <c r="S110" s="5" t="n">
         <v>0.64</v>
       </c>
       <c r="T110" s="5" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="U110" s="4" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="E111" s="4" t="n">
-        <v>0.03342618384401112</v>
+        <v>0.03342618</v>
       </c>
       <c r="F111" s="5" t="n">
         <v>100</v>
@@ -10056,7 +10056,7 @@
         </is>
       </c>
       <c r="H111" s="4" t="n">
-        <v>3.342618384401112</v>
+        <v>3.342618</v>
       </c>
       <c r="I111" s="5" t="n">
         <v>0.5</v>
@@ -10074,25 +10074,25 @@
         <v>25.2</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O111" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P111" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q111" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="R111" s="5" t="n">
-        <v>26.01</v>
+        <v>26.23</v>
       </c>
       <c r="S111" s="5" t="n">
         <v>0.26</v>
       </c>
       <c r="T111" s="5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U111" s="4" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         </is>
       </c>
       <c r="E112" s="4" t="n">
-        <v>0.05292479108635094</v>
+        <v>0.05292479</v>
       </c>
       <c r="F112" s="5" t="n">
         <v>100</v>
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="H112" s="4" t="n">
-        <v>5.292479108635094</v>
+        <v>5.292479</v>
       </c>
       <c r="I112" s="5" t="n">
         <v>0.5</v>
@@ -10160,25 +10160,25 @@
         <v>39.9</v>
       </c>
       <c r="N112" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O112" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P112" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q112" s="5" t="n">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="R112" s="5" t="n">
-        <v>40.72</v>
+        <v>40.93</v>
       </c>
       <c r="S112" s="5" t="n">
         <v>0.41</v>
       </c>
       <c r="T112" s="5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="U112" s="4" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         </is>
       </c>
       <c r="E113" s="4" t="n">
-        <v>0.0278551532033426</v>
+        <v>0.02785515</v>
       </c>
       <c r="F113" s="5" t="n">
         <v>100</v>
@@ -10228,7 +10228,7 @@
         </is>
       </c>
       <c r="H113" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.785515</v>
       </c>
       <c r="I113" s="5" t="n">
         <v>0.5</v>
@@ -10246,25 +10246,25 @@
         <v>21</v>
       </c>
       <c r="N113" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O113" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P113" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q113" s="5" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="R113" s="5" t="n">
-        <v>21.8</v>
+        <v>22.03</v>
       </c>
       <c r="S113" s="5" t="n">
         <v>0.22</v>
       </c>
       <c r="T113" s="5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U113" s="4" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         </is>
       </c>
       <c r="E114" s="4" t="n">
-        <v>0.1671309192200556</v>
+        <v>0.16713092</v>
       </c>
       <c r="F114" s="5" t="n">
         <v>420</v>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="H114" s="4" t="n">
-        <v>70.19498607242335</v>
+        <v>70.1949864</v>
       </c>
       <c r="I114" s="5" t="n">
         <v>0.2</v>
@@ -10332,25 +10332,25 @@
         <v>529.2</v>
       </c>
       <c r="N114" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O114" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P114" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q114" s="5" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="R114" s="5" t="n">
-        <v>529.8099999999999</v>
+        <v>529.61</v>
       </c>
       <c r="S114" s="5" t="n">
         <v>1.26</v>
       </c>
       <c r="T114" s="5" t="n">
-        <v>9.06</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="U114" s="4" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="E115" s="4" t="n">
-        <v>0.4874651810584955</v>
+        <v>0.48746518</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>100</v>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="H115" s="4" t="n">
-        <v>48.74651810584955</v>
+        <v>48.746518</v>
       </c>
       <c r="I115" s="5" t="n">
         <v>0.2</v>
@@ -10418,19 +10418,19 @@
         <v>367.5</v>
       </c>
       <c r="N115" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O115" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P115" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q115" s="5" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="R115" s="5" t="n">
-        <v>368.02</v>
+        <v>367.91</v>
       </c>
       <c r="S115" s="5" t="n">
         <v>3.68</v>
@@ -10475,7 +10475,7 @@
         </is>
       </c>
       <c r="E116" s="4" t="n">
-        <v>11.14206128133704</v>
+        <v>11.14206128</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>1</v>
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="H116" s="4" t="n">
-        <v>11.14206128133704</v>
+        <v>11.14206128</v>
       </c>
       <c r="I116" s="5" t="n">
         <v>0.2</v>
@@ -10504,25 +10504,25 @@
         <v>84</v>
       </c>
       <c r="N116" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O116" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P116" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q116" s="5" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="R116" s="5" t="n">
-        <v>84.36</v>
+        <v>84.41</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>84.36</v>
+        <v>84.41</v>
       </c>
       <c r="T116" s="5" t="n">
-        <v>605.73</v>
+        <v>606.08</v>
       </c>
       <c r="U116" s="4" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="E117" s="4" t="n">
-        <v>236.7688022284121</v>
+        <v>236.76880223</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>2</v>
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="H117" s="4" t="n">
-        <v>473.5376044568242</v>
+        <v>473.53760446</v>
       </c>
       <c r="I117" s="5" t="n">
         <v>1</v>
@@ -10590,25 +10590,25 @@
         <v>3570</v>
       </c>
       <c r="N117" s="5" t="n">
-        <v>0.98</v>
+        <v>172.5893015</v>
       </c>
       <c r="O117" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P117" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q117" s="5" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="R117" s="5" t="n">
-        <v>3573.55</v>
+        <v>3572.06</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>1786.78</v>
+        <v>1786.03</v>
       </c>
       <c r="T117" s="5" t="n">
-        <v>12829.05</v>
+        <v>12823.71</v>
       </c>
       <c r="U117" s="4" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="E118" s="4" t="n">
-        <v>376.044568245125</v>
+        <v>376.04456825</v>
       </c>
       <c r="F118" s="5" t="n">
         <v>5</v>
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="H118" s="4" t="n">
-        <v>1880.222841225625</v>
+        <v>1880.22284125</v>
       </c>
       <c r="I118" s="5" t="n">
         <v>0.2</v>
@@ -10676,25 +10676,25 @@
         <v>14175</v>
       </c>
       <c r="N118" s="5" t="n">
-        <v>1.56</v>
+        <v>172.5893015</v>
       </c>
       <c r="O118" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P118" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q118" s="5" t="n">
-        <v>8.109999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="R118" s="5" t="n">
-        <v>14183.11</v>
+        <v>14175.41</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>2836.62</v>
+        <v>2835.08</v>
       </c>
       <c r="T118" s="5" t="n">
-        <v>20366.95</v>
+        <v>20355.89</v>
       </c>
       <c r="U118" s="4" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="E119" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="F119" s="5" t="n">
         <v>1</v>
@@ -10744,7 +10744,7 @@
         </is>
       </c>
       <c r="H119" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="I119" s="5" t="n">
         <v>0.4</v>
@@ -10762,25 +10762,25 @@
         <v>1155</v>
       </c>
       <c r="N119" s="5" t="n">
-        <v>0.64</v>
+        <v>172.5893015</v>
       </c>
       <c r="O119" s="5" t="n">
-        <v>0.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P119" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q119" s="5" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="R119" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="S119" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="T119" s="5" t="n">
-        <v>8302.02</v>
+        <v>8298.82</v>
       </c>
       <c r="U119" s="4" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="E120" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="F120" s="5" t="n">
         <v>1</v>
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="H120" s="4" t="n">
-        <v>153.2033426183843</v>
+        <v>153.20334262</v>
       </c>
       <c r="I120" s="5" t="n">
         <v>0.4</v>
@@ -10848,25 +10848,25 @@
         <v>1155</v>
       </c>
       <c r="N120" s="5" t="n">
-        <v>0.64</v>
+        <v>172.5893015</v>
       </c>
       <c r="O120" s="5" t="n">
-        <v>0.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P120" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q120" s="5" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="R120" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="S120" s="5" t="n">
-        <v>1156.27</v>
+        <v>1155.83</v>
       </c>
       <c r="T120" s="5" t="n">
-        <v>8302.02</v>
+        <v>8298.82</v>
       </c>
       <c r="U120" s="4" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         </is>
       </c>
       <c r="E121" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F121" s="5" t="n">
         <v>96</v>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="H121" s="4" t="n">
-        <v>3075.208913649023</v>
+        <v>3075.20891328</v>
       </c>
       <c r="I121" s="5" t="n">
         <v>96</v>
@@ -10934,25 +10934,25 @@
         <v>23184</v>
       </c>
       <c r="N121" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O121" s="5" t="n">
-        <v>152.33</v>
+        <v>6339.01</v>
       </c>
       <c r="P121" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q121" s="5" t="n">
-        <v>165.08</v>
+        <v>198.03</v>
       </c>
       <c r="R121" s="5" t="n">
-        <v>23349.08</v>
+        <v>23382.03</v>
       </c>
       <c r="S121" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T121" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U121" s="4" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         </is>
       </c>
       <c r="E122" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F122" s="5" t="n">
         <v>4</v>
@@ -11002,7 +11002,7 @@
         </is>
       </c>
       <c r="H122" s="4" t="n">
-        <v>128.1337047353759</v>
+        <v>128.13370472</v>
       </c>
       <c r="I122" s="5" t="n">
         <v>4</v>
@@ -11020,25 +11020,25 @@
         <v>966</v>
       </c>
       <c r="N122" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O122" s="5" t="n">
-        <v>6.35</v>
+        <v>6339.01</v>
       </c>
       <c r="P122" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q122" s="5" t="n">
-        <v>6.88</v>
+        <v>8.25</v>
       </c>
       <c r="R122" s="5" t="n">
-        <v>972.88</v>
+        <v>974.25</v>
       </c>
       <c r="S122" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T122" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U122" s="4" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         </is>
       </c>
       <c r="E123" s="4" t="n">
-        <v>41.50417827298047</v>
+        <v>41.50417827</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>4</v>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="H123" s="4" t="n">
-        <v>166.0167130919219</v>
+        <v>166.01671308</v>
       </c>
       <c r="I123" s="5" t="n">
         <v>18</v>
@@ -11112,25 +11112,25 @@
         <v>1251.6</v>
       </c>
       <c r="N123" s="5" t="n">
-        <v>0.17</v>
+        <v>172.5893015</v>
       </c>
       <c r="O123" s="5" t="n">
-        <v>28.56</v>
+        <v>6339.01</v>
       </c>
       <c r="P123" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q123" s="5" t="n">
-        <v>29.25</v>
+        <v>37.13</v>
       </c>
       <c r="R123" s="5" t="n">
-        <v>1280.85</v>
+        <v>1288.73</v>
       </c>
       <c r="S123" s="5" t="n">
-        <v>320.21</v>
+        <v>322.18</v>
       </c>
       <c r="T123" s="5" t="n">
-        <v>2299.13</v>
+        <v>2313.27</v>
       </c>
       <c r="U123" s="4" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         </is>
       </c>
       <c r="E124" s="4" t="n">
-        <v>41.50417827298047</v>
+        <v>41.50417827</v>
       </c>
       <c r="F124" s="5" t="n">
         <v>3</v>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="H124" s="4" t="n">
-        <v>124.5125348189414</v>
+        <v>124.51253481</v>
       </c>
       <c r="I124" s="5" t="n">
         <v>13</v>
@@ -11204,25 +11204,25 @@
         <v>938.7</v>
       </c>
       <c r="N124" s="5" t="n">
-        <v>0.17</v>
+        <v>172.5893015</v>
       </c>
       <c r="O124" s="5" t="n">
-        <v>20.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P124" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q124" s="5" t="n">
-        <v>21.14</v>
+        <v>26.82</v>
       </c>
       <c r="R124" s="5" t="n">
-        <v>959.84</v>
+        <v>965.52</v>
       </c>
       <c r="S124" s="5" t="n">
-        <v>319.95</v>
+        <v>321.84</v>
       </c>
       <c r="T124" s="5" t="n">
-        <v>2297.23</v>
+        <v>2310.8</v>
       </c>
       <c r="U124" s="4" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="E125" s="4" t="n">
-        <v>18.52367688022283</v>
+        <v>18.52367688</v>
       </c>
       <c r="F125" s="5" t="n">
         <v>6</v>
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="H125" s="4" t="n">
-        <v>111.142061281337</v>
+        <v>111.14206128</v>
       </c>
       <c r="I125" s="5" t="n">
         <v>2</v>
@@ -11290,25 +11290,25 @@
         <v>837.9</v>
       </c>
       <c r="N125" s="5" t="n">
-        <v>0.08</v>
+        <v>172.5893015</v>
       </c>
       <c r="O125" s="5" t="n">
-        <v>3.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P125" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q125" s="5" t="n">
-        <v>3.63</v>
+        <v>4.13</v>
       </c>
       <c r="R125" s="5" t="n">
-        <v>841.53</v>
+        <v>842.03</v>
       </c>
       <c r="S125" s="5" t="n">
-        <v>140.26</v>
+        <v>140.34</v>
       </c>
       <c r="T125" s="5" t="n">
-        <v>1007.04</v>
+        <v>1007.62</v>
       </c>
       <c r="U125" s="4" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="E126" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="F126" s="5" t="n">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         </is>
       </c>
       <c r="H126" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="I126" s="5" t="n">
         <v>5</v>
@@ -11376,25 +11376,25 @@
         <v>472.5</v>
       </c>
       <c r="N126" s="5" t="n">
-        <v>0.26</v>
+        <v>172.5893015</v>
       </c>
       <c r="O126" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P126" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q126" s="5" t="n">
-        <v>8.19</v>
+        <v>10.31</v>
       </c>
       <c r="R126" s="5" t="n">
-        <v>480.69</v>
+        <v>482.81</v>
       </c>
       <c r="S126" s="5" t="n">
-        <v>480.69</v>
+        <v>482.81</v>
       </c>
       <c r="T126" s="5" t="n">
-        <v>3451.38</v>
+        <v>3466.6</v>
       </c>
       <c r="U126" s="4" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="E127" s="4" t="n">
-        <v>100.2785515320333</v>
+        <v>100.27855153</v>
       </c>
       <c r="F127" s="5" t="n">
         <v>2</v>
@@ -11444,7 +11444,7 @@
         </is>
       </c>
       <c r="H127" s="4" t="n">
-        <v>200.5571030640667</v>
+        <v>200.55710306</v>
       </c>
       <c r="I127" s="5" t="n">
         <v>1</v>
@@ -11462,25 +11462,25 @@
         <v>1512</v>
       </c>
       <c r="N127" s="5" t="n">
-        <v>0.42</v>
+        <v>172.5893015</v>
       </c>
       <c r="O127" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P127" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q127" s="5" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="R127" s="5" t="n">
-        <v>1514.42</v>
+        <v>1514.06</v>
       </c>
       <c r="S127" s="5" t="n">
-        <v>757.21</v>
+        <v>757.03</v>
       </c>
       <c r="T127" s="5" t="n">
-        <v>5436.76</v>
+        <v>5435.49</v>
       </c>
       <c r="U127" s="4" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="E128" s="4" t="n">
-        <v>100.2785515320333</v>
+        <v>100.27855153</v>
       </c>
       <c r="F128" s="5" t="n">
         <v>2</v>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="H128" s="4" t="n">
-        <v>200.5571030640667</v>
+        <v>200.55710306</v>
       </c>
       <c r="I128" s="5" t="n">
         <v>1</v>
@@ -11548,25 +11548,25 @@
         <v>1512</v>
       </c>
       <c r="N128" s="5" t="n">
-        <v>0.42</v>
+        <v>172.5893015</v>
       </c>
       <c r="O128" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P128" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q128" s="5" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="R128" s="5" t="n">
-        <v>1514.42</v>
+        <v>1514.06</v>
       </c>
       <c r="S128" s="5" t="n">
-        <v>757.21</v>
+        <v>757.03</v>
       </c>
       <c r="T128" s="5" t="n">
-        <v>5436.76</v>
+        <v>5435.49</v>
       </c>
       <c r="U128" s="4" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         </is>
       </c>
       <c r="E129" s="4" t="n">
-        <v>8.635097493036206</v>
+        <v>8.63509749</v>
       </c>
       <c r="F129" s="5" t="n">
         <v>2</v>
@@ -11616,7 +11616,7 @@
         </is>
       </c>
       <c r="H129" s="4" t="n">
-        <v>17.27019498607241</v>
+        <v>17.27019498</v>
       </c>
       <c r="I129" s="5" t="n">
         <v>1</v>
@@ -11634,25 +11634,25 @@
         <v>130.2</v>
       </c>
       <c r="N129" s="5" t="n">
-        <v>0.04</v>
+        <v>172.5893015</v>
       </c>
       <c r="O129" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P129" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q129" s="5" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="R129" s="5" t="n">
-        <v>131.86</v>
+        <v>132.26</v>
       </c>
       <c r="S129" s="5" t="n">
-        <v>65.93000000000001</v>
+        <v>66.13</v>
       </c>
       <c r="T129" s="5" t="n">
-        <v>473.37</v>
+        <v>474.82</v>
       </c>
       <c r="U129" s="4" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         </is>
       </c>
       <c r="E130" s="4" t="n">
-        <v>33.42618384401112</v>
+        <v>33.42618384</v>
       </c>
       <c r="F130" s="5" t="n">
         <v>2</v>
@@ -11702,7 +11702,7 @@
         </is>
       </c>
       <c r="H130" s="4" t="n">
-        <v>66.85236768802224</v>
+        <v>66.85236768</v>
       </c>
       <c r="I130" s="5" t="n">
         <v>0.2</v>
@@ -11720,25 +11720,25 @@
         <v>504</v>
       </c>
       <c r="N130" s="5" t="n">
-        <v>0.14</v>
+        <v>172.5893015</v>
       </c>
       <c r="O130" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P130" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q130" s="5" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="R130" s="5" t="n">
-        <v>504.59</v>
+        <v>504.41</v>
       </c>
       <c r="S130" s="5" t="n">
-        <v>252.3</v>
+        <v>252.21</v>
       </c>
       <c r="T130" s="5" t="n">
-        <v>1811.49</v>
+        <v>1810.84</v>
       </c>
       <c r="U130" s="4" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         </is>
       </c>
       <c r="E131" s="4" t="n">
-        <v>0.4387186629526459</v>
+        <v>0.43871866</v>
       </c>
       <c r="F131" s="5" t="n">
         <v>10</v>
@@ -11788,7 +11788,7 @@
         </is>
       </c>
       <c r="H131" s="4" t="n">
-        <v>4.387186629526459</v>
+        <v>4.3871866</v>
       </c>
       <c r="I131" s="5" t="n">
         <v>0.2</v>
@@ -11806,25 +11806,25 @@
         <v>33.08</v>
       </c>
       <c r="N131" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O131" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P131" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q131" s="5" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R131" s="5" t="n">
-        <v>33.41</v>
+        <v>33.49</v>
       </c>
       <c r="S131" s="5" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="T131" s="5" t="n">
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="U131" s="4" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         </is>
       </c>
       <c r="E132" s="4" t="n">
-        <v>0.6267409470752084</v>
+        <v>0.62674095</v>
       </c>
       <c r="F132" s="5" t="n">
         <v>10</v>
@@ -11874,7 +11874,7 @@
         </is>
       </c>
       <c r="H132" s="4" t="n">
-        <v>6.267409470752084</v>
+        <v>6.2674095</v>
       </c>
       <c r="I132" s="5" t="n">
         <v>0.2</v>
@@ -11892,25 +11892,25 @@
         <v>47.25</v>
       </c>
       <c r="N132" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O132" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P132" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q132" s="5" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R132" s="5" t="n">
-        <v>47.59</v>
+        <v>47.66</v>
       </c>
       <c r="S132" s="5" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="T132" s="5" t="n">
-        <v>34.17</v>
+        <v>34.22</v>
       </c>
       <c r="U132" s="4" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="E133" s="4" t="n">
-        <v>0.5292479108635093</v>
+        <v>0.52924791</v>
       </c>
       <c r="F133" s="5" t="n">
         <v>10</v>
@@ -11960,7 +11960,7 @@
         </is>
       </c>
       <c r="H133" s="4" t="n">
-        <v>5.292479108635093</v>
+        <v>5.2924791</v>
       </c>
       <c r="I133" s="5" t="n">
         <v>0.6</v>
@@ -11978,25 +11978,25 @@
         <v>39.9</v>
       </c>
       <c r="N133" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O133" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P133" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q133" s="5" t="n">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
       <c r="R133" s="5" t="n">
-        <v>40.87</v>
+        <v>41.14</v>
       </c>
       <c r="S133" s="5" t="n">
-        <v>4.09</v>
+        <v>4.11</v>
       </c>
       <c r="T133" s="5" t="n">
-        <v>29.35</v>
+        <v>29.54</v>
       </c>
       <c r="U133" s="4" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         </is>
       </c>
       <c r="E134" s="4" t="n">
-        <v>2.130919220055709</v>
+        <v>2.13091922</v>
       </c>
       <c r="F134" s="5" t="n">
         <v>10</v>
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="H134" s="4" t="n">
-        <v>21.30919220055709</v>
+        <v>21.3091922</v>
       </c>
       <c r="I134" s="5" t="n">
         <v>0.6</v>
@@ -12064,25 +12064,25 @@
         <v>160.65</v>
       </c>
       <c r="N134" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O134" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P134" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q134" s="5" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="R134" s="5" t="n">
-        <v>161.69</v>
+        <v>161.89</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>16.17</v>
+        <v>16.19</v>
       </c>
       <c r="T134" s="5" t="n">
-        <v>116.09</v>
+        <v>116.24</v>
       </c>
       <c r="U134" s="4" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E135" s="4" t="n">
-        <v>179.6657381615597</v>
+        <v>179.66573816</v>
       </c>
       <c r="F135" s="5" t="n">
         <v>2</v>
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="H135" s="4" t="n">
-        <v>359.3314763231195</v>
+        <v>359.33147632</v>
       </c>
       <c r="I135" s="5" t="n">
         <v>4.2</v>
@@ -12150,25 +12150,25 @@
         <v>2709</v>
       </c>
       <c r="N135" s="5" t="n">
-        <v>0.74</v>
+        <v>172.5893015</v>
       </c>
       <c r="O135" s="5" t="n">
-        <v>6.66</v>
+        <v>6339.01</v>
       </c>
       <c r="P135" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q135" s="5" t="n">
-        <v>8.15</v>
+        <v>8.66</v>
       </c>
       <c r="R135" s="5" t="n">
-        <v>2717.15</v>
+        <v>2717.66</v>
       </c>
       <c r="S135" s="5" t="n">
-        <v>1358.58</v>
+        <v>1358.83</v>
       </c>
       <c r="T135" s="5" t="n">
-        <v>9754.58</v>
+        <v>9756.41</v>
       </c>
       <c r="U135" s="4" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="E136" s="4" t="n">
-        <v>0.4456824512534816</v>
+        <v>0.44568245</v>
       </c>
       <c r="F136" s="5" t="n">
         <v>40</v>
@@ -12218,7 +12218,7 @@
         </is>
       </c>
       <c r="H136" s="4" t="n">
-        <v>17.82729805013926</v>
+        <v>17.827298</v>
       </c>
       <c r="I136" s="5" t="n">
         <v>1.5</v>
@@ -12236,25 +12236,25 @@
         <v>134.4</v>
       </c>
       <c r="N136" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O136" s="5" t="n">
-        <v>2.38</v>
+        <v>6339.01</v>
       </c>
       <c r="P136" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q136" s="5" t="n">
-        <v>2.45</v>
+        <v>3.09</v>
       </c>
       <c r="R136" s="5" t="n">
-        <v>136.85</v>
+        <v>137.49</v>
       </c>
       <c r="S136" s="5" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="T136" s="5" t="n">
-        <v>24.57</v>
+        <v>24.68</v>
       </c>
       <c r="U136" s="4" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         </is>
       </c>
       <c r="E137" s="4" t="n">
-        <v>11.00278551532033</v>
+        <v>11.00278552</v>
       </c>
       <c r="F137" s="5" t="n">
         <v>8</v>
@@ -12304,7 +12304,7 @@
         </is>
       </c>
       <c r="H137" s="4" t="n">
-        <v>88.02228412256261</v>
+        <v>88.02228416</v>
       </c>
       <c r="I137" s="5" t="n">
         <v>16.5</v>
@@ -12322,25 +12322,25 @@
         <v>663.6</v>
       </c>
       <c r="N137" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O137" s="5" t="n">
-        <v>26.18</v>
+        <v>6339.01</v>
       </c>
       <c r="P137" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q137" s="5" t="n">
-        <v>26.55</v>
+        <v>34.04</v>
       </c>
       <c r="R137" s="5" t="n">
-        <v>690.15</v>
+        <v>697.64</v>
       </c>
       <c r="S137" s="5" t="n">
-        <v>86.27</v>
+        <v>87.2</v>
       </c>
       <c r="T137" s="5" t="n">
-        <v>619.41</v>
+        <v>626.13</v>
       </c>
       <c r="U137" s="4" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         </is>
       </c>
       <c r="E138" s="4" t="n">
-        <v>7.242339832869075</v>
+        <v>7.24233983</v>
       </c>
       <c r="F138" s="5" t="n">
         <v>8</v>
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="H138" s="4" t="n">
-        <v>57.9387186629526</v>
+        <v>57.93871864</v>
       </c>
       <c r="I138" s="5" t="n">
         <v>0.5</v>
@@ -12408,13 +12408,13 @@
         <v>436.8</v>
       </c>
       <c r="N138" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O138" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P138" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q138" s="5" t="n">
         <v>1.03</v>
@@ -12426,7 +12426,7 @@
         <v>54.73</v>
       </c>
       <c r="T138" s="5" t="n">
-        <v>392.96</v>
+        <v>392.95</v>
       </c>
       <c r="U138" s="4" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         </is>
       </c>
       <c r="E139" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F139" s="5" t="n">
         <v>96</v>
@@ -12476,7 +12476,7 @@
         </is>
       </c>
       <c r="H139" s="4" t="n">
-        <v>3075.208913649023</v>
+        <v>3075.20891328</v>
       </c>
       <c r="I139" s="5" t="n">
         <v>96</v>
@@ -12494,25 +12494,25 @@
         <v>23184</v>
       </c>
       <c r="N139" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O139" s="5" t="n">
-        <v>152.33</v>
+        <v>6339.01</v>
       </c>
       <c r="P139" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q139" s="5" t="n">
-        <v>165.08</v>
+        <v>198.03</v>
       </c>
       <c r="R139" s="5" t="n">
-        <v>23349.08</v>
+        <v>23382.03</v>
       </c>
       <c r="S139" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T139" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U139" s="4" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="E140" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F140" s="5" t="n">
         <v>4</v>
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="H140" s="4" t="n">
-        <v>128.1337047353759</v>
+        <v>128.13370472</v>
       </c>
       <c r="I140" s="5" t="n">
         <v>4</v>
@@ -12580,25 +12580,25 @@
         <v>966</v>
       </c>
       <c r="N140" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O140" s="5" t="n">
-        <v>6.35</v>
+        <v>6339.01</v>
       </c>
       <c r="P140" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q140" s="5" t="n">
-        <v>6.88</v>
+        <v>8.25</v>
       </c>
       <c r="R140" s="5" t="n">
-        <v>972.88</v>
+        <v>974.25</v>
       </c>
       <c r="S140" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T140" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U140" s="4" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         </is>
       </c>
       <c r="E141" s="4" t="n">
-        <v>7.520891364902502</v>
+        <v>7.52089136</v>
       </c>
       <c r="F141" s="5" t="n">
         <v>2</v>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="H141" s="4" t="n">
-        <v>15.041782729805</v>
+        <v>15.04178272</v>
       </c>
       <c r="I141" s="5" t="n">
         <v>0.36</v>
@@ -12666,25 +12666,25 @@
         <v>113.4</v>
       </c>
       <c r="N141" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O141" s="5" t="n">
-        <v>0.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P141" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q141" s="5" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="R141" s="5" t="n">
-        <v>114.03</v>
+        <v>114.14</v>
       </c>
       <c r="S141" s="5" t="n">
-        <v>57.02</v>
+        <v>57.07</v>
       </c>
       <c r="T141" s="5" t="n">
-        <v>409.38</v>
+        <v>409.77</v>
       </c>
       <c r="U141" s="4" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         </is>
       </c>
       <c r="E142" s="4" t="n">
-        <v>34.81894150417825</v>
+        <v>34.8189415</v>
       </c>
       <c r="F142" s="5" t="n">
         <v>2</v>
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="H142" s="4" t="n">
-        <v>69.6378830083565</v>
+        <v>69.637883</v>
       </c>
       <c r="I142" s="5" t="n">
         <v>0.4</v>
@@ -12752,25 +12752,25 @@
         <v>525</v>
       </c>
       <c r="N142" s="5" t="n">
-        <v>0.14</v>
+        <v>172.5893015</v>
       </c>
       <c r="O142" s="5" t="n">
-        <v>0.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P142" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q142" s="5" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="R142" s="5" t="n">
-        <v>525.92</v>
+        <v>525.83</v>
       </c>
       <c r="S142" s="5" t="n">
-        <v>262.96</v>
+        <v>262.91</v>
       </c>
       <c r="T142" s="5" t="n">
-        <v>1888.07</v>
+        <v>1887.71</v>
       </c>
       <c r="U142" s="4" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         </is>
       </c>
       <c r="E143" s="4" t="n">
-        <v>3.481894150417824</v>
+        <v>3.48189415</v>
       </c>
       <c r="F143" s="5" t="n">
         <v>4</v>
@@ -12820,7 +12820,7 @@
         </is>
       </c>
       <c r="H143" s="4" t="n">
-        <v>13.9275766016713</v>
+        <v>13.9275766</v>
       </c>
       <c r="I143" s="5" t="n">
         <v>0.2</v>
@@ -12838,25 +12838,25 @@
         <v>105</v>
       </c>
       <c r="N143" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O143" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P143" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q143" s="5" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="R143" s="5" t="n">
-        <v>105.38</v>
+        <v>105.41</v>
       </c>
       <c r="S143" s="5" t="n">
-        <v>26.34</v>
+        <v>26.35</v>
       </c>
       <c r="T143" s="5" t="n">
-        <v>189.15</v>
+        <v>189.22</v>
       </c>
       <c r="U143" s="4" t="inlineStr">
         <is>
@@ -12901,18 +12901,14 @@
       <c r="M144" s="5" t="n">
         <v>329488.69</v>
       </c>
-      <c r="N144" s="5" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="O144" s="5" t="n">
-        <v>5585.190000000001</v>
-      </c>
+      <c r="N144" s="5" t="n"/>
+      <c r="O144" s="5" t="n"/>
       <c r="P144" s="5" t="n"/>
       <c r="Q144" s="5" t="n">
-        <v>5766.499999999999</v>
+        <v>7260.789999999999</v>
       </c>
       <c r="R144" s="5" t="n">
-        <v>335255.14</v>
+        <v>336749.48</v>
       </c>
       <c r="S144" s="5" t="n"/>
       <c r="T144" s="5" t="n"/>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -5014,7 +5014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5084,34 +5084,15 @@
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>铣刀</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Material: Tungsten Carbide Steel
-Mill Type: Standard Up Draft Type
-Tip Type: Standard Fish Tail Type
-Total Length: 38.1mm
-Knife Length: 12.5mm
-Handle Length: 25.6mm
-Shank Diameter: 3.175mm
-Kinfe Diameter: 1.6mm</t>
-        </is>
-      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="n">
         <v>0.69637883</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G2" s="3" t="inlineStr"/>
       <c r="H2" s="3" t="n">
         <v>348.189415</v>
       </c>
@@ -5125,27 +5106,15 @@
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>红外发热管</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>型号：长度630mm,110V-500W</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="n">
         <v>15.32033426</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
         <v>91.92200556</v>
       </c>
@@ -5159,27 +5128,15 @@
           <t>E100.020310014</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>联轴器</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>型号：12-14</t>
-        </is>
-      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="n">
         <v>10.86350975</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G4" s="3" t="inlineStr"/>
       <c r="H4" s="3" t="n">
         <v>21.7270195</v>
       </c>
@@ -5193,27 +5150,15 @@
           <t>E100.020310015</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>联轴器</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>型号：8-14</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="n">
         <v>10.86350975</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="n">
         <v>10.86350975</v>
       </c>
@@ -5227,27 +5172,15 @@
           <t>E100.A37-066-02-00</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>重型双柱爪</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Jaguar Part No.:QLDZ.0014</t>
-        </is>
-      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="n">
         <v>3.14763231</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G6" s="3" t="inlineStr"/>
       <c r="H6" s="3" t="n">
         <v>314.763231</v>
       </c>
@@ -5261,33 +5194,15 @@
           <t>J100.020715018</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>过滤棉</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Part No.:N510059196AA
-Part Name:ELEMENT
-Remark: ZS-36-A-X264
-Used for : Panasonic NPM 3 nozzle head (NH) maintenance
-Spare Sr. No.: 22
-Spare Page No.: 148
-Section No.: 43-D</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="n">
         <v>0.11142061</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="n">
         <v>15.26462357</v>
       </c>
@@ -5301,28 +5216,15 @@
           <t>E100.020200009</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>变频器</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>S/N:FA2P5N1W20360133
-JI编号：30000127</t>
-        </is>
-      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="n">
         <v>158.77437326</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G8" s="3" t="inlineStr"/>
       <c r="H8" s="3" t="n">
         <v>158.77437326</v>
       </c>
@@ -5336,27 +5238,15 @@
           <t>E100.020310017</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>电机</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>品牌：星火世纪，型号：STM86118S</t>
-        </is>
-      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="n">
         <v>32.03342618</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G9" s="3" t="inlineStr"/>
       <c r="H9" s="3" t="n">
         <v>32.03342618</v>
       </c>
@@ -5370,27 +5260,15 @@
           <t>E100.020310012</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>电机</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>品牌：星火自动化，型号：STM8680</t>
-        </is>
-      </c>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="n">
         <v>25.76601671</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G10" s="3" t="inlineStr"/>
       <c r="H10" s="3" t="n">
         <v>77.29805012999999</v>
       </c>
@@ -5401,32 +5279,20 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>烙铁头</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Solder bit_Blade_Type_900M-T-sk</t>
-        </is>
-      </c>
+          <t>E100.A33-013-03-00</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="n">
-        <v>0.69637883</v>
+        <v>48.74651811</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>20.8913649</v>
+        <v>243.73259055</v>
       </c>
     </row>
     <row r="12">
@@ -5435,34 +5301,20 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>烙铁头</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-B
-3.圆头，宽度1.2mm</t>
-        </is>
-      </c>
+          <t>J100.S07-010-10-00</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="n">
         <v>0.69637883</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>348.189415</v>
+        <v>20.8913649</v>
       </c>
     </row>
     <row r="13">
@@ -5471,32 +5323,20 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>烙铁头</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>900M-T-4C</t>
-        </is>
-      </c>
+          <t>J100.S07-010-04-01</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="n">
         <v>0.69637883</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>278.551532</v>
+        <v>348.189415</v>
       </c>
     </row>
     <row r="14">
@@ -5505,32 +5345,20 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>烙铁头</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>900M-T-2C</t>
-        </is>
-      </c>
+          <t>J100.S07-010-06-01</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="n">
         <v>0.69637883</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>27.8551532</v>
+        <v>278.551532</v>
       </c>
     </row>
     <row r="15">
@@ -5539,32 +5367,20 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>烙铁头</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>900-T-1.2D</t>
-        </is>
-      </c>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="n">
-        <v>0.4178273</v>
+        <v>0.69637883</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G15" s="3" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>16.713092</v>
+        <v>27.8551532</v>
       </c>
     </row>
     <row r="16">
@@ -5573,32 +5389,20 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>热电偶</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>WRNT-013 3000mm</t>
-        </is>
-      </c>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="n">
-        <v>0.16713092</v>
+        <v>0.4178273</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>23.3983288</v>
+        <v>16.713092</v>
       </c>
     </row>
     <row r="17">
@@ -5607,32 +5411,20 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>焊接海绵</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>size:60mm X 55mm</t>
-        </is>
-      </c>
+          <t>C100.C06-007-01-00</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="n">
-        <v>0.13788301</v>
+        <v>0.16713092</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr"/>
       <c r="H17" s="3" t="n">
-        <v>34.4707525</v>
+        <v>23.3983288</v>
       </c>
     </row>
     <row r="18">
@@ -5641,32 +5433,20 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>6.30x75x4.0x1</t>
-        </is>
-      </c>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.13788301</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>388</v>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr"/>
       <c r="H18" s="3" t="n">
-        <v>71.33147588</v>
+        <v>34.4707525</v>
       </c>
     </row>
     <row r="19">
@@ -5675,32 +5455,20 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75X3.0</t>
-        </is>
-      </c>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>457</v>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="n">
-        <v>84.01671257</v>
+        <v>71.33147588</v>
       </c>
     </row>
     <row r="20">
@@ -5709,32 +5477,20 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75X3.5</t>
-        </is>
-      </c>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>458</v>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr"/>
       <c r="H20" s="3" t="n">
-        <v>84.20055658</v>
+        <v>84.01671257</v>
       </c>
     </row>
     <row r="21">
@@ -5743,32 +5499,20 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75X2.5X1</t>
-        </is>
-      </c>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>287</v>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr"/>
       <c r="H21" s="3" t="n">
-        <v>52.76323087</v>
+        <v>84.20055658</v>
       </c>
     </row>
     <row r="22">
@@ -5777,32 +5521,20 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT6</t>
-        </is>
-      </c>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G22" s="3" t="inlineStr"/>
       <c r="H22" s="3" t="n">
-        <v>7.353760400000001</v>
+        <v>52.76323087</v>
       </c>
     </row>
     <row r="23">
@@ -5811,32 +5543,20 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT7</t>
-        </is>
-      </c>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G23" s="3" t="inlineStr"/>
       <c r="H23" s="3" t="n">
-        <v>11.0306406</v>
+        <v>7.353760400000001</v>
       </c>
     </row>
     <row r="24">
@@ -5845,32 +5565,20 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT8</t>
-        </is>
-      </c>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G24" s="3" t="inlineStr"/>
       <c r="H24" s="3" t="n">
-        <v>9.1922005</v>
+        <v>11.0306406</v>
       </c>
     </row>
     <row r="25">
@@ -5879,30 +5587,18 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT9</t>
-        </is>
-      </c>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G25" s="3" t="inlineStr"/>
       <c r="H25" s="3" t="n">
         <v>9.1922005</v>
       </c>
@@ -5913,32 +5609,20 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>电批头</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT10</t>
-        </is>
-      </c>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="n">
         <v>0.18384401</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G26" s="3" t="inlineStr"/>
       <c r="H26" s="3" t="n">
-        <v>20.2228411</v>
+        <v>9.1922005</v>
       </c>
     </row>
     <row r="27">
@@ -5947,32 +5631,20 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>钢网擦拭纸</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Paper width: 30cm, paper length: 28m,Shaft length: 36cm Shaft Internal diameter：26.1±0.2mm Shaft material：paper</t>
-        </is>
-      </c>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="n">
-        <v>2.06128134</v>
+        <v>0.18384401</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>2040</v>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G27" s="3" t="inlineStr"/>
       <c r="H27" s="3" t="n">
-        <v>4205.013933599999</v>
+        <v>20.2228411</v>
       </c>
     </row>
     <row r="28">
@@ -5981,32 +5653,20 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>钢网擦拭纸</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Paper width: 400mm, paper length: 10m,Shaft length: 410mm, Shaft inner diameter: 19.5mm</t>
-        </is>
-      </c>
+          <t>C100.C06-006-01-00</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="n">
-        <v>1.01671309</v>
+        <v>2.06128134</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="G28" s="3" t="inlineStr"/>
       <c r="H28" s="3" t="n">
-        <v>2846.796652</v>
+        <v>4205.013933599999</v>
       </c>
     </row>
     <row r="29">
@@ -6015,33 +5675,20 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>烧录座</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>品牌：浦洛 
-型号：AT-TSSOP20-CMS</t>
-        </is>
-      </c>
+          <t>C100.C06-006-02-00</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="n">
-        <v>80.77994429</v>
+        <v>1.01671309</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>2800</v>
+      </c>
+      <c r="G29" s="3" t="inlineStr"/>
       <c r="H29" s="3" t="n">
-        <v>161.55988858</v>
+        <v>2846.796652</v>
       </c>
     </row>
     <row r="30">
@@ -6050,32 +5697,20 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>滑轮</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>KLV-M913A-A10</t>
-        </is>
-      </c>
+          <t>E100.020349014</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="n">
-        <v>11.14206128</v>
+        <v>80.77994429</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="inlineStr"/>
       <c r="H30" s="3" t="n">
-        <v>55.7103064</v>
+        <v>161.55988858</v>
       </c>
     </row>
     <row r="31">
@@ -6084,36 +5719,20 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>打包架</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>1.主要材料：2张桌子+不锈钢精益管架+导轨滑轮;
-2.精益管架外围长:1700mm*1400mm;
-    配套桌子:2张，长600*宽140*高560mm,
-    桌子表面要贴静电皮+接地点+接地线
-3.整个打包架相关的尺寸必须要参考图纸进行制作；</t>
-        </is>
-      </c>
+          <t>E100.A37-154-01-00</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="n">
-        <v>161.55988858</v>
+        <v>11.14206128</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>套</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="inlineStr"/>
       <c r="H31" s="3" t="n">
-        <v>484.67966574</v>
+        <v>55.7103064</v>
       </c>
     </row>
     <row r="32">
@@ -6122,36 +5741,20 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>周转车</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.主要材质: 不锈钢精益管+滑轮轨道+万向滑轮(可刹车)
-2. 周转车外围尺寸: 高 1450*宽450*长450mm
-3. 符合ESD静电要求
-4.  层数: 11层，每层高度可调，宽度可调.
-</t>
-        </is>
-      </c>
+          <t>E100.0111901002</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="n">
-        <v>181.05849582</v>
+        <v>161.55988858</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="inlineStr"/>
       <c r="H32" s="3" t="n">
-        <v>2172.70194984</v>
+        <v>484.67966574</v>
       </c>
     </row>
     <row r="33">
@@ -6160,35 +5763,20 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>物料架</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>1.在插件线上层增加放置物料的架子
-(放置板/架角度可调)
-2. 长度：3m,宽度:45cm,
-3.配套上支撑架斜三角支架</t>
-        </is>
-      </c>
+          <t>J100.031003005</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="n">
-        <v>41.78272981</v>
+        <v>181.05849582</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>套</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="inlineStr"/>
       <c r="H33" s="3" t="n">
-        <v>376.04456829</v>
+        <v>2172.70194984</v>
       </c>
     </row>
     <row r="34">
@@ -6197,32 +5785,20 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>屏蔽箱</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>monolayer Filter RJ45*2 1 Power filter AC*1+DC*2 1 Filter SMA*4 1 1 sealing plate</t>
-        </is>
-      </c>
+          <t>E100.021335001</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="n">
-        <v>473.53760446</v>
+        <v>41.78272981</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G34" s="3" t="inlineStr"/>
       <c r="H34" s="3" t="n">
-        <v>4735.3760446</v>
+        <v>376.04456829</v>
       </c>
     </row>
     <row r="35">
@@ -6231,32 +5807,20 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>屏蔽箱</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>double-deck Upper layer AC*1+DC*2 RJ45*5 Mid-level SMA*8 Lower layer AC*1+DC*2 RJ45*3+VGA*1 USB2.0*2+USB3.0*2+RS232*1</t>
-        </is>
-      </c>
+          <t>E100.E17-003-01-00</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="n">
-        <v>717.27019499</v>
+        <v>473.53760446</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G35" s="3" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
+      <c r="G35" s="3" t="inlineStr"/>
       <c r="H35" s="3" t="n">
-        <v>7172.701949900001</v>
+        <v>4735.3760446</v>
       </c>
     </row>
     <row r="36">
@@ -6265,32 +5829,20 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>马达</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>品牌：东元，型号：AEVF4</t>
-        </is>
-      </c>
+          <t>E100.E17-004-01-00</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="n">
-        <v>130.22284123</v>
+        <v>717.27019499</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="inlineStr"/>
       <c r="H36" s="3" t="n">
-        <v>130.22284123</v>
+        <v>7172.701949900001</v>
       </c>
     </row>
     <row r="37">
@@ -6299,32 +5851,20 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>太阳片</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>配件型号42883105</t>
-        </is>
-      </c>
+          <t>E100.020396013</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="n">
-        <v>3.06406685</v>
+        <v>130.22284123</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="inlineStr"/>
       <c r="H37" s="3" t="n">
-        <v>30.6406685</v>
+        <v>130.22284123</v>
       </c>
     </row>
     <row r="38">
@@ -6333,34 +5873,20 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>电机</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>卧式机 Axial Insertion 
-DC MotorTG-205A-FU (24V) 
-DZ-03060</t>
-        </is>
-      </c>
+          <t>E100.0203104001</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="n">
-        <v>48.74651811</v>
+        <v>3.06406685</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="inlineStr"/>
       <c r="H38" s="3" t="n">
-        <v>243.73259055</v>
+        <v>30.6406685</v>
       </c>
     </row>
     <row r="39">
@@ -6369,32 +5895,20 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>链夹</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>1.品牌:中禾旭 2.型号:LS1D-01033 用于立式插件机</t>
-        </is>
-      </c>
+          <t>E100.0203154000</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="n">
-        <v>1.11420613</v>
+        <v>48.74651811</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G39" s="3" t="inlineStr"/>
       <c r="H39" s="3" t="n">
-        <v>557.1030649999999</v>
+        <v>243.73259055</v>
       </c>
     </row>
     <row r="40">
@@ -6403,32 +5917,20 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>电刷</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>KYB-M7027-001</t>
-        </is>
-      </c>
+          <t>E100.0203125000</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="n">
-        <v>689.41504178</v>
+        <v>1.11420613</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="G40" s="3" t="inlineStr"/>
       <c r="H40" s="3" t="n">
-        <v>1378.83008356</v>
+        <v>557.1030649999999</v>
       </c>
     </row>
     <row r="41">
@@ -6437,32 +5939,20 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>密封圈</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>零件编号：30009424</t>
-        </is>
-      </c>
+          <t>E100.0203162159</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="n">
-        <v>0.90529248</v>
+        <v>15.32033426</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G41" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="inlineStr"/>
       <c r="H41" s="3" t="n">
-        <v>9.0529248</v>
+        <v>61.28133704</v>
       </c>
     </row>
     <row r="42">
@@ -6471,32 +5961,20 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>密封圈</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>零件编号：30009423</t>
-        </is>
-      </c>
+          <t>E100.0203133001</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="n">
-        <v>0.90529248</v>
+        <v>25.96796657</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="inlineStr"/>
       <c r="H42" s="3" t="n">
-        <v>9.0529248</v>
+        <v>129.83983285</v>
       </c>
     </row>
     <row r="43">
@@ -6505,32 +5983,20 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>13齿左螺旋齿轮36.8*81.5mm，编号：30001429</t>
-        </is>
-      </c>
+          <t>E100.E00-011-15-01</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="n">
-        <v>30.64066852</v>
+        <v>689.41504178</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G43" s="3" t="inlineStr"/>
       <c r="H43" s="3" t="n">
-        <v>61.28133704</v>
+        <v>1378.83008356</v>
       </c>
     </row>
     <row r="44">
@@ -6539,32 +6005,20 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>13齿右螺旋齿轮36.8x81.5mm，编号：30001424</t>
-        </is>
-      </c>
+          <t>E100.020396061</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="n">
-        <v>30.64066852</v>
+        <v>0.90529248</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G44" s="3" t="inlineStr"/>
       <c r="H44" s="3" t="n">
-        <v>61.28133704</v>
+        <v>9.0529248</v>
       </c>
     </row>
     <row r="45">
@@ -6573,32 +6027,20 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>13齿左螺旋齿轮36.8*65mm，编号：30001430</t>
-        </is>
-      </c>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="n">
-        <v>30.64066852</v>
+        <v>0.90529248</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="inlineStr"/>
       <c r="H45" s="3" t="n">
-        <v>61.28133704</v>
+        <v>9.0529248</v>
       </c>
     </row>
     <row r="46">
@@ -6607,30 +6049,18 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>13齿右螺旋齿轮36.8*65mm，编号：30001425</t>
-        </is>
-      </c>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="n">
         <v>30.64066852</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G46" s="3" t="inlineStr"/>
       <c r="H46" s="3" t="n">
         <v>61.28133704</v>
       </c>
@@ -6641,32 +6071,20 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>发热板</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>380V  1.2KW   L=1128mm 陆铨，零件编号：30001144</t>
-        </is>
-      </c>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="n">
-        <v>45.68245125</v>
+        <v>30.64066852</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G47" s="3" t="inlineStr"/>
       <c r="H47" s="3" t="n">
-        <v>91.3649025</v>
+        <v>61.28133704</v>
       </c>
     </row>
     <row r="48">
@@ -6675,31 +6093,85 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>发热板</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>380V  1.2KW   L=1058mm 陆铨，零件编号：30001143</t>
-        </is>
-      </c>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="n">
-        <v>45.68245125</v>
+        <v>30.64066852</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="G48" s="3" t="inlineStr"/>
       <c r="H48" s="3" t="n">
+        <v>61.28133704</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="n">
+        <v>30.64066852</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="n">
+        <v>61.28133704</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="n">
+        <v>45.68245125</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="inlineStr"/>
+      <c r="H50" s="3" t="n">
+        <v>91.3649025</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="n">
+        <v>45.68245125</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="inlineStr"/>
+      <c r="H51" s="3" t="n">
         <v>91.3649025</v>
       </c>
     </row>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -661,19 +661,19 @@
         <v>6339.01</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>4.24</v>
+        <v>4.77</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>2629.24</v>
+        <v>764.89</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>5.26</v>
+        <v>1.53</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>37.76</v>
+        <v>0.21</v>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
@@ -747,19 +747,19 @@
         <v>6339.01</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>348.29</v>
+        <v>131.03</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>116.1</v>
+        <v>43.68</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>833.58</v>
+        <v>6.08</v>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         <v>6339.01</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>164.61</v>
+        <v>31.47</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>82.31</v>
+        <v>15.73</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>590.97</v>
+        <v>2.19</v>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
@@ -919,19 +919,19 @@
         <v>6339.01</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>82.23</v>
+        <v>7.69</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>82.23</v>
+        <v>7.69</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>590.38</v>
+        <v>1.07</v>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
@@ -1005,19 +1005,19 @@
         <v>6339.01</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2.53</v>
+        <v>2.84</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>349.03</v>
+        <v>243.9</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>116.34</v>
+        <v>81.3</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>835.34</v>
+        <v>11.32</v>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
@@ -1091,19 +1091,19 @@
         <v>6339.01</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>3.26</v>
+        <v>3.67</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>2376.26</v>
+        <v>491.65</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>23.76</v>
+        <v>4.92</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>170.62</v>
+        <v>0.68</v>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
@@ -1183,19 +1183,19 @@
         <v>6339.01</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>3.42</v>
+        <v>3.85</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>118.5</v>
+        <v>422.88</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>0.86</v>
+        <v>3.09</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>6.21</v>
+        <v>0.43</v>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
@@ -1270,19 +1270,19 @@
         <v>6339.01</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>4.89</v>
+        <v>5.5</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>1201.89</v>
+        <v>908.86</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>1201.89</v>
+        <v>908.86</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>8629.57</v>
+        <v>126.58</v>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
@@ -1356,19 +1356,19 @@
         <v>6339.01</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>8.15</v>
+        <v>9.17</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>249.65</v>
+        <v>2377.71</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>249.65</v>
+        <v>2377.71</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>1792.49</v>
+        <v>331.16</v>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
@@ -1442,19 +1442,19 @@
         <v>6339.01</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>8.15</v>
+        <v>9.17</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>590.9</v>
+        <v>2393.97</v>
       </c>
       <c r="S11" s="3" t="n">
-        <v>196.97</v>
+        <v>797.99</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>1414.22</v>
+        <v>111.14</v>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
@@ -1524,19 +1524,19 @@
         <v>6339.01</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>1839.5</v>
+        <v>230.74</v>
       </c>
       <c r="S12" s="3" t="n">
-        <v>367.9</v>
+        <v>46.15</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>2641.53</v>
+        <v>6.43</v>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
@@ -1610,19 +1610,19 @@
         <v>6339.01</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>157.74</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="S13" s="3" t="n">
-        <v>5.26</v>
+        <v>0.32</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>37.75</v>
+        <v>0.04</v>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
@@ -1698,19 +1698,19 @@
         <v>6339.01</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>4.07</v>
+        <v>4.59</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>2629.07</v>
+        <v>716.62</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>5.26</v>
+        <v>1.43</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>37.75</v>
+        <v>0.2</v>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
@@ -1784,19 +1784,19 @@
         <v>6339.01</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>3.26</v>
+        <v>3.67</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>2103.26</v>
+        <v>478.65</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>5.26</v>
+        <v>1.2</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>37.75</v>
+        <v>0.17</v>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
@@ -1870,19 +1870,19 @@
         <v>6339.01</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>210.33</v>
+        <v>13.79</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>5.26</v>
+        <v>0.34</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>37.75</v>
+        <v>0.05</v>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
@@ -1956,19 +1956,19 @@
         <v>6339.01</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>126.33</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="S17" s="3" t="n">
-        <v>3.16</v>
+        <v>0.24</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>22.68</v>
+        <v>0.03</v>
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
@@ -2042,19 +2042,19 @@
         <v>6339.01</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>177.54</v>
+        <v>54.78</v>
       </c>
       <c r="S18" s="3" t="n">
-        <v>1.27</v>
+        <v>0.39</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>9.109999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
@@ -2128,19 +2128,19 @@
         <v>6339.01</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>261.91</v>
+        <v>160.27</v>
       </c>
       <c r="S19" s="3" t="n">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>7.52</v>
+        <v>0.09</v>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
@@ -2214,19 +2214,19 @@
         <v>6339.01</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>5.69</v>
+        <v>6.4</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>543.46</v>
+        <v>1178.44</v>
       </c>
       <c r="S20" s="3" t="n">
-        <v>1.4</v>
+        <v>3.04</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>10.06</v>
+        <v>0.42</v>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
@@ -2300,19 +2300,19 @@
         <v>6339.01</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>6.7</v>
+        <v>7.54</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>640.1</v>
+        <v>1628.98</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>1.4</v>
+        <v>3.56</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>10.06</v>
+        <v>0.5</v>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
@@ -2386,19 +2386,19 @@
         <v>6339.01</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>6.72</v>
+        <v>7.56</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>641.5</v>
+        <v>1636.84</v>
       </c>
       <c r="S22" s="3" t="n">
-        <v>1.4</v>
+        <v>3.57</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>10.06</v>
+        <v>0.5</v>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
@@ -2472,19 +2472,19 @@
         <v>6339.01</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>4.21</v>
+        <v>4.73</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>401.99</v>
+        <v>648.97</v>
       </c>
       <c r="S23" s="3" t="n">
-        <v>1.4</v>
+        <v>2.26</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>10.06</v>
+        <v>0.31</v>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
@@ -2558,19 +2558,19 @@
         <v>6339.01</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>56.03</v>
+        <v>14.91</v>
       </c>
       <c r="S24" s="3" t="n">
-        <v>1.4</v>
+        <v>0.37</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>10.06</v>
+        <v>0.05</v>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
@@ -2644,19 +2644,19 @@
         <v>6339.01</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>84.04000000000001</v>
+        <v>31.56</v>
       </c>
       <c r="S25" s="3" t="n">
-        <v>1.4</v>
+        <v>0.53</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>10.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
@@ -2730,19 +2730,19 @@
         <v>6339.01</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>70.03</v>
+        <v>22.47</v>
       </c>
       <c r="S26" s="3" t="n">
-        <v>1.4</v>
+        <v>0.45</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>10.06</v>
+        <v>0.06</v>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
@@ -2816,19 +2816,19 @@
         <v>6339.01</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>70.03</v>
+        <v>22.47</v>
       </c>
       <c r="S27" s="3" t="n">
-        <v>1.4</v>
+        <v>0.45</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>10.06</v>
+        <v>0.06</v>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
@@ -2902,19 +2902,19 @@
         <v>6339.01</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>154.07</v>
+        <v>100.03</v>
       </c>
       <c r="S28" s="3" t="n">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>10.06</v>
+        <v>0.13</v>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
@@ -2988,19 +2988,19 @@
         <v>6339.01</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>1955.98</v>
+        <v>2201.05</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>33657.58</v>
+        <v>136294621.08</v>
       </c>
       <c r="S29" s="3" t="n">
-        <v>16.5</v>
+        <v>66811.09</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>118.46</v>
+        <v>9305.17</v>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
@@ -3074,19 +3074,19 @@
         <v>6339.01</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>1411.56</v>
+        <v>1588.42</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>22873.56</v>
+        <v>70982853.18000001</v>
       </c>
       <c r="S30" s="3" t="n">
-        <v>8.17</v>
+        <v>25351.02</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>58.65</v>
+        <v>3530.78</v>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
@@ -3161,19 +3161,19 @@
         <v>6339.01</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>1218.49</v>
+        <v>66.55</v>
       </c>
       <c r="S31" s="3" t="n">
-        <v>609.24</v>
+        <v>33.28</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>4374.38</v>
+        <v>4.63</v>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
@@ -3247,19 +3247,19 @@
         <v>6339.01</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0.98</v>
+        <v>1.1</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>420.98</v>
+        <v>54.08</v>
       </c>
       <c r="S32" s="3" t="n">
-        <v>84.2</v>
+        <v>10.82</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>604.52</v>
+        <v>1.51</v>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>484.67966574</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>34</v>
+        <v>64.2</v>
       </c>
       <c r="J33" s="3" t="n">
         <v>1160</v>
@@ -3337,19 +3337,19 @@
         <v>6339.01</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>55.42</v>
+        <v>117.76</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>3709.42</v>
+        <v>390279.05</v>
       </c>
       <c r="S33" s="3" t="n">
-        <v>1236.47</v>
+        <v>130093.02</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>8877.879999999999</v>
+        <v>18118.8</v>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
@@ -3427,19 +3427,19 @@
         <v>6339.01</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>55.42</v>
+        <v>62.36</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>16435.42</v>
+        <v>110193.51</v>
       </c>
       <c r="S34" s="3" t="n">
-        <v>1369.62</v>
+        <v>9182.790000000001</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>9833.860000000001</v>
+        <v>1278.94</v>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
@@ -3516,19 +3516,19 @@
         <v>6339.01</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>334.15</v>
+        <v>376.01</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>3169.15</v>
+        <v>3977717</v>
       </c>
       <c r="S35" s="3" t="n">
-        <v>352.13</v>
+        <v>441968.56</v>
       </c>
       <c r="T35" s="3" t="n">
-        <v>2528.27</v>
+        <v>61555.51</v>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
@@ -3602,19 +3602,19 @@
         <v>6339.01</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>440.1</v>
+        <v>495.24</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>36140.1</v>
+        <v>6901539.66</v>
       </c>
       <c r="S36" s="3" t="n">
-        <v>3614.01</v>
+        <v>690153.97</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>25948.59</v>
+        <v>96121.72</v>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
@@ -3688,19 +3688,19 @@
         <v>6339.01</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>717.1900000000001</v>
+        <v>807.05</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>54792.19</v>
+        <v>18326427.96</v>
       </c>
       <c r="S37" s="3" t="n">
-        <v>5479.22</v>
+        <v>1832642.8</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>39340.79</v>
+        <v>255242.73</v>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
@@ -3774,19 +3774,19 @@
         <v>6339.01</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>24.45</v>
+        <v>27.51</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>1006.2</v>
+        <v>21342.57</v>
       </c>
       <c r="S38" s="3" t="n">
-        <v>1006.2</v>
+        <v>21342.57</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>7224.51</v>
+        <v>2972.5</v>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
@@ -3860,19 +3860,19 @@
         <v>6339.01</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>231.15</v>
+        <v>11.77</v>
       </c>
       <c r="S39" s="3" t="n">
-        <v>23.11</v>
+        <v>1.18</v>
       </c>
       <c r="T39" s="3" t="n">
-        <v>165.96</v>
+        <v>0.16</v>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
@@ -3948,19 +3948,19 @@
         <v>6339.01</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>1837.57</v>
+        <v>87.7</v>
       </c>
       <c r="S40" s="3" t="n">
-        <v>367.51</v>
+        <v>17.54</v>
       </c>
       <c r="T40" s="3" t="n">
-        <v>2638.74</v>
+        <v>2.44</v>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
@@ -4034,19 +4034,19 @@
         <v>6339.01</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>7.33</v>
+        <v>8.25</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>4207.33</v>
+        <v>2116.73</v>
       </c>
       <c r="S41" s="3" t="n">
-        <v>8.41</v>
+        <v>4.23</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>60.42</v>
+        <v>0.59</v>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
@@ -4116,19 +4116,19 @@
         <v>6339.01</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q42" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>462.07</v>
+        <v>22.16</v>
       </c>
       <c r="S42" s="3" t="n">
-        <v>115.52</v>
+        <v>5.54</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>829.41</v>
+        <v>0.77</v>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
@@ -4198,19 +4198,19 @@
         <v>6339.01</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>978.9299999999999</v>
+        <v>46.79</v>
       </c>
       <c r="S43" s="3" t="n">
-        <v>195.79</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>1405.74</v>
+        <v>1.3</v>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
@@ -4284,19 +4284,19 @@
         <v>6339.01</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>10395.03</v>
+        <v>495.31</v>
       </c>
       <c r="S44" s="3" t="n">
-        <v>5197.52</v>
+        <v>247.66</v>
       </c>
       <c r="T44" s="3" t="n">
-        <v>37318.17</v>
+        <v>34.49</v>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
@@ -4370,19 +4370,19 @@
         <v>6339.01</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>68.40000000000001</v>
+        <v>4.02</v>
       </c>
       <c r="S45" s="3" t="n">
-        <v>6.84</v>
+        <v>0.4</v>
       </c>
       <c r="T45" s="3" t="n">
-        <v>49.11</v>
+        <v>0.06</v>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
@@ -4456,19 +4456,19 @@
         <v>6339.01</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>68.40000000000001</v>
+        <v>4.02</v>
       </c>
       <c r="S46" s="3" t="n">
-        <v>6.84</v>
+        <v>0.4</v>
       </c>
       <c r="T46" s="3" t="n">
-        <v>49.11</v>
+        <v>0.06</v>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
@@ -4542,19 +4542,19 @@
         <v>6339.01</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>462.03</v>
+        <v>22.05</v>
       </c>
       <c r="S47" s="3" t="n">
-        <v>231.02</v>
+        <v>11.02</v>
       </c>
       <c r="T47" s="3" t="n">
-        <v>1658.7</v>
+        <v>1.54</v>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
@@ -4628,19 +4628,19 @@
         <v>6339.01</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>462.03</v>
+        <v>22.05</v>
       </c>
       <c r="S48" s="3" t="n">
-        <v>231.02</v>
+        <v>11.02</v>
       </c>
       <c r="T48" s="3" t="n">
-        <v>1658.7</v>
+        <v>1.54</v>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
@@ -4714,19 +4714,19 @@
         <v>6339.01</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>462.03</v>
+        <v>22.05</v>
       </c>
       <c r="S49" s="3" t="n">
-        <v>231.02</v>
+        <v>11.02</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>1658.7</v>
+        <v>1.54</v>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
@@ -4800,19 +4800,19 @@
         <v>6339.01</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>462.03</v>
+        <v>22.05</v>
       </c>
       <c r="S50" s="3" t="n">
-        <v>231.02</v>
+        <v>11.02</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>1658.7</v>
+        <v>1.54</v>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
@@ -4886,19 +4886,19 @@
         <v>6339.01</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>6.85</v>
+        <v>7.7</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>695.65</v>
+        <v>1702.41</v>
       </c>
       <c r="S51" s="3" t="n">
-        <v>347.82</v>
+        <v>851.2</v>
       </c>
       <c r="T51" s="3" t="n">
-        <v>2497.37</v>
+        <v>118.55</v>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
@@ -4972,19 +4972,19 @@
         <v>6339.01</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>6.52</v>
+        <v>7.34</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>695.3200000000001</v>
+        <v>1547.19</v>
       </c>
       <c r="S52" s="3" t="n">
-        <v>347.66</v>
+        <v>773.59</v>
       </c>
       <c r="T52" s="3" t="n">
-        <v>2496.2</v>
+        <v>107.74</v>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -655,25 +655,25 @@
         <v>2625</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O2" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>4.77</v>
+        <v>4.78</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>764.89</v>
+        <v>2629.78</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>1.53</v>
+        <v>5.26</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.21</v>
+        <v>0.73</v>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
@@ -741,25 +741,25 @@
         <v>346.5</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O3" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>2.02</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>131.03</v>
+        <v>348.52</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>43.68</v>
+        <v>116.17</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>6.08</v>
+        <v>16.18</v>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
@@ -827,25 +827,25 @@
         <v>163.8</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O4" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>0.92</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>31.47</v>
+        <v>164.72</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>15.73</v>
+        <v>82.36</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>2.19</v>
+        <v>11.47</v>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
@@ -913,25 +913,25 @@
         <v>81.90000000000001</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O5" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>0.37</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>7.69</v>
+        <v>82.27</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>7.69</v>
+        <v>82.27</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>1.07</v>
+        <v>11.46</v>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
@@ -999,25 +999,25 @@
         <v>346.5</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O6" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>243.9</v>
+        <v>349.35</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>81.3</v>
+        <v>116.45</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>11.32</v>
+        <v>16.22</v>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
@@ -1085,25 +1085,25 @@
         <v>2373</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O7" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>3.67</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>491.65</v>
+        <v>2376.67</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>4.92</v>
+        <v>23.77</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.68</v>
+        <v>3.31</v>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
@@ -1177,25 +1177,25 @@
         <v>115.08</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O8" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>422.88</v>
+        <v>118.94</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>3.09</v>
+        <v>0.87</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
@@ -1264,25 +1264,25 @@
         <v>1197</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O9" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>908.86</v>
+        <v>1202.51</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>908.86</v>
+        <v>1202.51</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>126.58</v>
+        <v>167.48</v>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
@@ -1350,25 +1350,25 @@
         <v>241.5</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O10" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>2377.71</v>
+        <v>250.68</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>2377.71</v>
+        <v>250.68</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>331.16</v>
+        <v>34.91</v>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
@@ -1436,25 +1436,25 @@
         <v>582.75</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O11" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>2393.97</v>
+        <v>591.9299999999999</v>
       </c>
       <c r="S11" s="3" t="n">
-        <v>797.99</v>
+        <v>197.31</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>111.14</v>
+        <v>27.48</v>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
@@ -1518,25 +1518,25 @@
         <v>1837.5</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O12" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>2.26</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>230.74</v>
+        <v>1839.76</v>
       </c>
       <c r="S12" s="3" t="n">
-        <v>46.15</v>
+        <v>367.95</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>6.43</v>
+        <v>51.25</v>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
@@ -1604,25 +1604,25 @@
         <v>157.5</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O13" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" s="3" t="n">
         <v>0.28</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>9.630000000000001</v>
+        <v>157.78</v>
       </c>
       <c r="S13" s="3" t="n">
-        <v>0.32</v>
+        <v>5.26</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>0.04</v>
+        <v>0.73</v>
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
@@ -1692,25 +1692,25 @@
         <v>2625</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O14" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>4.59</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>716.62</v>
+        <v>2629.59</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>1.43</v>
+        <v>5.26</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>0.2</v>
+        <v>0.73</v>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
@@ -1778,25 +1778,25 @@
         <v>2100</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O15" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>3.67</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>478.65</v>
+        <v>2103.67</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>1.2</v>
+        <v>5.26</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
@@ -1864,25 +1864,25 @@
         <v>210</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O16" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" s="3" t="n">
         <v>0.37</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>13.79</v>
+        <v>210.37</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>0.34</v>
+        <v>5.26</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>0.05</v>
+        <v>0.73</v>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
@@ -1950,25 +1950,25 @@
         <v>126</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O17" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" s="3" t="n">
         <v>0.37</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>9.789999999999999</v>
+        <v>126.37</v>
       </c>
       <c r="S17" s="3" t="n">
-        <v>0.24</v>
+        <v>3.16</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
         <v>176.4</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O18" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>54.78</v>
+        <v>177.69</v>
       </c>
       <c r="S18" s="3" t="n">
-        <v>0.39</v>
+        <v>1.27</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
@@ -2122,25 +2122,25 @@
         <v>259.88</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O19" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>160.27</v>
+        <v>262.17</v>
       </c>
       <c r="S19" s="3" t="n">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
@@ -2208,25 +2208,25 @@
         <v>537.77</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O20" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>6.4</v>
+        <v>6.41</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>1178.44</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="S20" s="3" t="n">
-        <v>3.04</v>
+        <v>1.4</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
@@ -2294,25 +2294,25 @@
         <v>633.4</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O21" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>7.54</v>
+        <v>7.55</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>1628.98</v>
+        <v>640.95</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>3.56</v>
+        <v>1.4</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
@@ -2380,25 +2380,25 @@
         <v>634.79</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O22" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>7.56</v>
+        <v>7.57</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>1636.84</v>
+        <v>642.35</v>
       </c>
       <c r="S22" s="3" t="n">
-        <v>3.57</v>
+        <v>1.4</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
@@ -2466,25 +2466,25 @@
         <v>397.78</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O23" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>648.97</v>
+        <v>402.52</v>
       </c>
       <c r="S23" s="3" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
@@ -2552,25 +2552,25 @@
         <v>55.44</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O24" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>0.66</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>14.91</v>
+        <v>56.1</v>
       </c>
       <c r="S24" s="3" t="n">
-        <v>0.37</v>
+        <v>1.4</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
@@ -2638,25 +2638,25 @@
         <v>83.16</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O25" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>0.99</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>31.56</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="S25" s="3" t="n">
-        <v>0.53</v>
+        <v>1.4</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
@@ -2724,25 +2724,25 @@
         <v>69.3</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0.83</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>22.47</v>
+        <v>70.13</v>
       </c>
       <c r="S26" s="3" t="n">
-        <v>0.45</v>
+        <v>1.4</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
@@ -2810,25 +2810,25 @@
         <v>69.3</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O27" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q27" s="3" t="n">
         <v>0.83</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>22.47</v>
+        <v>70.13</v>
       </c>
       <c r="S27" s="3" t="n">
-        <v>0.45</v>
+        <v>1.4</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
@@ -2896,25 +2896,25 @@
         <v>152.46</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O28" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" s="3" t="n">
         <v>1.82</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>100.03</v>
+        <v>154.28</v>
       </c>
       <c r="S28" s="3" t="n">
-        <v>0.91</v>
+        <v>1.4</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
@@ -2982,25 +2982,25 @@
         <v>31701.6</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O29" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2201.05</v>
+        <v>2203.97</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>136294621.08</v>
+        <v>33905.57</v>
       </c>
       <c r="S29" s="3" t="n">
-        <v>66811.09</v>
+        <v>16.62</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>9305.17</v>
+        <v>2.31</v>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
@@ -3068,25 +3068,25 @@
         <v>21462</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O30" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>1588.42</v>
+        <v>1590.53</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>70982853.18000001</v>
+        <v>23052.53</v>
       </c>
       <c r="S30" s="3" t="n">
-        <v>25351.02</v>
+        <v>8.23</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>3530.78</v>
+        <v>1.15</v>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
@@ -3155,25 +3155,25 @@
         <v>1218</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O31" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" s="3" t="n">
         <v>0.55</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>66.55</v>
+        <v>1218.55</v>
       </c>
       <c r="S31" s="3" t="n">
-        <v>33.28</v>
+        <v>609.28</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>4.63</v>
+        <v>84.86</v>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
@@ -3241,25 +3241,25 @@
         <v>420</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O32" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q32" s="3" t="n">
         <v>1.1</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>54.08</v>
+        <v>421.1</v>
       </c>
       <c r="S32" s="3" t="n">
-        <v>10.82</v>
+        <v>84.22</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>1.51</v>
+        <v>11.73</v>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
@@ -3331,25 +3331,25 @@
         <v>3654</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O33" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>117.76</v>
+        <v>117.91</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>390279.05</v>
+        <v>3771.91</v>
       </c>
       <c r="S33" s="3" t="n">
-        <v>130093.02</v>
+        <v>1257.3</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>18118.8</v>
+        <v>175.11</v>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
@@ -3421,25 +3421,25 @@
         <v>16380</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O34" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>62.36</v>
+        <v>62.45</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>110193.51</v>
+        <v>16442.45</v>
       </c>
       <c r="S34" s="3" t="n">
-        <v>9182.790000000001</v>
+        <v>1370.2</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>1278.94</v>
+        <v>190.84</v>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
@@ -3510,25 +3510,25 @@
         <v>2835</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O35" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>376.01</v>
+        <v>376.51</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>3977717</v>
+        <v>3211.51</v>
       </c>
       <c r="S35" s="3" t="n">
-        <v>441968.56</v>
+        <v>356.83</v>
       </c>
       <c r="T35" s="3" t="n">
-        <v>61555.51</v>
+        <v>49.7</v>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
@@ -3596,25 +3596,25 @@
         <v>35700</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O36" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>495.24</v>
+        <v>495.89</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>6901539.66</v>
+        <v>36195.89</v>
       </c>
       <c r="S36" s="3" t="n">
-        <v>690153.97</v>
+        <v>3619.59</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>96121.72</v>
+        <v>504.12</v>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
@@ -3682,25 +3682,25 @@
         <v>54075</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O37" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>807.05</v>
+        <v>808.12</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>18326427.96</v>
+        <v>54883.12</v>
       </c>
       <c r="S37" s="3" t="n">
-        <v>1832642.8</v>
+        <v>5488.31</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>255242.73</v>
+        <v>764.39</v>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
@@ -3768,25 +3768,25 @@
         <v>981.75</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O38" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>27.51</v>
+        <v>27.55</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>21342.57</v>
+        <v>1009.3</v>
       </c>
       <c r="S38" s="3" t="n">
-        <v>21342.57</v>
+        <v>1009.3</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>2972.5</v>
+        <v>140.57</v>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
@@ -3854,25 +3854,25 @@
         <v>231</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O39" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>0.17</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>11.77</v>
+        <v>231.17</v>
       </c>
       <c r="S39" s="3" t="n">
-        <v>1.18</v>
+        <v>23.12</v>
       </c>
       <c r="T39" s="3" t="n">
-        <v>0.16</v>
+        <v>3.22</v>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
@@ -3942,25 +3942,25 @@
         <v>1837.5</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O40" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>87.7</v>
+        <v>1837.57</v>
       </c>
       <c r="S40" s="3" t="n">
-        <v>17.54</v>
+        <v>367.51</v>
       </c>
       <c r="T40" s="3" t="n">
-        <v>2.44</v>
+        <v>51.19</v>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
@@ -4028,25 +4028,25 @@
         <v>4200</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O41" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>8.25</v>
+        <v>8.26</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>2116.73</v>
+        <v>4208.26</v>
       </c>
       <c r="S41" s="3" t="n">
-        <v>4.23</v>
+        <v>8.42</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>0.59</v>
+        <v>1.17</v>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
@@ -4110,25 +4110,25 @@
         <v>462</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O42" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q42" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>22.16</v>
+        <v>462.07</v>
       </c>
       <c r="S42" s="3" t="n">
-        <v>5.54</v>
+        <v>115.52</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>0.77</v>
+        <v>16.09</v>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
@@ -4192,25 +4192,25 @@
         <v>978.86</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O43" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>46.79</v>
+        <v>978.9400000000001</v>
       </c>
       <c r="S43" s="3" t="n">
-        <v>9.359999999999999</v>
+        <v>195.79</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>1.3</v>
+        <v>27.27</v>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
@@ -4278,25 +4278,25 @@
         <v>10395</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O44" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0.04</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>495.31</v>
+        <v>10395.04</v>
       </c>
       <c r="S44" s="3" t="n">
-        <v>247.66</v>
+        <v>5197.52</v>
       </c>
       <c r="T44" s="3" t="n">
-        <v>34.49</v>
+        <v>723.89</v>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
@@ -4364,25 +4364,25 @@
         <v>68.25</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O45" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q45" s="3" t="n">
         <v>0.17</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>4.02</v>
+        <v>68.42</v>
       </c>
       <c r="S45" s="3" t="n">
-        <v>0.4</v>
+        <v>6.84</v>
       </c>
       <c r="T45" s="3" t="n">
-        <v>0.06</v>
+        <v>0.95</v>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
@@ -4450,25 +4450,25 @@
         <v>68.25</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O46" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q46" s="3" t="n">
         <v>0.17</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>4.02</v>
+        <v>68.42</v>
       </c>
       <c r="S46" s="3" t="n">
-        <v>0.4</v>
+        <v>6.84</v>
       </c>
       <c r="T46" s="3" t="n">
-        <v>0.06</v>
+        <v>0.95</v>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
@@ -4536,25 +4536,25 @@
         <v>462</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O47" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q47" s="3" t="n">
         <v>0.04</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S47" s="3" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T47" s="3" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
@@ -4622,25 +4622,25 @@
         <v>462</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O48" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>0.04</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S48" s="3" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T48" s="3" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
@@ -4708,25 +4708,25 @@
         <v>462</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O49" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q49" s="3" t="n">
         <v>0.04</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S49" s="3" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
@@ -4794,25 +4794,25 @@
         <v>462</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O50" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0.04</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S50" s="3" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
@@ -4880,25 +4880,25 @@
         <v>688.8</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O51" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>1702.41</v>
+        <v>696.51</v>
       </c>
       <c r="S51" s="3" t="n">
-        <v>851.2</v>
+        <v>348.26</v>
       </c>
       <c r="T51" s="3" t="n">
-        <v>118.55</v>
+        <v>48.5</v>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
@@ -4966,25 +4966,25 @@
         <v>688.8</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O52" s="3" t="n">
         <v>6339.01</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>7.34</v>
+        <v>7.35</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>1547.19</v>
+        <v>696.15</v>
       </c>
       <c r="S52" s="3" t="n">
-        <v>773.59</v>
+        <v>348.07</v>
       </c>
       <c r="T52" s="3" t="n">
-        <v>107.74</v>
+        <v>48.48</v>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -605,15 +605,187 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
+          <t>C100.030911007</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>端子</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>XH2,54 端子，1包50个</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.00278765</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>19.51355</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>147</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>452</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>149.21</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Silvassa</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>C100.030911008</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>端子</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>VH3.96 端子，1包50个</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.00696913</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>20.90739</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>452</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>158.45</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>Silvassa</t>
+        </is>
+      </c>
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>铣刀</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -625,241 +797,69 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0.69637883</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>348.189415</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J2" s="3" t="n">
+      <c r="E4" s="3" t="n">
+        <v>0.69691268</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>450</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>313.610706</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="L2" s="3" t="n">
+      <c r="K4" s="3" t="n">
+        <v>2250</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>5.25</v>
       </c>
-      <c r="M2" s="3" t="n">
-        <v>2625</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>2629.78</v>
-      </c>
-      <c r="S2" s="3" t="n">
+      <c r="M4" s="3" t="n">
+        <v>2362.5</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>452</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>2366.83</v>
+      </c>
+      <c r="S4" s="3" t="n">
         <v>5.26</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T4" s="3" t="n">
         <v>0.73</v>
       </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t>Silvassa</t>
+        </is>
+      </c>
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>SMT工厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>E100.020310008</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>红外发热管</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>型号：长度630mm,110V-500W</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>15.32033426</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>45.96100278</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>330</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>115.5</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>346.5</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>348.52</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>116.17</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="U3" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V3" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>E100.020310014</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>联轴器</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>型号：12-14</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>10.86350975</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>21.7270195</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>78</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>156</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>163.8</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>164.72</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>82.36</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="U4" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V4" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X4" s="3" t="inlineStr"/>
@@ -870,82 +870,85 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>C100.C09-004-01-00</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>联轴器</t>
+          <t>胶带</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>型号：8-14</t>
+          <t>13.3mm*200m/
+JL62 13.3*200
+230415455Y8212
+self-adhesive upper cover material Film</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>10.86350975</v>
+        <v>3.67969893</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>10.86350975</v>
+        <v>110.3909679</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>78</v>
+        <v>26.4</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>78</v>
+        <v>792</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>81.90000000000001</v>
+        <v>27.72</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>81.90000000000001</v>
+        <v>831.6</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.37</v>
+        <v>13</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>82.27</v>
+        <v>844.6</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>82.27</v>
+        <v>28.15</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>11.46</v>
+        <v>3.92</v>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X5" s="3" t="inlineStr"/>
@@ -956,82 +959,83 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.010503001</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>红外发热管</t>
+          <t>胶带</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>型号：长度630mm,110V-500W</t>
+          <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
+21.3mm 200M/卷</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>15.32033426</v>
+        <v>6.28615235</v>
       </c>
       <c r="F6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>37.7169141</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>45.96100278</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1.55</v>
-      </c>
       <c r="J6" s="3" t="n">
-        <v>110</v>
+        <v>45.1</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>330</v>
+        <v>270.6</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>115.5</v>
+        <v>47.36</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>346.5</v>
+        <v>284.13</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2.85</v>
+        <v>5.57</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>349.35</v>
+        <v>289.7</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>116.45</v>
+        <v>48.28</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>16.22</v>
+        <v>6.73</v>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X6" s="3" t="inlineStr"/>
@@ -1042,82 +1046,84 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>C100.010523005</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>重型双柱爪</t>
+          <t>载带</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Jaguar Part No.:QLDZ.0014</t>
+          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
+24*16*0.30 
+200米/卷</t>
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>3.14763231</v>
+        <v>17.78521151</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>314.763231</v>
+        <v>53.35563453</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>2</v>
+        <v>5.82</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>22.6</v>
+        <v>127.6</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>2260</v>
+        <v>382.8</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>23.73</v>
+        <v>133.98</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>2373</v>
+        <v>401.94</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>3.67</v>
+        <v>10.81</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>2376.67</v>
+        <v>412.75</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>23.77</v>
+        <v>137.58</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>3.31</v>
+        <v>19.18</v>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X7" s="3" t="inlineStr"/>
@@ -1128,88 +1134,84 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>C100.010523005</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>过滤棉</t>
+          <t>载带</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Part No.:N510059196AA
-Part Name:ELEMENT
-Remark: ZS-36-A-X264
-Used for : Panasonic NPM 3 nozzle head (NH) maintenance
-Spare Sr. No.: 22
-Spare Page No.: 148
-Section No.: 43-D</t>
+          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
+24*16*0.30 
+200米/卷</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.11142061</v>
+        <v>17.78521151</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>15.26462357</v>
+        <v>71.14084604</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>2.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.8</v>
+        <v>127.6</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>109.6</v>
+        <v>510.4</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0.84</v>
+        <v>133.98</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>115.08</v>
+        <v>535.92</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>3.86</v>
+        <v>17.09</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>118.94</v>
+        <v>553.01</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>0.87</v>
+        <v>138.25</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>0.12</v>
+        <v>19.27</v>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr"/>
@@ -1220,83 +1222,82 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>C100.010523004</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>变频器</t>
+          <t>载带</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>S/N:FA2P5N1W20360133
-JI编号：30000127</t>
+          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
       <c r="E9" s="3" t="n">
-        <v>158.77437326</v>
+        <v>24.53132622</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>158.77437326</v>
+        <v>49.06265244</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>3</v>
+        <v>5.69</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>1140</v>
+        <v>176</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>1140</v>
+        <v>352</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>1197</v>
+        <v>184.8</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>1197</v>
+        <v>369.6</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>5.51</v>
+        <v>10.57</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>1202.51</v>
+        <v>380.17</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>1202.51</v>
+        <v>190.08</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>167.48</v>
+        <v>26.49</v>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X9" s="3" t="inlineStr"/>
@@ -1307,24 +1308,26 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>J100.S07-010-05-01</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>品牌：星火世纪，型号：STM86118S</t>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-K
+3.刀口宽度：5mm</t>
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>32.03342618</v>
+        <v>0.69691268</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>1</v>
+        <v>465</v>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
@@ -1332,43 +1335,43 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>32.03342618</v>
+        <v>324.0643962</v>
       </c>
       <c r="I10" s="3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>230</v>
-      </c>
       <c r="K10" s="3" t="n">
-        <v>230</v>
+        <v>2325</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>241.5</v>
+        <v>5.25</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>241.5</v>
+        <v>2441.25</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>9.18</v>
+        <v>4.75</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>250.68</v>
+        <v>2446</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>250.68</v>
+        <v>5.26</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>34.91</v>
+        <v>0.73</v>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
@@ -1377,12 +1380,12 @@
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X10" s="3" t="inlineStr"/>
@@ -1393,24 +1396,26 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>品牌：星火自动化，型号：STM8680</t>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-B
+3.圆头，宽度1.2mm</t>
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>25.76601671</v>
+        <v>0.69691268</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
@@ -1418,43 +1423,43 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>77.29805012999999</v>
+        <v>348.45634</v>
       </c>
       <c r="I11" s="3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>185</v>
-      </c>
       <c r="K11" s="3" t="n">
-        <v>555</v>
+        <v>2500</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>194.25</v>
+        <v>5.25</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>582.75</v>
+        <v>2625</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>9.18</v>
+        <v>5.11</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>591.9299999999999</v>
+        <v>2630.11</v>
       </c>
       <c r="S11" s="3" t="n">
-        <v>197.31</v>
+        <v>5.26</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>27.48</v>
+        <v>0.73</v>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
@@ -1463,12 +1468,12 @@
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X11" s="3" t="inlineStr"/>
@@ -1479,64 +1484,68 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>气密阀</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr"/>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>900M-T-4C</t>
+        </is>
+      </c>
       <c r="E12" s="3" t="n">
-        <v>48.74651811</v>
+        <v>0.69691268</v>
       </c>
       <c r="F12" s="3" t="n">
+        <v>546</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>380.51432328</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>243.73259055</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>350</v>
-      </c>
       <c r="K12" s="3" t="n">
-        <v>1750</v>
+        <v>2730</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>367.5</v>
+        <v>5.25</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>1837.5</v>
+        <v>2866.5</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>2.26</v>
+        <v>5.57</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>1839.76</v>
+        <v>2872.07</v>
       </c>
       <c r="S12" s="3" t="n">
-        <v>367.95</v>
+        <v>5.26</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>51.25</v>
+        <v>0.73</v>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
@@ -1561,7 +1570,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1571,14 +1580,14 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Solder bit_Blade_Type_900M-T-sk</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.69637883</v>
+        <v>0.69691268</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
@@ -1586,37 +1595,37 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>20.8913649</v>
+        <v>27.8765072</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>5.25</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>157.5</v>
+        <v>210</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>157.78</v>
+        <v>210.41</v>
       </c>
       <c r="S13" s="3" t="n">
         <v>5.26</v>
@@ -1631,12 +1640,12 @@
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X13" s="3" t="inlineStr"/>
@@ -1647,7 +1656,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1657,16 +1666,14 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-B
-3.圆头，宽度1.2mm</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.69637883</v>
+        <v>0.69691268</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
@@ -1674,37 +1681,37 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>348.189415</v>
+        <v>27.8765072</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>2.5</v>
+        <v>0.22</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>5.25</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>2625</v>
+        <v>210</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>4.59</v>
+        <v>0.41</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>2629.59</v>
+        <v>210.41</v>
       </c>
       <c r="S14" s="3" t="n">
         <v>5.26</v>
@@ -1735,24 +1742,24 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>焊接海绵</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>size:60mm X 55mm</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.69637883</v>
+        <v>0.13798871</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
@@ -1760,43 +1767,43 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>278.551532</v>
+        <v>34.4971775</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>5</v>
+        <v>0.99</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>2000</v>
+        <v>247.5</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>5.25</v>
+        <v>1.04</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>2100</v>
+        <v>259.88</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>2103.67</v>
+        <v>260.25</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>5.26</v>
+        <v>1.04</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0.73</v>
+        <v>0.15</v>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
@@ -1821,72 +1828,72 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>C100.C06-019-05-00</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>无尘布</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.69637883</v>
+        <v>4.10063419</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>包</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>27.8551532</v>
+        <v>410.063419</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.2</v>
+        <v>40.3</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>5</v>
+        <v>29.42</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>200</v>
+        <v>2942</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>5.25</v>
+        <v>30.89</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>210</v>
+        <v>3089.1</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.37</v>
+        <v>74.84</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>210.37</v>
+        <v>3163.94</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>5.26</v>
+        <v>31.64</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>0.73</v>
+        <v>4.41</v>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>包</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
@@ -1907,24 +1914,24 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>6.30x75x4.0x1</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.4178273</v>
+        <v>0.18398495</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
@@ -1932,43 +1939,43 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>16.713092</v>
+        <v>73.59398</v>
       </c>
       <c r="I17" s="3" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>528</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>554.4</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>452</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>560.64</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" s="3" t="n">
         <v>0.2</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R17" s="3" t="n">
-        <v>126.37</v>
-      </c>
-      <c r="S17" s="3" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="T17" s="3" t="n">
-        <v>0.44</v>
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
@@ -1993,24 +2000,24 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>热电偶</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>WRNT-013 3000mm</t>
+          <t>6.30X75X3.0</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.16713092</v>
+        <v>0.18398495</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
@@ -2018,43 +2025,43 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>23.3983288</v>
+        <v>72.67405524999999</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.7</v>
+        <v>3.31</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>168</v>
+        <v>521.4</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>176.4</v>
+        <v>547.47</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>1.29</v>
+        <v>6.15</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>177.69</v>
+        <v>553.62</v>
       </c>
       <c r="S18" s="3" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
@@ -2079,24 +2086,24 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>焊接海绵</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>size:60mm X 55mm</t>
+          <t>6.30X75X3.5</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.13788301</v>
+        <v>0.18398495</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
@@ -2104,43 +2111,43 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>34.4707525</v>
+        <v>73.59398</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>1.25</v>
+        <v>3.36</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>247.5</v>
+        <v>528</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>259.88</v>
+        <v>554.4</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2.3</v>
+        <v>6.24</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>262.17</v>
+        <v>560.64</v>
       </c>
       <c r="S19" s="3" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
@@ -2165,7 +2172,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2175,14 +2182,14 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>6.30x75x4.0x1</t>
+          <t>6.30X75X2.5X1</t>
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>388</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
@@ -2190,37 +2197,37 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>71.33147588</v>
+        <v>36.79699</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>3.49</v>
+        <v>1.68</v>
       </c>
       <c r="J20" s="3" t="n">
         <v>1.32</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>512.16</v>
+        <v>264</v>
       </c>
       <c r="L20" s="3" t="n">
         <v>1.39</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>537.77</v>
+        <v>277.2</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>6.41</v>
+        <v>3.12</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>544.1799999999999</v>
+        <v>280.32</v>
       </c>
       <c r="S20" s="3" t="n">
         <v>1.4</v>
@@ -2251,7 +2258,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2261,14 +2268,14 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>6.30X75X3.0</t>
+          <t>6.30X75XT6</t>
         </is>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>457</v>
+        <v>90</v>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
@@ -2276,37 +2283,37 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>84.01671257</v>
+        <v>16.5586455</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>4.11</v>
+        <v>0.75</v>
       </c>
       <c r="J21" s="3" t="n">
         <v>1.32</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>603.24</v>
+        <v>118.8</v>
       </c>
       <c r="L21" s="3" t="n">
         <v>1.39</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>633.4</v>
+        <v>124.74</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>7.55</v>
+        <v>1.39</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>640.95</v>
+        <v>126.13</v>
       </c>
       <c r="S21" s="3" t="n">
         <v>1.4</v>
@@ -2337,7 +2344,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2347,14 +2354,14 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>6.30X75X3.5</t>
+          <t>6.30X75XT7</t>
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>458</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
@@ -2362,37 +2369,37 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>84.20055658</v>
+        <v>11.039097</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>4.12</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="3" t="n">
         <v>1.32</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>604.5599999999999</v>
+        <v>79.2</v>
       </c>
       <c r="L22" s="3" t="n">
         <v>1.39</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>634.79</v>
+        <v>83.16</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>7.57</v>
+        <v>0.93</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>642.35</v>
+        <v>84.09</v>
       </c>
       <c r="S22" s="3" t="n">
         <v>1.4</v>
@@ -2423,7 +2430,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2433,14 +2440,14 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>6.30X75X2.5X1</t>
+          <t>6.30X75XT8</t>
         </is>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
@@ -2448,37 +2455,37 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>52.76323087</v>
+        <v>9.1992475</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>2.58</v>
+        <v>0.42</v>
       </c>
       <c r="J23" s="3" t="n">
         <v>1.32</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>378.84</v>
+        <v>66</v>
       </c>
       <c r="L23" s="3" t="n">
         <v>1.39</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>397.78</v>
+        <v>69.3</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>4.74</v>
+        <v>0.78</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>402.52</v>
+        <v>70.08</v>
       </c>
       <c r="S23" s="3" t="n">
         <v>1.4</v>
@@ -2509,7 +2516,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -2519,14 +2526,14 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT6</t>
+          <t>6.30X100X3.8XT9</t>
         </is>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
@@ -2534,37 +2541,37 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>7.3537604</v>
+        <v>9.1992475</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="J24" s="3" t="n">
         <v>1.32</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>52.8</v>
+        <v>66</v>
       </c>
       <c r="L24" s="3" t="n">
         <v>1.39</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>55.44</v>
+        <v>69.3</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>56.1</v>
+        <v>70.08</v>
       </c>
       <c r="S24" s="3" t="n">
         <v>1.4</v>
@@ -2595,7 +2602,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -2605,14 +2612,14 @@
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT7</t>
+          <t>6.30X100X3.8XT10</t>
         </is>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
@@ -2620,37 +2627,37 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>11.0306406</v>
+        <v>20.2383445</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="J25" s="3" t="n">
         <v>1.32</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>79.2</v>
+        <v>145.2</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>1.39</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>83.16</v>
+        <v>152.46</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>0.99</v>
+        <v>1.71</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>84.15000000000001</v>
+        <v>154.17</v>
       </c>
       <c r="S25" s="3" t="n">
         <v>1.4</v>
@@ -2681,72 +2688,72 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.019100006</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>双侧皮带拉</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT8</t>
+          <t>50.60 mtrX300 mm</t>
         </is>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.18384401</v>
+        <v>153.79468953</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>条</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>9.1922005</v>
+        <v>461.38406859</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>0.45</v>
+        <v>57</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>1.32</v>
+        <v>1103.4</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>66</v>
+        <v>3310.2</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1.39</v>
+        <v>1158.57</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>69.3</v>
+        <v>3475.71</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>0.83</v>
+        <v>105.86</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>70.13</v>
+        <v>3581.57</v>
       </c>
       <c r="S26" s="3" t="n">
-        <v>1.4</v>
+        <v>1193.86</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>0.2</v>
+        <v>166.4</v>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>条</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
@@ -2756,7 +2763,7 @@
       </c>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>组装厂</t>
         </is>
       </c>
       <c r="X26" s="3" t="inlineStr"/>
@@ -2767,72 +2774,72 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.019100007</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>单侧皮带拉</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT9</t>
+          <t>50.20mtrx400 mm</t>
         </is>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.18384401</v>
+        <v>203.47062513</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>条</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>9.1922005</v>
+        <v>203.47062513</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>0.45</v>
+        <v>19</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>1.32</v>
+        <v>1459.8</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>66</v>
+        <v>1459.8</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>1.39</v>
+        <v>1532.79</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>69.3</v>
+        <v>1532.79</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0.83</v>
+        <v>35.29</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>70.13</v>
+        <v>1568.08</v>
       </c>
       <c r="S27" s="3" t="n">
-        <v>1.4</v>
+        <v>1568.08</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>0.2</v>
+        <v>218.56</v>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>条</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
@@ -2842,7 +2849,7 @@
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>组装厂</t>
         </is>
       </c>
       <c r="X27" s="3" t="inlineStr"/>
@@ -2853,72 +2860,72 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.019100008</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>双侧皮带拉</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT10</t>
+          <t>40.5mtrX300 mm</t>
         </is>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.18384401</v>
+        <v>123.06084048</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>条</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>20.2228411</v>
+        <v>123.06084048</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>0.99</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>1.32</v>
+        <v>882.9</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>145.2</v>
+        <v>882.9</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>1.39</v>
+        <v>927.04</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>152.46</v>
+        <v>927.04</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>1.82</v>
+        <v>35.29</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>154.28</v>
+        <v>962.33</v>
       </c>
       <c r="S28" s="3" t="n">
-        <v>1.4</v>
+        <v>962.33</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>0.2</v>
+        <v>134.13</v>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>条</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
@@ -2928,7 +2935,7 @@
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>组装厂</t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr"/>
@@ -2939,82 +2946,82 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.020308001</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>钢网擦拭纸</t>
+          <t>机械配件</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Paper width: 30cm, paper length: 28m,Shaft length: 36cm Shaft Internal diameter：26.1±0.2mm Shaft material：paper</t>
+          <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
       <c r="E29" s="3" t="n">
-        <v>2.06128134</v>
+        <v>97.56777476000001</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>2040</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>件</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>4205.0139336</v>
+        <v>585.40664856</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1200</v>
+        <v>30.52</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>14.8</v>
+        <v>700</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>30192</v>
+        <v>4200</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>15.54</v>
+        <v>735</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>31701.6</v>
+        <v>4410</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2203.97</v>
+        <v>56.68</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>33905.57</v>
+        <v>4466.68</v>
       </c>
       <c r="S29" s="3" t="n">
-        <v>16.62</v>
+        <v>744.45</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>2.31</v>
+        <v>103.76</v>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>件</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X29" s="3" t="inlineStr"/>
@@ -3025,82 +3032,82 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>E100.020308001</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>钢网擦拭纸</t>
+          <t>机械配件</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Paper width: 400mm, paper length: 10m,Shaft length: 410mm, Shaft inner diameter: 19.5mm</t>
+          <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
       <c r="E30" s="3" t="n">
-        <v>1.01671309</v>
+        <v>97.56777476000001</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>2800</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>件</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>2846.796652</v>
+        <v>97.56777476000001</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>866</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>7.3</v>
+        <v>700</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>20440</v>
+        <v>700</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>7.66</v>
+        <v>735</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>21462</v>
+        <v>735</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>1590.53</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>23052.53</v>
+        <v>744.29</v>
       </c>
       <c r="S30" s="3" t="n">
-        <v>8.23</v>
+        <v>744.29</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>1.15</v>
+        <v>103.74</v>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>件</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X30" s="3" t="inlineStr"/>
@@ -3111,25 +3118,24 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>E100.0203133015</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>烧录座</t>
+          <t>定位销</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>品牌：浦洛 
-型号：AT-TSSOP20-CMS</t>
+          <t>FW07014AA</t>
         </is>
       </c>
       <c r="E31" s="3" t="n">
-        <v>80.77994429</v>
+        <v>1.10251585</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
@@ -3137,43 +3143,43 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>161.55988858</v>
+        <v>5.51257925</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>580</v>
+        <v>7.91</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>1160</v>
+        <v>39.55</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>609</v>
+        <v>8.31</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>1218</v>
+        <v>41.53</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>0.55</v>
+        <v>0.09</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>1218.55</v>
+        <v>41.62</v>
       </c>
       <c r="S31" s="3" t="n">
-        <v>609.28</v>
+        <v>8.32</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>84.86</v>
+        <v>1.16</v>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
@@ -3182,12 +3188,12 @@
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr"/>
@@ -3198,21 +3204,21 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.0203104009</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>滑轮</t>
+          <t>保险丝座</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>KLV-M913A-A10</t>
+          <t>排料机保险丝座</t>
         </is>
       </c>
       <c r="E32" s="3" t="n">
-        <v>11.14206128</v>
+        <v>2.78765071</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>5</v>
@@ -3223,43 +3229,43 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>55.7103064</v>
+        <v>13.93825355</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>420</v>
+        <v>105</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>1.1</v>
+        <v>0.09</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>421.1</v>
+        <v>105.09</v>
       </c>
       <c r="S32" s="3" t="n">
-        <v>84.22</v>
+        <v>21.02</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>11.73</v>
+        <v>2.93</v>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
@@ -3268,12 +3274,12 @@
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X32" s="3" t="inlineStr"/>
@@ -3284,81 +3290,77 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.0203104007</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>打包架</t>
+          <t>三角刀</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>1.主要材料：2张桌子+不锈钢精益管架+导轨滑轮;
-2.精益管架外围长:1700mm*1400mm;
-    配套桌子:2张，长600*宽140*高560mm,
-    桌子表面要贴静电皮+接地点+接地线
-3.整个打包架相关的尺寸必须要参考图纸进行制作；</t>
+          <t>排料机三角刀</t>
         </is>
       </c>
       <c r="E33" s="3" t="n">
-        <v>161.55988858</v>
+        <v>9.75677748</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>484.67966574</v>
+        <v>19.51355496</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>64.2</v>
+        <v>0.02</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>1160</v>
+        <v>70</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>3480</v>
+        <v>140</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>1218</v>
+        <v>73.5</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>3654</v>
+        <v>147</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>117.91</v>
+        <v>0.04</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>3771.91</v>
+        <v>147.04</v>
       </c>
       <c r="S33" s="3" t="n">
-        <v>1257.3</v>
+        <v>73.52</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>175.11</v>
+        <v>10.25</v>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -3370,85 +3372,81 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0203104017</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>周转车</t>
+          <t>送料器切刀</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.主要材质: 不锈钢精益管+滑轮轨道+万向滑轮(可刹车)
-2. 周转车外围尺寸: 高 1450*宽450*长450mm
-3. 符合ESD静电要求
-4.  层数: 11层，每层高度可调，宽度可调.
-</t>
+          <t>排料机送料器切刀</t>
         </is>
       </c>
       <c r="E34" s="3" t="n">
-        <v>181.05849582</v>
+        <v>2.78765071</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>2172.70194984</v>
+        <v>13.93825355</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>34</v>
+        <v>0.05</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>1300</v>
+        <v>20</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>15600</v>
+        <v>100</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1365</v>
+        <v>21</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>16380</v>
+        <v>105</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>62.45</v>
+        <v>0.09</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>16442.45</v>
+        <v>105.09</v>
       </c>
       <c r="S34" s="3" t="n">
-        <v>1370.2</v>
+        <v>21.02</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>190.84</v>
+        <v>2.93</v>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -3460,84 +3458,81 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>E100.0203162160</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>物料架</t>
+          <t>螺杆</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>1.在插件线上层增加放置物料的架子
-(放置板/架角度可调)
-2. 长度：3m,宽度:45cm,
-3.配套上支撑架斜三角支架</t>
+          <t>WS1D-08004</t>
         </is>
       </c>
       <c r="E35" s="3" t="n">
-        <v>41.78272981</v>
+        <v>2.78765071</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>376.04456829</v>
+        <v>13.93825355</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>205</v>
+        <v>0.05</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>2835</v>
+        <v>105</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>376.51</v>
+        <v>0.09</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>3211.51</v>
+        <v>105.09</v>
       </c>
       <c r="S35" s="3" t="n">
-        <v>356.83</v>
+        <v>21.02</v>
       </c>
       <c r="T35" s="3" t="n">
-        <v>49.7</v>
+        <v>2.93</v>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
@@ -3549,244 +3544,244 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.0203162100</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>屏蔽箱</t>
+          <t>螺丝</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>monolayer Filter RJ45*2 1 Power filter AC*1+DC*2 1 Filter SMA*4 1 1 sealing plate</t>
+          <t>Part No.: WJ-10509</t>
         </is>
       </c>
       <c r="E36" s="3" t="n">
-        <v>473.53760446</v>
+        <v>0.13938254</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>4735.3760446</v>
+        <v>2.7876508</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>270</v>
+        <v>0.1</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>3400</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>34000</v>
+        <v>20</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>3570</v>
+        <v>1.05</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>35700</v>
+        <v>21</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>495.89</v>
+        <v>0.19</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>36195.89</v>
+        <v>21.19</v>
       </c>
       <c r="S36" s="3" t="n">
-        <v>3619.59</v>
+        <v>1.06</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>504.12</v>
+        <v>0.15</v>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.0203162049</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>屏蔽箱</t>
+          <t>螺丝</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>double-deck Upper layer AC*1+DC*2 RJ45*5 Mid-level SMA*8 Lower layer AC*1+DC*2 RJ45*3+VGA*1 USB2.0*2+USB3.0*2+RS232*1</t>
+          <t>Part No.: WJ-10301</t>
         </is>
       </c>
       <c r="E37" s="3" t="n">
-        <v>717.27019499</v>
+        <v>0.13938254</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>7172.7019499</v>
+        <v>2.7876508</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>440</v>
+        <v>0.1</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>5150</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>51500</v>
+        <v>20</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>5407.5</v>
+        <v>1.05</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>54075</v>
+        <v>21</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>808.12</v>
+        <v>0.19</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>54883.12</v>
+        <v>21.19</v>
       </c>
       <c r="S37" s="3" t="n">
-        <v>5488.31</v>
+        <v>1.06</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>764.39</v>
+        <v>0.15</v>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.0203162047</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>马达</t>
+          <t>螺丝</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>品牌：东元，型号：AEVF4</t>
+          <t>Part No.: LS1D-04026</t>
         </is>
       </c>
       <c r="E38" s="3" t="n">
-        <v>130.22284123</v>
+        <v>0.13938254</v>
       </c>
       <c r="F38" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>2.7876508</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>130.22284123</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>935</v>
-      </c>
       <c r="K38" s="3" t="n">
-        <v>935</v>
+        <v>20</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>981.75</v>
+        <v>1.05</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>981.75</v>
+        <v>21</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>27.55</v>
+        <v>0.19</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>1009.3</v>
+        <v>21.19</v>
       </c>
       <c r="S38" s="3" t="n">
-        <v>1009.3</v>
+        <v>1.06</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>140.57</v>
+        <v>0.15</v>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
@@ -3795,40 +3790,40 @@
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.0203162043</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>太阳片</t>
+          <t>弯形送料器</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>配件型号42883105</t>
+          <t>Part No.: LS1D-04021</t>
         </is>
       </c>
       <c r="E39" s="3" t="n">
-        <v>3.06406685</v>
+        <v>30.38539271</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
@@ -3836,43 +3831,43 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>30.6406685</v>
+        <v>30.38539271</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>23.1</v>
+        <v>228.9</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>231</v>
+        <v>228.9</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>231.17</v>
+        <v>228.92</v>
       </c>
       <c r="S39" s="3" t="n">
-        <v>23.12</v>
+        <v>228.92</v>
       </c>
       <c r="T39" s="3" t="n">
-        <v>3.22</v>
+        <v>31.91</v>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
@@ -3881,42 +3876,40 @@
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.020344000</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>螺丝</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>卧式机 Axial Insertion 
-DC MotorTG-205A-FU (24V) 
-DZ-03060</t>
+          <t>LS1D-07037</t>
         </is>
       </c>
       <c r="E40" s="3" t="n">
-        <v>48.74651811</v>
+        <v>0.13938254</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
@@ -3924,43 +3917,43 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>243.73259055</v>
+        <v>13.938254</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>1750</v>
+        <v>100</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>367.5</v>
+        <v>1.05</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>1837.5</v>
+        <v>105</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>1837.57</v>
+        <v>105.06</v>
       </c>
       <c r="S40" s="3" t="n">
-        <v>367.51</v>
+        <v>1.05</v>
       </c>
       <c r="T40" s="3" t="n">
-        <v>51.19</v>
+        <v>0.15</v>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
@@ -3969,40 +3962,40 @@
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>J100.J01-002-05-00</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>链夹</t>
+          <t>钢网</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>1.品牌:中禾旭 2.型号:LS1D-01033 用于立式插件机</t>
+          <t>DH 21_1341 B/T</t>
         </is>
       </c>
       <c r="E41" s="3" t="n">
-        <v>1.11420613</v>
+        <v>66.90361698</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
@@ -4010,43 +4003,43 @@
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>557.103065</v>
+        <v>133.80723396</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>4000</v>
+        <v>960</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>8.4</v>
+        <v>504</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>4200</v>
+        <v>1008</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>8.26</v>
+        <v>13</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>4208.26</v>
+        <v>1021</v>
       </c>
       <c r="S41" s="3" t="n">
-        <v>8.42</v>
+        <v>510.5</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>1.17</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
@@ -4055,36 +4048,40 @@
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>J100.J01-002-05-00</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>调节座</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>钢网</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>DH 21_1340 B/T</t>
+        </is>
+      </c>
       <c r="E42" s="3" t="n">
-        <v>15.32033426</v>
+        <v>66.90361698</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
@@ -4092,43 +4089,43 @@
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>61.28133704</v>
+        <v>133.80723396</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>440</v>
+        <v>960</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>115.5</v>
+        <v>504</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>462</v>
+        <v>1008</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>13</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>462.07</v>
+        <v>1021</v>
       </c>
       <c r="S42" s="3" t="n">
-        <v>115.52</v>
+        <v>510.5</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>16.09</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
@@ -4137,80 +4134,84 @@
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>J100.J03-002-01-00</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>模头</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr"/>
+          <t>分板治具</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>DH 21_1341 D/P</t>
+        </is>
+      </c>
       <c r="E43" s="3" t="n">
-        <v>25.96796657</v>
+        <v>64.11596627</v>
       </c>
       <c r="F43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>128.23193254</v>
+      </c>
+      <c r="I43" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>129.83983285</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>0.04</v>
-      </c>
       <c r="J43" s="3" t="n">
-        <v>186.45</v>
+        <v>460</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>932.25</v>
+        <v>920</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>195.77</v>
+        <v>483</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>978.86</v>
+        <v>966</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>978.9400000000001</v>
+        <v>975.29</v>
       </c>
       <c r="S43" s="3" t="n">
-        <v>195.79</v>
+        <v>487.64</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>27.27</v>
+        <v>67.97</v>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
@@ -4219,37 +4220,37 @@
       </c>
       <c r="V43" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W43" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>J100.J03-002-01-00</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>电刷</t>
+          <t>分板治具</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>KYB-M7027-001</t>
+          <t>DH 21_1340 D/P</t>
         </is>
       </c>
       <c r="E44" s="3" t="n">
-        <v>689.41504178</v>
+        <v>64.11596627</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>2</v>
@@ -4260,43 +4261,43 @@
         </is>
       </c>
       <c r="H44" s="3" t="n">
-        <v>1378.83008356</v>
+        <v>128.23193254</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>4950</v>
+        <v>460</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>9900</v>
+        <v>920</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>5197.5</v>
+        <v>483</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>10395</v>
+        <v>966</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>181.22</v>
+        <v>19.33</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>0.04</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>10395.04</v>
+        <v>975.29</v>
       </c>
       <c r="S44" s="3" t="n">
-        <v>5197.52</v>
+        <v>487.64</v>
       </c>
       <c r="T44" s="3" t="n">
-        <v>723.89</v>
+        <v>67.97</v>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
@@ -4305,703 +4306,57 @@
       </c>
       <c r="V44" s="3" t="inlineStr">
         <is>
-          <t>Silvass</t>
+          <t>Silvassa</t>
         </is>
       </c>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>大华</t>
         </is>
       </c>
       <c r="X44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396061</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>密封圈</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>零件编号：30009424</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>0.90529248</v>
-      </c>
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr"/>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
+      <c r="E45" s="3" t="inlineStr"/>
       <c r="F45" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+        <v>14394</v>
+      </c>
+      <c r="G45" s="3" t="inlineStr"/>
       <c r="H45" s="3" t="n">
-        <v>9.0529248</v>
+        <v>4666.436703130002</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>6.5</v>
-      </c>
+        <v>253.79</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr"/>
       <c r="K45" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="L45" s="3" t="n">
-        <v>6.82</v>
-      </c>
+        <v>33479.35000000001</v>
+      </c>
+      <c r="L45" s="3" t="inlineStr"/>
       <c r="M45" s="3" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="N45" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P45" s="3" t="n">
-        <v>1.84</v>
-      </c>
+        <v>35153.32</v>
+      </c>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr"/>
       <c r="Q45" s="3" t="n">
-        <v>0.17</v>
+        <v>471.3700000000001</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>68.42</v>
-      </c>
-      <c r="S45" s="3" t="n">
-        <v>6.84</v>
-      </c>
+        <v>35624.69</v>
+      </c>
+      <c r="S45" s="3" t="inlineStr"/>
       <c r="T45" s="3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="U45" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V45" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W45" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
+        <v>1143.88</v>
+      </c>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
+      <c r="W45" s="3" t="inlineStr"/>
       <c r="X45" s="3" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396062</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>密封圈</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>零件编号：30009423</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>0.90529248</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>9.0529248</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K46" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="L46" s="3" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="M46" s="3" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="N46" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P46" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q46" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R46" s="3" t="n">
-        <v>68.42</v>
-      </c>
-      <c r="S46" s="3" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="T46" s="3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="U46" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V46" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W46" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396047</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>13齿左螺旋齿轮36.8*81.5mm，编号：30001429</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>440</v>
-      </c>
-      <c r="L47" s="3" t="n">
-        <v>231</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>462</v>
-      </c>
-      <c r="N47" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O47" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P47" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q47" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R47" s="3" t="n">
-        <v>462.04</v>
-      </c>
-      <c r="S47" s="3" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T47" s="3" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="U47" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W47" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X47" s="3" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396048</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>13齿右螺旋齿轮36.8x81.5mm，编号：30001424</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <v>440</v>
-      </c>
-      <c r="L48" s="3" t="n">
-        <v>231</v>
-      </c>
-      <c r="M48" s="3" t="n">
-        <v>462</v>
-      </c>
-      <c r="N48" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P48" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q48" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R48" s="3" t="n">
-        <v>462.04</v>
-      </c>
-      <c r="S48" s="3" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T48" s="3" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="U48" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V48" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W48" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X48" s="3" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396049</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>13齿左螺旋齿轮36.8*65mm，编号：30001430</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-      <c r="I49" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <v>440</v>
-      </c>
-      <c r="L49" s="3" t="n">
-        <v>231</v>
-      </c>
-      <c r="M49" s="3" t="n">
-        <v>462</v>
-      </c>
-      <c r="N49" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P49" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q49" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R49" s="3" t="n">
-        <v>462.04</v>
-      </c>
-      <c r="S49" s="3" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T49" s="3" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="U49" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V49" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W49" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X49" s="3" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>58</v>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396050</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>齿轮</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>13齿右螺旋齿轮36.8*65mm，编号：30001425</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="K50" s="3" t="n">
-        <v>440</v>
-      </c>
-      <c r="L50" s="3" t="n">
-        <v>231</v>
-      </c>
-      <c r="M50" s="3" t="n">
-        <v>462</v>
-      </c>
-      <c r="N50" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O50" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P50" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q50" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R50" s="3" t="n">
-        <v>462.04</v>
-      </c>
-      <c r="S50" s="3" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T50" s="3" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="U50" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V50" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W50" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X50" s="3" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396055</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>发热板</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>380V  1.2KW   L=1128mm 陆铨，零件编号：30001144</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>45.68245125</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>91.3649025</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>328</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>656</v>
-      </c>
-      <c r="L51" s="3" t="n">
-        <v>344.4</v>
-      </c>
-      <c r="M51" s="3" t="n">
-        <v>688.8</v>
-      </c>
-      <c r="N51" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O51" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P51" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q51" s="3" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="R51" s="3" t="n">
-        <v>696.51</v>
-      </c>
-      <c r="S51" s="3" t="n">
-        <v>348.26</v>
-      </c>
-      <c r="T51" s="3" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="U51" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V51" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W51" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396056</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>发热板</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>380V  1.2KW   L=1058mm 陆铨，零件编号：30001143</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>45.68245125</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H52" s="3" t="n">
-        <v>91.3649025</v>
-      </c>
-      <c r="I52" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="n">
-        <v>328</v>
-      </c>
-      <c r="K52" s="3" t="n">
-        <v>656</v>
-      </c>
-      <c r="L52" s="3" t="n">
-        <v>344.4</v>
-      </c>
-      <c r="M52" s="3" t="n">
-        <v>688.8</v>
-      </c>
-      <c r="N52" s="3" t="n">
-        <v>181.22</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P52" s="3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q52" s="3" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="R52" s="3" t="n">
-        <v>696.15</v>
-      </c>
-      <c r="S52" s="3" t="n">
-        <v>348.07</v>
-      </c>
-      <c r="T52" s="3" t="n">
-        <v>48.48</v>
-      </c>
-      <c r="U52" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V52" s="3" t="inlineStr">
-        <is>
-          <t>Silvass</t>
-        </is>
-      </c>
-      <c r="W52" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X52" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5014,7 +4369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5081,20 +4436,32 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>C100.030911007</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>端子</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>XH2,54 端子，1包50个</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="n">
-        <v>0.69637883</v>
+        <v>0.00278765</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr"/>
+        <v>7000</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H2" s="3" t="n">
-        <v>348.189415</v>
+        <v>19.51355</v>
       </c>
     </row>
     <row r="3">
@@ -5103,20 +4470,32 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>C100.030911008</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>端子</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>VH3.96 端子，1包50个</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="n">
-        <v>15.32033426</v>
+        <v>0.00696913</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr"/>
+        <v>3000</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H3" s="3" t="n">
-        <v>91.92200556</v>
+        <v>20.90739</v>
       </c>
     </row>
     <row r="4">
@@ -5125,20 +4504,39 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>C100.C05-032-04-00</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>铣刀</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Material: Tungsten Carbide Steel
+Mill Type: Standard Up Draft Type
+Tip Type: Standard Fish Tail Type
+Total Length: 38.1mm
+Knife Length: 12.5mm
+Handle Length: 25.6mm
+Shank Diameter: 3.175mm
+Kinfe Diameter: 1.6mm</t>
+        </is>
+      </c>
       <c r="E4" s="3" t="n">
-        <v>10.86350975</v>
+        <v>0.69691268</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr"/>
+        <v>450</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H4" s="3" t="n">
-        <v>21.7270195</v>
+        <v>313.610706</v>
       </c>
     </row>
     <row r="5">
@@ -5147,20 +4545,35 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>C100.C09-004-01-00</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>胶带</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>13.3mm*200m/
+JL62 13.3*200
+230415455Y8212
+self-adhesive upper cover material Film</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="n">
-        <v>10.86350975</v>
+        <v>3.67969893</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
+      </c>
       <c r="H5" s="3" t="n">
-        <v>10.86350975</v>
+        <v>110.3909679</v>
       </c>
     </row>
     <row r="6">
@@ -5169,20 +4582,33 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>C100.010503001</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>胶带</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
+21.3mm 200M/卷</t>
+        </is>
+      </c>
       <c r="E6" s="3" t="n">
-        <v>3.14763231</v>
+        <v>6.28615235</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
+      </c>
       <c r="H6" s="3" t="n">
-        <v>314.763231</v>
+        <v>37.7169141</v>
       </c>
     </row>
     <row r="7">
@@ -5191,20 +4617,34 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>C100.010523005</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>载带</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
+24*16*0.30 
+200米/卷</t>
+        </is>
+      </c>
       <c r="E7" s="3" t="n">
-        <v>0.11142061</v>
+        <v>17.78521151</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="G7" s="3" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n">
-        <v>15.26462357</v>
+        <v>124.49648057</v>
       </c>
     </row>
     <row r="8">
@@ -5213,20 +4653,32 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
+          <t>C100.010523004</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>载带</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
+        </is>
+      </c>
       <c r="E8" s="3" t="n">
-        <v>158.77437326</v>
+        <v>24.53132622</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n">
-        <v>158.77437326</v>
+        <v>49.06265244</v>
       </c>
     </row>
     <row r="9">
@@ -5235,20 +4687,34 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
+          <t>J100.S07-010-05-01</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-K
+3.刀口宽度：5mm</t>
+        </is>
+      </c>
       <c r="E9" s="3" t="n">
-        <v>32.03342618</v>
+        <v>0.69691268</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="inlineStr"/>
+        <v>465</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n">
-        <v>32.03342618</v>
+        <v>324.0643962</v>
       </c>
     </row>
     <row r="10">
@@ -5257,20 +4723,34 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>J100.S07-010-04-01</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-B
+3.圆头，宽度1.2mm</t>
+        </is>
+      </c>
       <c r="E10" s="3" t="n">
-        <v>25.76601671</v>
+        <v>0.69691268</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="n">
-        <v>77.29805012999999</v>
+        <v>348.45634</v>
       </c>
     </row>
     <row r="11">
@@ -5279,20 +4759,32 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>J100.S07-010-06-01</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>900M-T-4C</t>
+        </is>
+      </c>
       <c r="E11" s="3" t="n">
-        <v>48.74651811</v>
+        <v>0.69691268</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3" t="inlineStr"/>
+        <v>546</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n">
-        <v>243.73259055</v>
+        <v>380.51432328</v>
       </c>
     </row>
     <row r="12">
@@ -5301,20 +4793,32 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>900M-T-2C</t>
+        </is>
+      </c>
       <c r="E12" s="3" t="n">
-        <v>0.69637883</v>
+        <v>0.69691268</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n">
-        <v>20.8913649</v>
+        <v>27.8765072</v>
       </c>
     </row>
     <row r="13">
@@ -5323,20 +4827,32 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>900-T-1.2D</t>
+        </is>
+      </c>
       <c r="E13" s="3" t="n">
-        <v>0.69637883</v>
+        <v>0.69691268</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G13" s="3" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n">
-        <v>348.189415</v>
+        <v>27.8765072</v>
       </c>
     </row>
     <row r="14">
@@ -5345,20 +4861,32 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>焊接海绵</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>size:60mm X 55mm</t>
+        </is>
+      </c>
       <c r="E14" s="3" t="n">
-        <v>0.69637883</v>
+        <v>0.13798871</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" s="3" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="n">
-        <v>278.551532</v>
+        <v>34.4971775</v>
       </c>
     </row>
     <row r="15">
@@ -5367,20 +4895,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>C100.C06-019-05-00</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>无尘布</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>L*W 4*4CM 400pcs/bog</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="n">
-        <v>0.69637883</v>
+        <v>4.10063419</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G15" s="3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n">
-        <v>27.8551532</v>
+        <v>410.063419</v>
       </c>
     </row>
     <row r="16">
@@ -5389,20 +4929,32 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>6.30x75x4.0x1</t>
+        </is>
+      </c>
       <c r="E16" s="3" t="n">
-        <v>0.4178273</v>
+        <v>0.18398495</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H16" s="3" t="n">
-        <v>16.713092</v>
+        <v>73.59398</v>
       </c>
     </row>
     <row r="17">
@@ -5411,20 +4963,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75X3.0</t>
+        </is>
+      </c>
       <c r="E17" s="3" t="n">
-        <v>0.16713092</v>
+        <v>0.18398495</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="G17" s="3" t="inlineStr"/>
+        <v>395</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n">
-        <v>23.3983288</v>
+        <v>72.67405525000001</v>
       </c>
     </row>
     <row r="18">
@@ -5433,20 +4997,32 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75X3.5</t>
+        </is>
+      </c>
       <c r="E18" s="3" t="n">
-        <v>0.13788301</v>
+        <v>0.18398495</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="G18" s="3" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H18" s="3" t="n">
-        <v>34.4707525</v>
+        <v>73.59398</v>
       </c>
     </row>
     <row r="19">
@@ -5455,20 +5031,32 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75X2.5X1</t>
+        </is>
+      </c>
       <c r="E19" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>388</v>
-      </c>
-      <c r="G19" s="3" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n">
-        <v>71.33147588</v>
+        <v>36.79699</v>
       </c>
     </row>
     <row r="20">
@@ -5477,20 +5065,32 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75XT6</t>
+        </is>
+      </c>
       <c r="E20" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>457</v>
-      </c>
-      <c r="G20" s="3" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H20" s="3" t="n">
-        <v>84.01671257</v>
+        <v>16.5586455</v>
       </c>
     </row>
     <row r="21">
@@ -5499,20 +5099,32 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75XT7</t>
+        </is>
+      </c>
       <c r="E21" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>458</v>
-      </c>
-      <c r="G21" s="3" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n">
-        <v>84.20055658</v>
+        <v>11.039097</v>
       </c>
     </row>
     <row r="22">
@@ -5521,20 +5133,32 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75XT8</t>
+        </is>
+      </c>
       <c r="E22" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>287</v>
-      </c>
-      <c r="G22" s="3" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H22" s="3" t="n">
-        <v>52.76323087</v>
+        <v>9.1992475</v>
       </c>
     </row>
     <row r="23">
@@ -5543,20 +5167,32 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>6.30X100X3.8XT9</t>
+        </is>
+      </c>
       <c r="E23" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G23" s="3" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H23" s="3" t="n">
-        <v>7.353760400000001</v>
+        <v>9.1992475</v>
       </c>
     </row>
     <row r="24">
@@ -5565,20 +5201,32 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>6.30X100X3.8XT10</t>
+        </is>
+      </c>
       <c r="E24" s="3" t="n">
-        <v>0.18384401</v>
+        <v>0.18398495</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="G24" s="3" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H24" s="3" t="n">
-        <v>11.0306406</v>
+        <v>20.2383445</v>
       </c>
     </row>
     <row r="25">
@@ -5587,20 +5235,32 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>E100.019100006</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>双侧皮带拉</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>50.60 mtrX300 mm</t>
+        </is>
+      </c>
       <c r="E25" s="3" t="n">
-        <v>0.18384401</v>
+        <v>153.79468953</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G25" s="3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
       <c r="H25" s="3" t="n">
-        <v>9.1922005</v>
+        <v>461.38406859</v>
       </c>
     </row>
     <row r="26">
@@ -5609,20 +5269,32 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr"/>
+          <t>E100.019100007</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>单侧皮带拉</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>50.20mtrx400 mm</t>
+        </is>
+      </c>
       <c r="E26" s="3" t="n">
-        <v>0.18384401</v>
+        <v>203.47062513</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G26" s="3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
       <c r="H26" s="3" t="n">
-        <v>9.1922005</v>
+        <v>203.47062513</v>
       </c>
     </row>
     <row r="27">
@@ -5631,20 +5303,32 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
+          <t>E100.019100008</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>双侧皮带拉</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>40.5mtrX300 mm</t>
+        </is>
+      </c>
       <c r="E27" s="3" t="n">
-        <v>0.18384401</v>
+        <v>123.06084048</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="G27" s="3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
       <c r="H27" s="3" t="n">
-        <v>20.2228411</v>
+        <v>123.06084048</v>
       </c>
     </row>
     <row r="28">
@@ -5653,20 +5337,32 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
+          <t>E100.020308001</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>机械配件</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>长510MM 宽223MM  高11MM</t>
+        </is>
+      </c>
       <c r="E28" s="3" t="n">
-        <v>2.06128134</v>
+        <v>97.56777476000001</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>2040</v>
-      </c>
-      <c r="G28" s="3" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
+      </c>
       <c r="H28" s="3" t="n">
-        <v>4205.013933599999</v>
+        <v>682.97442332</v>
       </c>
     </row>
     <row r="29">
@@ -5675,20 +5371,32 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
+          <t>E100.0203133015</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>定位销</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>FW07014AA</t>
+        </is>
+      </c>
       <c r="E29" s="3" t="n">
-        <v>1.01671309</v>
+        <v>1.10251585</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G29" s="3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H29" s="3" t="n">
-        <v>2846.796652</v>
+        <v>5.51257925</v>
       </c>
     </row>
     <row r="30">
@@ -5697,20 +5405,32 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
+          <t>E100.0203104009</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>保险丝座</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>排料机保险丝座</t>
+        </is>
+      </c>
       <c r="E30" s="3" t="n">
-        <v>80.77994429</v>
+        <v>2.78765071</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H30" s="3" t="n">
-        <v>161.55988858</v>
+        <v>13.93825355</v>
       </c>
     </row>
     <row r="31">
@@ -5719,20 +5439,32 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
+          <t>E100.0203104007</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>三角刀</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>排料机三角刀</t>
+        </is>
+      </c>
       <c r="E31" s="3" t="n">
-        <v>11.14206128</v>
+        <v>9.75677748</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H31" s="3" t="n">
-        <v>55.7103064</v>
+        <v>19.51355496</v>
       </c>
     </row>
     <row r="32">
@@ -5741,20 +5473,32 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
+          <t>E100.0203104017</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>送料器切刀</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>排料机送料器切刀</t>
+        </is>
+      </c>
       <c r="E32" s="3" t="n">
-        <v>161.55988858</v>
+        <v>2.78765071</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H32" s="3" t="n">
-        <v>484.67966574</v>
+        <v>13.93825355</v>
       </c>
     </row>
     <row r="33">
@@ -5763,20 +5507,32 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
+          <t>E100.0203162160</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>螺杆</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>WS1D-08004</t>
+        </is>
+      </c>
       <c r="E33" s="3" t="n">
-        <v>181.05849582</v>
+        <v>2.78765071</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H33" s="3" t="n">
-        <v>2172.70194984</v>
+        <v>13.93825355</v>
       </c>
     </row>
     <row r="34">
@@ -5785,20 +5541,32 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
+          <t>E100.0203162100</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: WJ-10509</t>
+        </is>
+      </c>
       <c r="E34" s="3" t="n">
-        <v>41.78272981</v>
+        <v>0.13938254</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G34" s="3" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H34" s="3" t="n">
-        <v>376.04456829</v>
+        <v>2.7876508</v>
       </c>
     </row>
     <row r="35">
@@ -5807,20 +5575,32 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
+          <t>E100.0203162049</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: WJ-10301</t>
+        </is>
+      </c>
       <c r="E35" s="3" t="n">
-        <v>473.53760446</v>
+        <v>0.13938254</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H35" s="3" t="n">
-        <v>4735.3760446</v>
+        <v>2.7876508</v>
       </c>
     </row>
     <row r="36">
@@ -5829,20 +5609,32 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>E100.0203162047</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: LS1D-04026</t>
+        </is>
+      </c>
       <c r="E36" s="3" t="n">
-        <v>717.27019499</v>
+        <v>0.13938254</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H36" s="3" t="n">
-        <v>7172.701949900001</v>
+        <v>2.7876508</v>
       </c>
     </row>
     <row r="37">
@@ -5851,20 +5643,32 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
+          <t>E100.0203162043</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>弯形送料器</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: LS1D-04021</t>
+        </is>
+      </c>
       <c r="E37" s="3" t="n">
-        <v>130.22284123</v>
+        <v>30.38539271</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H37" s="3" t="n">
-        <v>130.22284123</v>
+        <v>30.38539271</v>
       </c>
     </row>
     <row r="38">
@@ -5873,20 +5677,32 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
+          <t>E100.020344000</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>LS1D-07037</t>
+        </is>
+      </c>
       <c r="E38" s="3" t="n">
-        <v>3.06406685</v>
+        <v>0.13938254</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H38" s="3" t="n">
-        <v>30.6406685</v>
+        <v>13.938254</v>
       </c>
     </row>
     <row r="39">
@@ -5895,20 +5711,32 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
+          <t>J100.J01-002-05-00</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>钢网</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>DH 21_1341 B/T</t>
+        </is>
+      </c>
       <c r="E39" s="3" t="n">
-        <v>48.74651811</v>
+        <v>66.90361698</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H39" s="3" t="n">
-        <v>243.73259055</v>
+        <v>267.61446792</v>
       </c>
     </row>
     <row r="40">
@@ -5917,262 +5745,46 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="3" t="inlineStr"/>
+          <t>J100.J03-002-01-00</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>分板治具</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>DH 21_1341 D/P</t>
+        </is>
+      </c>
       <c r="E40" s="3" t="n">
-        <v>1.11420613</v>
+        <v>64.11596627</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G40" s="3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H40" s="3" t="n">
-        <v>557.1030649999999</v>
+        <v>256.46386508</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203162159</t>
-        </is>
-      </c>
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr"/>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="n">
-        <v>15.32033426</v>
-      </c>
+      <c r="E41" s="3" t="inlineStr"/>
       <c r="F41" s="3" t="n">
-        <v>4</v>
+        <v>14394</v>
       </c>
       <c r="G41" s="3" t="inlineStr"/>
       <c r="H41" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203133001</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="n">
-        <v>25.96796657</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="n">
-        <v>129.83983285</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>E100.E00-011-15-01</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="n">
-        <v>689.41504178</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="n">
-        <v>1378.83008356</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396061</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="n">
-        <v>0.90529248</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="n">
-        <v>9.0529248</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396062</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="n">
-        <v>0.90529248</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="n">
-        <v>9.0529248</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396047</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396048</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396049</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396050</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="n">
-        <v>30.64066852</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="n">
-        <v>61.28133704</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396055</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="n">
-        <v>45.68245125</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="3" t="inlineStr"/>
-      <c r="H50" s="3" t="n">
-        <v>91.3649025</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>E100.020396056</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="n">
-        <v>45.68245125</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" s="3" t="inlineStr"/>
-      <c r="H51" s="3" t="n">
-        <v>91.3649025</v>
+        <v>4666.436703129999</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -68,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -77,6 +79,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4350,9 +4354,7 @@
         <v>35624.69</v>
       </c>
       <c r="S45" s="3" t="inlineStr"/>
-      <c r="T45" s="3" t="n">
-        <v>1143.88</v>
-      </c>
+      <c r="T45" s="3" t="inlineStr"/>
       <c r="U45" s="3" t="inlineStr"/>
       <c r="V45" s="3" t="inlineStr"/>
       <c r="W45" s="3" t="inlineStr"/>
@@ -4449,7 +4451,7 @@
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>0.00278765</v>
       </c>
       <c r="F2" s="3" t="n">
@@ -4460,7 +4462,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>19.51355</v>
       </c>
     </row>
@@ -4483,7 +4485,7 @@
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.00696913</v>
       </c>
       <c r="F3" s="3" t="n">
@@ -4494,7 +4496,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="5" t="n">
         <v>20.90739</v>
       </c>
     </row>
@@ -4524,7 +4526,7 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F4" s="3" t="n">
@@ -4535,7 +4537,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="5" t="n">
         <v>313.610706</v>
       </c>
     </row>
@@ -4561,7 +4563,7 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>3.67969893</v>
       </c>
       <c r="F5" s="3" t="n">
@@ -4572,7 +4574,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="5" t="n">
         <v>110.3909679</v>
       </c>
     </row>
@@ -4596,7 +4598,7 @@
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>6.28615235</v>
       </c>
       <c r="F6" s="3" t="n">
@@ -4607,7 +4609,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="5" t="n">
         <v>37.7169141</v>
       </c>
     </row>
@@ -4632,7 +4634,7 @@
 200米/卷</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>17.78521151</v>
       </c>
       <c r="F7" s="3" t="n">
@@ -4643,7 +4645,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="5" t="n">
         <v>124.49648057</v>
       </c>
     </row>
@@ -4666,7 +4668,7 @@
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>24.53132622</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -4677,7 +4679,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="5" t="n">
         <v>49.06265244</v>
       </c>
     </row>
@@ -4702,7 +4704,7 @@
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F9" s="3" t="n">
@@ -4713,7 +4715,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="5" t="n">
         <v>324.0643962</v>
       </c>
     </row>
@@ -4738,7 +4740,7 @@
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F10" s="3" t="n">
@@ -4749,7 +4751,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="5" t="n">
         <v>348.45634</v>
       </c>
     </row>
@@ -4772,7 +4774,7 @@
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F11" s="3" t="n">
@@ -4783,7 +4785,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="5" t="n">
         <v>380.51432328</v>
       </c>
     </row>
@@ -4806,7 +4808,7 @@
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F12" s="3" t="n">
@@ -4817,7 +4819,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="5" t="n">
         <v>27.8765072</v>
       </c>
     </row>
@@ -4840,7 +4842,7 @@
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F13" s="3" t="n">
@@ -4851,7 +4853,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="5" t="n">
         <v>27.8765072</v>
       </c>
     </row>
@@ -4874,7 +4876,7 @@
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>0.13798871</v>
       </c>
       <c r="F14" s="3" t="n">
@@ -4885,7 +4887,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="5" t="n">
         <v>34.4971775</v>
       </c>
     </row>
@@ -4908,7 +4910,7 @@
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>4.10063419</v>
       </c>
       <c r="F15" s="3" t="n">
@@ -4919,7 +4921,7 @@
           <t>包</t>
         </is>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="5" t="n">
         <v>410.063419</v>
       </c>
     </row>
@@ -4942,7 +4944,7 @@
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F16" s="3" t="n">
@@ -4953,7 +4955,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="5" t="n">
         <v>73.59398</v>
       </c>
     </row>
@@ -4976,7 +4978,7 @@
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F17" s="3" t="n">
@@ -4987,7 +4989,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="5" t="n">
         <v>72.67405525000001</v>
       </c>
     </row>
@@ -5010,7 +5012,7 @@
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F18" s="3" t="n">
@@ -5021,7 +5023,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="5" t="n">
         <v>73.59398</v>
       </c>
     </row>
@@ -5044,7 +5046,7 @@
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F19" s="3" t="n">
@@ -5055,7 +5057,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="5" t="n">
         <v>36.79699</v>
       </c>
     </row>
@@ -5078,7 +5080,7 @@
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F20" s="3" t="n">
@@ -5089,7 +5091,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="5" t="n">
         <v>16.5586455</v>
       </c>
     </row>
@@ -5112,7 +5114,7 @@
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F21" s="3" t="n">
@@ -5123,7 +5125,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="5" t="n">
         <v>11.039097</v>
       </c>
     </row>
@@ -5146,7 +5148,7 @@
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F22" s="3" t="n">
@@ -5157,7 +5159,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="5" t="n">
         <v>9.1992475</v>
       </c>
     </row>
@@ -5180,7 +5182,7 @@
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F23" s="3" t="n">
@@ -5191,7 +5193,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="5" t="n">
         <v>9.1992475</v>
       </c>
     </row>
@@ -5214,7 +5216,7 @@
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F24" s="3" t="n">
@@ -5225,7 +5227,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="5" t="n">
         <v>20.2383445</v>
       </c>
     </row>
@@ -5248,7 +5250,7 @@
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="4" t="n">
         <v>153.79468953</v>
       </c>
       <c r="F25" s="3" t="n">
@@ -5259,7 +5261,7 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="5" t="n">
         <v>461.38406859</v>
       </c>
     </row>
@@ -5282,7 +5284,7 @@
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="4" t="n">
         <v>203.47062513</v>
       </c>
       <c r="F26" s="3" t="n">
@@ -5293,7 +5295,7 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="5" t="n">
         <v>203.47062513</v>
       </c>
     </row>
@@ -5316,7 +5318,7 @@
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="4" t="n">
         <v>123.06084048</v>
       </c>
       <c r="F27" s="3" t="n">
@@ -5327,7 +5329,7 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="5" t="n">
         <v>123.06084048</v>
       </c>
     </row>
@@ -5350,7 +5352,7 @@
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="4" t="n">
         <v>97.56777476000001</v>
       </c>
       <c r="F28" s="3" t="n">
@@ -5361,7 +5363,7 @@
           <t>件</t>
         </is>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="5" t="n">
         <v>682.97442332</v>
       </c>
     </row>
@@ -5384,7 +5386,7 @@
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="4" t="n">
         <v>1.10251585</v>
       </c>
       <c r="F29" s="3" t="n">
@@ -5395,7 +5397,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="5" t="n">
         <v>5.51257925</v>
       </c>
     </row>
@@ -5418,7 +5420,7 @@
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="4" t="n">
         <v>2.78765071</v>
       </c>
       <c r="F30" s="3" t="n">
@@ -5429,7 +5431,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="5" t="n">
         <v>13.93825355</v>
       </c>
     </row>
@@ -5452,7 +5454,7 @@
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="4" t="n">
         <v>9.75677748</v>
       </c>
       <c r="F31" s="3" t="n">
@@ -5463,7 +5465,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="5" t="n">
         <v>19.51355496</v>
       </c>
     </row>
@@ -5486,7 +5488,7 @@
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="4" t="n">
         <v>2.78765071</v>
       </c>
       <c r="F32" s="3" t="n">
@@ -5497,7 +5499,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H32" s="3" t="n">
+      <c r="H32" s="5" t="n">
         <v>13.93825355</v>
       </c>
     </row>
@@ -5520,7 +5522,7 @@
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="4" t="n">
         <v>2.78765071</v>
       </c>
       <c r="F33" s="3" t="n">
@@ -5531,7 +5533,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="5" t="n">
         <v>13.93825355</v>
       </c>
     </row>
@@ -5554,7 +5556,7 @@
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="4" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F34" s="3" t="n">
@@ -5565,7 +5567,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H34" s="3" t="n">
+      <c r="H34" s="5" t="n">
         <v>2.7876508</v>
       </c>
     </row>
@@ -5588,7 +5590,7 @@
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="4" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F35" s="3" t="n">
@@ -5599,7 +5601,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="5" t="n">
         <v>2.7876508</v>
       </c>
     </row>
@@ -5622,7 +5624,7 @@
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="4" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F36" s="3" t="n">
@@ -5633,7 +5635,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="5" t="n">
         <v>2.7876508</v>
       </c>
     </row>
@@ -5656,7 +5658,7 @@
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="4" t="n">
         <v>30.38539271</v>
       </c>
       <c r="F37" s="3" t="n">
@@ -5667,7 +5669,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="5" t="n">
         <v>30.38539271</v>
       </c>
     </row>
@@ -5690,7 +5692,7 @@
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="4" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F38" s="3" t="n">
@@ -5701,7 +5703,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="H38" s="5" t="n">
         <v>13.938254</v>
       </c>
     </row>
@@ -5724,7 +5726,7 @@
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="4" t="n">
         <v>66.90361698</v>
       </c>
       <c r="F39" s="3" t="n">
@@ -5735,7 +5737,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H39" s="5" t="n">
         <v>267.61446792</v>
       </c>
     </row>
@@ -5758,7 +5760,7 @@
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="4" t="n">
         <v>64.11596627</v>
       </c>
       <c r="F40" s="3" t="n">
@@ -5769,7 +5771,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H40" s="3" t="n">
+      <c r="H40" s="5" t="n">
         <v>256.46386508</v>
       </c>
     </row>
@@ -5778,12 +5780,12 @@
       <c r="B41" s="3" t="inlineStr"/>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
       <c r="F41" s="3" t="n">
         <v>14394</v>
       </c>
       <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="n">
+      <c r="H41" s="5" t="n">
         <v>4666.436703129999</v>
       </c>
     </row>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -465,31 +465,17 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
-    <col width="15" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="15" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>NO.</t>
+          <t>Sr No.</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Material code</t>
+          <t>P/N.</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -504,102 +490,32 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Unit Price</t>
+          <t>QUANTITY</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Qty</t>
+          <t>CTNS</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Carton MEASUREMENT</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>G.W (KG)</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>net weight</t>
+          <t>N.W(KG)</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>采购单价</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>采购总价</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>FOB单价</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>FOB总价</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>总保费</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>总运费</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>每公斤摊的运保费</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>该项对应的运保费</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>CIF总价(FOB总价+运保费)</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>CIF单价</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>单价USD数值</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>factory</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>end use</t>
+          <t>Carton NO.</t>
         </is>
       </c>
     </row>
@@ -623,71 +539,27 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.00278765</v>
+        <v>7000</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>7000</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>51*52*5</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>19.51355</v>
+        <v>1.86</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>147</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>149.21</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>F01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -709,71 +581,17 @@
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.00696913</v>
-      </c>
-      <c r="F3" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>20.90739</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>158.45</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="U3" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V3" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -802,71 +620,27 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.69691268</v>
+        <v>450</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>28*16.5*11</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>313.610706</v>
+        <v>2.42</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>2.33</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>2250</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>2362.5</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>2366.83</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U4" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V4" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>F02</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -891,71 +665,27 @@
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>3.67969893</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>37*37*27</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>110.3909679</v>
+        <v>10.24</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>792</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>831.6</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>844.6</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>F03</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -978,71 +708,17 @@
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>6.28615235</v>
-      </c>
-      <c r="F6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>37.7169141</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>284.13</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>289.7</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>48.28</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="U6" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
-      <c r="V6" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -1066,71 +742,27 @@
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>17.78521151</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>50*32*51</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>53.35563453</v>
+        <v>6.92</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>5.82</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>382.8</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>133.98</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>401.94</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>412.75</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>137.58</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="U7" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -1154,71 +786,27 @@
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>17.78521151</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>49*47.5*51.5</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>71.14084604</v>
+        <v>9.4</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>510.4</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>133.98</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>535.92</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>553.01</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>138.25</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="U8" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
-      <c r="V8" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W8" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>F05</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -1240,71 +828,27 @@
         </is>
       </c>
       <c r="E9" s="3" t="n">
-        <v>24.53132622</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>51*50*23</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>49.06265244</v>
+        <v>5.84</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>5.69</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <v>176</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>352</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>369.6</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>380.17</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>190.08</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>26.49</v>
-      </c>
-      <c r="U9" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
-      <c r="V9" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W9" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>F06</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -1328,71 +872,27 @@
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.69691268</v>
+        <v>465</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>23*23*23</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>324.0643962</v>
+        <v>10.08</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>2.56</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>2325</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>2441.25</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="R10" s="3" t="n">
-        <v>2446</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T10" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U10" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V10" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W10" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -1416,71 +916,17 @@
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.69691268</v>
-      </c>
-      <c r="F11" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>348.45634</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>2.75</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>2625</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>2630.11</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U11" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V11" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W11" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1502,71 +948,17 @@
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.69691268</v>
-      </c>
-      <c r="F12" s="3" t="n">
         <v>546</v>
       </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>380.51432328</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>2866.5</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q12" s="3" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="R12" s="3" t="n">
-        <v>2872.07</v>
-      </c>
-      <c r="S12" s="3" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T12" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U12" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V12" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W12" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -1588,71 +980,17 @@
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.69691268</v>
-      </c>
-      <c r="F13" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>27.8765072</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>0.22</v>
       </c>
-      <c r="J13" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>210</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P13" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q13" s="3" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="R13" s="3" t="n">
-        <v>210.41</v>
-      </c>
-      <c r="S13" s="3" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T13" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U13" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V13" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W13" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X13" s="3" t="inlineStr"/>
+      <c r="J13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1674,71 +1012,17 @@
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.69691268</v>
-      </c>
-      <c r="F14" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>27.8765072</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>0.22</v>
       </c>
-      <c r="J14" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>210</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P14" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="R14" s="3" t="n">
-        <v>210.41</v>
-      </c>
-      <c r="S14" s="3" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U14" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W14" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1760,71 +1044,17 @@
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.13798871</v>
-      </c>
-      <c r="F15" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>34.4971775</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J15" s="3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>247.5</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>259.88</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>260.25</v>
-      </c>
-      <c r="S15" s="3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="T15" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="U15" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V15" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W15" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1846,71 +1076,27 @@
         </is>
       </c>
       <c r="E16" s="3" t="n">
-        <v>4.10063419</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>46*25*35</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>410.063419</v>
+        <v>40.6</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>40.3</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <v>29.42</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>2942</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>3089.1</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P16" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <v>74.84</v>
-      </c>
-      <c r="R16" s="3" t="n">
-        <v>3163.94</v>
-      </c>
-      <c r="S16" s="3" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="T16" s="3" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="U16" s="3" t="inlineStr">
-        <is>
-          <t>包</t>
-        </is>
-      </c>
-      <c r="V16" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>F08-F11</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1932,71 +1118,27 @@
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.18398495</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>26*27*27</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>73.59398</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>3.36</v>
       </c>
-      <c r="J17" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>528</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>554.4</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="R17" s="3" t="n">
-        <v>560.64</v>
-      </c>
-      <c r="S17" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U17" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V17" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W17" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -2018,71 +1160,17 @@
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F18" s="3" t="n">
         <v>395</v>
       </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
       <c r="H18" s="3" t="n">
-        <v>72.67405524999999</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>3.31</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>521.4</v>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>547.47</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P18" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="R18" s="3" t="n">
-        <v>553.62</v>
-      </c>
-      <c r="S18" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U18" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V18" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W18" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -2104,71 +1192,17 @@
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F19" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="n">
-        <v>73.59398</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>3.36</v>
       </c>
-      <c r="J19" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>528</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>554.4</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="R19" s="3" t="n">
-        <v>560.64</v>
-      </c>
-      <c r="S19" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U19" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V19" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W19" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -2190,71 +1224,17 @@
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F20" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr"/>
       <c r="H20" s="3" t="n">
-        <v>36.79699</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>1.68</v>
       </c>
-      <c r="J20" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>264</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>277.2</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="R20" s="3" t="n">
-        <v>280.32</v>
-      </c>
-      <c r="S20" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U20" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V20" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W20" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X20" s="3" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -2276,71 +1256,17 @@
         </is>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F21" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
       <c r="H21" s="3" t="n">
-        <v>16.5586455</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="J21" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>118.8</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>124.74</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>126.13</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U21" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V21" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W21" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -2362,71 +1288,17 @@
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F22" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
       <c r="H22" s="3" t="n">
-        <v>11.039097</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="J22" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="N22" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O22" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P22" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q22" s="3" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R22" s="3" t="n">
-        <v>84.09</v>
-      </c>
-      <c r="S22" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U22" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V22" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W22" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X22" s="3" t="inlineStr"/>
+      <c r="J22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -2448,71 +1320,17 @@
         </is>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F23" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
       <c r="H23" s="3" t="n">
-        <v>9.1992475</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="J23" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>66</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P23" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R23" s="3" t="n">
-        <v>70.08</v>
-      </c>
-      <c r="S23" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T23" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U23" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V23" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W23" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -2534,71 +1352,17 @@
         </is>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F24" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
       <c r="H24" s="3" t="n">
-        <v>9.1992475</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="J24" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>66</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P24" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R24" s="3" t="n">
-        <v>70.08</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U24" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V24" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W24" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -2620,71 +1384,17 @@
         </is>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.18398495</v>
-      </c>
-      <c r="F25" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr"/>
       <c r="H25" s="3" t="n">
-        <v>20.2383445</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>152.46</v>
-      </c>
-      <c r="N25" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O25" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P25" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q25" s="3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R25" s="3" t="n">
-        <v>154.17</v>
-      </c>
-      <c r="S25" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U25" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V25" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W25" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="X25" s="3" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -2706,71 +1416,27 @@
         </is>
       </c>
       <c r="E26" s="3" t="n">
-        <v>153.79468953</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>38*38*40</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>461.38406859</v>
+        <v>60</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="J26" s="3" t="n">
-        <v>1103.4</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>3310.2</v>
-      </c>
-      <c r="L26" s="3" t="n">
-        <v>1158.57</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>3475.71</v>
-      </c>
-      <c r="N26" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O26" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P26" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <v>105.86</v>
-      </c>
-      <c r="R26" s="3" t="n">
-        <v>3581.57</v>
-      </c>
-      <c r="S26" s="3" t="n">
-        <v>1193.86</v>
-      </c>
-      <c r="T26" s="3" t="n">
-        <v>166.4</v>
-      </c>
-      <c r="U26" s="3" t="inlineStr">
-        <is>
-          <t>条</t>
-        </is>
-      </c>
-      <c r="V26" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W26" s="3" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-      <c r="X26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>F13-F15</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -2792,71 +1458,27 @@
         </is>
       </c>
       <c r="E27" s="3" t="n">
-        <v>203.47062513</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>38*38*40</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>203.47062513</v>
+        <v>20</v>
       </c>
       <c r="I27" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="J27" s="3" t="n">
-        <v>1459.8</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>1459.8</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>1532.79</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <v>1532.79</v>
-      </c>
-      <c r="N27" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P27" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q27" s="3" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="R27" s="3" t="n">
-        <v>1568.08</v>
-      </c>
-      <c r="S27" s="3" t="n">
-        <v>1568.08</v>
-      </c>
-      <c r="T27" s="3" t="n">
-        <v>218.56</v>
-      </c>
-      <c r="U27" s="3" t="inlineStr">
-        <is>
-          <t>条</t>
-        </is>
-      </c>
-      <c r="V27" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W27" s="3" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-      <c r="X27" s="3" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>F16</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -2878,71 +1500,27 @@
         </is>
       </c>
       <c r="E28" s="3" t="n">
-        <v>123.06084048</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>38*38*40</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>123.06084048</v>
+        <v>20</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="J28" s="3" t="n">
-        <v>882.9</v>
-      </c>
-      <c r="K28" s="3" t="n">
-        <v>882.9</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>927.04</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>927.04</v>
-      </c>
-      <c r="N28" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O28" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P28" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q28" s="3" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="R28" s="3" t="n">
-        <v>962.33</v>
-      </c>
-      <c r="S28" s="3" t="n">
-        <v>962.33</v>
-      </c>
-      <c r="T28" s="3" t="n">
-        <v>134.13</v>
-      </c>
-      <c r="U28" s="3" t="inlineStr">
-        <is>
-          <t>条</t>
-        </is>
-      </c>
-      <c r="V28" s="3" t="inlineStr">
-        <is>
-          <t>Daman</t>
-        </is>
-      </c>
-      <c r="W28" s="3" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-      <c r="X28" s="3" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>F17</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -2964,71 +1542,27 @@
         </is>
       </c>
       <c r="E29" s="3" t="n">
-        <v>97.56777476000001</v>
+        <v>6</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>54*26*7</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>585.40664856</v>
+        <v>30.9</v>
       </c>
       <c r="I29" s="3" t="n">
         <v>30.52</v>
       </c>
-      <c r="J29" s="3" t="n">
-        <v>700</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>4200</v>
-      </c>
-      <c r="L29" s="3" t="n">
-        <v>735</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>4410</v>
-      </c>
-      <c r="N29" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P29" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q29" s="3" t="n">
-        <v>56.68</v>
-      </c>
-      <c r="R29" s="3" t="n">
-        <v>4466.68</v>
-      </c>
-      <c r="S29" s="3" t="n">
-        <v>744.45</v>
-      </c>
-      <c r="T29" s="3" t="n">
-        <v>103.76</v>
-      </c>
-      <c r="U29" s="3" t="inlineStr">
-        <is>
-          <t>件</t>
-        </is>
-      </c>
-      <c r="V29" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W29" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X29" s="3" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>F18-F20</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -3050,71 +1584,27 @@
         </is>
       </c>
       <c r="E30" s="3" t="n">
-        <v>97.56777476000001</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>54*26*5</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>97.56777476000001</v>
+        <v>5.16</v>
       </c>
       <c r="I30" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="n">
-        <v>700</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>700</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>735</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <v>735</v>
-      </c>
-      <c r="N30" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q30" s="3" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="R30" s="3" t="n">
-        <v>744.29</v>
-      </c>
-      <c r="S30" s="3" t="n">
-        <v>744.29</v>
-      </c>
-      <c r="T30" s="3" t="n">
-        <v>103.74</v>
-      </c>
-      <c r="U30" s="3" t="inlineStr">
-        <is>
-          <t>件</t>
-        </is>
-      </c>
-      <c r="V30" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W30" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="X30" s="3" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>F21</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -3136,71 +1626,27 @@
         </is>
       </c>
       <c r="E31" s="3" t="n">
-        <v>1.10251585</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>20*20*10</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>5.51257925</v>
+        <v>0.58</v>
       </c>
       <c r="I31" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J31" s="3" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>39.55</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>41.53</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P31" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q31" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R31" s="3" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="S31" s="3" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="T31" s="3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U31" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V31" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W31" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X31" s="3" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>F22</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -3222,71 +1668,17 @@
         </is>
       </c>
       <c r="E32" s="3" t="n">
-        <v>2.78765071</v>
-      </c>
-      <c r="F32" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
       <c r="H32" s="3" t="n">
-        <v>13.93825355</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J32" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P32" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q32" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R32" s="3" t="n">
-        <v>105.09</v>
-      </c>
-      <c r="S32" s="3" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="T32" s="3" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="U32" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V32" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W32" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X32" s="3" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -3308,71 +1700,17 @@
         </is>
       </c>
       <c r="E33" s="3" t="n">
-        <v>9.75677748</v>
-      </c>
-      <c r="F33" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
       <c r="H33" s="3" t="n">
-        <v>19.51355496</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J33" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>147</v>
-      </c>
-      <c r="N33" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q33" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R33" s="3" t="n">
-        <v>147.04</v>
-      </c>
-      <c r="S33" s="3" t="n">
-        <v>73.52</v>
-      </c>
-      <c r="T33" s="3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="U33" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V33" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W33" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X33" s="3" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -3394,71 +1732,17 @@
         </is>
       </c>
       <c r="E34" s="3" t="n">
-        <v>2.78765071</v>
-      </c>
-      <c r="F34" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
       <c r="H34" s="3" t="n">
-        <v>13.93825355</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J34" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="N34" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P34" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q34" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R34" s="3" t="n">
-        <v>105.09</v>
-      </c>
-      <c r="S34" s="3" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="T34" s="3" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="U34" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V34" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W34" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -3480,71 +1764,17 @@
         </is>
       </c>
       <c r="E35" s="3" t="n">
-        <v>2.78765071</v>
-      </c>
-      <c r="F35" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G35" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr"/>
       <c r="H35" s="3" t="n">
-        <v>13.93825355</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J35" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="N35" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P35" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q35" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R35" s="3" t="n">
-        <v>105.09</v>
-      </c>
-      <c r="S35" s="3" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="T35" s="3" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="U35" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V35" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W35" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X35" s="3" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -3566,71 +1796,17 @@
         </is>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.13938254</v>
-      </c>
-      <c r="F36" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
       <c r="H36" s="3" t="n">
-        <v>2.7876508</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L36" s="3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="N36" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q36" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R36" s="3" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="S36" s="3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T36" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="U36" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V36" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W36" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -3652,71 +1828,17 @@
         </is>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.13938254</v>
-      </c>
-      <c r="F37" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
       <c r="H37" s="3" t="n">
-        <v>2.7876508</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="N37" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q37" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R37" s="3" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="S37" s="3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T37" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="U37" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V37" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W37" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X37" s="3" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -3738,71 +1860,17 @@
         </is>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.13938254</v>
-      </c>
-      <c r="F38" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
       <c r="H38" s="3" t="n">
-        <v>2.7876508</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q38" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="S38" s="3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T38" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="U38" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V38" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W38" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X38" s="3" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -3824,71 +1892,17 @@
         </is>
       </c>
       <c r="E39" s="3" t="n">
-        <v>30.38539271</v>
-      </c>
-      <c r="F39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr"/>
       <c r="H39" s="3" t="n">
-        <v>30.38539271</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="J39" s="3" t="n">
-        <v>218</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>218</v>
-      </c>
-      <c r="L39" s="3" t="n">
-        <v>228.9</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>228.9</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q39" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R39" s="3" t="n">
-        <v>228.92</v>
-      </c>
-      <c r="S39" s="3" t="n">
-        <v>228.92</v>
-      </c>
-      <c r="T39" s="3" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="U39" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V39" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W39" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -3910,71 +1924,17 @@
         </is>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.13938254</v>
-      </c>
-      <c r="F40" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr"/>
       <c r="H40" s="3" t="n">
-        <v>13.938254</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3" t="n">
         <v>0.03</v>
       </c>
-      <c r="J40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L40" s="3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="N40" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P40" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q40" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R40" s="3" t="n">
-        <v>105.06</v>
-      </c>
-      <c r="S40" s="3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T40" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="U40" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V40" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W40" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="X40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -3996,71 +1956,27 @@
         </is>
       </c>
       <c r="E41" s="3" t="n">
-        <v>66.90361698</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>76*74*7</t>
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>133.80723396</v>
+        <v>7.54</v>
       </c>
       <c r="I41" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J41" s="3" t="n">
-        <v>480</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>960</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>504</v>
-      </c>
-      <c r="M41" s="3" t="n">
-        <v>1008</v>
-      </c>
-      <c r="N41" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P41" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q41" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="R41" s="3" t="n">
-        <v>1021</v>
-      </c>
-      <c r="S41" s="3" t="n">
-        <v>510.5</v>
-      </c>
-      <c r="T41" s="3" t="n">
-        <v>71.15000000000001</v>
-      </c>
-      <c r="U41" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V41" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W41" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>F23</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -4082,71 +1998,27 @@
         </is>
       </c>
       <c r="E42" s="3" t="n">
-        <v>66.90361698</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>76*74*7</t>
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>133.80723396</v>
+        <v>7.54</v>
       </c>
       <c r="I42" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J42" s="3" t="n">
-        <v>480</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>960</v>
-      </c>
-      <c r="L42" s="3" t="n">
-        <v>504</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>1008</v>
-      </c>
-      <c r="N42" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P42" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q42" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="R42" s="3" t="n">
-        <v>1021</v>
-      </c>
-      <c r="S42" s="3" t="n">
-        <v>510.5</v>
-      </c>
-      <c r="T42" s="3" t="n">
-        <v>71.15000000000001</v>
-      </c>
-      <c r="U42" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W42" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>F24</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -4168,71 +2040,27 @@
         </is>
       </c>
       <c r="E43" s="3" t="n">
-        <v>64.11596627</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>22*40*40</t>
         </is>
       </c>
       <c r="H43" s="3" t="n">
-        <v>128.23193254</v>
+        <v>11.08</v>
       </c>
       <c r="I43" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J43" s="3" t="n">
-        <v>460</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>920</v>
-      </c>
-      <c r="L43" s="3" t="n">
-        <v>483</v>
-      </c>
-      <c r="M43" s="3" t="n">
-        <v>966</v>
-      </c>
-      <c r="N43" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P43" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q43" s="3" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="R43" s="3" t="n">
-        <v>975.29</v>
-      </c>
-      <c r="S43" s="3" t="n">
-        <v>487.64</v>
-      </c>
-      <c r="T43" s="3" t="n">
-        <v>67.97</v>
-      </c>
-      <c r="U43" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V43" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W43" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>F25</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -4254,111 +2082,39 @@
         </is>
       </c>
       <c r="E44" s="3" t="n">
-        <v>64.11596627</v>
-      </c>
-      <c r="F44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
       <c r="H44" s="3" t="n">
-        <v>128.23193254</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="3" t="n">
-        <v>460</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>920</v>
-      </c>
-      <c r="L44" s="3" t="n">
-        <v>483</v>
-      </c>
-      <c r="M44" s="3" t="n">
-        <v>966</v>
-      </c>
-      <c r="N44" s="3" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="P44" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q44" s="3" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="R44" s="3" t="n">
-        <v>975.29</v>
-      </c>
-      <c r="S44" s="3" t="n">
-        <v>487.64</v>
-      </c>
-      <c r="T44" s="3" t="n">
-        <v>67.97</v>
-      </c>
-      <c r="U44" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="V44" s="3" t="inlineStr">
-        <is>
-          <t>Silvassa</t>
-        </is>
-      </c>
-      <c r="W44" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="X44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr"/>
-      <c r="C45" s="3" t="inlineStr"/>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="n">
+      <c r="E45" s="3" t="n">
         <v>14394</v>
       </c>
+      <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr"/>
       <c r="H45" s="3" t="n">
-        <v>4666.436703130002</v>
+        <v>265.16</v>
       </c>
       <c r="I45" s="3" t="n">
         <v>253.79</v>
       </c>
       <c r="J45" s="3" t="inlineStr"/>
-      <c r="K45" s="3" t="n">
-        <v>33479.35000000001</v>
-      </c>
-      <c r="L45" s="3" t="inlineStr"/>
-      <c r="M45" s="3" t="n">
-        <v>35153.32</v>
-      </c>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr"/>
-      <c r="Q45" s="3" t="n">
-        <v>471.3700000000001</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>35624.69</v>
-      </c>
-      <c r="S45" s="3" t="inlineStr"/>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr"/>
-      <c r="V45" s="3" t="inlineStr"/>
-      <c r="W45" s="3" t="inlineStr"/>
-      <c r="X45" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -544,10 +544,8 @@
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>51*52*5</t>
-        </is>
+      <c r="G2" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>1.86</v>
@@ -625,10 +623,8 @@
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>28*16.5*11</t>
-        </is>
+      <c r="G4" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>2.42</v>
@@ -670,10 +666,8 @@
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>37*37*27</t>
-        </is>
+      <c r="G5" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>10.24</v>
@@ -747,10 +741,8 @@
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>50*32*51</t>
-        </is>
+      <c r="G7" s="3" t="n">
+        <v>0.08</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>6.92</v>
@@ -791,10 +783,8 @@
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>49*47.5*51.5</t>
-        </is>
+      <c r="G8" s="3" t="n">
+        <v>0.12</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>9.4</v>
@@ -833,10 +823,8 @@
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>51*50*23</t>
-        </is>
+      <c r="G9" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>5.84</v>
@@ -877,10 +865,8 @@
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>23*23*23</t>
-        </is>
+      <c r="G10" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>10.08</v>
@@ -1081,10 +1067,8 @@
       <c r="F16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>46*25*35</t>
-        </is>
+      <c r="G16" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>40.6</v>
@@ -1123,10 +1107,8 @@
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>26*27*27</t>
-        </is>
+      <c r="G17" s="3" t="n">
+        <v>0.02</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>15</v>
@@ -1421,10 +1403,8 @@
       <c r="F26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G26" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>60</v>
@@ -1463,10 +1443,8 @@
       <c r="F27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G27" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>20</v>
@@ -1505,10 +1483,8 @@
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G28" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>20</v>
@@ -1547,10 +1523,8 @@
       <c r="F29" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>54*26*7</t>
-        </is>
+      <c r="G29" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>30.9</v>
@@ -1589,10 +1563,8 @@
       <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>54*26*5</t>
-        </is>
+      <c r="G30" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>5.16</v>
@@ -1631,10 +1603,8 @@
       <c r="F31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>20*20*10</t>
-        </is>
+      <c r="G31" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>0.58</v>
@@ -1961,10 +1931,8 @@
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="3" t="inlineStr">
-        <is>
-          <t>76*74*7</t>
-        </is>
+      <c r="G41" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>7.54</v>
@@ -2003,10 +1971,8 @@
       <c r="F42" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>76*74*7</t>
-        </is>
+      <c r="G42" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>7.54</v>
@@ -2045,10 +2011,8 @@
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>22*40*40</t>
-        </is>
+      <c r="G43" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>11.08</v>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-XH2,54</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-VH3.96</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>铣刀</t>
+          <t>Milling cutter</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>焊接海绵</t>
+          <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>无尘布</t>
+          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>单侧皮带拉</t>
+          <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>定位销</t>
+          <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>保险丝座</t>
+          <t>Fuse holder-plastic</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>三角刀</t>
+          <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>送料器切刀</t>
+          <t>Metal cutters for feeder</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>螺杆</t>
+          <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-LS1D-04026</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>弯形送料器</t>
+          <t>Metal block-LS1D-04021</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw -LS1D-07037</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-XH2,54</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H2" s="5" t="n">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-VH3.96</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H3" s="5" t="n">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>铣刀</t>
+          <t>Milling cutter</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H4" s="5" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H5" s="5" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H6" s="5" t="n">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H7" s="5" t="n">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H8" s="5" t="n">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H9" s="5" t="n">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" s="5" t="n">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H11" s="5" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H12" s="5" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H13" s="5" t="n">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>焊接海绵</t>
+          <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H14" s="5" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>无尘布</t>
+          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H16" s="5" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H17" s="5" t="n">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H18" s="5" t="n">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H19" s="5" t="n">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H20" s="5" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H21" s="5" t="n">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H22" s="5" t="n">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H23" s="5" t="n">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H24" s="5" t="n">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>单侧皮带拉</t>
+          <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H28" s="5" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>定位销</t>
+          <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H29" s="5" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>保险丝座</t>
+          <t>Fuse holder-plastic</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H30" s="5" t="n">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>三角刀</t>
+          <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H31" s="5" t="n">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>送料器切刀</t>
+          <t>Metal cutters for feeder</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H32" s="5" t="n">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>螺杆</t>
+          <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H33" s="5" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H34" s="5" t="n">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H35" s="5" t="n">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-LS1D-04026</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H36" s="5" t="n">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>弯形送料器</t>
+          <t>Metal block-LS1D-04021</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H37" s="5" t="n">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw -LS1D-07037</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H38" s="5" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H39" s="5" t="n">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H40" s="5" t="n">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -465,6 +465,7 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,6 +519,11 @@
           <t>Carton NO.</t>
         </is>
       </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -556,6 +562,11 @@
       <c r="J2" s="3" t="inlineStr">
         <is>
           <t>F01</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
         </is>
       </c>
     </row>
@@ -590,6 +601,11 @@
         <v>0.51</v>
       </c>
       <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -637,6 +653,11 @@
           <t>F02</t>
         </is>
       </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>SMT工厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -680,6 +701,11 @@
           <t>F03</t>
         </is>
       </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -713,6 +739,11 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -755,6 +786,11 @@
           <t>F04</t>
         </is>
       </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -797,6 +833,11 @@
           <t>F05</t>
         </is>
       </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -837,6 +878,11 @@
           <t>F06</t>
         </is>
       </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -877,6 +923,11 @@
       <c r="J10" s="3" t="inlineStr">
         <is>
           <t>F07</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
@@ -913,6 +964,11 @@
         <v>2.75</v>
       </c>
       <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -945,6 +1001,11 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -977,6 +1038,11 @@
         <v>0.22</v>
       </c>
       <c r="J13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1009,6 +1075,11 @@
         <v>0.22</v>
       </c>
       <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1041,6 +1112,11 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="3" t="inlineStr"/>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1081,6 +1157,11 @@
           <t>F08-F11</t>
         </is>
       </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1119,6 +1200,11 @@
       <c r="J17" s="3" t="inlineStr">
         <is>
           <t>F12</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
@@ -1153,6 +1239,11 @@
         <v>3.31</v>
       </c>
       <c r="J18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1185,6 +1276,11 @@
         <v>3.36</v>
       </c>
       <c r="J19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1217,6 +1313,11 @@
         <v>1.68</v>
       </c>
       <c r="J20" s="3" t="inlineStr"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -1249,6 +1350,11 @@
         <v>0.75</v>
       </c>
       <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1281,6 +1387,11 @@
         <v>0.5</v>
       </c>
       <c r="J22" s="3" t="inlineStr"/>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1313,6 +1424,11 @@
         <v>0.42</v>
       </c>
       <c r="J23" s="3" t="inlineStr"/>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -1345,6 +1461,11 @@
         <v>0.42</v>
       </c>
       <c r="J24" s="3" t="inlineStr"/>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1377,6 +1498,11 @@
         <v>0.92</v>
       </c>
       <c r="J25" s="3" t="inlineStr"/>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1417,6 +1543,11 @@
           <t>F13-F15</t>
         </is>
       </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>组装厂</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1457,6 +1588,11 @@
           <t>F16</t>
         </is>
       </c>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>组装厂</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -1497,6 +1633,11 @@
           <t>F17</t>
         </is>
       </c>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>组装厂</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -1537,6 +1678,11 @@
           <t>F18-F20</t>
         </is>
       </c>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -1577,6 +1723,11 @@
           <t>F21</t>
         </is>
       </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -1615,6 +1766,11 @@
       <c r="J31" s="3" t="inlineStr">
         <is>
           <t>F22</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
         </is>
       </c>
     </row>
@@ -1649,6 +1805,11 @@
         <v>0.05</v>
       </c>
       <c r="J32" s="3" t="inlineStr"/>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -1681,6 +1842,11 @@
         <v>0.02</v>
       </c>
       <c r="J33" s="3" t="inlineStr"/>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -1713,6 +1879,11 @@
         <v>0.05</v>
       </c>
       <c r="J34" s="3" t="inlineStr"/>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -1745,6 +1916,11 @@
         <v>0.05</v>
       </c>
       <c r="J35" s="3" t="inlineStr"/>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -1777,6 +1953,11 @@
         <v>0.1</v>
       </c>
       <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -1809,6 +1990,11 @@
         <v>0.1</v>
       </c>
       <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -1841,6 +2027,11 @@
         <v>0.1</v>
       </c>
       <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -1873,6 +2064,11 @@
         <v>0.01</v>
       </c>
       <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -1905,6 +2101,11 @@
         <v>0.03</v>
       </c>
       <c r="J40" s="3" t="inlineStr"/>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -1945,6 +2146,11 @@
           <t>F23</t>
         </is>
       </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -1985,6 +2191,11 @@
           <t>F24</t>
         </is>
       </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -2023,6 +2234,11 @@
       <c r="J43" s="3" t="inlineStr">
         <is>
           <t>F25</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
         </is>
       </c>
     </row>
@@ -2057,6 +2273,11 @@
         <v>5</v>
       </c>
       <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr"/>
@@ -2079,6 +2300,7 @@
         <v>253.79</v>
       </c>
       <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -52,7 +52,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -66,11 +66,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -81,6 +102,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,19 +577,19 @@
       <c r="E2" s="3" t="n">
         <v>7000</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="6" t="n">
         <v>1.86</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>F01</t>
         </is>
@@ -592,15 +622,13 @@
       <c r="E3" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" s="7" t="n"/>
+      <c r="G3" s="7" t="n"/>
+      <c r="H3" s="7" t="n"/>
       <c r="I3" s="3" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="3" t="inlineStr"/>
+      <c r="J3" s="7" t="n"/>
       <c r="K3" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -684,19 +712,19 @@
       <c r="E5" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="6" t="n">
         <v>10.24</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
@@ -730,15 +758,13 @@
       <c r="E6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="7" t="n"/>
       <c r="I6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="3" t="inlineStr"/>
+      <c r="J6" s="7" t="n"/>
       <c r="K6" s="3" t="inlineStr">
         <is>
           <t>大华</t>
@@ -908,19 +934,19 @@
       <c r="E10" s="3" t="n">
         <v>465</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="6" t="n">
         <v>10.08</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>2.56</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
@@ -955,15 +981,13 @@
       <c r="E11" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="8" t="n"/>
       <c r="I11" s="3" t="n">
         <v>2.75</v>
       </c>
-      <c r="J11" s="3" t="inlineStr"/>
+      <c r="J11" s="8" t="n"/>
       <c r="K11" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -992,15 +1016,13 @@
       <c r="E12" s="3" t="n">
         <v>546</v>
       </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
       <c r="I12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
+      <c r="J12" s="8" t="n"/>
       <c r="K12" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1029,15 +1051,13 @@
       <c r="E13" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="8" t="n"/>
       <c r="I13" s="3" t="n">
         <v>0.22</v>
       </c>
-      <c r="J13" s="3" t="inlineStr"/>
+      <c r="J13" s="8" t="n"/>
       <c r="K13" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1066,15 +1086,13 @@
       <c r="E14" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
       <c r="I14" s="3" t="n">
         <v>0.22</v>
       </c>
-      <c r="J14" s="3" t="inlineStr"/>
+      <c r="J14" s="8" t="n"/>
       <c r="K14" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1103,15 +1121,13 @@
       <c r="E15" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="7" t="n"/>
       <c r="I15" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J15" s="3" t="inlineStr"/>
+      <c r="J15" s="7" t="n"/>
       <c r="K15" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1185,19 +1201,19 @@
       <c r="E17" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="6" t="n">
         <v>15</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>3.36</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="6" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
@@ -1230,15 +1246,13 @@
       <c r="E18" s="3" t="n">
         <v>395</v>
       </c>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n"/>
       <c r="I18" s="3" t="n">
         <v>3.31</v>
       </c>
-      <c r="J18" s="3" t="inlineStr"/>
+      <c r="J18" s="8" t="n"/>
       <c r="K18" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1267,15 +1281,13 @@
       <c r="E19" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="8" t="n"/>
       <c r="I19" s="3" t="n">
         <v>3.36</v>
       </c>
-      <c r="J19" s="3" t="inlineStr"/>
+      <c r="J19" s="8" t="n"/>
       <c r="K19" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1304,15 +1316,13 @@
       <c r="E20" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="inlineStr"/>
-      <c r="G20" s="3" t="inlineStr"/>
-      <c r="H20" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="n"/>
       <c r="I20" s="3" t="n">
         <v>1.68</v>
       </c>
-      <c r="J20" s="3" t="inlineStr"/>
+      <c r="J20" s="8" t="n"/>
       <c r="K20" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1341,15 +1351,13 @@
       <c r="E21" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="8" t="n"/>
       <c r="I21" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="J21" s="3" t="inlineStr"/>
+      <c r="J21" s="8" t="n"/>
       <c r="K21" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1378,15 +1386,13 @@
       <c r="E22" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
+      <c r="H22" s="8" t="n"/>
       <c r="I22" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="J22" s="3" t="inlineStr"/>
+      <c r="J22" s="8" t="n"/>
       <c r="K22" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1415,15 +1421,13 @@
       <c r="E23" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr"/>
-      <c r="H23" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
+      <c r="H23" s="8" t="n"/>
       <c r="I23" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="J23" s="3" t="inlineStr"/>
+      <c r="J23" s="8" t="n"/>
       <c r="K23" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1452,15 +1456,13 @@
       <c r="E24" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="8" t="n"/>
       <c r="I24" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="J24" s="3" t="inlineStr"/>
+      <c r="J24" s="8" t="n"/>
       <c r="K24" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1489,15 +1491,13 @@
       <c r="E25" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+      <c r="H25" s="7" t="n"/>
       <c r="I25" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="3" t="inlineStr"/>
+      <c r="J25" s="7" t="n"/>
       <c r="K25" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1751,19 +1751,19 @@
       <c r="E31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="6" t="n">
         <v>0.58</v>
       </c>
       <c r="I31" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J31" s="6" t="inlineStr">
         <is>
           <t>F22</t>
         </is>
@@ -1796,15 +1796,13 @@
       <c r="E32" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="8" t="n"/>
+      <c r="H32" s="8" t="n"/>
       <c r="I32" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J32" s="3" t="inlineStr"/>
+      <c r="J32" s="8" t="n"/>
       <c r="K32" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -1833,15 +1831,13 @@
       <c r="E33" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" s="8" t="n"/>
+      <c r="G33" s="8" t="n"/>
+      <c r="H33" s="8" t="n"/>
       <c r="I33" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J33" s="3" t="inlineStr"/>
+      <c r="J33" s="8" t="n"/>
       <c r="K33" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -1870,15 +1866,13 @@
       <c r="E34" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="8" t="n"/>
+      <c r="G34" s="8" t="n"/>
+      <c r="H34" s="8" t="n"/>
       <c r="I34" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J34" s="3" t="inlineStr"/>
+      <c r="J34" s="8" t="n"/>
       <c r="K34" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -1907,15 +1901,13 @@
       <c r="E35" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr"/>
-      <c r="H35" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" s="8" t="n"/>
+      <c r="G35" s="8" t="n"/>
+      <c r="H35" s="8" t="n"/>
       <c r="I35" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J35" s="3" t="inlineStr"/>
+      <c r="J35" s="8" t="n"/>
       <c r="K35" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -1944,15 +1936,13 @@
       <c r="E36" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr"/>
-      <c r="H36" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="8" t="n"/>
       <c r="I36" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" s="3" t="inlineStr"/>
+      <c r="J36" s="8" t="n"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -1981,15 +1971,13 @@
       <c r="E37" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="8" t="n"/>
       <c r="I37" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J37" s="3" t="inlineStr"/>
+      <c r="J37" s="8" t="n"/>
       <c r="K37" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -2018,15 +2006,13 @@
       <c r="E38" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
       <c r="I38" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="3" t="inlineStr"/>
+      <c r="J38" s="8" t="n"/>
       <c r="K38" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -2055,15 +2041,13 @@
       <c r="E39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr"/>
-      <c r="H39" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="8" t="n"/>
       <c r="I39" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="J39" s="3" t="inlineStr"/>
+      <c r="J39" s="8" t="n"/>
       <c r="K39" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -2092,15 +2076,13 @@
       <c r="E40" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="7" t="n"/>
+      <c r="H40" s="7" t="n"/>
       <c r="I40" s="3" t="n">
         <v>0.03</v>
       </c>
-      <c r="J40" s="3" t="inlineStr"/>
+      <c r="J40" s="7" t="n"/>
       <c r="K40" s="3" t="inlineStr">
         <is>
           <t>麦格米特</t>
@@ -2219,19 +2201,19 @@
       <c r="E43" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="H43" s="6" t="n">
         <v>11.08</v>
       </c>
       <c r="I43" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="J43" s="6" t="inlineStr">
         <is>
           <t>F25</t>
         </is>
@@ -2264,15 +2246,13 @@
       <c r="E44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="n"/>
       <c r="I44" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="3" t="inlineStr"/>
+      <c r="J44" s="8" t="n"/>
       <c r="K44" s="3" t="inlineStr">
         <is>
           <t>大华</t>
@@ -2291,18 +2271,42 @@
       <c r="E45" s="3" t="n">
         <v>14394</v>
       </c>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="n">
-        <v>265.16</v>
-      </c>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="7" t="n"/>
+      <c r="H45" s="7" t="n"/>
       <c r="I45" s="3" t="n">
         <v>253.79</v>
       </c>
-      <c r="J45" s="3" t="inlineStr"/>
+      <c r="J45" s="7" t="n"/>
       <c r="K45" s="3" t="inlineStr"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="H17:H25"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="J17:J25"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J31:J40"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -2246,13 +2246,13 @@
       <c r="E44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="8" t="n"/>
-      <c r="G44" s="8" t="n"/>
-      <c r="H44" s="8" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="7" t="n"/>
+      <c r="H44" s="7" t="n"/>
       <c r="I44" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="8" t="n"/>
+      <c r="J44" s="7" t="n"/>
       <c r="K44" s="3" t="inlineStr">
         <is>
           <t>大华</t>
@@ -2271,19 +2271,22 @@
       <c r="E45" s="3" t="n">
         <v>14394</v>
       </c>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="7" t="n"/>
-      <c r="H45" s="7" t="n"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="n">
+        <v>265.16</v>
+      </c>
       <c r="I45" s="3" t="n">
         <v>253.79</v>
       </c>
-      <c r="J45" s="7" t="n"/>
+      <c r="J45" s="3" t="inlineStr"/>
       <c r="K45" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
     <mergeCell ref="F17:F25"/>
-    <mergeCell ref="F43:F45"/>
     <mergeCell ref="H17:H25"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="F5:F6"/>
@@ -2292,14 +2295,13 @@
     <mergeCell ref="J10:J15"/>
     <mergeCell ref="G31:G40"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="G43:G45"/>
     <mergeCell ref="G10:G15"/>
     <mergeCell ref="H31:H40"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="J17:J25"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J43:J44"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="F31:F40"/>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,10 +17,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,12 +32,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -52,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -87,30 +131,278 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -479,8 +771,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -499,157 +790,157 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Sr No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>P/N.</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTNS</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Carton MEASUREMENT</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>G.W (KG)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>N.W(KG)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Carton NO.</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="3" t="n">
         <v>1.86</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>F01</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="3" t="n">
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="7" t="n"/>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -661,47 +952,47 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>F02</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -709,1578 +1000,1578 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="3" t="n">
         <v>10.24</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="3" t="n">
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="7" t="n"/>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.08</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>6.92</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>5.82</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>F04</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="2" t="n">
         <v>9.4</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>F05</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="2" t="n">
         <v>5.84</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>5.69</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>F06</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>465</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="3" t="n">
         <v>10.08</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>2.56</v>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
-      <c r="H11" s="8" t="n"/>
-      <c r="I11" s="3" t="n">
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="2" t="n">
         <v>2.75</v>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>546</v>
       </c>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
-      <c r="H12" s="8" t="n"/>
-      <c r="I12" s="3" t="n">
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="8" t="n"/>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="3" t="n">
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="J13" s="8" t="n"/>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="3" t="n">
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="J14" s="8" t="n"/>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="3" t="n">
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
+      <c r="H15" s="4" t="n"/>
+      <c r="I15" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="J15" s="7" t="n"/>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="J15" s="4" t="n"/>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="2" t="n">
         <v>40.6</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>40.3</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>F08-F11</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>3.36</v>
       </c>
-      <c r="J17" s="6" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="F18" s="8" t="n"/>
-      <c r="G18" s="8" t="n"/>
-      <c r="H18" s="8" t="n"/>
-      <c r="I18" s="3" t="n">
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="5" t="n"/>
+      <c r="I18" s="2" t="n">
         <v>3.31</v>
       </c>
-      <c r="J18" s="8" t="n"/>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="J18" s="5" t="n"/>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="F19" s="8" t="n"/>
-      <c r="G19" s="8" t="n"/>
-      <c r="H19" s="8" t="n"/>
-      <c r="I19" s="3" t="n">
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="5" t="n"/>
+      <c r="I19" s="2" t="n">
         <v>3.36</v>
       </c>
-      <c r="J19" s="8" t="n"/>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F20" s="8" t="n"/>
-      <c r="G20" s="8" t="n"/>
-      <c r="H20" s="8" t="n"/>
-      <c r="I20" s="3" t="n">
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="5" t="n"/>
+      <c r="I20" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="3" t="inlineStr">
+      <c r="J20" s="5" t="n"/>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
-      <c r="H21" s="8" t="n"/>
-      <c r="I21" s="3" t="n">
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="5" t="n"/>
+      <c r="I21" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="J21" s="8" t="n"/>
-      <c r="K21" s="3" t="inlineStr">
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F22" s="8" t="n"/>
-      <c r="G22" s="8" t="n"/>
-      <c r="H22" s="8" t="n"/>
-      <c r="I22" s="3" t="n">
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="5" t="n"/>
+      <c r="I22" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="3" t="inlineStr">
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F23" s="8" t="n"/>
-      <c r="G23" s="8" t="n"/>
-      <c r="H23" s="8" t="n"/>
-      <c r="I23" s="3" t="n">
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="3" t="inlineStr">
+      <c r="J23" s="5" t="n"/>
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="n"/>
-      <c r="H24" s="8" t="n"/>
-      <c r="I24" s="3" t="n">
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="J24" s="5" t="n"/>
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="n"/>
-      <c r="I25" s="3" t="n">
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="4" t="n"/>
+      <c r="H25" s="4" t="n"/>
+      <c r="I25" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="7" t="n"/>
-      <c r="K25" s="3" t="inlineStr">
+      <c r="J25" s="4" t="n"/>
+      <c r="K25" s="2" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>F13-F15</t>
         </is>
       </c>
-      <c r="K26" s="3" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>组装厂</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>F16</t>
         </is>
       </c>
-      <c r="K27" s="3" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>组装厂</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>F17</t>
         </is>
       </c>
-      <c r="K28" s="3" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>组装厂</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="2" t="n">
         <v>30.9</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>30.52</v>
       </c>
-      <c r="J29" s="3" t="inlineStr">
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>F18-F20</t>
         </is>
       </c>
-      <c r="K29" s="3" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="2" t="n">
         <v>5.16</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>F21</t>
         </is>
       </c>
-      <c r="K30" s="3" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="3" t="n">
         <v>0.58</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="J31" s="6" t="inlineStr">
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>F22</t>
         </is>
       </c>
-      <c r="K31" s="3" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="8" t="n"/>
-      <c r="G32" s="8" t="n"/>
-      <c r="H32" s="8" t="n"/>
-      <c r="I32" s="3" t="n">
+      <c r="F32" s="5" t="n"/>
+      <c r="G32" s="5" t="n"/>
+      <c r="H32" s="5" t="n"/>
+      <c r="I32" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="J32" s="8" t="n"/>
-      <c r="K32" s="3" t="inlineStr">
+      <c r="J32" s="5" t="n"/>
+      <c r="K32" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="8" t="n"/>
-      <c r="G33" s="8" t="n"/>
-      <c r="H33" s="8" t="n"/>
-      <c r="I33" s="3" t="n">
+      <c r="F33" s="5" t="n"/>
+      <c r="G33" s="5" t="n"/>
+      <c r="H33" s="5" t="n"/>
+      <c r="I33" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="J33" s="8" t="n"/>
-      <c r="K33" s="3" t="inlineStr">
+      <c r="J33" s="5" t="n"/>
+      <c r="K33" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="8" t="n"/>
-      <c r="G34" s="8" t="n"/>
-      <c r="H34" s="8" t="n"/>
-      <c r="I34" s="3" t="n">
+      <c r="F34" s="5" t="n"/>
+      <c r="G34" s="5" t="n"/>
+      <c r="H34" s="5" t="n"/>
+      <c r="I34" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="J34" s="8" t="n"/>
-      <c r="K34" s="3" t="inlineStr">
+      <c r="J34" s="5" t="n"/>
+      <c r="K34" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="8" t="n"/>
-      <c r="G35" s="8" t="n"/>
-      <c r="H35" s="8" t="n"/>
-      <c r="I35" s="3" t="n">
+      <c r="F35" s="5" t="n"/>
+      <c r="G35" s="5" t="n"/>
+      <c r="H35" s="5" t="n"/>
+      <c r="I35" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="J35" s="8" t="n"/>
-      <c r="K35" s="3" t="inlineStr">
+      <c r="J35" s="5" t="n"/>
+      <c r="K35" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F36" s="8" t="n"/>
-      <c r="G36" s="8" t="n"/>
-      <c r="H36" s="8" t="n"/>
-      <c r="I36" s="3" t="n">
+      <c r="F36" s="5" t="n"/>
+      <c r="G36" s="5" t="n"/>
+      <c r="H36" s="5" t="n"/>
+      <c r="I36" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" s="8" t="n"/>
-      <c r="K36" s="3" t="inlineStr">
+      <c r="J36" s="5" t="n"/>
+      <c r="K36" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F37" s="8" t="n"/>
-      <c r="G37" s="8" t="n"/>
-      <c r="H37" s="8" t="n"/>
-      <c r="I37" s="3" t="n">
+      <c r="F37" s="5" t="n"/>
+      <c r="G37" s="5" t="n"/>
+      <c r="H37" s="5" t="n"/>
+      <c r="I37" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J37" s="8" t="n"/>
-      <c r="K37" s="3" t="inlineStr">
+      <c r="J37" s="5" t="n"/>
+      <c r="K37" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F38" s="8" t="n"/>
-      <c r="G38" s="8" t="n"/>
-      <c r="H38" s="8" t="n"/>
-      <c r="I38" s="3" t="n">
+      <c r="F38" s="5" t="n"/>
+      <c r="G38" s="5" t="n"/>
+      <c r="H38" s="5" t="n"/>
+      <c r="I38" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="8" t="n"/>
-      <c r="K38" s="3" t="inlineStr">
+      <c r="J38" s="5" t="n"/>
+      <c r="K38" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="8" t="n"/>
-      <c r="G39" s="8" t="n"/>
-      <c r="H39" s="8" t="n"/>
-      <c r="I39" s="3" t="n">
+      <c r="F39" s="5" t="n"/>
+      <c r="G39" s="5" t="n"/>
+      <c r="H39" s="5" t="n"/>
+      <c r="I39" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="J39" s="8" t="n"/>
-      <c r="K39" s="3" t="inlineStr">
+      <c r="J39" s="5" t="n"/>
+      <c r="K39" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
-      <c r="H40" s="7" t="n"/>
-      <c r="I40" s="3" t="n">
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="J40" s="7" t="n"/>
-      <c r="K40" s="3" t="inlineStr">
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="2" t="inlineStr">
         <is>
           <t>麦格米特</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" s="2" t="n">
         <v>7.54</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>F23</t>
         </is>
       </c>
-      <c r="K41" s="3" t="inlineStr">
+      <c r="K41" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="H42" s="3" t="n">
+      <c r="H42" s="2" t="n">
         <v>7.54</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>F24</t>
         </is>
       </c>
-      <c r="K42" s="3" t="inlineStr">
+      <c r="K42" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="H43" s="6" t="n">
+      <c r="H43" s="3" t="n">
         <v>11.08</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J43" s="6" t="inlineStr">
+      <c r="J43" s="3" t="inlineStr">
         <is>
           <t>F25</t>
         </is>
       </c>
-      <c r="K43" s="3" t="inlineStr">
+      <c r="K43" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="7" t="n"/>
-      <c r="I44" s="3" t="n">
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="7" t="n"/>
-      <c r="K44" s="3" t="inlineStr">
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>大华</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr"/>
-      <c r="B45" s="3" t="inlineStr"/>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="n">
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n">
         <v>14394</v>
       </c>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="n">
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n">
         <v>265.16</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>253.79</v>
       </c>
-      <c r="J45" s="3" t="inlineStr"/>
-      <c r="K45" s="3" t="inlineStr"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2293,8 +2584,8 @@
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="J10:J15"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G10:G15"/>
     <mergeCell ref="H31:H40"/>
     <mergeCell ref="G5:G6"/>
@@ -2319,150 +2610,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="7" t="n"/>
+      <c r="G1" s="7" t="n"/>
+      <c r="H1" s="8" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="8" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Commercial Invoice</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="11" t="n"/>
+      <c r="E3" s="11" t="n"/>
+      <c r="F3" s="11" t="n"/>
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="12" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="n"/>
+      <c r="C4" s="14" t="n"/>
+      <c r="D4" s="14" t="n"/>
+      <c r="E4" s="15" t="n"/>
+      <c r="F4" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CI No.: </t>
+        </is>
+      </c>
+      <c r="G4" s="14" t="inlineStr">
+        <is>
+          <t>CXCI2025012201</t>
+        </is>
+      </c>
+      <c r="H4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="15" t="n"/>
+      <c r="F5" s="19" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="G5" s="20" t="n">
+        <v>45679</v>
+      </c>
+      <c r="H5" s="21" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="n"/>
+      <c r="D6" s="18" t="n"/>
+      <c r="E6" s="15" t="n"/>
+      <c r="F6" s="19" t="inlineStr">
+        <is>
+          <t>PO No.:</t>
+        </is>
+      </c>
+      <c r="G6" s="19" t="n"/>
+      <c r="H6" s="23" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E8" s="24" t="n">
         <v>0.00278765</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H8" s="25" t="n">
         <v>19.51355</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E9" s="24" t="n">
         <v>0.00696913</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H9" s="25" t="n">
         <v>20.90739</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -2474,36 +2848,36 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E10" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H10" s="25" t="n">
         <v>313.610706</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -2511,1233 +2885,1320 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E11" s="24" t="n">
         <v>3.67969893</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H11" s="25" t="n">
         <v>110.3909679</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E12" s="24" t="n">
         <v>6.28615235</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H12" s="25" t="n">
         <v>37.7169141</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E13" s="24" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H13" s="25" t="n">
         <v>124.49648057</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E14" s="24" t="n">
         <v>24.53132622</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H14" s="25" t="n">
         <v>49.06265244</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E15" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <v>465</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H15" s="25" t="n">
         <v>324.0643962</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E16" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H16" s="25" t="n">
         <v>348.45634</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E17" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F17" s="2" t="n">
         <v>546</v>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H17" s="25" t="n">
         <v>380.51432328</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E18" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F18" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H18" s="25" t="n">
         <v>27.8765072</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E19" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F19" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H19" s="25" t="n">
         <v>27.8765072</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E20" s="24" t="n">
         <v>0.13798871</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F20" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H20" s="25" t="n">
         <v>34.4971775</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E21" s="24" t="n">
         <v>4.10063419</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F21" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>包</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H21" s="25" t="n">
         <v>410.063419</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E22" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F22" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H22" s="25" t="n">
         <v>73.59398</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E23" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F23" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H23" s="25" t="n">
         <v>72.67405525000001</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E24" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F24" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H24" s="25" t="n">
         <v>73.59398</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E25" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F25" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H25" s="25" t="n">
         <v>36.79699</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E26" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F26" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H26" s="25" t="n">
         <v>16.5586455</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E27" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F27" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H27" s="25" t="n">
         <v>11.039097</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E28" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F28" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H28" s="25" t="n">
         <v>9.1992475</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E29" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H29" s="25" t="n">
         <v>9.1992475</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E30" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F30" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H30" s="25" t="n">
         <v>20.2383445</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E31" s="24" t="n">
         <v>153.79468953</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F31" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H31" s="25" t="n">
         <v>461.38406859</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E32" s="24" t="n">
         <v>203.47062513</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H32" s="25" t="n">
         <v>203.47062513</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E33" s="24" t="n">
         <v>123.06084048</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H33" s="25" t="n">
         <v>123.06084048</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E34" s="24" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G28" s="3" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H34" s="25" t="n">
         <v>682.97442332</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E35" s="24" t="n">
         <v>1.10251585</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H35" s="25" t="n">
         <v>5.51257925</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E36" s="24" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
+      <c r="H36" s="25" t="n">
         <v>13.93825355</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E37" s="24" t="n">
         <v>9.75677748</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F37" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H37" s="25" t="n">
         <v>19.51355496</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E38" s="24" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H38" s="25" t="n">
         <v>13.93825355</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E39" s="24" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H39" s="25" t="n">
         <v>13.93825355</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E40" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F40" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H34" s="5" t="n">
+      <c r="H40" s="25" t="n">
         <v>2.7876508</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E41" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F41" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H41" s="25" t="n">
         <v>2.7876508</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E42" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F42" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H36" s="5" t="n">
+      <c r="H42" s="25" t="n">
         <v>2.7876508</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E43" s="24" t="n">
         <v>30.38539271</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H37" s="5" t="n">
+      <c r="H43" s="25" t="n">
         <v>30.38539271</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="n">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E44" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F44" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H38" s="5" t="n">
+      <c r="H44" s="25" t="n">
         <v>13.938254</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="n">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E45" s="24" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F45" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H39" s="5" t="n">
+      <c r="H45" s="25" t="n">
         <v>267.61446792</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="n">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E46" s="24" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F46" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="H40" s="5" t="n">
+      <c r="H46" s="25" t="n">
         <v>256.46386508</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr"/>
-      <c r="B41" s="3" t="inlineStr"/>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="3" t="n">
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="2" t="n"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="24" t="n"/>
+      <c r="F47" s="2" t="n">
         <v>14394</v>
       </c>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="5" t="n">
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="25" t="n">
         <v>4666.436703129999</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="26" t="inlineStr">
+        <is>
+          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+        </is>
+      </c>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="28" t="n"/>
+      <c r="I48" s="15" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="29" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B49" s="30" t="n"/>
+      <c r="C49" s="31" t="n"/>
+      <c r="D49" s="31" t="n"/>
+      <c r="E49" s="31" t="n"/>
+      <c r="F49" s="31" t="n"/>
+      <c r="G49" s="31" t="n"/>
+      <c r="H49" s="23" t="n"/>
+      <c r="I49" s="15" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="29" t="inlineStr">
+        <is>
+          <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+        </is>
+      </c>
+      <c r="B50" s="30" t="n"/>
+      <c r="C50" s="31" t="n"/>
+      <c r="D50" s="31" t="n"/>
+      <c r="E50" s="31" t="n"/>
+      <c r="F50" s="31" t="n"/>
+      <c r="G50" s="31" t="n"/>
+      <c r="H50" s="23" t="n"/>
+      <c r="I50" s="32" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="33" t="inlineStr">
+        <is>
+          <t>Delivery Term:CIF</t>
+        </is>
+      </c>
+      <c r="B51" s="34" t="n"/>
+      <c r="C51" s="31" t="n"/>
+      <c r="D51" s="31" t="n"/>
+      <c r="E51" s="31" t="n"/>
+      <c r="F51" s="31" t="n"/>
+      <c r="G51" s="31" t="n"/>
+      <c r="H51" s="23" t="n"/>
+      <c r="I51" s="35" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="36" t="inlineStr">
+        <is>
+          <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
+Account number：8110301012800584376
+Bank Name: China citic bank shenzhen branch
+Bank Address:8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china
+SWIFT No.: CIBKCNBJ518</t>
+        </is>
+      </c>
+      <c r="B52" s="37" t="n"/>
+      <c r="C52" s="37" t="n"/>
+      <c r="D52" s="37" t="n"/>
+      <c r="E52" s="37" t="n"/>
+      <c r="F52" s="37" t="n"/>
+      <c r="G52" s="37" t="n"/>
+      <c r="H52" s="38" t="n"/>
+      <c r="I52" s="15" t="n"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -778,8 +778,8 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
@@ -2617,6 +2617,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="inlineStr">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -58,11 +58,10 @@
       <sz val="20"/>
     </font>
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -71,10 +70,11 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -178,6 +178,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -228,7 +259,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -252,27 +283,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -285,39 +296,169 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium"/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="medium"/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="medium"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -328,30 +469,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -363,21 +508,39 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -386,23 +549,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2610,7 +2775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,82 +2814,84 @@
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="7" t="n"/>
-      <c r="H2" s="8" t="n"/>
+      <c r="B2" s="10" t="n"/>
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="10" t="n"/>
+      <c r="G2" s="10" t="n"/>
+      <c r="H2" s="11" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="11" t="n"/>
-      <c r="E3" s="11" t="n"/>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="11" t="n"/>
-      <c r="H3" s="12" t="n"/>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
+      <c r="F3" s="13" t="n"/>
+      <c r="G3" s="13" t="n"/>
+      <c r="H3" s="14" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="15" t="n"/>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="17" t="n"/>
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">CI No.: </t>
         </is>
       </c>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="G4" s="16" t="inlineStr">
         <is>
           <t>CXCI2025012201</t>
         </is>
       </c>
-      <c r="H4" s="16" t="n"/>
+      <c r="H4" s="18" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="inlineStr">
+      <c r="A5" s="19" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D5" s="18" t="n"/>
-      <c r="E5" s="15" t="n"/>
-      <c r="F5" s="19" t="inlineStr">
+      <c r="D5" s="20" t="n"/>
+      <c r="E5" s="17" t="n"/>
+      <c r="F5" s="21" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="22" t="n">
         <v>45679</v>
       </c>
-      <c r="H5" s="21" t="n"/>
+      <c r="H5" s="23" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="n"/>
-      <c r="D6" s="18" t="n"/>
-      <c r="E6" s="15" t="n"/>
-      <c r="F6" s="19" t="inlineStr">
+      <c r="A6" s="24" t="n"/>
+      <c r="B6" s="25" t="n"/>
+      <c r="C6" s="25" t="n"/>
+      <c r="D6" s="26" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="28" t="inlineStr">
         <is>
           <t>PO No.:</t>
         </is>
       </c>
-      <c r="G6" s="19" t="n"/>
-      <c r="H6" s="23" t="n"/>
+      <c r="G6" s="28" t="n"/>
+      <c r="H6" s="29" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="30" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
@@ -2759,14 +2926,14 @@
           <t>Unit</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" s="31" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="32" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -2784,7 +2951,7 @@
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="33" t="n">
         <v>0.00278765</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -2795,12 +2962,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="34" t="n">
         <v>19.51355</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="32" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -2818,7 +2985,7 @@
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="33" t="n">
         <v>0.00696913</v>
       </c>
       <c r="F9" s="2" t="n">
@@ -2829,12 +2996,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="34" t="n">
         <v>20.90739</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="32" t="n">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -2859,7 +3026,7 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="33" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F10" s="2" t="n">
@@ -2870,12 +3037,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="34" t="n">
         <v>313.610706</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="32" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -2896,7 +3063,7 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="33" t="n">
         <v>3.67969893</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -2907,12 +3074,12 @@
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="34" t="n">
         <v>110.3909679</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="32" t="n">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -2931,7 +3098,7 @@
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="33" t="n">
         <v>6.28615235</v>
       </c>
       <c r="F12" s="2" t="n">
@@ -2942,12 +3109,12 @@
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="34" t="n">
         <v>37.7169141</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="32" t="n">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -2967,7 +3134,7 @@
 200米/卷</t>
         </is>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="33" t="n">
         <v>17.78521151</v>
       </c>
       <c r="F13" s="2" t="n">
@@ -2978,12 +3145,12 @@
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="34" t="n">
         <v>124.49648057</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="32" t="n">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -3001,7 +3168,7 @@
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="33" t="n">
         <v>24.53132622</v>
       </c>
       <c r="F14" s="2" t="n">
@@ -3012,12 +3179,12 @@
           <t>ROLL</t>
         </is>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="34" t="n">
         <v>49.06265244</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="32" t="n">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -3037,7 +3204,7 @@
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="33" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F15" s="2" t="n">
@@ -3048,12 +3215,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="34" t="n">
         <v>324.0643962</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="32" t="n">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -3073,7 +3240,7 @@
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="33" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F16" s="2" t="n">
@@ -3084,12 +3251,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="34" t="n">
         <v>348.45634</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="32" t="n">
         <v>10</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -3107,7 +3274,7 @@
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="33" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F17" s="2" t="n">
@@ -3118,12 +3285,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="34" t="n">
         <v>380.51432328</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="32" t="n">
         <v>11</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -3141,7 +3308,7 @@
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E18" s="24" t="n">
+      <c r="E18" s="33" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F18" s="2" t="n">
@@ -3152,12 +3319,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="34" t="n">
         <v>27.8765072</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="32" t="n">
         <v>12</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -3175,7 +3342,7 @@
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E19" s="24" t="n">
+      <c r="E19" s="33" t="n">
         <v>0.69691268</v>
       </c>
       <c r="F19" s="2" t="n">
@@ -3186,12 +3353,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="34" t="n">
         <v>27.8765072</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="32" t="n">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -3209,7 +3376,7 @@
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="33" t="n">
         <v>0.13798871</v>
       </c>
       <c r="F20" s="2" t="n">
@@ -3220,12 +3387,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="34" t="n">
         <v>34.4971775</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="32" t="n">
         <v>14</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -3243,7 +3410,7 @@
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E21" s="24" t="n">
+      <c r="E21" s="33" t="n">
         <v>4.10063419</v>
       </c>
       <c r="F21" s="2" t="n">
@@ -3254,12 +3421,12 @@
           <t>包</t>
         </is>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="34" t="n">
         <v>410.063419</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="32" t="n">
         <v>15</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -3277,7 +3444,7 @@
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F22" s="2" t="n">
@@ -3288,12 +3455,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="34" t="n">
         <v>73.59398</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="32" t="n">
         <v>16</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -3311,7 +3478,7 @@
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E23" s="24" t="n">
+      <c r="E23" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F23" s="2" t="n">
@@ -3322,12 +3489,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="34" t="n">
         <v>72.67405525000001</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="32" t="n">
         <v>17</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -3345,7 +3512,7 @@
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E24" s="24" t="n">
+      <c r="E24" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F24" s="2" t="n">
@@ -3356,12 +3523,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="34" t="n">
         <v>73.59398</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="32" t="n">
         <v>18</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -3379,7 +3546,7 @@
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F25" s="2" t="n">
@@ -3390,12 +3557,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="34" t="n">
         <v>36.79699</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="32" t="n">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -3413,7 +3580,7 @@
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E26" s="24" t="n">
+      <c r="E26" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F26" s="2" t="n">
@@ -3424,12 +3591,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="34" t="n">
         <v>16.5586455</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="32" t="n">
         <v>20</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -3447,7 +3614,7 @@
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E27" s="24" t="n">
+      <c r="E27" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F27" s="2" t="n">
@@ -3458,12 +3625,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="34" t="n">
         <v>11.039097</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="32" t="n">
         <v>21</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -3481,7 +3648,7 @@
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E28" s="24" t="n">
+      <c r="E28" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F28" s="2" t="n">
@@ -3492,12 +3659,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="34" t="n">
         <v>9.1992475</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="32" t="n">
         <v>22</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -3515,7 +3682,7 @@
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F29" s="2" t="n">
@@ -3526,12 +3693,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="34" t="n">
         <v>9.1992475</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="32" t="n">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -3549,7 +3716,7 @@
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E30" s="24" t="n">
+      <c r="E30" s="33" t="n">
         <v>0.18398495</v>
       </c>
       <c r="F30" s="2" t="n">
@@ -3560,12 +3727,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="34" t="n">
         <v>20.2383445</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="32" t="n">
         <v>24</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -3583,7 +3750,7 @@
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E31" s="24" t="n">
+      <c r="E31" s="33" t="n">
         <v>153.79468953</v>
       </c>
       <c r="F31" s="2" t="n">
@@ -3594,12 +3761,12 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="34" t="n">
         <v>461.38406859</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="32" t="n">
         <v>25</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -3617,7 +3784,7 @@
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E32" s="24" t="n">
+      <c r="E32" s="33" t="n">
         <v>203.47062513</v>
       </c>
       <c r="F32" s="2" t="n">
@@ -3628,12 +3795,12 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="H32" s="34" t="n">
         <v>203.47062513</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="32" t="n">
         <v>26</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -3651,7 +3818,7 @@
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E33" s="24" t="n">
+      <c r="E33" s="33" t="n">
         <v>123.06084048</v>
       </c>
       <c r="F33" s="2" t="n">
@@ -3662,12 +3829,12 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="H33" s="34" t="n">
         <v>123.06084048</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="32" t="n">
         <v>27</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -3685,7 +3852,7 @@
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="33" t="n">
         <v>97.56777476000001</v>
       </c>
       <c r="F34" s="2" t="n">
@@ -3696,12 +3863,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="H34" s="34" t="n">
         <v>682.97442332</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="32" t="n">
         <v>28</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -3719,7 +3886,7 @@
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E35" s="24" t="n">
+      <c r="E35" s="33" t="n">
         <v>1.10251585</v>
       </c>
       <c r="F35" s="2" t="n">
@@ -3730,12 +3897,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="34" t="n">
         <v>5.51257925</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="32" t="n">
         <v>29</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -3753,7 +3920,7 @@
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E36" s="24" t="n">
+      <c r="E36" s="33" t="n">
         <v>2.78765071</v>
       </c>
       <c r="F36" s="2" t="n">
@@ -3764,12 +3931,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="34" t="n">
         <v>13.93825355</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="32" t="n">
         <v>30</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3787,7 +3954,7 @@
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E37" s="24" t="n">
+      <c r="E37" s="33" t="n">
         <v>9.75677748</v>
       </c>
       <c r="F37" s="2" t="n">
@@ -3798,12 +3965,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="34" t="n">
         <v>19.51355496</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="32" t="n">
         <v>31</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3821,7 +3988,7 @@
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E38" s="24" t="n">
+      <c r="E38" s="33" t="n">
         <v>2.78765071</v>
       </c>
       <c r="F38" s="2" t="n">
@@ -3832,12 +3999,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H38" s="25" t="n">
+      <c r="H38" s="34" t="n">
         <v>13.93825355</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="32" t="n">
         <v>32</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3855,7 +4022,7 @@
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E39" s="24" t="n">
+      <c r="E39" s="33" t="n">
         <v>2.78765071</v>
       </c>
       <c r="F39" s="2" t="n">
@@ -3866,12 +4033,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="34" t="n">
         <v>13.93825355</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="32" t="n">
         <v>33</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -3889,7 +4056,7 @@
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E40" s="24" t="n">
+      <c r="E40" s="33" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F40" s="2" t="n">
@@ -3900,12 +4067,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="34" t="n">
         <v>2.7876508</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="32" t="n">
         <v>34</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -3923,7 +4090,7 @@
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E41" s="24" t="n">
+      <c r="E41" s="33" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F41" s="2" t="n">
@@ -3934,12 +4101,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H41" s="25" t="n">
+      <c r="H41" s="34" t="n">
         <v>2.7876508</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="32" t="n">
         <v>35</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -3957,7 +4124,7 @@
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E42" s="24" t="n">
+      <c r="E42" s="33" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F42" s="2" t="n">
@@ -3968,12 +4135,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="34" t="n">
         <v>2.7876508</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="32" t="n">
         <v>36</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -3991,7 +4158,7 @@
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E43" s="24" t="n">
+      <c r="E43" s="33" t="n">
         <v>30.38539271</v>
       </c>
       <c r="F43" s="2" t="n">
@@ -4002,12 +4169,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="34" t="n">
         <v>30.38539271</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="32" t="n">
         <v>37</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -4025,7 +4192,7 @@
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E44" s="24" t="n">
+      <c r="E44" s="33" t="n">
         <v>0.13938254</v>
       </c>
       <c r="F44" s="2" t="n">
@@ -4036,12 +4203,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="34" t="n">
         <v>13.938254</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="32" t="n">
         <v>38</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4059,7 +4226,7 @@
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E45" s="24" t="n">
+      <c r="E45" s="33" t="n">
         <v>66.90361698</v>
       </c>
       <c r="F45" s="2" t="n">
@@ -4070,12 +4237,12 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="34" t="n">
         <v>267.61446792</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="32" t="n">
         <v>39</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -4093,7 +4260,7 @@
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E46" s="24" t="n">
+      <c r="E46" s="33" t="n">
         <v>64.11596627</v>
       </c>
       <c r="F46" s="2" t="n">
@@ -4104,86 +4271,86 @@
           <t>PCS</t>
         </is>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="34" t="n">
         <v>256.46386508</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
+      <c r="A47" s="32" t="n"/>
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="n"/>
       <c r="D47" s="2" t="n"/>
-      <c r="E47" s="24" t="n"/>
+      <c r="E47" s="33" t="n"/>
       <c r="F47" s="2" t="n">
         <v>14394</v>
       </c>
       <c r="G47" s="2" t="n"/>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="34" t="n">
         <v>4666.436703129999</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="26" t="inlineStr">
+      <c r="A48" s="35" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
-      <c r="B48" s="27" t="n"/>
-      <c r="C48" s="27" t="n"/>
-      <c r="D48" s="27" t="n"/>
-      <c r="E48" s="27" t="n"/>
-      <c r="F48" s="27" t="n"/>
-      <c r="G48" s="27" t="n"/>
-      <c r="H48" s="28" t="n"/>
-      <c r="I48" s="15" t="n"/>
+      <c r="B48" s="36" t="n"/>
+      <c r="C48" s="36" t="n"/>
+      <c r="D48" s="36" t="n"/>
+      <c r="E48" s="36" t="n"/>
+      <c r="F48" s="36" t="n"/>
+      <c r="G48" s="36" t="n"/>
+      <c r="H48" s="37" t="n"/>
+      <c r="I48" s="38" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="29" t="inlineStr">
+      <c r="A49" s="39" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B49" s="30" t="n"/>
-      <c r="C49" s="31" t="n"/>
-      <c r="D49" s="31" t="n"/>
-      <c r="E49" s="31" t="n"/>
-      <c r="F49" s="31" t="n"/>
-      <c r="G49" s="31" t="n"/>
-      <c r="H49" s="23" t="n"/>
-      <c r="I49" s="15" t="n"/>
+      <c r="B49" s="40" t="n"/>
+      <c r="C49" s="41" t="n"/>
+      <c r="D49" s="41" t="n"/>
+      <c r="E49" s="41" t="n"/>
+      <c r="F49" s="41" t="n"/>
+      <c r="G49" s="41" t="n"/>
+      <c r="H49" s="42" t="n"/>
+      <c r="I49" s="38" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="29" t="inlineStr">
+      <c r="A50" s="39" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B50" s="30" t="n"/>
-      <c r="C50" s="31" t="n"/>
-      <c r="D50" s="31" t="n"/>
-      <c r="E50" s="31" t="n"/>
-      <c r="F50" s="31" t="n"/>
-      <c r="G50" s="31" t="n"/>
-      <c r="H50" s="23" t="n"/>
-      <c r="I50" s="32" t="n"/>
+      <c r="B50" s="40" t="n"/>
+      <c r="C50" s="41" t="n"/>
+      <c r="D50" s="41" t="n"/>
+      <c r="E50" s="41" t="n"/>
+      <c r="F50" s="41" t="n"/>
+      <c r="G50" s="41" t="n"/>
+      <c r="H50" s="42" t="n"/>
+      <c r="I50" s="43" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="33" t="inlineStr">
+      <c r="A51" s="44" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B51" s="34" t="n"/>
-      <c r="C51" s="31" t="n"/>
-      <c r="D51" s="31" t="n"/>
-      <c r="E51" s="31" t="n"/>
-      <c r="F51" s="31" t="n"/>
-      <c r="G51" s="31" t="n"/>
-      <c r="H51" s="23" t="n"/>
-      <c r="I51" s="35" t="n"/>
+      <c r="B51" s="45" t="n"/>
+      <c r="C51" s="41" t="n"/>
+      <c r="D51" s="41" t="n"/>
+      <c r="E51" s="41" t="n"/>
+      <c r="F51" s="41" t="n"/>
+      <c r="G51" s="41" t="n"/>
+      <c r="H51" s="42" t="n"/>
+      <c r="I51" s="17" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="36" t="inlineStr">
+      <c r="A52" s="46" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -4192,14 +4359,24 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B52" s="37" t="n"/>
-      <c r="C52" s="37" t="n"/>
-      <c r="D52" s="37" t="n"/>
-      <c r="E52" s="37" t="n"/>
-      <c r="F52" s="37" t="n"/>
-      <c r="G52" s="37" t="n"/>
-      <c r="H52" s="38" t="n"/>
-      <c r="I52" s="15" t="n"/>
+      <c r="B52" s="25" t="n"/>
+      <c r="C52" s="25" t="n"/>
+      <c r="D52" s="25" t="n"/>
+      <c r="E52" s="25" t="n"/>
+      <c r="F52" s="25" t="n"/>
+      <c r="G52" s="25" t="n"/>
+      <c r="H52" s="47" t="n"/>
+      <c r="I52" s="38" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="48" t="n"/>
+      <c r="B53" s="49" t="n"/>
+      <c r="C53" s="49" t="n"/>
+      <c r="D53" s="49" t="n"/>
+      <c r="E53" s="49" t="n"/>
+      <c r="F53" s="49" t="n"/>
+      <c r="G53" s="49" t="n"/>
+      <c r="H53" s="50" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -2959,11 +2959,11 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H8" s="34" t="n">
-        <v>19.51355</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="9">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H9" s="34" t="n">
-        <v>20.90739</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="10">
@@ -3034,11 +3034,11 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H10" s="34" t="n">
-        <v>313.610706</v>
+        <v>313.61</v>
       </c>
     </row>
     <row r="11">
@@ -3071,11 +3071,11 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H11" s="34" t="n">
-        <v>110.3909679</v>
+        <v>110.39</v>
       </c>
     </row>
     <row r="12">
@@ -3106,11 +3106,11 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H12" s="34" t="n">
-        <v>37.7169141</v>
+        <v>37.72</v>
       </c>
     </row>
     <row r="13">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H13" s="34" t="n">
-        <v>124.49648057</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="14">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H14" s="34" t="n">
-        <v>49.06265244</v>
+        <v>49.06</v>
       </c>
     </row>
     <row r="15">
@@ -3212,11 +3212,11 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H15" s="34" t="n">
-        <v>324.0643962</v>
+        <v>324.06</v>
       </c>
     </row>
     <row r="16">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H16" s="34" t="n">
-        <v>348.45634</v>
+        <v>348.46</v>
       </c>
     </row>
     <row r="17">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H17" s="34" t="n">
-        <v>380.51432328</v>
+        <v>380.51</v>
       </c>
     </row>
     <row r="18">
@@ -3316,11 +3316,11 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H18" s="34" t="n">
-        <v>27.8765072</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="19">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H19" s="34" t="n">
-        <v>27.8765072</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="20">
@@ -3384,11 +3384,11 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H20" s="34" t="n">
-        <v>34.4971775</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="21">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="H21" s="34" t="n">
-        <v>410.063419</v>
+        <v>410.06</v>
       </c>
     </row>
     <row r="22">
@@ -3452,11 +3452,11 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H22" s="34" t="n">
-        <v>73.59398</v>
+        <v>73.59</v>
       </c>
     </row>
     <row r="23">
@@ -3486,11 +3486,11 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H23" s="34" t="n">
-        <v>72.67405525000001</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="24">
@@ -3520,11 +3520,11 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H24" s="34" t="n">
-        <v>73.59398</v>
+        <v>73.59</v>
       </c>
     </row>
     <row r="25">
@@ -3554,11 +3554,11 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H25" s="34" t="n">
-        <v>36.79699</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="26">
@@ -3588,11 +3588,11 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H26" s="34" t="n">
-        <v>16.5586455</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="27">
@@ -3622,11 +3622,11 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H27" s="34" t="n">
-        <v>11.039097</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="28">
@@ -3656,11 +3656,11 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H28" s="34" t="n">
-        <v>9.1992475</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3690,11 +3690,11 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H29" s="34" t="n">
-        <v>9.1992475</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H30" s="34" t="n">
-        <v>20.2383445</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="31">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="H31" s="34" t="n">
-        <v>461.38406859</v>
+        <v>461.38</v>
       </c>
     </row>
     <row r="32">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="H32" s="34" t="n">
-        <v>203.47062513</v>
+        <v>203.47</v>
       </c>
     </row>
     <row r="33">
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="H33" s="34" t="n">
-        <v>123.06084048</v>
+        <v>123.06</v>
       </c>
     </row>
     <row r="34">
@@ -3860,11 +3860,11 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>件</t>
         </is>
       </c>
       <c r="H34" s="34" t="n">
-        <v>682.97442332</v>
+        <v>682.97</v>
       </c>
     </row>
     <row r="35">
@@ -3894,11 +3894,11 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H35" s="34" t="n">
-        <v>5.51257925</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="36">
@@ -3928,11 +3928,11 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H36" s="34" t="n">
-        <v>13.93825355</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="37">
@@ -3962,11 +3962,11 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H37" s="34" t="n">
-        <v>19.51355496</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="38">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H38" s="34" t="n">
-        <v>13.93825355</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="39">
@@ -4030,11 +4030,11 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H39" s="34" t="n">
-        <v>13.93825355</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="40">
@@ -4064,11 +4064,11 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H40" s="34" t="n">
-        <v>2.7876508</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="41">
@@ -4098,11 +4098,11 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H41" s="34" t="n">
-        <v>2.7876508</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="42">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H42" s="34" t="n">
-        <v>2.7876508</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="43">
@@ -4166,11 +4166,11 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H43" s="34" t="n">
-        <v>30.38539271</v>
+        <v>30.39</v>
       </c>
     </row>
     <row r="44">
@@ -4200,11 +4200,11 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H44" s="34" t="n">
-        <v>13.938254</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="45">
@@ -4234,11 +4234,11 @@
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H45" s="34" t="n">
-        <v>267.61446792</v>
+        <v>267.61</v>
       </c>
     </row>
     <row r="46">
@@ -4268,11 +4268,11 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H46" s="34" t="n">
-        <v>256.46386508</v>
+        <v>256.46</v>
       </c>
     </row>
     <row r="47">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="G47" s="2" t="n"/>
       <c r="H47" s="34" t="n">
-        <v>4666.436703129999</v>
+        <v>4666.429999999999</v>
       </c>
     </row>
     <row r="48">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -17,25 +17,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00_ "/>
+    <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -70,6 +65,12 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
@@ -80,6 +81,70 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="26"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,39 +161,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -253,6 +291,12 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -305,269 +349,241 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium"/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -933,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,169 +959,389 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Packing List</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Shipper:</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>Invoice No. ：</t>
+        </is>
+      </c>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>CXCI2025012201</t>
+        </is>
+      </c>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="10" t="n"/>
+      <c r="J5" s="13" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="15" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>45679</v>
+      </c>
+      <c r="I6" s="10" t="n"/>
+      <c r="J6" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="15" t="inlineStr">
+        <is>
+          <t>Delivery Date:</t>
+        </is>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>45679</v>
+      </c>
+      <c r="I7" s="10" t="n"/>
+      <c r="J7" s="13" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>Buyer :</t>
+        </is>
+      </c>
+      <c r="B8" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
+        </is>
+      </c>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="n"/>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="13" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="10" t="n"/>
+      <c r="G10" s="12" t="n"/>
+      <c r="H10" s="12" t="n"/>
+      <c r="I10" s="19" t="n"/>
+      <c r="J10" s="13" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="12" t="n"/>
+      <c r="I11" s="10" t="n"/>
+      <c r="J11" s="13" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="inlineStr">
+        <is>
+          <t>Ship to :</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
+        </is>
+      </c>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="12" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="13" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="n"/>
+      <c r="B13" s="22" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="12" t="n"/>
+      <c r="I13" s="10" t="n"/>
+      <c r="J13" s="13" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="21" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="21" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="9" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="13" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="23" t="inlineStr">
+        <is>
           <t>Sr No.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B16" s="23" t="inlineStr">
         <is>
           <t>P/N.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C16" s="23" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D16" s="23" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E16" s="23" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F16" s="23" t="inlineStr">
         <is>
           <t>CTNS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G16" s="23" t="inlineStr">
         <is>
           <t>Carton MEASUREMENT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H16" s="23" t="inlineStr">
         <is>
           <t>G.W (KG)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I16" s="23" t="inlineStr">
         <is>
           <t>N.W(KG)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J16" s="23" t="inlineStr">
         <is>
           <t>Carton NO.</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E17" s="24" t="n">
         <v>7000</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F17" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G17" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H17" s="25" t="n">
         <v>1.86</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I17" s="24" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J17" s="25" t="inlineStr">
         <is>
           <t>F01</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B18" s="24" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E18" s="24" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="2" t="n">
+      <c r="F18" s="26" t="n"/>
+      <c r="G18" s="26" t="n"/>
+      <c r="H18" s="26" t="n"/>
+      <c r="I18" s="24" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="J18" s="26" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B19" s="24" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -1117,47 +1353,42 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E19" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F19" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G19" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H19" s="24" t="n">
         <v>2.42</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I19" s="24" t="n">
         <v>2.33</v>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J19" s="24" t="inlineStr">
         <is>
           <t>F02</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>SMT工厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B20" s="24" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D20" s="24" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -1165,1605 +1396,1495 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E20" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F20" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G20" s="25" t="n">
         <v>0.04</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H20" s="25" t="n">
         <v>10.24</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I20" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J20" s="25" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B21" s="24" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C21" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E21" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="2" t="n">
+      <c r="F21" s="26" t="n"/>
+      <c r="G21" s="26" t="n"/>
+      <c r="H21" s="26" t="n"/>
+      <c r="I21" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="J21" s="26" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B22" s="24" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C22" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D22" s="24" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E22" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G22" s="24" t="n">
         <v>0.08</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H22" s="24" t="n">
         <v>6.92</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I22" s="24" t="n">
         <v>5.82</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J22" s="24" t="inlineStr">
         <is>
           <t>F04</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B23" s="24" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D23" s="24" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E23" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F23" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G23" s="24" t="n">
         <v>0.12</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H23" s="24" t="n">
         <v>9.4</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I23" s="24" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="J23" s="24" t="inlineStr">
         <is>
           <t>F05</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B24" s="24" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D24" s="24" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E24" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G24" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H24" s="24" t="n">
         <v>5.84</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I24" s="24" t="n">
         <v>5.69</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J24" s="24" t="inlineStr">
         <is>
           <t>F06</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B25" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D25" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E25" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F25" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G25" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H25" s="25" t="n">
         <v>10.08</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I25" s="24" t="n">
         <v>2.56</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J25" s="25" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B26" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C26" s="24" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D26" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E26" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="2" t="n">
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="24" t="n">
         <v>2.75</v>
       </c>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="J26" s="27" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B27" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C27" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D27" s="24" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E27" s="24" t="n">
         <v>546</v>
       </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="2" t="n">
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="27" t="n"/>
+      <c r="I27" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="J27" s="27" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B28" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C28" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D28" s="24" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E28" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="2" t="n">
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="27" t="n"/>
+      <c r="H28" s="27" t="n"/>
+      <c r="I28" s="24" t="n">
         <v>0.22</v>
       </c>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="J28" s="27" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B29" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C29" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D29" s="24" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E29" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="2" t="n">
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="27" t="n"/>
+      <c r="H29" s="27" t="n"/>
+      <c r="I29" s="24" t="n">
         <v>0.22</v>
       </c>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="J29" s="27" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B30" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C30" s="24" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D30" s="24" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E30" s="24" t="n">
         <v>250</v>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="2" t="n">
+      <c r="F30" s="26" t="n"/>
+      <c r="G30" s="26" t="n"/>
+      <c r="H30" s="26" t="n"/>
+      <c r="I30" s="24" t="n">
         <v>0.2</v>
       </c>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="J30" s="26" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B31" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C31" s="24" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D31" s="24" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E31" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F31" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G31" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H31" s="24" t="n">
         <v>40.6</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I31" s="24" t="n">
         <v>40.3</v>
       </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="J31" s="24" t="inlineStr">
         <is>
           <t>F08-F11</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B32" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C32" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D32" s="24" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E32" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F32" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G32" s="25" t="n">
         <v>0.02</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H32" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I32" s="24" t="n">
         <v>3.36</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J32" s="25" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B33" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C33" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D33" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E33" s="24" t="n">
         <v>395</v>
       </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="2" t="n">
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="24" t="n">
         <v>3.31</v>
       </c>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="J33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B34" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C34" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D34" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E34" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="2" t="n">
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="24" t="n">
         <v>3.36</v>
       </c>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="J34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B35" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C35" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D35" s="24" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E35" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="2" t="n">
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="24" t="n">
         <v>1.68</v>
       </c>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="J35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B36" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C36" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D36" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E36" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
-      <c r="I21" s="2" t="n">
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="J36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B37" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C37" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D37" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E37" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
-      <c r="I22" s="2" t="n">
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="J22" s="5" t="n"/>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="J37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B38" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C38" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D38" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E38" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
-      <c r="I23" s="2" t="n">
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="24" t="n">
         <v>0.42</v>
       </c>
-      <c r="J23" s="5" t="n"/>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="J38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B39" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C39" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D39" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E39" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
-      <c r="I24" s="2" t="n">
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="24" t="n">
         <v>0.42</v>
       </c>
-      <c r="J24" s="5" t="n"/>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="J39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B40" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C40" s="24" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D40" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E40" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
-      <c r="I25" s="2" t="n">
+      <c r="F40" s="26" t="n"/>
+      <c r="G40" s="26" t="n"/>
+      <c r="H40" s="26" t="n"/>
+      <c r="I40" s="24" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="4" t="n"/>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="J40" s="26" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B41" s="24" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C41" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D41" s="24" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E41" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F41" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G41" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H41" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I41" s="24" t="n">
         <v>57</v>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="J41" s="24" t="inlineStr">
         <is>
           <t>F13-F15</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="42">
+      <c r="A42" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B42" s="24" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C42" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D42" s="24" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E42" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F42" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G42" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H42" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I42" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="J42" s="24" t="inlineStr">
         <is>
           <t>F16</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="43">
+      <c r="A43" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B43" s="24" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C43" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D43" s="24" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E43" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F43" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G43" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H43" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I43" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="J43" s="24" t="inlineStr">
         <is>
           <t>F17</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="44">
+      <c r="A44" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B44" s="24" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C44" s="24" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D44" s="24" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E44" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F44" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G44" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H44" s="24" t="n">
         <v>30.9</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I44" s="24" t="n">
         <v>30.52</v>
       </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="J44" s="24" t="inlineStr">
         <is>
           <t>F18-F20</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="45">
+      <c r="A45" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B45" s="24" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C45" s="24" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D45" s="24" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E45" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F45" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G45" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H45" s="24" t="n">
         <v>5.16</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I45" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="J45" s="24" t="inlineStr">
         <is>
           <t>F21</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="46">
+      <c r="A46" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B46" s="24" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C46" s="24" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D46" s="24" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E46" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F46" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G46" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H46" s="25" t="n">
         <v>0.58</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I46" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J46" s="25" t="inlineStr">
         <is>
           <t>F22</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="47">
+      <c r="A47" s="24" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B47" s="24" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C47" s="24" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D47" s="24" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E47" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="5" t="n"/>
-      <c r="G32" s="5" t="n"/>
-      <c r="H32" s="5" t="n"/>
-      <c r="I32" s="2" t="n">
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="J32" s="5" t="n"/>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="J47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B48" s="24" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C48" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D48" s="24" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E48" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="5" t="n"/>
-      <c r="H33" s="5" t="n"/>
-      <c r="I33" s="2" t="n">
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="J33" s="5" t="n"/>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="J48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="24" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B49" s="24" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C49" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D49" s="24" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E49" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="5" t="n"/>
-      <c r="H34" s="5" t="n"/>
-      <c r="I34" s="2" t="n">
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="J34" s="5" t="n"/>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="J49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="24" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B50" s="24" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C50" s="24" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D50" s="24" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E50" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="5" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
-      <c r="I35" s="2" t="n">
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="J35" s="5" t="n"/>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="J50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="24" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B51" s="24" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C51" s="24" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D51" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E51" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="F36" s="5" t="n"/>
-      <c r="G36" s="5" t="n"/>
-      <c r="H36" s="5" t="n"/>
-      <c r="I36" s="2" t="n">
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="24" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" s="5" t="n"/>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="J51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="24" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B52" s="24" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C52" s="24" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D52" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E52" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="5" t="n"/>
-      <c r="H37" s="5" t="n"/>
-      <c r="I37" s="2" t="n">
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="24" t="n">
         <v>0.1</v>
       </c>
-      <c r="J37" s="5" t="n"/>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="J52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B53" s="24" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C53" s="24" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D53" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E53" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n"/>
-      <c r="I38" s="2" t="n">
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="24" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="5" t="n"/>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="J53" s="27" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="24" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B54" s="24" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C54" s="24" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D54" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E54" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
-      <c r="I39" s="2" t="n">
+      <c r="F54" s="27" t="n"/>
+      <c r="G54" s="27" t="n"/>
+      <c r="H54" s="27" t="n"/>
+      <c r="I54" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="J39" s="5" t="n"/>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="J54" s="27" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B55" s="24" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C55" s="24" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D55" s="24" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E55" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="F40" s="4" t="n"/>
-      <c r="G40" s="4" t="n"/>
-      <c r="H40" s="4" t="n"/>
-      <c r="I40" s="2" t="n">
+      <c r="F55" s="26" t="n"/>
+      <c r="G55" s="26" t="n"/>
+      <c r="H55" s="26" t="n"/>
+      <c r="I55" s="24" t="n">
         <v>0.03</v>
       </c>
-      <c r="J40" s="4" t="n"/>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="J55" s="26" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B56" s="24" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C56" s="24" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D56" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E56" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F56" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G56" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H56" s="24" t="n">
         <v>7.54</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I56" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="J56" s="24" t="inlineStr">
         <is>
           <t>F23</t>
         </is>
       </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="57">
+      <c r="A57" s="24" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B57" s="24" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C57" s="24" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D57" s="24" t="inlineStr">
         <is>
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E57" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F57" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G57" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H57" s="24" t="n">
         <v>7.54</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I57" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="J57" s="24" t="inlineStr">
         <is>
           <t>F24</t>
         </is>
       </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="58">
+      <c r="A58" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B58" s="24" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C58" s="24" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D58" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E58" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F58" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G58" s="25" t="n">
         <v>0.04</v>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="H58" s="25" t="n">
         <v>11.08</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I58" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="J58" s="25" t="inlineStr">
         <is>
           <t>F25</t>
         </is>
       </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="59">
+      <c r="A59" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B59" s="24" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C59" s="24" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D59" s="24" t="inlineStr">
         <is>
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E59" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="4" t="n"/>
-      <c r="G44" s="4" t="n"/>
-      <c r="H44" s="4" t="n"/>
-      <c r="I44" s="2" t="n">
+      <c r="F59" s="26" t="n"/>
+      <c r="G59" s="26" t="n"/>
+      <c r="H59" s="26" t="n"/>
+      <c r="I59" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="4" t="n"/>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="J59" s="26" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="24" t="n"/>
+      <c r="B60" s="24" t="n"/>
+      <c r="C60" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n">
+      <c r="D60" s="24" t="n"/>
+      <c r="E60" s="24" t="n">
         <v>14394</v>
       </c>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n">
+      <c r="F60" s="24" t="n"/>
+      <c r="G60" s="24" t="n"/>
+      <c r="H60" s="24" t="n">
         <v>265.16</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I60" s="24" t="n">
         <v>253.79</v>
       </c>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
+      <c r="J60" s="24" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="28" t="inlineStr">
+        <is>
+          <t>PACKED IN 168 PACKAGES ONLY.</t>
+        </is>
+      </c>
+      <c r="B61" s="29" t="n"/>
+      <c r="C61" s="30" t="n"/>
+      <c r="D61" s="30" t="n"/>
+      <c r="E61" s="30" t="n"/>
+      <c r="F61" s="30" t="n"/>
+      <c r="G61" s="30" t="n"/>
+      <c r="H61" s="31" t="n"/>
+      <c r="I61" s="30" t="n"/>
+      <c r="J61" s="32" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="33" t="inlineStr">
+        <is>
+          <t>NET WEIGHT: 3156.66  KGS</t>
+        </is>
+      </c>
+      <c r="B62" s="34" t="n"/>
+      <c r="C62" s="35" t="n"/>
+      <c r="D62" s="35" t="n"/>
+      <c r="E62" s="35" t="n"/>
+      <c r="F62" s="35" t="n"/>
+      <c r="G62" s="35" t="n"/>
+      <c r="H62" s="36" t="n"/>
+      <c r="I62" s="35" t="n"/>
+      <c r="J62" s="37" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="33" t="inlineStr">
+        <is>
+          <t>GROSS WEIGHT:  3374.84 KGS</t>
+        </is>
+      </c>
+      <c r="B63" s="34" t="n"/>
+      <c r="C63" s="35" t="n"/>
+      <c r="D63" s="35" t="n"/>
+      <c r="E63" s="35" t="n"/>
+      <c r="F63" s="35" t="n"/>
+      <c r="G63" s="35" t="n"/>
+      <c r="H63" s="36" t="n"/>
+      <c r="I63" s="35" t="n"/>
+      <c r="J63" s="37" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="33" t="inlineStr">
+        <is>
+          <t>TOTAL MEASUREMENT:18.32 CBM</t>
+        </is>
+      </c>
+      <c r="B64" s="34" t="n"/>
+      <c r="C64" s="35" t="n"/>
+      <c r="D64" s="35" t="n"/>
+      <c r="E64" s="35" t="n"/>
+      <c r="F64" s="35" t="n"/>
+      <c r="G64" s="35" t="n"/>
+      <c r="H64" s="36" t="n"/>
+      <c r="I64" s="35" t="n"/>
+      <c r="J64" s="37" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="38" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B65" s="39" t="n"/>
+      <c r="C65" s="40" t="n"/>
+      <c r="D65" s="40" t="n"/>
+      <c r="E65" s="40" t="n"/>
+      <c r="F65" s="40" t="n"/>
+      <c r="G65" s="40" t="n"/>
+      <c r="H65" s="41" t="n"/>
+      <c r="I65" s="40" t="n"/>
+      <c r="J65" s="42" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="H17:H25"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="J17:J25"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="G17:G25"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J31:J40"/>
+  <mergeCells count="35">
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="F32:F40"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J46:J55"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="G46:G55"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="H32:H40"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G32:G40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H46:H55"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2775,7 +2896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,226 +2916,226 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="8" t="n"/>
+      <c r="B1" s="44" t="n"/>
+      <c r="C1" s="44" t="n"/>
+      <c r="D1" s="44" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="44" t="n"/>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="45" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="10" t="n"/>
-      <c r="G2" s="10" t="n"/>
-      <c r="H2" s="11" t="n"/>
+      <c r="B2" s="44" t="n"/>
+      <c r="C2" s="44" t="n"/>
+      <c r="D2" s="44" t="n"/>
+      <c r="E2" s="44" t="n"/>
+      <c r="F2" s="44" t="n"/>
+      <c r="G2" s="44" t="n"/>
+      <c r="H2" s="45" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="47" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="14" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="inlineStr">
+      <c r="A4" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="17" t="n"/>
-      <c r="F4" s="16" t="inlineStr">
+      <c r="B4" s="49" t="n"/>
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="n"/>
+      <c r="E4" s="50" t="n"/>
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">CI No.: </t>
         </is>
       </c>
-      <c r="G4" s="16" t="inlineStr">
+      <c r="G4" s="49" t="inlineStr">
         <is>
           <t>CXCI2025012201</t>
         </is>
       </c>
-      <c r="H4" s="18" t="n"/>
+      <c r="H4" s="51" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="inlineStr">
+      <c r="A5" s="52" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D5" s="20" t="n"/>
-      <c r="E5" s="17" t="n"/>
-      <c r="F5" s="21" t="inlineStr">
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="50" t="n"/>
+      <c r="F5" s="54" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="22" t="n">
+      <c r="G5" s="55" t="n">
         <v>45679</v>
       </c>
-      <c r="H5" s="23" t="n"/>
+      <c r="H5" s="56" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="n"/>
-      <c r="B6" s="25" t="n"/>
-      <c r="C6" s="25" t="n"/>
-      <c r="D6" s="26" t="n"/>
-      <c r="E6" s="27" t="n"/>
-      <c r="F6" s="28" t="inlineStr">
+      <c r="A6" s="57" t="n"/>
+      <c r="B6" s="58" t="n"/>
+      <c r="C6" s="58" t="n"/>
+      <c r="D6" s="59" t="n"/>
+      <c r="E6" s="60" t="n"/>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>PO No.:</t>
         </is>
       </c>
-      <c r="G6" s="28" t="n"/>
-      <c r="H6" s="29" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="62" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" s="23" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="23" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H7" s="31" t="inlineStr">
+      <c r="H7" s="23" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="n">
+      <c r="A8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E8" s="33" t="n">
+      <c r="E8" s="63" t="n">
         <v>0.00278765</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="24" t="n">
         <v>7000</v>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="34" t="n">
+      <c r="H8" s="64" t="n">
         <v>19.51</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="n">
+      <c r="A9" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E9" s="33" t="n">
+      <c r="E9" s="63" t="n">
         <v>0.00696913</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="24" t="n">
         <v>3000</v>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="34" t="n">
+      <c r="H9" s="64" t="n">
         <v>20.91</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="n">
+      <c r="A10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -3026,36 +3147,36 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="63" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="34" t="n">
+      <c r="H10" s="64" t="n">
         <v>313.61</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="n">
+      <c r="A11" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="24" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -3063,1294 +3184,1294 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E11" s="33" t="n">
+      <c r="E11" s="63" t="n">
         <v>3.67969893</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H11" s="34" t="n">
+      <c r="H11" s="64" t="n">
         <v>110.39</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="24" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E12" s="33" t="n">
+      <c r="E12" s="63" t="n">
         <v>6.28615235</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G12" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H12" s="34" t="n">
+      <c r="H12" s="64" t="n">
         <v>37.72</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="n">
+      <c r="A13" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="24" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E13" s="33" t="n">
+      <c r="E13" s="63" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H13" s="34" t="n">
+      <c r="H13" s="64" t="n">
         <v>124.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="n">
+      <c r="A14" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E14" s="33" t="n">
+      <c r="E14" s="63" t="n">
         <v>24.53132622</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G14" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H14" s="34" t="n">
+      <c r="H14" s="64" t="n">
         <v>49.06</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="n">
+      <c r="A15" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E15" s="33" t="n">
+      <c r="E15" s="63" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="34" t="n">
+      <c r="H15" s="64" t="n">
         <v>324.06</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="n">
+      <c r="A16" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E16" s="33" t="n">
+      <c r="E16" s="63" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G16" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="34" t="n">
+      <c r="H16" s="64" t="n">
         <v>348.46</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="n">
+      <c r="A17" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E17" s="33" t="n">
+      <c r="E17" s="63" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="24" t="n">
         <v>546</v>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G17" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="34" t="n">
+      <c r="H17" s="64" t="n">
         <v>380.51</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32" t="n">
+      <c r="A18" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E18" s="33" t="n">
+      <c r="E18" s="63" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G18" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="34" t="n">
+      <c r="H18" s="64" t="n">
         <v>27.88</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="n">
+      <c r="A19" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E19" s="33" t="n">
+      <c r="E19" s="63" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="G19" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="34" t="n">
+      <c r="H19" s="64" t="n">
         <v>27.88</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="n">
+      <c r="A20" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="24" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E20" s="33" t="n">
+      <c r="E20" s="63" t="n">
         <v>0.13798871</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="24" t="n">
         <v>250</v>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="34" t="n">
+      <c r="H20" s="64" t="n">
         <v>34.5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="32" t="n">
+      <c r="A21" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="24" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E21" s="33" t="n">
+      <c r="E21" s="63" t="n">
         <v>4.10063419</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" s="24" t="inlineStr">
         <is>
           <t>包</t>
         </is>
       </c>
-      <c r="H21" s="34" t="n">
+      <c r="H21" s="64" t="n">
         <v>410.06</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="32" t="n">
+      <c r="A22" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="24" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E22" s="33" t="n">
+      <c r="E22" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="34" t="n">
+      <c r="H22" s="64" t="n">
         <v>73.59</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="n">
+      <c r="A23" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E23" s="33" t="n">
+      <c r="E23" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="24" t="n">
         <v>395</v>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="34" t="n">
+      <c r="H23" s="64" t="n">
         <v>72.67</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="32" t="n">
+      <c r="A24" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E24" s="33" t="n">
+      <c r="E24" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="34" t="n">
+      <c r="H24" s="64" t="n">
         <v>73.59</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="32" t="n">
+      <c r="A25" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="24" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E25" s="33" t="n">
+      <c r="E25" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="34" t="n">
+      <c r="H25" s="64" t="n">
         <v>36.8</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="n">
+      <c r="A26" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E26" s="33" t="n">
+      <c r="E26" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G26" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="34" t="n">
+      <c r="H26" s="64" t="n">
         <v>16.56</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="32" t="n">
+      <c r="A27" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E27" s="33" t="n">
+      <c r="E27" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="34" t="n">
+      <c r="H27" s="64" t="n">
         <v>11.04</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="32" t="n">
+      <c r="A28" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E28" s="33" t="n">
+      <c r="E28" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="34" t="n">
+      <c r="H28" s="64" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="32" t="n">
+      <c r="A29" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E29" s="33" t="n">
+      <c r="E29" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="G29" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="34" t="n">
+      <c r="H29" s="64" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="32" t="n">
+      <c r="A30" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="24" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E30" s="33" t="n">
+      <c r="E30" s="63" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="G30" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="34" t="n">
+      <c r="H30" s="64" t="n">
         <v>20.24</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="32" t="n">
+      <c r="A31" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="24" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" s="24" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E31" s="33" t="n">
+      <c r="E31" s="63" t="n">
         <v>153.79468953</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G31" s="24" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H31" s="34" t="n">
+      <c r="H31" s="64" t="n">
         <v>461.38</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="32" t="n">
+      <c r="A32" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" s="24" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" s="24" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E32" s="33" t="n">
+      <c r="E32" s="63" t="n">
         <v>203.47062513</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="G32" s="24" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H32" s="34" t="n">
+      <c r="H32" s="64" t="n">
         <v>203.47</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="32" t="n">
+      <c r="A33" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" s="24" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D33" s="24" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E33" s="33" t="n">
+      <c r="E33" s="63" t="n">
         <v>123.06084048</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="G33" s="24" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H33" s="34" t="n">
+      <c r="H33" s="64" t="n">
         <v>123.06</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="32" t="n">
+      <c r="A34" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="24" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="24" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="24" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E34" s="33" t="n">
+      <c r="E34" s="63" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="G34" s="24" t="inlineStr">
         <is>
           <t>件</t>
         </is>
       </c>
-      <c r="H34" s="34" t="n">
+      <c r="H34" s="64" t="n">
         <v>682.97</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="32" t="n">
+      <c r="A35" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="24" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="24" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" s="24" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E35" s="33" t="n">
+      <c r="E35" s="63" t="n">
         <v>1.10251585</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="G35" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H35" s="34" t="n">
+      <c r="H35" s="64" t="n">
         <v>5.51</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="32" t="n">
+      <c r="A36" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" s="24" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="24" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" s="24" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E36" s="33" t="n">
+      <c r="E36" s="63" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="G36" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H36" s="34" t="n">
+      <c r="H36" s="64" t="n">
         <v>13.94</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="n">
+      <c r="A37" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" s="24" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" s="24" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E37" s="33" t="n">
+      <c r="E37" s="63" t="n">
         <v>9.75677748</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="G37" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H37" s="34" t="n">
+      <c r="H37" s="64" t="n">
         <v>19.51</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="32" t="n">
+      <c r="A38" s="24" t="n">
         <v>31</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" s="24" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" s="24" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E38" s="33" t="n">
+      <c r="E38" s="63" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="G38" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H38" s="34" t="n">
+      <c r="H38" s="64" t="n">
         <v>13.94</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="32" t="n">
+      <c r="A39" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="24" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="24" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D39" s="24" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E39" s="33" t="n">
+      <c r="E39" s="63" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="G39" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H39" s="34" t="n">
+      <c r="H39" s="64" t="n">
         <v>13.94</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="32" t="n">
+      <c r="A40" s="24" t="n">
         <v>33</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" s="24" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="24" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D40" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E40" s="33" t="n">
+      <c r="E40" s="63" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="G40" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H40" s="34" t="n">
+      <c r="H40" s="64" t="n">
         <v>2.79</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="32" t="n">
+      <c r="A41" s="24" t="n">
         <v>34</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" s="24" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" s="24" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D41" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E41" s="33" t="n">
+      <c r="E41" s="63" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="G41" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H41" s="34" t="n">
+      <c r="H41" s="64" t="n">
         <v>2.79</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="32" t="n">
+      <c r="A42" s="24" t="n">
         <v>35</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" s="24" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="24" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D42" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E42" s="33" t="n">
+      <c r="E42" s="63" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="G42" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H42" s="34" t="n">
+      <c r="H42" s="64" t="n">
         <v>2.79</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="32" t="n">
+      <c r="A43" s="24" t="n">
         <v>36</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="24" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" s="24" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D43" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E43" s="33" t="n">
+      <c r="E43" s="63" t="n">
         <v>30.38539271</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="G43" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H43" s="34" t="n">
+      <c r="H43" s="64" t="n">
         <v>30.39</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="32" t="n">
+      <c r="A44" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" s="24" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" s="24" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D44" s="24" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E44" s="33" t="n">
+      <c r="E44" s="63" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="G44" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H44" s="34" t="n">
+      <c r="H44" s="64" t="n">
         <v>13.94</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="32" t="n">
+      <c r="A45" s="24" t="n">
         <v>38</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" s="24" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="24" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E45" s="33" t="n">
+      <c r="E45" s="63" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="G45" s="2" t="inlineStr">
+      <c r="G45" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H45" s="34" t="n">
+      <c r="H45" s="64" t="n">
         <v>267.61</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="32" t="n">
+      <c r="A46" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" s="24" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="24" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E46" s="33" t="n">
+      <c r="E46" s="63" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="G46" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H46" s="34" t="n">
+      <c r="H46" s="64" t="n">
         <v>256.46</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="32" t="n"/>
-      <c r="B47" s="2" t="n"/>
-      <c r="C47" s="2" t="n"/>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="33" t="n"/>
-      <c r="F47" s="2" t="n">
+      <c r="A47" s="24" t="n"/>
+      <c r="B47" s="24" t="n"/>
+      <c r="C47" s="24" t="n"/>
+      <c r="D47" s="24" t="n"/>
+      <c r="E47" s="63" t="n"/>
+      <c r="F47" s="24" t="n">
         <v>14394</v>
       </c>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="34" t="n">
+      <c r="G47" s="24" t="n"/>
+      <c r="H47" s="64" t="n">
         <v>4666.429999999999</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="35" t="inlineStr">
+      <c r="A48" s="65" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
-      <c r="B48" s="36" t="n"/>
-      <c r="C48" s="36" t="n"/>
-      <c r="D48" s="36" t="n"/>
-      <c r="E48" s="36" t="n"/>
-      <c r="F48" s="36" t="n"/>
-      <c r="G48" s="36" t="n"/>
-      <c r="H48" s="37" t="n"/>
-      <c r="I48" s="38" t="n"/>
+      <c r="B48" s="66" t="n"/>
+      <c r="C48" s="66" t="n"/>
+      <c r="D48" s="66" t="n"/>
+      <c r="E48" s="66" t="n"/>
+      <c r="F48" s="66" t="n"/>
+      <c r="G48" s="66" t="n"/>
+      <c r="H48" s="67" t="n"/>
+      <c r="I48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="39" t="inlineStr">
+      <c r="A49" s="68" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B49" s="40" t="n"/>
-      <c r="C49" s="41" t="n"/>
-      <c r="D49" s="41" t="n"/>
-      <c r="E49" s="41" t="n"/>
-      <c r="F49" s="41" t="n"/>
-      <c r="G49" s="41" t="n"/>
-      <c r="H49" s="42" t="n"/>
-      <c r="I49" s="38" t="n"/>
+      <c r="B49" s="69" t="n"/>
+      <c r="C49" s="70" t="n"/>
+      <c r="D49" s="70" t="n"/>
+      <c r="E49" s="70" t="n"/>
+      <c r="F49" s="70" t="n"/>
+      <c r="G49" s="70" t="n"/>
+      <c r="H49" s="71" t="n"/>
+      <c r="I49" s="35" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="39" t="inlineStr">
+      <c r="A50" s="68" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B50" s="40" t="n"/>
-      <c r="C50" s="41" t="n"/>
-      <c r="D50" s="41" t="n"/>
-      <c r="E50" s="41" t="n"/>
-      <c r="F50" s="41" t="n"/>
-      <c r="G50" s="41" t="n"/>
-      <c r="H50" s="42" t="n"/>
-      <c r="I50" s="43" t="n"/>
+      <c r="B50" s="69" t="n"/>
+      <c r="C50" s="70" t="n"/>
+      <c r="D50" s="70" t="n"/>
+      <c r="E50" s="70" t="n"/>
+      <c r="F50" s="70" t="n"/>
+      <c r="G50" s="70" t="n"/>
+      <c r="H50" s="71" t="n"/>
+      <c r="I50" s="72" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="44" t="inlineStr">
+      <c r="A51" s="73" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B51" s="45" t="n"/>
-      <c r="C51" s="41" t="n"/>
-      <c r="D51" s="41" t="n"/>
-      <c r="E51" s="41" t="n"/>
-      <c r="F51" s="41" t="n"/>
-      <c r="G51" s="41" t="n"/>
-      <c r="H51" s="42" t="n"/>
-      <c r="I51" s="17" t="n"/>
+      <c r="B51" s="74" t="n"/>
+      <c r="C51" s="70" t="n"/>
+      <c r="D51" s="70" t="n"/>
+      <c r="E51" s="70" t="n"/>
+      <c r="F51" s="70" t="n"/>
+      <c r="G51" s="70" t="n"/>
+      <c r="H51" s="71" t="n"/>
+      <c r="I51" s="50" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="46" t="inlineStr">
+      <c r="A52" s="75" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -4359,24 +4480,14 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B52" s="25" t="n"/>
-      <c r="C52" s="25" t="n"/>
-      <c r="D52" s="25" t="n"/>
-      <c r="E52" s="25" t="n"/>
-      <c r="F52" s="25" t="n"/>
-      <c r="G52" s="25" t="n"/>
-      <c r="H52" s="47" t="n"/>
-      <c r="I52" s="38" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="48" t="n"/>
-      <c r="B53" s="49" t="n"/>
-      <c r="C53" s="49" t="n"/>
-      <c r="D53" s="49" t="n"/>
-      <c r="E53" s="49" t="n"/>
-      <c r="F53" s="49" t="n"/>
-      <c r="G53" s="49" t="n"/>
-      <c r="H53" s="50" t="n"/>
+      <c r="B52" s="58" t="n"/>
+      <c r="C52" s="58" t="n"/>
+      <c r="D52" s="58" t="n"/>
+      <c r="E52" s="58" t="n"/>
+      <c r="F52" s="58" t="n"/>
+      <c r="G52" s="58" t="n"/>
+      <c r="H52" s="76" t="n"/>
+      <c r="I52" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Commercial Invoice" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commercial Invoice" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -455,8 +455,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -949,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,159 +1259,123 @@
     </row>
     <row r="17">
       <c r="A17" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="24" t="inlineStr">
         <is>
-          <t>C100.030911007</t>
-        </is>
-      </c>
-      <c r="C17" s="24" t="inlineStr">
-        <is>
-          <t>Connector-XH2,54</t>
-        </is>
-      </c>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="C17" s="24" t="n"/>
       <c r="D17" s="24" t="inlineStr">
         <is>
-          <t>XH2,54 端子，1包50个</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E17" s="24" t="n">
-        <v>7000</v>
+        <v>3</v>
       </c>
       <c r="F17" s="25" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="25" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H17" s="25" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="J17" s="25" t="inlineStr">
         <is>
-          <t>F01</t>
+          <t>F02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="24" t="inlineStr">
+        <is>
+          <t>E100.020310014</t>
+        </is>
+      </c>
+      <c r="C18" s="24" t="n"/>
+      <c r="D18" s="24" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="E18" s="24" t="n">
         <v>2</v>
-      </c>
-      <c r="B18" s="24" t="inlineStr">
-        <is>
-          <t>C100.030911008</t>
-        </is>
-      </c>
-      <c r="C18" s="24" t="inlineStr">
-        <is>
-          <t>Connector-VH3.96</t>
-        </is>
-      </c>
-      <c r="D18" s="24" t="inlineStr">
-        <is>
-          <t>VH3.96 端子，1包50个</t>
-        </is>
-      </c>
-      <c r="E18" s="24" t="n">
-        <v>3000</v>
       </c>
       <c r="F18" s="26" t="n"/>
       <c r="G18" s="26" t="n"/>
       <c r="H18" s="26" t="n"/>
       <c r="I18" s="24" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="26" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="24" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
-        </is>
-      </c>
-      <c r="C19" s="24" t="inlineStr">
-        <is>
-          <t>Milling cutter</t>
-        </is>
-      </c>
+          <t>E100.020310015</t>
+        </is>
+      </c>
+      <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="inlineStr">
         <is>
-          <t>Material: Tungsten Carbide Steel
-Mill Type: Standard Up Draft Type
-Tip Type: Standard Fish Tail Type
-Total Length: 38.1mm
-Knife Length: 12.5mm
-Handle Length: 25.6mm
-Shank Diameter: 3.175mm
-Kinfe Diameter: 1.6mm</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E19" s="24" t="n">
-        <v>450</v>
-      </c>
-      <c r="F19" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="24" t="n">
-        <v>2.42</v>
-      </c>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
       <c r="I19" s="24" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J19" s="24" t="inlineStr">
-        <is>
-          <t>F02</t>
-        </is>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="27" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="24" t="inlineStr">
         <is>
-          <t>C100.C09-004-01-00</t>
-        </is>
-      </c>
-      <c r="C20" s="24" t="inlineStr">
-        <is>
-          <t>Adhesive tape-13.3mm*200m</t>
-        </is>
-      </c>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="C20" s="24" t="n"/>
       <c r="D20" s="24" t="inlineStr">
         <is>
-          <t>13.3mm*200m/
-JL62 13.3*200
-230415455Y8212
-self-adhesive upper cover material Film</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E20" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="F20" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H20" s="25" t="n">
-        <v>10.24</v>
+      <c r="H20" s="24" t="n">
+        <v>1.88</v>
       </c>
       <c r="I20" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" s="25" t="inlineStr">
+        <v>1.55</v>
+      </c>
+      <c r="J20" s="24" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
@@ -1419,114 +1383,97 @@
     </row>
     <row r="21">
       <c r="A21" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="24" t="inlineStr">
         <is>
-          <t>C100.010503001</t>
-        </is>
-      </c>
-      <c r="C21" s="24" t="inlineStr">
-        <is>
-          <t>Adhesive tape-21.3mm 200M/roll</t>
-        </is>
-      </c>
+          <t>E100.A37-066-02-00</t>
+        </is>
+      </c>
+      <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="inlineStr">
         <is>
-          <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
-21.3mm 200M/卷</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E21" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="26" t="n"/>
-      <c r="G21" s="26" t="n"/>
-      <c r="H21" s="26" t="n"/>
+        <v>100</v>
+      </c>
+      <c r="F21" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="I21" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" s="26" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="25" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="24" t="inlineStr">
         <is>
-          <t>C100.010523005</t>
-        </is>
-      </c>
-      <c r="C22" s="24" t="inlineStr">
-        <is>
-          <t>SMT carrier tape-200M/roll</t>
-        </is>
-      </c>
+          <t>J100.020715018</t>
+        </is>
+      </c>
+      <c r="C22" s="24" t="n"/>
       <c r="D22" s="24" t="inlineStr">
         <is>
-          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
-24*16*0.30 
-200米/卷</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E22" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="24" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H22" s="24" t="n">
-        <v>6.92</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
       <c r="I22" s="24" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J22" s="24" t="inlineStr">
-        <is>
-          <t>F04</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="J22" s="27" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="24" t="inlineStr">
         <is>
-          <t>C100.010523005</t>
-        </is>
-      </c>
-      <c r="C23" s="24" t="inlineStr">
-        <is>
-          <t>SMT carrier tape-200M/roll</t>
-        </is>
-      </c>
+          <t>E100.020200009</t>
+        </is>
+      </c>
+      <c r="C23" s="24" t="n"/>
       <c r="D23" s="24" t="inlineStr">
         <is>
-          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
-24*16*0.30 
-200米/卷</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E23" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="24" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H23" s="24" t="n">
-        <v>9.4</v>
+      <c r="F23" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <v>14</v>
       </c>
       <c r="I23" s="24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J23" s="24" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="J23" s="25" t="inlineStr">
         <is>
           <t>F05</t>
         </is>
@@ -1534,229 +1481,197 @@
     </row>
     <row r="24">
       <c r="A24" s="24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="24" t="inlineStr">
         <is>
-          <t>C100.010523004</t>
-        </is>
-      </c>
-      <c r="C24" s="24" t="inlineStr">
-        <is>
-          <t>SMT carrier tape-400M/roll</t>
-        </is>
-      </c>
+          <t>E100.020310017</t>
+        </is>
+      </c>
+      <c r="C24" s="24" t="n"/>
       <c r="D24" s="24" t="inlineStr">
         <is>
-          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E24" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="24" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H24" s="24" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="F24" s="26" t="n"/>
+      <c r="G24" s="26" t="n"/>
+      <c r="H24" s="26" t="n"/>
       <c r="I24" s="24" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J24" s="24" t="inlineStr">
-        <is>
-          <t>F06</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J24" s="26" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-05-01</t>
-        </is>
-      </c>
-      <c r="C25" s="24" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-K-5mm</t>
-        </is>
-      </c>
+          <t>E100.020310012</t>
+        </is>
+      </c>
+      <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-K
-3.刀口宽度：5mm</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E25" s="24" t="n">
-        <v>465</v>
-      </c>
-      <c r="F25" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H25" s="25" t="n">
-        <v>10.08</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
       <c r="I25" s="24" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J25" s="25" t="inlineStr">
-        <is>
-          <t>F07</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J25" s="27" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
-        </is>
-      </c>
-      <c r="C26" s="24" t="inlineStr">
-        <is>
-          <t>Point Bit-900M-T-B-1.2mm</t>
-        </is>
-      </c>
+          <t>E100.A33-013-03-00</t>
+        </is>
+      </c>
+      <c r="C26" s="24" t="n"/>
       <c r="D26" s="24" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-B
-3.圆头，宽度1.2mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E26" s="24" t="n">
-        <v>500</v>
-      </c>
-      <c r="F26" s="27" t="n"/>
-      <c r="G26" s="27" t="n"/>
-      <c r="H26" s="27" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="24" t="n">
+        <v>1.44</v>
+      </c>
       <c r="I26" s="24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J26" s="27" t="n"/>
+        <v>1.23</v>
+      </c>
+      <c r="J26" s="24" t="inlineStr">
+        <is>
+          <t>F06</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
-        </is>
-      </c>
-      <c r="C27" s="24" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-4C</t>
-        </is>
-      </c>
+          <t>J100.S07-010-10-00</t>
+        </is>
+      </c>
+      <c r="C27" s="24" t="n"/>
       <c r="D27" s="24" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E27" s="24" t="n">
-        <v>546</v>
-      </c>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
-      <c r="H27" s="27" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H27" s="25" t="n">
+        <v>7.55</v>
+      </c>
       <c r="I27" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="27" t="n"/>
+        <v>0.15</v>
+      </c>
+      <c r="J27" s="25" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
-        </is>
-      </c>
-      <c r="C28" s="24" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-2C</t>
-        </is>
-      </c>
+          <t>J100.S07-010-04-01</t>
+        </is>
+      </c>
+      <c r="C28" s="24" t="n"/>
       <c r="D28" s="24" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E28" s="24" t="n">
-        <v>40</v>
-      </c>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="27" t="n"/>
-      <c r="H28" s="27" t="n"/>
+        <v>500</v>
+      </c>
+      <c r="F28" s="26" t="n"/>
+      <c r="G28" s="26" t="n"/>
+      <c r="H28" s="26" t="n"/>
       <c r="I28" s="24" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J28" s="27" t="n"/>
+        <v>2.5</v>
+      </c>
+      <c r="J28" s="26" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
-        </is>
-      </c>
-      <c r="C29" s="24" t="inlineStr">
-        <is>
-          <t>Solder tip-900-T-1.2D</t>
-        </is>
-      </c>
+          <t>J100.S07-010-06-01</t>
+        </is>
+      </c>
+      <c r="C29" s="24" t="n"/>
       <c r="D29" s="24" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E29" s="24" t="n">
-        <v>40</v>
-      </c>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="27" t="n"/>
-      <c r="H29" s="27" t="n"/>
+        <v>400</v>
+      </c>
+      <c r="F29" s="26" t="n"/>
+      <c r="G29" s="26" t="n"/>
+      <c r="H29" s="26" t="n"/>
       <c r="I29" s="24" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J29" s="27" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="26" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
-        </is>
-      </c>
-      <c r="C30" s="24" t="inlineStr">
-        <is>
-          <t>Soldering sponge-size:60mm X 55mm</t>
-        </is>
-      </c>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="C30" s="24" t="n"/>
       <c r="D30" s="24" t="inlineStr">
         <is>
-          <t>size:60mm X 55mm</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E30" s="24" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F30" s="26" t="n"/>
       <c r="G30" s="26" t="n"/>
@@ -1768,1123 +1683,1207 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-05-00</t>
-        </is>
-      </c>
-      <c r="C31" s="24" t="inlineStr">
-        <is>
-          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
-        </is>
-      </c>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="C31" s="24" t="n"/>
       <c r="D31" s="24" t="inlineStr">
         <is>
-          <t>L*W 4*4CM 400pcs/bog</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E31" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="F31" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" s="24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H31" s="24" t="n">
-        <v>40.6</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F31" s="26" t="n"/>
+      <c r="G31" s="26" t="n"/>
+      <c r="H31" s="26" t="n"/>
       <c r="I31" s="24" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="J31" s="24" t="inlineStr">
-        <is>
-          <t>F08-F11</t>
-        </is>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="26" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
-        </is>
-      </c>
-      <c r="C32" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30x75x4.0x1</t>
-        </is>
-      </c>
+          <t>C100.C06-007-01-00</t>
+        </is>
+      </c>
+      <c r="C32" s="24" t="n"/>
       <c r="D32" s="24" t="inlineStr">
         <is>
-          <t>6.30x75x4.0x1</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E32" s="24" t="n">
-        <v>400</v>
-      </c>
-      <c r="F32" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H32" s="25" t="n">
-        <v>15</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F32" s="26" t="n"/>
+      <c r="G32" s="26" t="n"/>
+      <c r="H32" s="26" t="n"/>
       <c r="I32" s="24" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J32" s="25" t="inlineStr">
-        <is>
-          <t>F12</t>
-        </is>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="J32" s="26" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
-        </is>
-      </c>
-      <c r="C33" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X3.0</t>
-        </is>
-      </c>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="C33" s="24" t="n"/>
       <c r="D33" s="24" t="inlineStr">
         <is>
-          <t>6.30X75X3.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E33" s="24" t="n">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
       <c r="I33" s="24" t="n">
-        <v>3.31</v>
+        <v>1.25</v>
       </c>
       <c r="J33" s="27" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
-        </is>
-      </c>
-      <c r="C34" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X3.5</t>
-        </is>
-      </c>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="C34" s="24" t="n"/>
       <c r="D34" s="24" t="inlineStr">
         <is>
-          <t>6.30X75X3.5</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E34" s="24" t="n">
-        <v>400</v>
-      </c>
-      <c r="F34" s="27" t="n"/>
-      <c r="G34" s="27" t="n"/>
-      <c r="H34" s="27" t="n"/>
+        <v>388</v>
+      </c>
+      <c r="F34" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H34" s="25" t="n">
+        <v>20</v>
+      </c>
       <c r="I34" s="24" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J34" s="27" t="n"/>
+        <v>3.49</v>
+      </c>
+      <c r="J34" s="25" t="inlineStr">
+        <is>
+          <t>F08</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
-        </is>
-      </c>
-      <c r="C35" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X2.5X1</t>
-        </is>
-      </c>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="C35" s="24" t="n"/>
       <c r="D35" s="24" t="inlineStr">
         <is>
-          <t>6.30X75X2.5X1</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E35" s="24" t="n">
-        <v>200</v>
-      </c>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="27" t="n"/>
-      <c r="H35" s="27" t="n"/>
+        <v>457</v>
+      </c>
+      <c r="F35" s="26" t="n"/>
+      <c r="G35" s="26" t="n"/>
+      <c r="H35" s="26" t="n"/>
       <c r="I35" s="24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J35" s="27" t="n"/>
+        <v>4.11</v>
+      </c>
+      <c r="J35" s="26" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
-        </is>
-      </c>
-      <c r="C36" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT6</t>
-        </is>
-      </c>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="C36" s="24" t="n"/>
       <c r="D36" s="24" t="inlineStr">
         <is>
-          <t>6.30X75XT6</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E36" s="24" t="n">
-        <v>90</v>
-      </c>
-      <c r="F36" s="27" t="n"/>
-      <c r="G36" s="27" t="n"/>
-      <c r="H36" s="27" t="n"/>
+        <v>458</v>
+      </c>
+      <c r="F36" s="26" t="n"/>
+      <c r="G36" s="26" t="n"/>
+      <c r="H36" s="26" t="n"/>
       <c r="I36" s="24" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J36" s="27" t="n"/>
+        <v>4.12</v>
+      </c>
+      <c r="J36" s="26" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
-        </is>
-      </c>
-      <c r="C37" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT7</t>
-        </is>
-      </c>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="C37" s="24" t="n"/>
       <c r="D37" s="24" t="inlineStr">
         <is>
-          <t>6.30X75XT7</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E37" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="27" t="n"/>
-      <c r="H37" s="27" t="n"/>
+        <v>287</v>
+      </c>
+      <c r="F37" s="26" t="n"/>
+      <c r="G37" s="26" t="n"/>
+      <c r="H37" s="26" t="n"/>
       <c r="I37" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J37" s="27" t="n"/>
+        <v>2.58</v>
+      </c>
+      <c r="J37" s="26" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
-        </is>
-      </c>
-      <c r="C38" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT8</t>
-        </is>
-      </c>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="C38" s="24" t="n"/>
       <c r="D38" s="24" t="inlineStr">
         <is>
-          <t>6.30X75XT8</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E38" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="F38" s="27" t="n"/>
-      <c r="G38" s="27" t="n"/>
-      <c r="H38" s="27" t="n"/>
+        <v>40</v>
+      </c>
+      <c r="F38" s="26" t="n"/>
+      <c r="G38" s="26" t="n"/>
+      <c r="H38" s="26" t="n"/>
       <c r="I38" s="24" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J38" s="27" t="n"/>
+        <v>0.36</v>
+      </c>
+      <c r="J38" s="26" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
-        </is>
-      </c>
-      <c r="C39" s="24" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X100X3.8XT9</t>
-        </is>
-      </c>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="C39" s="24" t="n"/>
       <c r="D39" s="24" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT9</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E39" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="F39" s="27" t="n"/>
-      <c r="G39" s="27" t="n"/>
-      <c r="H39" s="27" t="n"/>
+        <v>60</v>
+      </c>
+      <c r="F39" s="26" t="n"/>
+      <c r="G39" s="26" t="n"/>
+      <c r="H39" s="26" t="n"/>
       <c r="I39" s="24" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J39" s="27" t="n"/>
+        <v>0.54</v>
+      </c>
+      <c r="J39" s="26" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
-        </is>
-      </c>
-      <c r="C40" s="24" t="inlineStr">
-        <is>
-          <t>Screw bit-6.30X100X3.8XT10</t>
-        </is>
-      </c>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="C40" s="24" t="n"/>
       <c r="D40" s="24" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT10</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E40" s="24" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F40" s="26" t="n"/>
       <c r="G40" s="26" t="n"/>
       <c r="H40" s="26" t="n"/>
       <c r="I40" s="24" t="n">
-        <v>0.92</v>
+        <v>0.45</v>
       </c>
       <c r="J40" s="26" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="24" t="inlineStr">
         <is>
-          <t>E100.019100006</t>
-        </is>
-      </c>
-      <c r="C41" s="24" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-50.60 mtrX300 mm</t>
-        </is>
-      </c>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="C41" s="24" t="n"/>
       <c r="D41" s="24" t="inlineStr">
         <is>
-          <t>50.60 mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E41" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F41" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" s="24" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H41" s="24" t="n">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F41" s="26" t="n"/>
+      <c r="G41" s="26" t="n"/>
+      <c r="H41" s="26" t="n"/>
       <c r="I41" s="24" t="n">
-        <v>57</v>
-      </c>
-      <c r="J41" s="24" t="inlineStr">
-        <is>
-          <t>F13-F15</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="J41" s="26" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="24" t="inlineStr">
         <is>
-          <t>E100.019100007</t>
-        </is>
-      </c>
-      <c r="C42" s="24" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-50.20mtrx400 mm</t>
-        </is>
-      </c>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="C42" s="24" t="n"/>
       <c r="D42" s="24" t="inlineStr">
         <is>
-          <t>50.20mtrx400 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E42" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="24" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H42" s="24" t="n">
-        <v>20</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
       <c r="I42" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="J42" s="24" t="inlineStr">
-        <is>
-          <t>F16</t>
-        </is>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="J42" s="27" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="24" t="inlineStr">
         <is>
-          <t>E100.019100008</t>
-        </is>
-      </c>
-      <c r="C43" s="24" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-40.5mtrX300 mm</t>
-        </is>
-      </c>
+          <t>C100.C06-006-01-00</t>
+        </is>
+      </c>
+      <c r="C43" s="24" t="n"/>
       <c r="D43" s="24" t="inlineStr">
         <is>
-          <t>40.5mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E43" s="24" t="n">
-        <v>1</v>
+        <v>2040</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>0.06</v>
+        <v>6.12</v>
       </c>
       <c r="H43" s="24" t="n">
-        <v>20</v>
+        <v>17.71</v>
       </c>
       <c r="I43" s="24" t="n">
-        <v>19</v>
+        <v>1200</v>
       </c>
       <c r="J43" s="24" t="inlineStr">
         <is>
-          <t>F17</t>
+          <t>F09-F76</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" s="24" t="inlineStr">
         <is>
-          <t>E100.020308001</t>
-        </is>
-      </c>
-      <c r="C44" s="24" t="inlineStr">
-        <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
-        </is>
-      </c>
+          <t>C100.C06-006-02-00</t>
+        </is>
+      </c>
+      <c r="C44" s="24" t="n"/>
       <c r="D44" s="24" t="inlineStr">
         <is>
-          <t>长510MM 宽223MM  高11MM</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E44" s="24" t="n">
-        <v>6</v>
+        <v>2800</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.01</v>
+        <v>3.92</v>
       </c>
       <c r="H44" s="24" t="n">
-        <v>30.9</v>
+        <v>15.5</v>
       </c>
       <c r="I44" s="24" t="n">
-        <v>30.52</v>
+        <v>866</v>
       </c>
       <c r="J44" s="24" t="inlineStr">
         <is>
-          <t>F18-F20</t>
+          <t>F77-F132</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" s="24" t="inlineStr">
         <is>
-          <t>E100.020308001</t>
-        </is>
-      </c>
-      <c r="C45" s="24" t="inlineStr">
-        <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
-        </is>
-      </c>
+          <t>E100.020349014</t>
+        </is>
+      </c>
+      <c r="C45" s="24" t="n"/>
       <c r="D45" s="24" t="inlineStr">
         <is>
-          <t>长510MM 宽223MM  高11MM</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E45" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="24" t="n">
+      <c r="G45" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H45" s="24" t="n">
-        <v>5.16</v>
-      </c>
       <c r="I45" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" s="24" t="inlineStr">
-        <is>
-          <t>F21</t>
+        <v>0.3</v>
+      </c>
+      <c r="J45" s="25" t="inlineStr">
+        <is>
+          <t>F133</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" s="24" t="inlineStr">
         <is>
-          <t>E100.0203133015</t>
-        </is>
-      </c>
-      <c r="C46" s="24" t="inlineStr">
-        <is>
-          <t>Positioning pin-FW07014AA</t>
-        </is>
-      </c>
+          <t>E100.A37-154-01-00</t>
+        </is>
+      </c>
+      <c r="C46" s="24" t="n"/>
       <c r="D46" s="24" t="inlineStr">
         <is>
-          <t>FW07014AA</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E46" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H46" s="25" t="n">
-        <v>0.58</v>
-      </c>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
       <c r="I46" s="24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J46" s="25" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="J46" s="27" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104009</t>
-        </is>
-      </c>
-      <c r="C47" s="24" t="inlineStr">
-        <is>
-          <t>Fuse holder-plastic</t>
-        </is>
-      </c>
+          <t>E100.0111901002</t>
+        </is>
+      </c>
+      <c r="C47" s="24" t="n"/>
       <c r="D47" s="24" t="inlineStr">
         <is>
-          <t>排料机保险丝座</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E47" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="F47" s="27" t="n"/>
-      <c r="G47" s="27" t="n"/>
-      <c r="H47" s="27" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="F47" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="24" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H47" s="24" t="n">
+        <v>34.24</v>
+      </c>
       <c r="I47" s="24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J47" s="27" t="n"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J47" s="24" t="inlineStr">
+        <is>
+          <t>F134</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="24" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B48" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104007</t>
-        </is>
-      </c>
-      <c r="C48" s="24" t="inlineStr">
-        <is>
-          <t>Metal cutters for feeder-triangle</t>
-        </is>
-      </c>
+          <t>J100.031003005</t>
+        </is>
+      </c>
+      <c r="C48" s="24" t="n"/>
       <c r="D48" s="24" t="inlineStr">
         <is>
-          <t>排料机三角刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E48" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="27" t="n"/>
-      <c r="G48" s="27" t="n"/>
-      <c r="H48" s="27" t="n"/>
+        <v>12</v>
+      </c>
+      <c r="F48" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="24" t="n">
+        <v>34.91</v>
+      </c>
       <c r="I48" s="24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J48" s="27" t="n"/>
+        <v>34</v>
+      </c>
+      <c r="J48" s="24" t="inlineStr">
+        <is>
+          <t>F137</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B49" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104017</t>
-        </is>
-      </c>
-      <c r="C49" s="24" t="inlineStr">
-        <is>
-          <t>Metal cutters for feeder</t>
-        </is>
-      </c>
+          <t>E100.021335001</t>
+        </is>
+      </c>
+      <c r="C49" s="24" t="n"/>
       <c r="D49" s="24" t="inlineStr">
         <is>
-          <t>排料机送料器切刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E49" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" s="27" t="n"/>
-      <c r="G49" s="27" t="n"/>
-      <c r="H49" s="27" t="n"/>
+        <v>9</v>
+      </c>
+      <c r="F49" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" s="24" t="n">
+        <v>10.63</v>
+      </c>
       <c r="I49" s="24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J49" s="27" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="24" t="inlineStr">
+        <is>
+          <t>F138</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B50" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162160</t>
-        </is>
-      </c>
-      <c r="C50" s="24" t="inlineStr">
-        <is>
-          <t>Threaded rod-WS1D-08004</t>
-        </is>
-      </c>
+          <t>E100.E17-003-01-00</t>
+        </is>
+      </c>
+      <c r="C50" s="24" t="n"/>
       <c r="D50" s="24" t="inlineStr">
         <is>
-          <t>WS1D-08004</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E50" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" s="27" t="n"/>
-      <c r="G50" s="27" t="n"/>
-      <c r="H50" s="27" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="F50" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" s="24" t="n">
+        <v>37</v>
+      </c>
       <c r="I50" s="24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J50" s="27" t="n"/>
+        <v>270</v>
+      </c>
+      <c r="J50" s="24" t="inlineStr">
+        <is>
+          <t>F146-F155</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B51" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162100</t>
-        </is>
-      </c>
-      <c r="C51" s="24" t="inlineStr">
-        <is>
-          <t>Screw-M5x12 WJ-10509</t>
-        </is>
-      </c>
+          <t>E100.E17-004-01-00</t>
+        </is>
+      </c>
+      <c r="C51" s="24" t="n"/>
       <c r="D51" s="24" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10509</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E51" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F51" s="27" t="n"/>
-      <c r="G51" s="27" t="n"/>
-      <c r="H51" s="27" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="F51" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" s="24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H51" s="24" t="n">
+        <v>54</v>
+      </c>
       <c r="I51" s="24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J51" s="27" t="n"/>
+        <v>440</v>
+      </c>
+      <c r="J51" s="24" t="inlineStr">
+        <is>
+          <t>F156-F165</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B52" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162049</t>
-        </is>
-      </c>
-      <c r="C52" s="24" t="inlineStr">
-        <is>
-          <t>Screw-M3X12 WJ-10301</t>
-        </is>
-      </c>
+          <t>E100.020396013</t>
+        </is>
+      </c>
+      <c r="C52" s="24" t="n"/>
       <c r="D52" s="24" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10301</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E52" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F52" s="27" t="n"/>
-      <c r="G52" s="27" t="n"/>
-      <c r="H52" s="27" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H52" s="24" t="n">
+        <v>15.16</v>
+      </c>
       <c r="I52" s="24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J52" s="27" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="J52" s="24" t="inlineStr">
+        <is>
+          <t>F166</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="24" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B53" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162047</t>
-        </is>
-      </c>
-      <c r="C53" s="24" t="inlineStr">
-        <is>
-          <t>Screw-LS1D-04026</t>
-        </is>
-      </c>
+          <t>E100.0203104001</t>
+        </is>
+      </c>
+      <c r="C53" s="24" t="n"/>
       <c r="D53" s="24" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04026</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E53" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F53" s="27" t="n"/>
-      <c r="G53" s="27" t="n"/>
-      <c r="H53" s="27" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="F53" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H53" s="25" t="n">
+        <v>5</v>
+      </c>
       <c r="I53" s="24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J53" s="27" t="n"/>
+        <v>0.09</v>
+      </c>
+      <c r="J53" s="25" t="inlineStr">
+        <is>
+          <t>F167</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="24" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B54" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162043</t>
-        </is>
-      </c>
-      <c r="C54" s="24" t="inlineStr">
-        <is>
-          <t>Metal block-LS1D-04021</t>
-        </is>
-      </c>
+          <t>E100.0203154000</t>
+        </is>
+      </c>
+      <c r="C54" s="24" t="n"/>
       <c r="D54" s="24" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04021</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E54" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="27" t="n"/>
-      <c r="G54" s="27" t="n"/>
-      <c r="H54" s="27" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F54" s="26" t="n"/>
+      <c r="G54" s="26" t="n"/>
+      <c r="H54" s="26" t="n"/>
       <c r="I54" s="24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J54" s="27" t="n"/>
+        <v>0.04</v>
+      </c>
+      <c r="J54" s="26" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="24" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B55" s="24" t="inlineStr">
         <is>
-          <t>E100.020344000</t>
-        </is>
-      </c>
-      <c r="C55" s="24" t="inlineStr">
-        <is>
-          <t>Screw -LS1D-07037</t>
-        </is>
-      </c>
+          <t>E100.0203125000</t>
+        </is>
+      </c>
+      <c r="C55" s="24" t="n"/>
       <c r="D55" s="24" t="inlineStr">
         <is>
-          <t>LS1D-07037</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E55" s="24" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F55" s="26" t="n"/>
       <c r="G55" s="26" t="n"/>
       <c r="H55" s="26" t="n"/>
       <c r="I55" s="24" t="n">
-        <v>0.03</v>
+        <v>4.5</v>
       </c>
       <c r="J55" s="26" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B56" s="24" t="inlineStr">
         <is>
-          <t>J100.J01-002-05-00</t>
-        </is>
-      </c>
-      <c r="C56" s="24" t="inlineStr">
-        <is>
-          <t>Stencil-DH 21_1341 B/T</t>
-        </is>
-      </c>
+          <t>E100.0203162159</t>
+        </is>
+      </c>
+      <c r="C56" s="24" t="n"/>
       <c r="D56" s="24" t="inlineStr">
         <is>
-          <t>DH 21_1341 B/T</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E56" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="26" t="n"/>
+      <c r="G56" s="26" t="n"/>
+      <c r="H56" s="26" t="n"/>
+      <c r="I56" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H56" s="24" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="I56" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" s="24" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
+      <c r="J56" s="26" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B57" s="24" t="inlineStr">
         <is>
-          <t>J100.J01-002-05-00</t>
-        </is>
-      </c>
-      <c r="C57" s="24" t="inlineStr">
-        <is>
-          <t>Stencil-DH 21_1340 B/T</t>
-        </is>
-      </c>
+          <t>E100.0203133001</t>
+        </is>
+      </c>
+      <c r="C57" s="24" t="n"/>
       <c r="D57" s="24" t="inlineStr">
         <is>
-          <t>DH 21_1340 B/T</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E57" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F57" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="26" t="n"/>
+      <c r="G57" s="26" t="n"/>
+      <c r="H57" s="26" t="n"/>
+      <c r="I57" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H57" s="24" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="I57" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" s="24" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
+      <c r="J57" s="26" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="24" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B58" s="24" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
-        </is>
-      </c>
-      <c r="C58" s="24" t="inlineStr">
-        <is>
-          <t>D-panel Fixture-DH 21_1341 D/P</t>
-        </is>
-      </c>
+          <t>E100.E00-011-15-01</t>
+        </is>
+      </c>
+      <c r="C58" s="24" t="n"/>
       <c r="D58" s="24" t="inlineStr">
         <is>
-          <t>DH 21_1341 D/P</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E58" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F58" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="25" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H58" s="25" t="n">
-        <v>11.08</v>
-      </c>
+      <c r="F58" s="26" t="n"/>
+      <c r="G58" s="26" t="n"/>
+      <c r="H58" s="26" t="n"/>
       <c r="I58" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" s="25" t="inlineStr">
-        <is>
-          <t>F25</t>
-        </is>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="J58" s="26" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="24" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B59" s="24" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
-        </is>
-      </c>
-      <c r="C59" s="24" t="inlineStr">
-        <is>
-          <t>D-panel Fixture-DH 21_1340 D/P</t>
-        </is>
-      </c>
+          <t>E100.020396061</t>
+        </is>
+      </c>
+      <c r="C59" s="24" t="n"/>
       <c r="D59" s="24" t="inlineStr">
         <is>
-          <t>DH 21_1340 D/P</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E59" s="24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F59" s="26" t="n"/>
       <c r="G59" s="26" t="n"/>
       <c r="H59" s="26" t="n"/>
       <c r="I59" s="24" t="n">
-        <v>5</v>
+        <v>0.09</v>
       </c>
       <c r="J59" s="26" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="24" t="n"/>
-      <c r="B60" s="24" t="n"/>
-      <c r="C60" s="24" t="inlineStr">
+      <c r="A60" s="24" t="n">
+        <v>54</v>
+      </c>
+      <c r="B60" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="C60" s="24" t="n"/>
+      <c r="D60" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E60" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" s="26" t="n"/>
+      <c r="G60" s="26" t="n"/>
+      <c r="H60" s="26" t="n"/>
+      <c r="I60" s="24" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J60" s="26" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="24" t="n">
+        <v>55</v>
+      </c>
+      <c r="B61" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="C61" s="24" t="n"/>
+      <c r="D61" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E61" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="26" t="n"/>
+      <c r="G61" s="26" t="n"/>
+      <c r="H61" s="26" t="n"/>
+      <c r="I61" s="24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J61" s="26" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="24" t="n">
+        <v>56</v>
+      </c>
+      <c r="B62" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="C62" s="24" t="n"/>
+      <c r="D62" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E62" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="26" t="n"/>
+      <c r="G62" s="26" t="n"/>
+      <c r="H62" s="26" t="n"/>
+      <c r="I62" s="24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J62" s="26" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="24" t="n">
+        <v>57</v>
+      </c>
+      <c r="B63" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="C63" s="24" t="n"/>
+      <c r="D63" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E63" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" s="26" t="n"/>
+      <c r="G63" s="26" t="n"/>
+      <c r="H63" s="26" t="n"/>
+      <c r="I63" s="24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J63" s="26" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="24" t="n">
+        <v>58</v>
+      </c>
+      <c r="B64" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="C64" s="24" t="n"/>
+      <c r="D64" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E64" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="27" t="n"/>
+      <c r="G64" s="27" t="n"/>
+      <c r="H64" s="27" t="n"/>
+      <c r="I64" s="24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J64" s="27" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n">
+        <v>59</v>
+      </c>
+      <c r="B65" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="C65" s="24" t="n"/>
+      <c r="D65" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E65" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H65" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="I65" s="24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J65" s="25" t="inlineStr">
+        <is>
+          <t>F168</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B66" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C66" s="24" t="n"/>
+      <c r="D66" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E66" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="27" t="n"/>
+      <c r="G66" s="27" t="n"/>
+      <c r="H66" s="27" t="n"/>
+      <c r="I66" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" s="27" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="24" t="n"/>
+      <c r="B67" s="24" t="n"/>
+      <c r="C67" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D60" s="24" t="n"/>
-      <c r="E60" s="24" t="n">
-        <v>14394</v>
-      </c>
-      <c r="F60" s="24" t="n"/>
-      <c r="G60" s="24" t="n"/>
-      <c r="H60" s="24" t="n">
-        <v>265.16</v>
-      </c>
-      <c r="I60" s="24" t="n">
-        <v>253.79</v>
-      </c>
-      <c r="J60" s="24" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="28" t="inlineStr">
+      <c r="D67" s="24" t="n"/>
+      <c r="E67" s="24" t="n">
+        <v>9006</v>
+      </c>
+      <c r="F67" s="24" t="n"/>
+      <c r="G67" s="24" t="n"/>
+      <c r="H67" s="24" t="n">
+        <v>285.36</v>
+      </c>
+      <c r="I67" s="24" t="n">
+        <v>2950.96</v>
+      </c>
+      <c r="J67" s="24" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="28" t="inlineStr">
         <is>
           <t>PACKED IN 168 PACKAGES ONLY.</t>
         </is>
       </c>
-      <c r="B61" s="29" t="n"/>
-      <c r="C61" s="30" t="n"/>
-      <c r="D61" s="30" t="n"/>
-      <c r="E61" s="30" t="n"/>
-      <c r="F61" s="30" t="n"/>
-      <c r="G61" s="30" t="n"/>
-      <c r="H61" s="31" t="n"/>
-      <c r="I61" s="30" t="n"/>
-      <c r="J61" s="32" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="33" t="inlineStr">
+      <c r="B68" s="29" t="n"/>
+      <c r="C68" s="30" t="n"/>
+      <c r="D68" s="30" t="n"/>
+      <c r="E68" s="30" t="n"/>
+      <c r="F68" s="30" t="n"/>
+      <c r="G68" s="30" t="n"/>
+      <c r="H68" s="31" t="n"/>
+      <c r="I68" s="30" t="n"/>
+      <c r="J68" s="32" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="33" t="inlineStr">
         <is>
           <t>NET WEIGHT: 3156.66  KGS</t>
         </is>
       </c>
-      <c r="B62" s="34" t="n"/>
-      <c r="C62" s="35" t="n"/>
-      <c r="D62" s="35" t="n"/>
-      <c r="E62" s="35" t="n"/>
-      <c r="F62" s="35" t="n"/>
-      <c r="G62" s="35" t="n"/>
-      <c r="H62" s="36" t="n"/>
-      <c r="I62" s="35" t="n"/>
-      <c r="J62" s="37" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="33" t="inlineStr">
+      <c r="B69" s="34" t="n"/>
+      <c r="C69" s="35" t="n"/>
+      <c r="D69" s="35" t="n"/>
+      <c r="E69" s="35" t="n"/>
+      <c r="F69" s="35" t="n"/>
+      <c r="G69" s="35" t="n"/>
+      <c r="H69" s="36" t="n"/>
+      <c r="I69" s="35" t="n"/>
+      <c r="J69" s="37" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="33" t="inlineStr">
         <is>
           <t>GROSS WEIGHT:  3374.84 KGS</t>
         </is>
       </c>
-      <c r="B63" s="34" t="n"/>
-      <c r="C63" s="35" t="n"/>
-      <c r="D63" s="35" t="n"/>
-      <c r="E63" s="35" t="n"/>
-      <c r="F63" s="35" t="n"/>
-      <c r="G63" s="35" t="n"/>
-      <c r="H63" s="36" t="n"/>
-      <c r="I63" s="35" t="n"/>
-      <c r="J63" s="37" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="33" t="inlineStr">
+      <c r="B70" s="34" t="n"/>
+      <c r="C70" s="35" t="n"/>
+      <c r="D70" s="35" t="n"/>
+      <c r="E70" s="35" t="n"/>
+      <c r="F70" s="35" t="n"/>
+      <c r="G70" s="35" t="n"/>
+      <c r="H70" s="36" t="n"/>
+      <c r="I70" s="35" t="n"/>
+      <c r="J70" s="37" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="33" t="inlineStr">
         <is>
           <t>TOTAL MEASUREMENT:18.32 CBM</t>
         </is>
       </c>
-      <c r="B64" s="34" t="n"/>
-      <c r="C64" s="35" t="n"/>
-      <c r="D64" s="35" t="n"/>
-      <c r="E64" s="35" t="n"/>
-      <c r="F64" s="35" t="n"/>
-      <c r="G64" s="35" t="n"/>
-      <c r="H64" s="36" t="n"/>
-      <c r="I64" s="35" t="n"/>
-      <c r="J64" s="37" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="38" t="inlineStr">
+      <c r="B71" s="34" t="n"/>
+      <c r="C71" s="35" t="n"/>
+      <c r="D71" s="35" t="n"/>
+      <c r="E71" s="35" t="n"/>
+      <c r="F71" s="35" t="n"/>
+      <c r="G71" s="35" t="n"/>
+      <c r="H71" s="36" t="n"/>
+      <c r="I71" s="35" t="n"/>
+      <c r="J71" s="37" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="38" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B65" s="39" t="n"/>
-      <c r="C65" s="40" t="n"/>
-      <c r="D65" s="40" t="n"/>
-      <c r="E65" s="40" t="n"/>
-      <c r="F65" s="40" t="n"/>
-      <c r="G65" s="40" t="n"/>
-      <c r="H65" s="41" t="n"/>
-      <c r="I65" s="40" t="n"/>
-      <c r="J65" s="42" t="n"/>
+      <c r="B72" s="39" t="n"/>
+      <c r="C72" s="40" t="n"/>
+      <c r="D72" s="40" t="n"/>
+      <c r="E72" s="40" t="n"/>
+      <c r="F72" s="40" t="n"/>
+      <c r="G72" s="40" t="n"/>
+      <c r="H72" s="41" t="n"/>
+      <c r="I72" s="40" t="n"/>
+      <c r="J72" s="42" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="43">
+    <mergeCell ref="H34:H42"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="F32:F40"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J46:J55"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="H25:H30"/>
-    <mergeCell ref="G46:G55"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="G34:G42"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="J32:J40"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="G65:G66"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="H32:H40"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="H45:H46"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="H23:H25"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="F53:F64"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G32:G40"/>
+    <mergeCell ref="H53:H64"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H46:H55"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J53:J64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F34:F42"/>
+    <mergeCell ref="G53:G64"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J34:J42"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="J27:J33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2896,7 +2895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3059,24 +3058,24 @@
       </c>
       <c r="B8" s="24" t="inlineStr">
         <is>
-          <t>C100.030911007</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C8" s="24" t="inlineStr">
         <is>
-          <t>Connector-XH2,54</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="D8" s="24" t="inlineStr">
         <is>
-          <t>XH2,54 端子，1包50个</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E8" s="63" t="n">
-        <v>0.00278765</v>
+        <v>15.334</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>7000</v>
+        <v>6</v>
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
@@ -3084,7 +3083,7 @@
         </is>
       </c>
       <c r="H8" s="64" t="n">
-        <v>19.51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -3093,24 +3092,24 @@
       </c>
       <c r="B9" s="24" t="inlineStr">
         <is>
-          <t>C100.030911008</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="C9" s="24" t="inlineStr">
         <is>
-          <t>Connector-VH3.96</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="D9" s="24" t="inlineStr">
         <is>
-          <t>VH3.96 端子，1包50个</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E9" s="63" t="n">
-        <v>0.00696913</v>
+        <v>10.8732</v>
       </c>
       <c r="F9" s="24" t="n">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G9" s="24" t="inlineStr">
         <is>
@@ -3118,7 +3117,7 @@
         </is>
       </c>
       <c r="H9" s="64" t="n">
-        <v>20.91</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="10">
@@ -3127,31 +3126,24 @@
       </c>
       <c r="B10" s="24" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C10" s="24" t="inlineStr">
         <is>
-          <t>Milling cutter</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="D10" s="24" t="inlineStr">
         <is>
-          <t>Material: Tungsten Carbide Steel
-Mill Type: Standard Up Draft Type
-Tip Type: Standard Fish Tail Type
-Total Length: 38.1mm
-Knife Length: 12.5mm
-Handle Length: 25.6mm
-Shank Diameter: 3.175mm
-Kinfe Diameter: 1.6mm</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E10" s="63" t="n">
-        <v>0.69691268</v>
+        <v>10.8732</v>
       </c>
       <c r="F10" s="24" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="G10" s="24" t="inlineStr">
         <is>
@@ -3159,7 +3151,7 @@
         </is>
       </c>
       <c r="H10" s="64" t="n">
-        <v>313.61</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="11">
@@ -3168,35 +3160,32 @@
       </c>
       <c r="B11" s="24" t="inlineStr">
         <is>
-          <t>C100.C09-004-01-00</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C11" s="24" t="inlineStr">
         <is>
-          <t>Adhesive tape-13.3mm*200m</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="D11" s="24" t="inlineStr">
         <is>
-          <t>13.3mm*200m/
-JL62 13.3*200
-230415455Y8212
-self-adhesive upper cover material Film</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E11" s="63" t="n">
-        <v>3.67969893</v>
+        <v>3.15044</v>
       </c>
       <c r="F11" s="24" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G11" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H11" s="64" t="n">
-        <v>110.39</v>
+        <v>315.04</v>
       </c>
     </row>
     <row r="12">
@@ -3205,33 +3194,32 @@
       </c>
       <c r="B12" s="24" t="inlineStr">
         <is>
-          <t>C100.010503001</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C12" s="24" t="inlineStr">
         <is>
-          <t>Adhesive tape-21.3mm 200M/roll</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="D12" s="24" t="inlineStr">
         <is>
-          <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
-21.3mm 200M/卷</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E12" s="63" t="n">
-        <v>6.28615235</v>
+        <v>0.11152</v>
       </c>
       <c r="F12" s="24" t="n">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="G12" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H12" s="64" t="n">
-        <v>37.72</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="13">
@@ -3240,34 +3228,32 @@
       </c>
       <c r="B13" s="24" t="inlineStr">
         <is>
-          <t>C100.010523005</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C13" s="24" t="inlineStr">
         <is>
-          <t>SMT carrier tape-200M/roll</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="D13" s="24" t="inlineStr">
         <is>
-          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
-24*16*0.30 
-200米/卷</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E13" s="63" t="n">
-        <v>17.78521151</v>
+        <v>158.916</v>
       </c>
       <c r="F13" s="24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G13" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H13" s="64" t="n">
-        <v>124.5</v>
+        <v>158.92</v>
       </c>
     </row>
     <row r="14">
@@ -3276,32 +3262,32 @@
       </c>
       <c r="B14" s="24" t="inlineStr">
         <is>
-          <t>C100.010523004</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C14" s="24" t="inlineStr">
         <is>
-          <t>SMT carrier tape-400M/roll</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="D14" s="24" t="inlineStr">
         <is>
-          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E14" s="63" t="n">
-        <v>24.53132622</v>
+        <v>32.062</v>
       </c>
       <c r="F14" s="24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H14" s="64" t="n">
-        <v>49.06</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="15">
@@ -3310,26 +3296,24 @@
       </c>
       <c r="B15" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-05-01</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C15" s="24" t="inlineStr">
         <is>
-          <t>Solder tip-900M-T-K-5mm</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="D15" s="24" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-K
-3.刀口宽度：5mm</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E15" s="63" t="n">
-        <v>0.69691268</v>
+        <v>25.789</v>
       </c>
       <c r="F15" s="24" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="G15" s="24" t="inlineStr">
         <is>
@@ -3337,7 +3321,7 @@
         </is>
       </c>
       <c r="H15" s="64" t="n">
-        <v>324.06</v>
+        <v>77.37</v>
       </c>
     </row>
     <row r="16">
@@ -3346,26 +3330,24 @@
       </c>
       <c r="B16" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C16" s="24" t="inlineStr">
         <is>
-          <t>Point Bit-900M-T-B-1.2mm</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="D16" s="24" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-B
-3.圆头，宽度1.2mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E16" s="63" t="n">
-        <v>0.69691268</v>
+        <v>48.79</v>
       </c>
       <c r="F16" s="24" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G16" s="24" t="inlineStr">
         <is>
@@ -3373,7 +3355,7 @@
         </is>
       </c>
       <c r="H16" s="64" t="n">
-        <v>348.46</v>
+        <v>243.95</v>
       </c>
     </row>
     <row r="17">
@@ -3382,24 +3364,24 @@
       </c>
       <c r="B17" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C17" s="24" t="inlineStr">
         <is>
-          <t>Solder tip-900M-T-4C</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="D17" s="24" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E17" s="63" t="n">
-        <v>0.69691268</v>
+        <v>0.697</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>546</v>
+        <v>30</v>
       </c>
       <c r="G17" s="24" t="inlineStr">
         <is>
@@ -3407,7 +3389,7 @@
         </is>
       </c>
       <c r="H17" s="64" t="n">
-        <v>380.51</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="18">
@@ -3416,24 +3398,24 @@
       </c>
       <c r="B18" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C18" s="24" t="inlineStr">
         <is>
-          <t>Solder tip-900M-T-2C</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="D18" s="24" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E18" s="63" t="n">
-        <v>0.69691268</v>
+        <v>0.697</v>
       </c>
       <c r="F18" s="24" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G18" s="24" t="inlineStr">
         <is>
@@ -3441,7 +3423,7 @@
         </is>
       </c>
       <c r="H18" s="64" t="n">
-        <v>27.88</v>
+        <v>348.5</v>
       </c>
     </row>
     <row r="19">
@@ -3450,24 +3432,24 @@
       </c>
       <c r="B19" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C19" s="24" t="inlineStr">
         <is>
-          <t>Solder tip-900-T-1.2D</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="D19" s="24" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E19" s="63" t="n">
-        <v>0.69691268</v>
+        <v>0.697</v>
       </c>
       <c r="F19" s="24" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G19" s="24" t="inlineStr">
         <is>
@@ -3475,7 +3457,7 @@
         </is>
       </c>
       <c r="H19" s="64" t="n">
-        <v>27.88</v>
+        <v>278.8</v>
       </c>
     </row>
     <row r="20">
@@ -3484,24 +3466,24 @@
       </c>
       <c r="B20" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C20" s="24" t="inlineStr">
         <is>
-          <t>Soldering sponge-size:60mm X 55mm</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="D20" s="24" t="inlineStr">
         <is>
-          <t>size:60mm X 55mm</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E20" s="63" t="n">
-        <v>0.13798871</v>
+        <v>0.697</v>
       </c>
       <c r="F20" s="24" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G20" s="24" t="inlineStr">
         <is>
@@ -3509,7 +3491,7 @@
         </is>
       </c>
       <c r="H20" s="64" t="n">
-        <v>34.5</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="21">
@@ -3518,32 +3500,32 @@
       </c>
       <c r="B21" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-05-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C21" s="24" t="inlineStr">
         <is>
-          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="D21" s="24" t="inlineStr">
         <is>
-          <t>L*W 4*4CM 400pcs/bog</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E21" s="63" t="n">
-        <v>4.10063419</v>
+        <v>0.4182</v>
       </c>
       <c r="F21" s="24" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G21" s="24" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H21" s="64" t="n">
-        <v>410.06</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="22">
@@ -3552,24 +3534,24 @@
       </c>
       <c r="B22" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="C22" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30x75x4.0x1</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="D22" s="24" t="inlineStr">
         <is>
-          <t>6.30x75x4.0x1</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E22" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.16728</v>
       </c>
       <c r="F22" s="24" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="G22" s="24" t="inlineStr">
         <is>
@@ -3577,7 +3559,7 @@
         </is>
       </c>
       <c r="H22" s="64" t="n">
-        <v>73.59</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="23">
@@ -3586,24 +3568,24 @@
       </c>
       <c r="B23" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C23" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75X3.0</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="D23" s="24" t="inlineStr">
         <is>
-          <t>6.30X75X3.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E23" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.138006</v>
       </c>
       <c r="F23" s="24" t="n">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="G23" s="24" t="inlineStr">
         <is>
@@ -3611,7 +3593,7 @@
         </is>
       </c>
       <c r="H23" s="64" t="n">
-        <v>72.67</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="24">
@@ -3620,24 +3602,24 @@
       </c>
       <c r="B24" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C24" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75X3.5</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="D24" s="24" t="inlineStr">
         <is>
-          <t>6.30X75X3.5</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E24" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G24" s="24" t="inlineStr">
         <is>
@@ -3645,7 +3627,7 @@
         </is>
       </c>
       <c r="H24" s="64" t="n">
-        <v>73.59</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3654,24 +3636,24 @@
       </c>
       <c r="B25" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C25" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75X2.5X1</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="D25" s="24" t="inlineStr">
         <is>
-          <t>6.30X75X2.5X1</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E25" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F25" s="24" t="n">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="G25" s="24" t="inlineStr">
         <is>
@@ -3679,7 +3661,7 @@
         </is>
       </c>
       <c r="H25" s="64" t="n">
-        <v>36.8</v>
+        <v>84.09</v>
       </c>
     </row>
     <row r="26">
@@ -3688,24 +3670,24 @@
       </c>
       <c r="B26" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C26" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75XT6</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="D26" s="24" t="inlineStr">
         <is>
-          <t>6.30X75XT6</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E26" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F26" s="24" t="n">
-        <v>90</v>
+        <v>458</v>
       </c>
       <c r="G26" s="24" t="inlineStr">
         <is>
@@ -3713,7 +3695,7 @@
         </is>
       </c>
       <c r="H26" s="64" t="n">
-        <v>16.56</v>
+        <v>84.28</v>
       </c>
     </row>
     <row r="27">
@@ -3722,24 +3704,24 @@
       </c>
       <c r="B27" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C27" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75XT7</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="D27" s="24" t="inlineStr">
         <is>
-          <t>6.30X75XT7</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E27" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="G27" s="24" t="inlineStr">
         <is>
@@ -3747,7 +3729,7 @@
         </is>
       </c>
       <c r="H27" s="64" t="n">
-        <v>11.04</v>
+        <v>52.81</v>
       </c>
     </row>
     <row r="28">
@@ -3756,24 +3738,24 @@
       </c>
       <c r="B28" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C28" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75XT8</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="D28" s="24" t="inlineStr">
         <is>
-          <t>6.30X75XT8</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E28" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G28" s="24" t="inlineStr">
         <is>
@@ -3781,7 +3763,7 @@
         </is>
       </c>
       <c r="H28" s="64" t="n">
-        <v>9.199999999999999</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="29">
@@ -3790,24 +3772,24 @@
       </c>
       <c r="B29" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C29" s="24" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X100X3.8XT9</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="D29" s="24" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT9</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E29" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F29" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G29" s="24" t="inlineStr">
         <is>
@@ -3815,7 +3797,7 @@
         </is>
       </c>
       <c r="H29" s="64" t="n">
-        <v>9.199999999999999</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="30">
@@ -3824,24 +3806,24 @@
       </c>
       <c r="B30" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C30" s="24" t="inlineStr">
         <is>
-          <t>Screw bit-6.30X100X3.8XT10</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="D30" s="24" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT10</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E30" s="63" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G30" s="24" t="inlineStr">
         <is>
@@ -3849,7 +3831,7 @@
         </is>
       </c>
       <c r="H30" s="64" t="n">
-        <v>20.24</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3858,32 +3840,32 @@
       </c>
       <c r="B31" s="24" t="inlineStr">
         <is>
-          <t>E100.019100006</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C31" s="24" t="inlineStr">
         <is>
-          <t>Conveyor Belt-50.60 mtrX300 mm</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="D31" s="24" t="inlineStr">
         <is>
-          <t>50.60 mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E31" s="63" t="n">
-        <v>153.79468953</v>
+        <v>0.184008</v>
       </c>
       <c r="F31" s="24" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G31" s="24" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H31" s="64" t="n">
-        <v>461.38</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3892,32 +3874,32 @@
       </c>
       <c r="B32" s="24" t="inlineStr">
         <is>
-          <t>E100.019100007</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C32" s="24" t="inlineStr">
         <is>
-          <t>Conveyor Belt-50.20mtrx400 mm</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="D32" s="24" t="inlineStr">
         <is>
-          <t>50.20mtrx400 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E32" s="63" t="n">
-        <v>203.47062513</v>
+        <v>0.184008</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="G32" s="24" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H32" s="64" t="n">
-        <v>203.47</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="33">
@@ -3926,32 +3908,32 @@
       </c>
       <c r="B33" s="24" t="inlineStr">
         <is>
-          <t>E100.019100008</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C33" s="24" t="inlineStr">
         <is>
-          <t>Conveyor Belt-40.5mtrX300 mm</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="D33" s="24" t="inlineStr">
         <is>
-          <t>40.5mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E33" s="63" t="n">
-        <v>123.06084048</v>
+        <v>2.06312</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>1</v>
+        <v>2040</v>
       </c>
       <c r="G33" s="24" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H33" s="64" t="n">
-        <v>123.06</v>
+        <v>4208.76</v>
       </c>
     </row>
     <row r="34">
@@ -3960,32 +3942,32 @@
       </c>
       <c r="B34" s="24" t="inlineStr">
         <is>
-          <t>E100.020308001</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C34" s="24" t="inlineStr">
         <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="D34" s="24" t="inlineStr">
         <is>
-          <t>长510MM 宽223MM  高11MM</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E34" s="63" t="n">
-        <v>97.56777476000001</v>
+        <v>1.01762</v>
       </c>
       <c r="F34" s="24" t="n">
-        <v>7</v>
+        <v>2800</v>
       </c>
       <c r="G34" s="24" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H34" s="64" t="n">
-        <v>682.97</v>
+        <v>2849.34</v>
       </c>
     </row>
     <row r="35">
@@ -3994,24 +3976,24 @@
       </c>
       <c r="B35" s="24" t="inlineStr">
         <is>
-          <t>E100.0203133015</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C35" s="24" t="inlineStr">
         <is>
-          <t>Positioning pin-FW07014AA</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="D35" s="24" t="inlineStr">
         <is>
-          <t>FW07014AA</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E35" s="63" t="n">
-        <v>1.10251585</v>
+        <v>80.852</v>
       </c>
       <c r="F35" s="24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G35" s="24" t="inlineStr">
         <is>
@@ -4019,7 +4001,7 @@
         </is>
       </c>
       <c r="H35" s="64" t="n">
-        <v>5.51</v>
+        <v>161.7</v>
       </c>
     </row>
     <row r="36">
@@ -4028,21 +4010,21 @@
       </c>
       <c r="B36" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104009</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C36" s="24" t="inlineStr">
         <is>
-          <t>Fuse holder-plastic</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="D36" s="24" t="inlineStr">
         <is>
-          <t>排料机保险丝座</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E36" s="63" t="n">
-        <v>2.78765071</v>
+        <v>11.152</v>
       </c>
       <c r="F36" s="24" t="n">
         <v>5</v>
@@ -4053,7 +4035,7 @@
         </is>
       </c>
       <c r="H36" s="64" t="n">
-        <v>13.94</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="37">
@@ -4062,32 +4044,32 @@
       </c>
       <c r="B37" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104007</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C37" s="24" t="inlineStr">
         <is>
-          <t>Metal cutters for feeder-triangle</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="D37" s="24" t="inlineStr">
         <is>
-          <t>排料机三角刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E37" s="63" t="n">
-        <v>9.75677748</v>
+        <v>161.704</v>
       </c>
       <c r="F37" s="24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H37" s="64" t="n">
-        <v>19.51</v>
+        <v>485.11</v>
       </c>
     </row>
     <row r="38">
@@ -4096,32 +4078,32 @@
       </c>
       <c r="B38" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104017</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C38" s="24" t="inlineStr">
         <is>
-          <t>Metal cutters for feeder</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="D38" s="24" t="inlineStr">
         <is>
-          <t>排料机送料器切刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E38" s="63" t="n">
-        <v>2.78765071</v>
+        <v>181.22</v>
       </c>
       <c r="F38" s="24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G38" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H38" s="64" t="n">
-        <v>13.94</v>
+        <v>2174.64</v>
       </c>
     </row>
     <row r="39">
@@ -4130,32 +4112,32 @@
       </c>
       <c r="B39" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162160</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C39" s="24" t="inlineStr">
         <is>
-          <t>Threaded rod-WS1D-08004</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="D39" s="24" t="inlineStr">
         <is>
-          <t>WS1D-08004</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E39" s="63" t="n">
-        <v>2.78765071</v>
+        <v>41.82</v>
       </c>
       <c r="F39" s="24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G39" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H39" s="64" t="n">
-        <v>13.94</v>
+        <v>376.38</v>
       </c>
     </row>
     <row r="40">
@@ -4164,32 +4146,32 @@
       </c>
       <c r="B40" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162100</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C40" s="24" t="inlineStr">
         <is>
-          <t>Screw-M5x12 WJ-10509</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="D40" s="24" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10509</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E40" s="63" t="n">
-        <v>0.13938254</v>
+        <v>473.96</v>
       </c>
       <c r="F40" s="24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G40" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H40" s="64" t="n">
-        <v>2.79</v>
+        <v>4739.6</v>
       </c>
     </row>
     <row r="41">
@@ -4198,32 +4180,32 @@
       </c>
       <c r="B41" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162049</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C41" s="24" t="inlineStr">
         <is>
-          <t>Screw-M3X12 WJ-10301</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="D41" s="24" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10301</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E41" s="63" t="n">
-        <v>0.13938254</v>
+        <v>717.91</v>
       </c>
       <c r="F41" s="24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G41" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H41" s="64" t="n">
-        <v>2.79</v>
+        <v>7179.1</v>
       </c>
     </row>
     <row r="42">
@@ -4232,24 +4214,24 @@
       </c>
       <c r="B42" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162047</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C42" s="24" t="inlineStr">
         <is>
-          <t>Screw-LS1D-04026</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="D42" s="24" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04026</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E42" s="63" t="n">
-        <v>0.13938254</v>
+        <v>130.339</v>
       </c>
       <c r="F42" s="24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G42" s="24" t="inlineStr">
         <is>
@@ -4257,7 +4239,7 @@
         </is>
       </c>
       <c r="H42" s="64" t="n">
-        <v>2.79</v>
+        <v>130.34</v>
       </c>
     </row>
     <row r="43">
@@ -4266,24 +4248,24 @@
       </c>
       <c r="B43" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162043</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C43" s="24" t="inlineStr">
         <is>
-          <t>Metal block-LS1D-04021</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="D43" s="24" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04021</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E43" s="63" t="n">
-        <v>30.38539271</v>
+        <v>3.0668</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G43" s="24" t="inlineStr">
         <is>
@@ -4291,7 +4273,7 @@
         </is>
       </c>
       <c r="H43" s="64" t="n">
-        <v>30.39</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="44">
@@ -4300,24 +4282,24 @@
       </c>
       <c r="B44" s="24" t="inlineStr">
         <is>
-          <t>E100.020344000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C44" s="24" t="inlineStr">
         <is>
-          <t>Screw -LS1D-07037</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="D44" s="24" t="inlineStr">
         <is>
-          <t>LS1D-07037</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E44" s="63" t="n">
-        <v>0.13938254</v>
+        <v>48.79</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G44" s="24" t="inlineStr">
         <is>
@@ -4325,7 +4307,7 @@
         </is>
       </c>
       <c r="H44" s="64" t="n">
-        <v>13.94</v>
+        <v>243.95</v>
       </c>
     </row>
     <row r="45">
@@ -4334,24 +4316,24 @@
       </c>
       <c r="B45" s="24" t="inlineStr">
         <is>
-          <t>J100.J01-002-05-00</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C45" s="24" t="inlineStr">
         <is>
-          <t>Stencil-DH 21_1341 B/T</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="D45" s="24" t="inlineStr">
         <is>
-          <t>DH 21_1341 B/T</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E45" s="63" t="n">
-        <v>66.90361698</v>
+        <v>1.1152</v>
       </c>
       <c r="F45" s="24" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G45" s="24" t="inlineStr">
         <is>
@@ -4359,7 +4341,7 @@
         </is>
       </c>
       <c r="H45" s="64" t="n">
-        <v>267.61</v>
+        <v>557.6</v>
       </c>
     </row>
     <row r="46">
@@ -4368,21 +4350,21 @@
       </c>
       <c r="B46" s="24" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C46" s="24" t="inlineStr">
         <is>
-          <t>D-panel Fixture-DH 21_1341 D/P</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="D46" s="24" t="inlineStr">
         <is>
-          <t>DH 21_1341 D/P</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E46" s="63" t="n">
-        <v>64.11596627</v>
+        <v>15.334</v>
       </c>
       <c r="F46" s="24" t="n">
         <v>4</v>
@@ -4393,85 +4375,425 @@
         </is>
       </c>
       <c r="H46" s="64" t="n">
-        <v>256.46</v>
+        <v>61.34</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="24" t="n"/>
-      <c r="B47" s="24" t="n"/>
-      <c r="C47" s="24" t="n"/>
-      <c r="D47" s="24" t="n"/>
-      <c r="E47" s="63" t="n"/>
+      <c r="A47" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="B47" s="24" t="inlineStr">
+        <is>
+          <t>E100.0203133001</t>
+        </is>
+      </c>
+      <c r="C47" s="24" t="inlineStr">
+        <is>
+          <t>E100.0203133001</t>
+        </is>
+      </c>
+      <c r="D47" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E47" s="63" t="n">
+        <v>25.99113</v>
+      </c>
       <c r="F47" s="24" t="n">
-        <v>14394</v>
-      </c>
-      <c r="G47" s="24" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H47" s="64" t="n">
-        <v>4666.429999999999</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="65" t="inlineStr">
+      <c r="A48" s="24" t="n">
+        <v>41</v>
+      </c>
+      <c r="B48" s="24" t="inlineStr">
+        <is>
+          <t>E100.E00-011-15-01</t>
+        </is>
+      </c>
+      <c r="C48" s="24" t="inlineStr">
+        <is>
+          <t>E100.E00-011-15-01</t>
+        </is>
+      </c>
+      <c r="D48" s="24" t="inlineStr">
+        <is>
+          <t>KYB-M7027-001</t>
+        </is>
+      </c>
+      <c r="E48" s="63" t="n">
+        <v>690.03</v>
+      </c>
+      <c r="F48" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H48" s="64" t="n">
+        <v>1380.06</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B49" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396061</t>
+        </is>
+      </c>
+      <c r="C49" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396061</t>
+        </is>
+      </c>
+      <c r="D49" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E49" s="63" t="n">
+        <v>0.9061</v>
+      </c>
+      <c r="F49" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H49" s="64" t="n">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="B50" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="C50" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="D50" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E50" s="63" t="n">
+        <v>0.9061</v>
+      </c>
+      <c r="F50" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H50" s="64" t="n">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="24" t="n">
+        <v>44</v>
+      </c>
+      <c r="B51" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="C51" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="D51" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E51" s="63" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F51" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H51" s="64" t="n">
+        <v>61.34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="24" t="n">
+        <v>45</v>
+      </c>
+      <c r="B52" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="C52" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="D52" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E52" s="63" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F52" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H52" s="64" t="n">
+        <v>61.34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="24" t="n">
+        <v>46</v>
+      </c>
+      <c r="B53" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="C53" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="D53" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E53" s="63" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F53" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H53" s="64" t="n">
+        <v>61.34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="24" t="n">
+        <v>47</v>
+      </c>
+      <c r="B54" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="C54" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="D54" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E54" s="63" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F54" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H54" s="64" t="n">
+        <v>61.34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="24" t="n">
+        <v>48</v>
+      </c>
+      <c r="B55" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="C55" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="D55" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E55" s="63" t="n">
+        <v>45.7232</v>
+      </c>
+      <c r="F55" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H55" s="64" t="n">
+        <v>91.45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n">
+        <v>49</v>
+      </c>
+      <c r="B56" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C56" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="D56" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E56" s="63" t="n">
+        <v>45.7232</v>
+      </c>
+      <c r="F56" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H56" s="64" t="n">
+        <v>91.45</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="24" t="n"/>
+      <c r="B57" s="24" t="n"/>
+      <c r="C57" s="24" t="n"/>
+      <c r="D57" s="24" t="n"/>
+      <c r="E57" s="63" t="n"/>
+      <c r="F57" s="24" t="n">
+        <v>9006</v>
+      </c>
+      <c r="G57" s="24" t="n"/>
+      <c r="H57" s="64" t="n">
+        <v>27278.29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="65" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
-      <c r="B48" s="66" t="n"/>
-      <c r="C48" s="66" t="n"/>
-      <c r="D48" s="66" t="n"/>
-      <c r="E48" s="66" t="n"/>
-      <c r="F48" s="66" t="n"/>
-      <c r="G48" s="66" t="n"/>
-      <c r="H48" s="67" t="n"/>
-      <c r="I48" s="35" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="68" t="inlineStr">
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="66" t="n"/>
+      <c r="D58" s="66" t="n"/>
+      <c r="E58" s="66" t="n"/>
+      <c r="F58" s="66" t="n"/>
+      <c r="G58" s="66" t="n"/>
+      <c r="H58" s="67" t="n"/>
+      <c r="I58" s="35" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="68" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B49" s="69" t="n"/>
-      <c r="C49" s="70" t="n"/>
-      <c r="D49" s="70" t="n"/>
-      <c r="E49" s="70" t="n"/>
-      <c r="F49" s="70" t="n"/>
-      <c r="G49" s="70" t="n"/>
-      <c r="H49" s="71" t="n"/>
-      <c r="I49" s="35" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="68" t="inlineStr">
+      <c r="B59" s="69" t="n"/>
+      <c r="C59" s="70" t="n"/>
+      <c r="D59" s="70" t="n"/>
+      <c r="E59" s="70" t="n"/>
+      <c r="F59" s="70" t="n"/>
+      <c r="G59" s="70" t="n"/>
+      <c r="H59" s="71" t="n"/>
+      <c r="I59" s="35" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="68" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B50" s="69" t="n"/>
-      <c r="C50" s="70" t="n"/>
-      <c r="D50" s="70" t="n"/>
-      <c r="E50" s="70" t="n"/>
-      <c r="F50" s="70" t="n"/>
-      <c r="G50" s="70" t="n"/>
-      <c r="H50" s="71" t="n"/>
-      <c r="I50" s="72" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="73" t="inlineStr">
+      <c r="B60" s="69" t="n"/>
+      <c r="C60" s="70" t="n"/>
+      <c r="D60" s="70" t="n"/>
+      <c r="E60" s="70" t="n"/>
+      <c r="F60" s="70" t="n"/>
+      <c r="G60" s="70" t="n"/>
+      <c r="H60" s="71" t="n"/>
+      <c r="I60" s="72" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="73" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B51" s="74" t="n"/>
-      <c r="C51" s="70" t="n"/>
-      <c r="D51" s="70" t="n"/>
-      <c r="E51" s="70" t="n"/>
-      <c r="F51" s="70" t="n"/>
-      <c r="G51" s="70" t="n"/>
-      <c r="H51" s="71" t="n"/>
-      <c r="I51" s="50" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="75" t="inlineStr">
+      <c r="B61" s="74" t="n"/>
+      <c r="C61" s="70" t="n"/>
+      <c r="D61" s="70" t="n"/>
+      <c r="E61" s="70" t="n"/>
+      <c r="F61" s="70" t="n"/>
+      <c r="G61" s="70" t="n"/>
+      <c r="H61" s="71" t="n"/>
+      <c r="I61" s="50" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="75" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -4480,23 +4802,23 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B52" s="58" t="n"/>
-      <c r="C52" s="58" t="n"/>
-      <c r="D52" s="58" t="n"/>
-      <c r="E52" s="58" t="n"/>
-      <c r="F52" s="58" t="n"/>
-      <c r="G52" s="58" t="n"/>
-      <c r="H52" s="76" t="n"/>
-      <c r="I52" s="35" t="n"/>
+      <c r="B62" s="58" t="n"/>
+      <c r="C62" s="58" t="n"/>
+      <c r="D62" s="58" t="n"/>
+      <c r="E62" s="58" t="n"/>
+      <c r="F62" s="58" t="n"/>
+      <c r="G62" s="58" t="n"/>
+      <c r="H62" s="76" t="n"/>
+      <c r="I62" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A62:H62"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A52:H52"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A58:H58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -949,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,11 +1259,11 @@
     </row>
     <row r="17">
       <c r="A17" s="24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="24" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="C17" s="24" t="n"/>
@@ -1273,427 +1273,437 @@
         </is>
       </c>
       <c r="E17" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="25" t="n">
+        <v>500</v>
+      </c>
+      <c r="F17" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="25" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H17" s="25" t="n">
-        <v>2.04</v>
+      <c r="G17" s="24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="24" t="n">
+        <v>2.8</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J17" s="25" t="inlineStr">
-        <is>
-          <t>F02</t>
+        <v>2.6</v>
+      </c>
+      <c r="J17" s="24" t="inlineStr">
+        <is>
+          <t>F01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="24" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C18" s="24" t="n"/>
       <c r="D18" s="24" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E18" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="26" t="n"/>
-      <c r="G18" s="26" t="n"/>
-      <c r="H18" s="26" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H18" s="25" t="n">
+        <v>2.04</v>
+      </c>
       <c r="I18" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="26" t="n"/>
+        <v>1.1</v>
+      </c>
+      <c r="J18" s="25" t="inlineStr">
+        <is>
+          <t>F02</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="24" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="27" t="n"/>
-      <c r="G19" s="27" t="n"/>
-      <c r="H19" s="27" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="26" t="n"/>
+      <c r="G19" s="26" t="n"/>
+      <c r="H19" s="26" t="n"/>
       <c r="I19" s="24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J19" s="27" t="n"/>
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="26" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="24" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C20" s="24" t="n"/>
       <c r="D20" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E20" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H20" s="24" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
       <c r="I20" s="24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J20" s="24" t="inlineStr">
-        <is>
-          <t>F03</t>
-        </is>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="27" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="inlineStr">
         <is>
-          <t>QLDZ.0014</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E21" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="25" t="n">
-        <v>4.3</v>
+      <c r="G21" s="24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H21" s="24" t="n">
+        <v>1.88</v>
       </c>
       <c r="I21" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="25" t="inlineStr">
-        <is>
-          <t>F04</t>
+        <v>1.55</v>
+      </c>
+      <c r="J21" s="24" t="inlineStr">
+        <is>
+          <t>F03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="24" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C22" s="24" t="n"/>
       <c r="D22" s="24" t="inlineStr">
         <is>
-          <t>N510059196AA</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E22" s="24" t="n">
-        <v>137</v>
-      </c>
-      <c r="F22" s="27" t="n"/>
-      <c r="G22" s="27" t="n"/>
-      <c r="H22" s="27" t="n"/>
+        <v>100</v>
+      </c>
+      <c r="F22" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="I22" s="24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J22" s="27" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="25" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="24" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C23" s="24" t="n"/>
       <c r="D23" s="24" t="inlineStr">
         <is>
-          <t>FA2P5N1W20360133</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H23" s="25" t="n">
-        <v>14</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
       <c r="I23" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" s="25" t="inlineStr">
-        <is>
-          <t>F05</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="J23" s="27" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="24" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C24" s="24" t="n"/>
       <c r="D24" s="24" t="inlineStr">
         <is>
-          <t>STM86118S</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="26" t="n"/>
-      <c r="G24" s="26" t="n"/>
-      <c r="H24" s="26" t="n"/>
+      <c r="F24" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <v>14</v>
+      </c>
       <c r="I24" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" s="26" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="25" t="inlineStr">
+        <is>
+          <t>F05</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="24" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="inlineStr">
         <is>
-          <t>STM8680</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E25" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" s="27" t="n"/>
-      <c r="G25" s="27" t="n"/>
-      <c r="H25" s="27" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="26" t="n"/>
+      <c r="G25" s="26" t="n"/>
+      <c r="H25" s="26" t="n"/>
       <c r="I25" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J25" s="27" t="n"/>
+      <c r="J25" s="26" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="24" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C26" s="24" t="n"/>
       <c r="D26" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E26" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H26" s="24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I26" s="24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J26" s="24" t="inlineStr">
-        <is>
-          <t>F06</t>
-        </is>
-      </c>
+      <c r="J26" s="27" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C27" s="24" t="n"/>
       <c r="D27" s="24" t="inlineStr">
         <is>
-          <t>900M-T-sk</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E27" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="F27" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H27" s="25" t="n">
-        <v>7.55</v>
+      <c r="H27" s="24" t="n">
+        <v>1.44</v>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J27" s="25" t="inlineStr">
-        <is>
-          <t>F07</t>
+        <v>1.23</v>
+      </c>
+      <c r="J27" s="24" t="inlineStr">
+        <is>
+          <t>F06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C28" s="24" t="n"/>
       <c r="D28" s="24" t="inlineStr">
         <is>
-          <t>900M-T-B</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E28" s="24" t="n">
-        <v>500</v>
-      </c>
-      <c r="F28" s="26" t="n"/>
-      <c r="G28" s="26" t="n"/>
-      <c r="H28" s="26" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="F28" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="25" t="n">
+        <v>7.55</v>
+      </c>
       <c r="I28" s="24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J28" s="26" t="n"/>
+        <v>0.15</v>
+      </c>
+      <c r="J28" s="25" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C29" s="24" t="n"/>
       <c r="D29" s="24" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E29" s="24" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F29" s="26" t="n"/>
       <c r="G29" s="26" t="n"/>
       <c r="H29" s="26" t="n"/>
       <c r="I29" s="24" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J29" s="26" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C30" s="24" t="n"/>
       <c r="D30" s="24" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E30" s="24" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="F30" s="26" t="n"/>
       <c r="G30" s="26" t="n"/>
       <c r="H30" s="26" t="n"/>
       <c r="I30" s="24" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J30" s="26" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C31" s="24" t="n"/>
       <c r="D31" s="24" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E31" s="24" t="n">
@@ -1709,63 +1719,63 @@
     </row>
     <row r="32">
       <c r="A32" s="24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C32" s="24" t="n"/>
       <c r="D32" s="24" t="inlineStr">
         <is>
-          <t>WRNT-013</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E32" s="24" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="F32" s="26" t="n"/>
       <c r="G32" s="26" t="n"/>
       <c r="H32" s="26" t="n"/>
       <c r="I32" s="24" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="J32" s="26" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="C33" s="24" t="n"/>
       <c r="D33" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E33" s="24" t="n">
-        <v>250</v>
-      </c>
-      <c r="F33" s="27" t="n"/>
-      <c r="G33" s="27" t="n"/>
-      <c r="H33" s="27" t="n"/>
+        <v>140</v>
+      </c>
+      <c r="F33" s="26" t="n"/>
+      <c r="G33" s="26" t="n"/>
+      <c r="H33" s="26" t="n"/>
       <c r="I33" s="24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J33" s="27" t="n"/>
+        <v>0.7</v>
+      </c>
+      <c r="J33" s="26" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C34" s="24" t="n"/>
@@ -1775,33 +1785,23 @@
         </is>
       </c>
       <c r="E34" s="24" t="n">
-        <v>388</v>
-      </c>
-      <c r="F34" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H34" s="25" t="n">
-        <v>20</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
       <c r="I34" s="24" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="J34" s="25" t="inlineStr">
-        <is>
-          <t>F08</t>
-        </is>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="J34" s="27" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C35" s="24" t="n"/>
@@ -1811,23 +1811,33 @@
         </is>
       </c>
       <c r="E35" s="24" t="n">
-        <v>457</v>
-      </c>
-      <c r="F35" s="26" t="n"/>
-      <c r="G35" s="26" t="n"/>
-      <c r="H35" s="26" t="n"/>
+        <v>388</v>
+      </c>
+      <c r="F35" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H35" s="25" t="n">
+        <v>20</v>
+      </c>
       <c r="I35" s="24" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="J35" s="26" t="n"/>
+        <v>3.49</v>
+      </c>
+      <c r="J35" s="25" t="inlineStr">
+        <is>
+          <t>F08</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C36" s="24" t="n"/>
@@ -1837,23 +1847,23 @@
         </is>
       </c>
       <c r="E36" s="24" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F36" s="26" t="n"/>
       <c r="G36" s="26" t="n"/>
       <c r="H36" s="26" t="n"/>
       <c r="I36" s="24" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="J36" s="26" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C37" s="24" t="n"/>
@@ -1863,23 +1873,23 @@
         </is>
       </c>
       <c r="E37" s="24" t="n">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="F37" s="26" t="n"/>
       <c r="G37" s="26" t="n"/>
       <c r="H37" s="26" t="n"/>
       <c r="I37" s="24" t="n">
-        <v>2.58</v>
+        <v>4.12</v>
       </c>
       <c r="J37" s="26" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C38" s="24" t="n"/>
@@ -1889,23 +1899,23 @@
         </is>
       </c>
       <c r="E38" s="24" t="n">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="F38" s="26" t="n"/>
       <c r="G38" s="26" t="n"/>
       <c r="H38" s="26" t="n"/>
       <c r="I38" s="24" t="n">
-        <v>0.36</v>
+        <v>2.58</v>
       </c>
       <c r="J38" s="26" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C39" s="24" t="n"/>
@@ -1915,23 +1925,23 @@
         </is>
       </c>
       <c r="E39" s="24" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F39" s="26" t="n"/>
       <c r="G39" s="26" t="n"/>
       <c r="H39" s="26" t="n"/>
       <c r="I39" s="24" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="J39" s="26" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C40" s="24" t="n"/>
@@ -1941,23 +1951,23 @@
         </is>
       </c>
       <c r="E40" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F40" s="26" t="n"/>
       <c r="G40" s="26" t="n"/>
       <c r="H40" s="26" t="n"/>
       <c r="I40" s="24" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="J40" s="26" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C41" s="24" t="n"/>
@@ -1979,11 +1989,11 @@
     </row>
     <row r="42">
       <c r="A42" s="24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C42" s="24" t="n"/>
@@ -1993,23 +2003,23 @@
         </is>
       </c>
       <c r="E42" s="24" t="n">
-        <v>110</v>
-      </c>
-      <c r="F42" s="27" t="n"/>
-      <c r="G42" s="27" t="n"/>
-      <c r="H42" s="27" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="F42" s="26" t="n"/>
+      <c r="G42" s="26" t="n"/>
+      <c r="H42" s="26" t="n"/>
       <c r="I42" s="24" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J42" s="27" t="n"/>
+        <v>0.45</v>
+      </c>
+      <c r="J42" s="26" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C43" s="24" t="n"/>
@@ -2019,33 +2029,23 @@
         </is>
       </c>
       <c r="E43" s="24" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F43" s="24" t="n">
-        <v>68</v>
-      </c>
-      <c r="G43" s="24" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="H43" s="24" t="n">
-        <v>17.71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
       <c r="I43" s="24" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J43" s="24" t="inlineStr">
-        <is>
-          <t>F09-F76</t>
-        </is>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="J43" s="27" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C44" s="24" t="n"/>
@@ -2055,131 +2055,131 @@
         </is>
       </c>
       <c r="E44" s="24" t="n">
-        <v>2800</v>
+        <v>2040</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>3.92</v>
+        <v>6.12</v>
       </c>
       <c r="H44" s="24" t="n">
-        <v>15.5</v>
+        <v>17.71</v>
       </c>
       <c r="I44" s="24" t="n">
-        <v>866</v>
+        <v>1200</v>
       </c>
       <c r="J44" s="24" t="inlineStr">
         <is>
-          <t>F77-F132</t>
+          <t>F09-F76</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="24" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C45" s="24" t="n"/>
       <c r="D45" s="24" t="inlineStr">
         <is>
-          <t>AT-TSSOP20-CMS</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E45" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H45" s="25" t="n">
-        <v>1</v>
+        <v>2800</v>
+      </c>
+      <c r="F45" s="24" t="n">
+        <v>56</v>
+      </c>
+      <c r="G45" s="24" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="H45" s="24" t="n">
+        <v>15.5</v>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J45" s="25" t="inlineStr">
-        <is>
-          <t>F133</t>
+        <v>866</v>
+      </c>
+      <c r="J45" s="24" t="inlineStr">
+        <is>
+          <t>F77-F132</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C46" s="24" t="n"/>
       <c r="D46" s="24" t="inlineStr">
         <is>
-          <t>KLV-M913A-A10</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E46" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" s="27" t="n"/>
-      <c r="G46" s="27" t="n"/>
-      <c r="H46" s="27" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H46" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="I46" s="24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J46" s="27" t="n"/>
+        <v>0.3</v>
+      </c>
+      <c r="J46" s="25" t="inlineStr">
+        <is>
+          <t>F133</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="24" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C47" s="24" t="n"/>
       <c r="D47" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E47" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="24" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H47" s="24" t="n">
-        <v>34.24</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
       <c r="I47" s="24" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J47" s="24" t="inlineStr">
-        <is>
-          <t>F134</t>
-        </is>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="J47" s="27" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="24" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B48" s="24" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C48" s="24" t="n"/>
@@ -2189,33 +2189,33 @@
         </is>
       </c>
       <c r="E48" s="24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F48" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H48" s="24" t="n">
-        <v>34.91</v>
+        <v>34.24</v>
       </c>
       <c r="I48" s="24" t="n">
-        <v>34</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J48" s="24" t="inlineStr">
         <is>
-          <t>F137</t>
+          <t>F134</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="24" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C49" s="24" t="n"/>
@@ -2225,33 +2225,33 @@
         </is>
       </c>
       <c r="E49" s="24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F49" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="24" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H49" s="24" t="n">
-        <v>10.63</v>
+        <v>34.91</v>
       </c>
       <c r="I49" s="24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J49" s="24" t="inlineStr">
         <is>
-          <t>F138</t>
+          <t>F137</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B50" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C50" s="24" t="n"/>
@@ -2261,33 +2261,33 @@
         </is>
       </c>
       <c r="E50" s="24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G50" s="24" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="H50" s="24" t="n">
-        <v>37</v>
+        <v>10.63</v>
       </c>
       <c r="I50" s="24" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="J50" s="24" t="inlineStr">
         <is>
-          <t>F146-F155</t>
+          <t>F138</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C51" s="24" t="n"/>
@@ -2303,177 +2303,187 @@
         <v>10</v>
       </c>
       <c r="G51" s="24" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H51" s="24" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I51" s="24" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="J51" s="24" t="inlineStr">
         <is>
-          <t>F156-F165</t>
+          <t>F146-F155</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="24" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C52" s="24" t="n"/>
       <c r="D52" s="24" t="inlineStr">
         <is>
-          <t>AEVF4</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E52" s="24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" s="24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G52" s="24" t="n">
-        <v>0.02</v>
+        <v>4.3</v>
       </c>
       <c r="H52" s="24" t="n">
-        <v>15.16</v>
+        <v>54</v>
       </c>
       <c r="I52" s="24" t="n">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="J52" s="24" t="inlineStr">
         <is>
-          <t>F166</t>
+          <t>F156-F165</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C53" s="24" t="n"/>
       <c r="D53" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E53" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="F53" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="F53" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="H53" s="25" t="n">
-        <v>5</v>
+      <c r="H53" s="24" t="n">
+        <v>15.16</v>
       </c>
       <c r="I53" s="24" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J53" s="25" t="inlineStr">
-        <is>
-          <t>F167</t>
+        <v>15</v>
+      </c>
+      <c r="J53" s="24" t="inlineStr">
+        <is>
+          <t>F166</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="24" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C54" s="24" t="n"/>
       <c r="D54" s="24" t="inlineStr">
         <is>
-          <t>TG-205A-FU</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E54" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H54" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="F54" s="26" t="n"/>
-      <c r="G54" s="26" t="n"/>
-      <c r="H54" s="26" t="n"/>
       <c r="I54" s="24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J54" s="26" t="n"/>
+        <v>0.09</v>
+      </c>
+      <c r="J54" s="25" t="inlineStr">
+        <is>
+          <t>F167</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="24" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C55" s="24" t="n"/>
       <c r="D55" s="24" t="inlineStr">
         <is>
-          <t>LS1D-01033</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E55" s="24" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F55" s="26" t="n"/>
       <c r="G55" s="26" t="n"/>
       <c r="H55" s="26" t="n"/>
       <c r="I55" s="24" t="n">
-        <v>4.5</v>
+        <v>0.04</v>
       </c>
       <c r="J55" s="26" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C56" s="24" t="n"/>
       <c r="D56" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E56" s="24" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="F56" s="26" t="n"/>
       <c r="G56" s="26" t="n"/>
       <c r="H56" s="26" t="n"/>
       <c r="I56" s="24" t="n">
-        <v>0.04</v>
+        <v>4.5</v>
       </c>
       <c r="J56" s="26" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="24" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C57" s="24" t="n"/>
@@ -2483,7 +2493,7 @@
         </is>
       </c>
       <c r="E57" s="24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" s="26" t="n"/>
       <c r="G57" s="26" t="n"/>
@@ -2495,63 +2505,63 @@
     </row>
     <row r="58">
       <c r="A58" s="24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="24" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="C58" s="24" t="n"/>
       <c r="D58" s="24" t="inlineStr">
         <is>
-          <t>KYB-M7027-001</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E58" s="24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" s="26" t="n"/>
       <c r="G58" s="26" t="n"/>
       <c r="H58" s="26" t="n"/>
       <c r="I58" s="24" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J58" s="26" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="24" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="C59" s="24" t="n"/>
       <c r="D59" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E59" s="24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F59" s="26" t="n"/>
       <c r="G59" s="26" t="n"/>
       <c r="H59" s="26" t="n"/>
       <c r="I59" s="24" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="J59" s="26" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="24" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="C60" s="24" t="n"/>
@@ -2573,11 +2583,11 @@
     </row>
     <row r="61">
       <c r="A61" s="24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="24" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.020396062</t>
         </is>
       </c>
       <c r="C61" s="24" t="n"/>
@@ -2587,23 +2597,23 @@
         </is>
       </c>
       <c r="E61" s="24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F61" s="26" t="n"/>
       <c r="G61" s="26" t="n"/>
       <c r="H61" s="26" t="n"/>
       <c r="I61" s="24" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="J61" s="26" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="24" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.020396047</t>
         </is>
       </c>
       <c r="C62" s="24" t="n"/>
@@ -2625,11 +2635,11 @@
     </row>
     <row r="63">
       <c r="A63" s="24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="24" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.020396048</t>
         </is>
       </c>
       <c r="C63" s="24" t="n"/>
@@ -2651,11 +2661,11 @@
     </row>
     <row r="64">
       <c r="A64" s="24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="24" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.020396049</t>
         </is>
       </c>
       <c r="C64" s="24" t="n"/>
@@ -2667,21 +2677,21 @@
       <c r="E64" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F64" s="27" t="n"/>
-      <c r="G64" s="27" t="n"/>
-      <c r="H64" s="27" t="n"/>
+      <c r="F64" s="26" t="n"/>
+      <c r="G64" s="26" t="n"/>
+      <c r="H64" s="26" t="n"/>
       <c r="I64" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="J64" s="27" t="n"/>
+      <c r="J64" s="26" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="24" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396050</t>
         </is>
       </c>
       <c r="C65" s="24" t="n"/>
@@ -2693,31 +2703,21 @@
       <c r="E65" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F65" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="25" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H65" s="25" t="n">
-        <v>9</v>
-      </c>
+      <c r="F65" s="27" t="n"/>
+      <c r="G65" s="27" t="n"/>
+      <c r="H65" s="27" t="n"/>
       <c r="I65" s="24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J65" s="25" t="inlineStr">
-        <is>
-          <t>F168</t>
-        </is>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="J65" s="27" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="24" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>E100.020396055</t>
         </is>
       </c>
       <c r="C66" s="24" t="n"/>
@@ -2729,72 +2729,92 @@
       <c r="E66" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F66" s="27" t="n"/>
-      <c r="G66" s="27" t="n"/>
-      <c r="H66" s="27" t="n"/>
+      <c r="F66" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H66" s="25" t="n">
+        <v>9</v>
+      </c>
       <c r="I66" s="24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J66" s="25" t="inlineStr">
+        <is>
+          <t>F168</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B67" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C67" s="24" t="n"/>
+      <c r="D67" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E67" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" s="27" t="n"/>
+      <c r="G67" s="27" t="n"/>
+      <c r="H67" s="27" t="n"/>
+      <c r="I67" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="J66" s="27" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="24" t="n"/>
-      <c r="B67" s="24" t="n"/>
-      <c r="C67" s="24" t="inlineStr">
+      <c r="J67" s="27" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="24" t="n"/>
+      <c r="B68" s="24" t="n"/>
+      <c r="C68" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D67" s="24" t="n"/>
-      <c r="E67" s="24" t="n">
-        <v>9006</v>
-      </c>
-      <c r="F67" s="24" t="n"/>
-      <c r="G67" s="24" t="n"/>
-      <c r="H67" s="24" t="n">
-        <v>285.36</v>
-      </c>
-      <c r="I67" s="24" t="n">
-        <v>2950.96</v>
-      </c>
-      <c r="J67" s="24" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="28" t="inlineStr">
+      <c r="D68" s="24" t="n"/>
+      <c r="E68" s="24" t="n">
+        <v>9506</v>
+      </c>
+      <c r="F68" s="24" t="n"/>
+      <c r="G68" s="24" t="n"/>
+      <c r="H68" s="24" t="n">
+        <v>288.16</v>
+      </c>
+      <c r="I68" s="24" t="n">
+        <v>2953.559999999999</v>
+      </c>
+      <c r="J68" s="24" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="28" t="inlineStr">
         <is>
           <t>PACKED IN 168 PACKAGES ONLY.</t>
         </is>
       </c>
-      <c r="B68" s="29" t="n"/>
-      <c r="C68" s="30" t="n"/>
-      <c r="D68" s="30" t="n"/>
-      <c r="E68" s="30" t="n"/>
-      <c r="F68" s="30" t="n"/>
-      <c r="G68" s="30" t="n"/>
-      <c r="H68" s="31" t="n"/>
-      <c r="I68" s="30" t="n"/>
-      <c r="J68" s="32" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="33" t="inlineStr">
-        <is>
-          <t>NET WEIGHT: 3156.66  KGS</t>
-        </is>
-      </c>
-      <c r="B69" s="34" t="n"/>
-      <c r="C69" s="35" t="n"/>
-      <c r="D69" s="35" t="n"/>
-      <c r="E69" s="35" t="n"/>
-      <c r="F69" s="35" t="n"/>
-      <c r="G69" s="35" t="n"/>
-      <c r="H69" s="36" t="n"/>
-      <c r="I69" s="35" t="n"/>
-      <c r="J69" s="37" t="n"/>
+      <c r="B69" s="29" t="n"/>
+      <c r="C69" s="30" t="n"/>
+      <c r="D69" s="30" t="n"/>
+      <c r="E69" s="30" t="n"/>
+      <c r="F69" s="30" t="n"/>
+      <c r="G69" s="30" t="n"/>
+      <c r="H69" s="31" t="n"/>
+      <c r="I69" s="30" t="n"/>
+      <c r="J69" s="32" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="33" t="inlineStr">
         <is>
-          <t>GROSS WEIGHT:  3374.84 KGS</t>
+          <t>NET WEIGHT: 3156.66  KGS</t>
         </is>
       </c>
       <c r="B70" s="34" t="n"/>
@@ -2810,7 +2830,7 @@
     <row r="71">
       <c r="A71" s="33" t="inlineStr">
         <is>
-          <t>TOTAL MEASUREMENT:18.32 CBM</t>
+          <t>GROSS WEIGHT:  3374.84 KGS</t>
         </is>
       </c>
       <c r="B71" s="34" t="n"/>
@@ -2824,66 +2844,82 @@
       <c r="J71" s="37" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="38" t="inlineStr">
+      <c r="A72" s="33" t="inlineStr">
+        <is>
+          <t>TOTAL MEASUREMENT:18.32 CBM</t>
+        </is>
+      </c>
+      <c r="B72" s="34" t="n"/>
+      <c r="C72" s="35" t="n"/>
+      <c r="D72" s="35" t="n"/>
+      <c r="E72" s="35" t="n"/>
+      <c r="F72" s="35" t="n"/>
+      <c r="G72" s="35" t="n"/>
+      <c r="H72" s="36" t="n"/>
+      <c r="I72" s="35" t="n"/>
+      <c r="J72" s="37" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="38" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B72" s="39" t="n"/>
-      <c r="C72" s="40" t="n"/>
-      <c r="D72" s="40" t="n"/>
-      <c r="E72" s="40" t="n"/>
-      <c r="F72" s="40" t="n"/>
-      <c r="G72" s="40" t="n"/>
-      <c r="H72" s="41" t="n"/>
-      <c r="I72" s="40" t="n"/>
-      <c r="J72" s="42" t="n"/>
+      <c r="B73" s="39" t="n"/>
+      <c r="C73" s="40" t="n"/>
+      <c r="D73" s="40" t="n"/>
+      <c r="E73" s="40" t="n"/>
+      <c r="F73" s="40" t="n"/>
+      <c r="G73" s="40" t="n"/>
+      <c r="H73" s="41" t="n"/>
+      <c r="I73" s="40" t="n"/>
+      <c r="J73" s="42" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H34:H42"/>
-    <mergeCell ref="F17:F19"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G66:G67"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G34:G42"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G28:G34"/>
     <mergeCell ref="B9:C10"/>
+    <mergeCell ref="F35:F43"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F54:F65"/>
+    <mergeCell ref="J35:J43"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F66:F67"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H28:H34"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="H23:H25"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="F53:F64"/>
+    <mergeCell ref="H54:H65"/>
+    <mergeCell ref="G35:G43"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H53:H64"/>
+    <mergeCell ref="H66:H67"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J53:J64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F34:F42"/>
-    <mergeCell ref="G53:G64"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J54:J65"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H35:H43"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J34:J42"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J28:J34"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="J27:J33"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G54:G65"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2895,7 +2931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3058,12 +3094,12 @@
       </c>
       <c r="B8" s="24" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="C8" s="24" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="D8" s="24" t="inlineStr">
@@ -3072,10 +3108,10 @@
         </is>
       </c>
       <c r="E8" s="63" t="n">
-        <v>15.334</v>
+        <v>0.697</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
@@ -3083,7 +3119,7 @@
         </is>
       </c>
       <c r="H8" s="64" t="n">
-        <v>92</v>
+        <v>348.5</v>
       </c>
     </row>
     <row r="9">
@@ -3092,24 +3128,24 @@
       </c>
       <c r="B9" s="24" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C9" s="24" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="D9" s="24" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E9" s="63" t="n">
-        <v>10.8732</v>
+        <v>15.334</v>
       </c>
       <c r="F9" s="24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="24" t="inlineStr">
         <is>
@@ -3117,7 +3153,7 @@
         </is>
       </c>
       <c r="H9" s="64" t="n">
-        <v>21.75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -3126,24 +3162,24 @@
       </c>
       <c r="B10" s="24" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="C10" s="24" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="D10" s="24" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E10" s="63" t="n">
         <v>10.8732</v>
       </c>
       <c r="F10" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="24" t="inlineStr">
         <is>
@@ -3151,7 +3187,7 @@
         </is>
       </c>
       <c r="H10" s="64" t="n">
-        <v>10.87</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="11">
@@ -3160,24 +3196,24 @@
       </c>
       <c r="B11" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C11" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="D11" s="24" t="inlineStr">
         <is>
-          <t>QLDZ.0014</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E11" s="63" t="n">
-        <v>3.15044</v>
+        <v>10.8732</v>
       </c>
       <c r="F11" s="24" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G11" s="24" t="inlineStr">
         <is>
@@ -3185,7 +3221,7 @@
         </is>
       </c>
       <c r="H11" s="64" t="n">
-        <v>315.04</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="12">
@@ -3194,24 +3230,24 @@
       </c>
       <c r="B12" s="24" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C12" s="24" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="D12" s="24" t="inlineStr">
         <is>
-          <t>N510059196AA</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E12" s="63" t="n">
-        <v>0.11152</v>
+        <v>3.15044</v>
       </c>
       <c r="F12" s="24" t="n">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="G12" s="24" t="inlineStr">
         <is>
@@ -3219,7 +3255,7 @@
         </is>
       </c>
       <c r="H12" s="64" t="n">
-        <v>15.28</v>
+        <v>315.04</v>
       </c>
     </row>
     <row r="13">
@@ -3228,24 +3264,24 @@
       </c>
       <c r="B13" s="24" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C13" s="24" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="D13" s="24" t="inlineStr">
         <is>
-          <t>FA2P5N1W20360133</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E13" s="63" t="n">
-        <v>158.916</v>
+        <v>0.11152</v>
       </c>
       <c r="F13" s="24" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G13" s="24" t="inlineStr">
         <is>
@@ -3253,7 +3289,7 @@
         </is>
       </c>
       <c r="H13" s="64" t="n">
-        <v>158.92</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="14">
@@ -3262,21 +3298,21 @@
       </c>
       <c r="B14" s="24" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C14" s="24" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="D14" s="24" t="inlineStr">
         <is>
-          <t>STM86118S</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E14" s="63" t="n">
-        <v>32.062</v>
+        <v>158.916</v>
       </c>
       <c r="F14" s="24" t="n">
         <v>1</v>
@@ -3287,7 +3323,7 @@
         </is>
       </c>
       <c r="H14" s="64" t="n">
-        <v>32.06</v>
+        <v>158.92</v>
       </c>
     </row>
     <row r="15">
@@ -3296,24 +3332,24 @@
       </c>
       <c r="B15" s="24" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C15" s="24" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="D15" s="24" t="inlineStr">
         <is>
-          <t>STM8680</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E15" s="63" t="n">
-        <v>25.789</v>
+        <v>32.062</v>
       </c>
       <c r="F15" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="24" t="inlineStr">
         <is>
@@ -3321,7 +3357,7 @@
         </is>
       </c>
       <c r="H15" s="64" t="n">
-        <v>77.37</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="16">
@@ -3330,24 +3366,24 @@
       </c>
       <c r="B16" s="24" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C16" s="24" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="D16" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E16" s="63" t="n">
-        <v>48.79</v>
+        <v>25.789</v>
       </c>
       <c r="F16" s="24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="24" t="inlineStr">
         <is>
@@ -3355,7 +3391,7 @@
         </is>
       </c>
       <c r="H16" s="64" t="n">
-        <v>243.95</v>
+        <v>77.37</v>
       </c>
     </row>
     <row r="17">
@@ -3364,24 +3400,24 @@
       </c>
       <c r="B17" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C17" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="D17" s="24" t="inlineStr">
         <is>
-          <t>900M-T-sk</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E17" s="63" t="n">
-        <v>0.697</v>
+        <v>48.79</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G17" s="24" t="inlineStr">
         <is>
@@ -3389,7 +3425,7 @@
         </is>
       </c>
       <c r="H17" s="64" t="n">
-        <v>20.91</v>
+        <v>243.95</v>
       </c>
     </row>
     <row r="18">
@@ -3398,24 +3434,24 @@
       </c>
       <c r="B18" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C18" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="D18" s="24" t="inlineStr">
         <is>
-          <t>900M-T-B</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E18" s="63" t="n">
         <v>0.697</v>
       </c>
       <c r="F18" s="24" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G18" s="24" t="inlineStr">
         <is>
@@ -3423,7 +3459,7 @@
         </is>
       </c>
       <c r="H18" s="64" t="n">
-        <v>348.5</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="19">
@@ -3432,24 +3468,24 @@
       </c>
       <c r="B19" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C19" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="D19" s="24" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E19" s="63" t="n">
         <v>0.697</v>
       </c>
       <c r="F19" s="24" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G19" s="24" t="inlineStr">
         <is>
@@ -3457,7 +3493,7 @@
         </is>
       </c>
       <c r="H19" s="64" t="n">
-        <v>278.8</v>
+        <v>348.5</v>
       </c>
     </row>
     <row r="20">
@@ -3466,24 +3502,24 @@
       </c>
       <c r="B20" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C20" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="D20" s="24" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E20" s="63" t="n">
         <v>0.697</v>
       </c>
       <c r="F20" s="24" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G20" s="24" t="inlineStr">
         <is>
@@ -3491,7 +3527,7 @@
         </is>
       </c>
       <c r="H20" s="64" t="n">
-        <v>27.88</v>
+        <v>278.8</v>
       </c>
     </row>
     <row r="21">
@@ -3500,21 +3536,21 @@
       </c>
       <c r="B21" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C21" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="D21" s="24" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E21" s="63" t="n">
-        <v>0.4182</v>
+        <v>0.697</v>
       </c>
       <c r="F21" s="24" t="n">
         <v>40</v>
@@ -3525,7 +3561,7 @@
         </is>
       </c>
       <c r="H21" s="64" t="n">
-        <v>16.73</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="22">
@@ -3534,24 +3570,24 @@
       </c>
       <c r="B22" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C22" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="D22" s="24" t="inlineStr">
         <is>
-          <t>WRNT-013</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E22" s="63" t="n">
-        <v>0.16728</v>
+        <v>0.4182</v>
       </c>
       <c r="F22" s="24" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G22" s="24" t="inlineStr">
         <is>
@@ -3559,7 +3595,7 @@
         </is>
       </c>
       <c r="H22" s="64" t="n">
-        <v>23.42</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="23">
@@ -3568,24 +3604,24 @@
       </c>
       <c r="B23" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="C23" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="D23" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E23" s="63" t="n">
-        <v>0.138006</v>
+        <v>0.16728</v>
       </c>
       <c r="F23" s="24" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="G23" s="24" t="inlineStr">
         <is>
@@ -3593,7 +3629,7 @@
         </is>
       </c>
       <c r="H23" s="64" t="n">
-        <v>34.5</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="24">
@@ -3602,12 +3638,12 @@
       </c>
       <c r="B24" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C24" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="D24" s="24" t="inlineStr">
@@ -3616,10 +3652,10 @@
         </is>
       </c>
       <c r="E24" s="63" t="n">
-        <v>0.184008</v>
+        <v>0.138006</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="G24" s="24" t="inlineStr">
         <is>
@@ -3627,7 +3663,7 @@
         </is>
       </c>
       <c r="H24" s="64" t="n">
-        <v>71.40000000000001</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="25">
@@ -3636,12 +3672,12 @@
       </c>
       <c r="B25" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C25" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="D25" s="24" t="inlineStr">
@@ -3653,7 +3689,7 @@
         <v>0.184008</v>
       </c>
       <c r="F25" s="24" t="n">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="G25" s="24" t="inlineStr">
         <is>
@@ -3661,7 +3697,7 @@
         </is>
       </c>
       <c r="H25" s="64" t="n">
-        <v>84.09</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3670,12 +3706,12 @@
       </c>
       <c r="B26" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C26" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="D26" s="24" t="inlineStr">
@@ -3687,7 +3723,7 @@
         <v>0.184008</v>
       </c>
       <c r="F26" s="24" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G26" s="24" t="inlineStr">
         <is>
@@ -3695,7 +3731,7 @@
         </is>
       </c>
       <c r="H26" s="64" t="n">
-        <v>84.28</v>
+        <v>84.09</v>
       </c>
     </row>
     <row r="27">
@@ -3704,12 +3740,12 @@
       </c>
       <c r="B27" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C27" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="D27" s="24" t="inlineStr">
@@ -3721,7 +3757,7 @@
         <v>0.184008</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="G27" s="24" t="inlineStr">
         <is>
@@ -3729,7 +3765,7 @@
         </is>
       </c>
       <c r="H27" s="64" t="n">
-        <v>52.81</v>
+        <v>84.28</v>
       </c>
     </row>
     <row r="28">
@@ -3738,12 +3774,12 @@
       </c>
       <c r="B28" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C28" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="D28" s="24" t="inlineStr">
@@ -3755,7 +3791,7 @@
         <v>0.184008</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="G28" s="24" t="inlineStr">
         <is>
@@ -3763,7 +3799,7 @@
         </is>
       </c>
       <c r="H28" s="64" t="n">
-        <v>7.36</v>
+        <v>52.81</v>
       </c>
     </row>
     <row r="29">
@@ -3772,12 +3808,12 @@
       </c>
       <c r="B29" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C29" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="D29" s="24" t="inlineStr">
@@ -3789,7 +3825,7 @@
         <v>0.184008</v>
       </c>
       <c r="F29" s="24" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G29" s="24" t="inlineStr">
         <is>
@@ -3797,7 +3833,7 @@
         </is>
       </c>
       <c r="H29" s="64" t="n">
-        <v>11.04</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="30">
@@ -3806,12 +3842,12 @@
       </c>
       <c r="B30" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C30" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="D30" s="24" t="inlineStr">
@@ -3823,7 +3859,7 @@
         <v>0.184008</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G30" s="24" t="inlineStr">
         <is>
@@ -3831,7 +3867,7 @@
         </is>
       </c>
       <c r="H30" s="64" t="n">
-        <v>9.199999999999999</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="31">
@@ -3840,12 +3876,12 @@
       </c>
       <c r="B31" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C31" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="D31" s="24" t="inlineStr">
@@ -3874,12 +3910,12 @@
       </c>
       <c r="B32" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C32" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="D32" s="24" t="inlineStr">
@@ -3891,7 +3927,7 @@
         <v>0.184008</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G32" s="24" t="inlineStr">
         <is>
@@ -3899,7 +3935,7 @@
         </is>
       </c>
       <c r="H32" s="64" t="n">
-        <v>20.24</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3908,12 +3944,12 @@
       </c>
       <c r="B33" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C33" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="D33" s="24" t="inlineStr">
@@ -3922,18 +3958,18 @@
         </is>
       </c>
       <c r="E33" s="63" t="n">
-        <v>2.06312</v>
+        <v>0.184008</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>2040</v>
+        <v>110</v>
       </c>
       <c r="G33" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H33" s="64" t="n">
-        <v>4208.76</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="34">
@@ -3942,12 +3978,12 @@
       </c>
       <c r="B34" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C34" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="D34" s="24" t="inlineStr">
@@ -3956,10 +3992,10 @@
         </is>
       </c>
       <c r="E34" s="63" t="n">
-        <v>1.01762</v>
+        <v>2.06312</v>
       </c>
       <c r="F34" s="24" t="n">
-        <v>2800</v>
+        <v>2040</v>
       </c>
       <c r="G34" s="24" t="inlineStr">
         <is>
@@ -3967,7 +4003,7 @@
         </is>
       </c>
       <c r="H34" s="64" t="n">
-        <v>2849.34</v>
+        <v>4208.76</v>
       </c>
     </row>
     <row r="35">
@@ -3976,32 +4012,32 @@
       </c>
       <c r="B35" s="24" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C35" s="24" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="D35" s="24" t="inlineStr">
         <is>
-          <t>AT-TSSOP20-CMS</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E35" s="63" t="n">
-        <v>80.852</v>
+        <v>1.01762</v>
       </c>
       <c r="F35" s="24" t="n">
-        <v>2</v>
+        <v>2800</v>
       </c>
       <c r="G35" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H35" s="64" t="n">
-        <v>161.7</v>
+        <v>2849.34</v>
       </c>
     </row>
     <row r="36">
@@ -4010,24 +4046,24 @@
       </c>
       <c r="B36" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C36" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="D36" s="24" t="inlineStr">
         <is>
-          <t>KLV-M913A-A10</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E36" s="63" t="n">
-        <v>11.152</v>
+        <v>80.852</v>
       </c>
       <c r="F36" s="24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36" s="24" t="inlineStr">
         <is>
@@ -4035,7 +4071,7 @@
         </is>
       </c>
       <c r="H36" s="64" t="n">
-        <v>55.76</v>
+        <v>161.7</v>
       </c>
     </row>
     <row r="37">
@@ -4044,32 +4080,32 @@
       </c>
       <c r="B37" s="24" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C37" s="24" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="D37" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E37" s="63" t="n">
-        <v>161.704</v>
+        <v>11.152</v>
       </c>
       <c r="F37" s="24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" s="24" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H37" s="64" t="n">
-        <v>485.11</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="38">
@@ -4078,12 +4114,12 @@
       </c>
       <c r="B38" s="24" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C38" s="24" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="D38" s="24" t="inlineStr">
@@ -4092,18 +4128,18 @@
         </is>
       </c>
       <c r="E38" s="63" t="n">
-        <v>181.22</v>
+        <v>161.704</v>
       </c>
       <c r="F38" s="24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G38" s="24" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H38" s="64" t="n">
-        <v>2174.64</v>
+        <v>485.11</v>
       </c>
     </row>
     <row r="39">
@@ -4112,12 +4148,12 @@
       </c>
       <c r="B39" s="24" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C39" s="24" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="D39" s="24" t="inlineStr">
@@ -4126,18 +4162,18 @@
         </is>
       </c>
       <c r="E39" s="63" t="n">
-        <v>41.82</v>
+        <v>181.22</v>
       </c>
       <c r="F39" s="24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G39" s="24" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H39" s="64" t="n">
-        <v>376.38</v>
+        <v>2174.64</v>
       </c>
     </row>
     <row r="40">
@@ -4146,12 +4182,12 @@
       </c>
       <c r="B40" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C40" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="D40" s="24" t="inlineStr">
@@ -4160,18 +4196,18 @@
         </is>
       </c>
       <c r="E40" s="63" t="n">
-        <v>473.96</v>
+        <v>41.82</v>
       </c>
       <c r="F40" s="24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="24" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H40" s="64" t="n">
-        <v>4739.6</v>
+        <v>376.38</v>
       </c>
     </row>
     <row r="41">
@@ -4180,12 +4216,12 @@
       </c>
       <c r="B41" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C41" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="D41" s="24" t="inlineStr">
@@ -4194,7 +4230,7 @@
         </is>
       </c>
       <c r="E41" s="63" t="n">
-        <v>717.91</v>
+        <v>473.96</v>
       </c>
       <c r="F41" s="24" t="n">
         <v>10</v>
@@ -4205,7 +4241,7 @@
         </is>
       </c>
       <c r="H41" s="64" t="n">
-        <v>7179.1</v>
+        <v>4739.6</v>
       </c>
     </row>
     <row r="42">
@@ -4214,32 +4250,32 @@
       </c>
       <c r="B42" s="24" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C42" s="24" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="D42" s="24" t="inlineStr">
         <is>
-          <t>AEVF4</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E42" s="63" t="n">
-        <v>130.339</v>
+        <v>717.91</v>
       </c>
       <c r="F42" s="24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G42" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H42" s="64" t="n">
-        <v>130.34</v>
+        <v>7179.1</v>
       </c>
     </row>
     <row r="43">
@@ -4248,24 +4284,24 @@
       </c>
       <c r="B43" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C43" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="D43" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E43" s="63" t="n">
-        <v>3.0668</v>
+        <v>130.339</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G43" s="24" t="inlineStr">
         <is>
@@ -4273,7 +4309,7 @@
         </is>
       </c>
       <c r="H43" s="64" t="n">
-        <v>30.67</v>
+        <v>130.34</v>
       </c>
     </row>
     <row r="44">
@@ -4282,24 +4318,24 @@
       </c>
       <c r="B44" s="24" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C44" s="24" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="D44" s="24" t="inlineStr">
         <is>
-          <t>TG-205A-FU</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E44" s="63" t="n">
-        <v>48.79</v>
+        <v>3.0668</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G44" s="24" t="inlineStr">
         <is>
@@ -4307,7 +4343,7 @@
         </is>
       </c>
       <c r="H44" s="64" t="n">
-        <v>243.95</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="45">
@@ -4316,24 +4352,24 @@
       </c>
       <c r="B45" s="24" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C45" s="24" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="D45" s="24" t="inlineStr">
         <is>
-          <t>LS1D-01033</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E45" s="63" t="n">
-        <v>1.1152</v>
+        <v>48.79</v>
       </c>
       <c r="F45" s="24" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G45" s="24" t="inlineStr">
         <is>
@@ -4341,7 +4377,7 @@
         </is>
       </c>
       <c r="H45" s="64" t="n">
-        <v>557.6</v>
+        <v>243.95</v>
       </c>
     </row>
     <row r="46">
@@ -4350,24 +4386,24 @@
       </c>
       <c r="B46" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C46" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="D46" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E46" s="63" t="n">
-        <v>15.334</v>
+        <v>1.1152</v>
       </c>
       <c r="F46" s="24" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G46" s="24" t="inlineStr">
         <is>
@@ -4375,7 +4411,7 @@
         </is>
       </c>
       <c r="H46" s="64" t="n">
-        <v>61.34</v>
+        <v>557.6</v>
       </c>
     </row>
     <row r="47">
@@ -4384,12 +4420,12 @@
       </c>
       <c r="B47" s="24" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C47" s="24" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="D47" s="24" t="inlineStr">
@@ -4398,10 +4434,10 @@
         </is>
       </c>
       <c r="E47" s="63" t="n">
-        <v>25.99113</v>
+        <v>15.334</v>
       </c>
       <c r="F47" s="24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" s="24" t="inlineStr">
         <is>
@@ -4409,7 +4445,7 @@
         </is>
       </c>
       <c r="H47" s="64" t="n">
-        <v>129.96</v>
+        <v>61.34</v>
       </c>
     </row>
     <row r="48">
@@ -4418,24 +4454,24 @@
       </c>
       <c r="B48" s="24" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="C48" s="24" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="D48" s="24" t="inlineStr">
         <is>
-          <t>KYB-M7027-001</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E48" s="63" t="n">
-        <v>690.03</v>
+        <v>25.99113</v>
       </c>
       <c r="F48" s="24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G48" s="24" t="inlineStr">
         <is>
@@ -4443,7 +4479,7 @@
         </is>
       </c>
       <c r="H48" s="64" t="n">
-        <v>1380.06</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="49">
@@ -4452,24 +4488,24 @@
       </c>
       <c r="B49" s="24" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="C49" s="24" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="D49" s="24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E49" s="63" t="n">
-        <v>0.9061</v>
+        <v>690.03</v>
       </c>
       <c r="F49" s="24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G49" s="24" t="inlineStr">
         <is>
@@ -4477,7 +4513,7 @@
         </is>
       </c>
       <c r="H49" s="64" t="n">
-        <v>9.06</v>
+        <v>1380.06</v>
       </c>
     </row>
     <row r="50">
@@ -4486,12 +4522,12 @@
       </c>
       <c r="B50" s="24" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="C50" s="24" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="D50" s="24" t="inlineStr">
@@ -4520,12 +4556,12 @@
       </c>
       <c r="B51" s="24" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.020396062</t>
         </is>
       </c>
       <c r="C51" s="24" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.020396062</t>
         </is>
       </c>
       <c r="D51" s="24" t="inlineStr">
@@ -4534,10 +4570,10 @@
         </is>
       </c>
       <c r="E51" s="63" t="n">
-        <v>30.668</v>
+        <v>0.9061</v>
       </c>
       <c r="F51" s="24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G51" s="24" t="inlineStr">
         <is>
@@ -4545,7 +4581,7 @@
         </is>
       </c>
       <c r="H51" s="64" t="n">
-        <v>61.34</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="52">
@@ -4554,12 +4590,12 @@
       </c>
       <c r="B52" s="24" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.020396047</t>
         </is>
       </c>
       <c r="C52" s="24" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.020396047</t>
         </is>
       </c>
       <c r="D52" s="24" t="inlineStr">
@@ -4588,12 +4624,12 @@
       </c>
       <c r="B53" s="24" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.020396048</t>
         </is>
       </c>
       <c r="C53" s="24" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.020396048</t>
         </is>
       </c>
       <c r="D53" s="24" t="inlineStr">
@@ -4622,12 +4658,12 @@
       </c>
       <c r="B54" s="24" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.020396049</t>
         </is>
       </c>
       <c r="C54" s="24" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.020396049</t>
         </is>
       </c>
       <c r="D54" s="24" t="inlineStr">
@@ -4656,12 +4692,12 @@
       </c>
       <c r="B55" s="24" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396050</t>
         </is>
       </c>
       <c r="C55" s="24" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396050</t>
         </is>
       </c>
       <c r="D55" s="24" t="inlineStr">
@@ -4670,7 +4706,7 @@
         </is>
       </c>
       <c r="E55" s="63" t="n">
-        <v>45.7232</v>
+        <v>30.668</v>
       </c>
       <c r="F55" s="24" t="n">
         <v>2</v>
@@ -4681,7 +4717,7 @@
         </is>
       </c>
       <c r="H55" s="64" t="n">
-        <v>91.45</v>
+        <v>61.34</v>
       </c>
     </row>
     <row r="56">
@@ -4690,12 +4726,12 @@
       </c>
       <c r="B56" s="24" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>E100.020396055</t>
         </is>
       </c>
       <c r="C56" s="24" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>E100.020396055</t>
         </is>
       </c>
       <c r="D56" s="24" t="inlineStr">
@@ -4719,53 +4755,72 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="24" t="n"/>
-      <c r="B57" s="24" t="n"/>
-      <c r="C57" s="24" t="n"/>
-      <c r="D57" s="24" t="n"/>
-      <c r="E57" s="63" t="n"/>
+      <c r="A57" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="B57" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C57" s="24" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="D57" s="24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E57" s="63" t="n">
+        <v>45.7232</v>
+      </c>
       <c r="F57" s="24" t="n">
-        <v>9006</v>
-      </c>
-      <c r="G57" s="24" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="G57" s="24" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H57" s="64" t="n">
-        <v>27278.29</v>
+        <v>91.45</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="65" t="inlineStr">
+      <c r="A58" s="24" t="n"/>
+      <c r="B58" s="24" t="n"/>
+      <c r="C58" s="24" t="n"/>
+      <c r="D58" s="24" t="n"/>
+      <c r="E58" s="63" t="n"/>
+      <c r="F58" s="24" t="n">
+        <v>9506</v>
+      </c>
+      <c r="G58" s="24" t="n"/>
+      <c r="H58" s="64" t="n">
+        <v>27626.79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="65" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
-      <c r="B58" s="66" t="n"/>
-      <c r="C58" s="66" t="n"/>
-      <c r="D58" s="66" t="n"/>
-      <c r="E58" s="66" t="n"/>
-      <c r="F58" s="66" t="n"/>
-      <c r="G58" s="66" t="n"/>
-      <c r="H58" s="67" t="n"/>
-      <c r="I58" s="35" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="68" t="inlineStr">
-        <is>
-          <t>COUNTRY OF ORIGIN: CHINA</t>
-        </is>
-      </c>
-      <c r="B59" s="69" t="n"/>
-      <c r="C59" s="70" t="n"/>
-      <c r="D59" s="70" t="n"/>
-      <c r="E59" s="70" t="n"/>
-      <c r="F59" s="70" t="n"/>
-      <c r="G59" s="70" t="n"/>
-      <c r="H59" s="71" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="66" t="n"/>
+      <c r="D59" s="66" t="n"/>
+      <c r="E59" s="66" t="n"/>
+      <c r="F59" s="66" t="n"/>
+      <c r="G59" s="66" t="n"/>
+      <c r="H59" s="67" t="n"/>
       <c r="I59" s="35" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="68" t="inlineStr">
         <is>
-          <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
       <c r="B60" s="69" t="n"/>
@@ -4775,25 +4830,40 @@
       <c r="F60" s="70" t="n"/>
       <c r="G60" s="70" t="n"/>
       <c r="H60" s="71" t="n"/>
-      <c r="I60" s="72" t="n"/>
+      <c r="I60" s="35" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="73" t="inlineStr">
-        <is>
-          <t>Delivery Term:CIF</t>
-        </is>
-      </c>
-      <c r="B61" s="74" t="n"/>
+      <c r="A61" s="68" t="inlineStr">
+        <is>
+          <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+        </is>
+      </c>
+      <c r="B61" s="69" t="n"/>
       <c r="C61" s="70" t="n"/>
       <c r="D61" s="70" t="n"/>
       <c r="E61" s="70" t="n"/>
       <c r="F61" s="70" t="n"/>
       <c r="G61" s="70" t="n"/>
       <c r="H61" s="71" t="n"/>
-      <c r="I61" s="50" t="n"/>
+      <c r="I61" s="72" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="75" t="inlineStr">
+      <c r="A62" s="73" t="inlineStr">
+        <is>
+          <t>Delivery Term:CIF</t>
+        </is>
+      </c>
+      <c r="B62" s="74" t="n"/>
+      <c r="C62" s="70" t="n"/>
+      <c r="D62" s="70" t="n"/>
+      <c r="E62" s="70" t="n"/>
+      <c r="F62" s="70" t="n"/>
+      <c r="G62" s="70" t="n"/>
+      <c r="H62" s="71" t="n"/>
+      <c r="I62" s="50" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="75" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -4802,23 +4872,23 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B62" s="58" t="n"/>
-      <c r="C62" s="58" t="n"/>
-      <c r="D62" s="58" t="n"/>
-      <c r="E62" s="58" t="n"/>
-      <c r="F62" s="58" t="n"/>
-      <c r="G62" s="58" t="n"/>
-      <c r="H62" s="76" t="n"/>
-      <c r="I62" s="35" t="n"/>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="58" t="n"/>
+      <c r="D63" s="58" t="n"/>
+      <c r="E63" s="58" t="n"/>
+      <c r="F63" s="58" t="n"/>
+      <c r="G63" s="58" t="n"/>
+      <c r="H63" s="76" t="n"/>
+      <c r="I63" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A62:H62"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A59:H59"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A63:H63"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A58:H58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commercial Invoice" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -161,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -349,27 +349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -384,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,15 +431,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1311,19 +1285,19 @@
       <c r="E18" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="24" t="n">
         <v>2.04</v>
       </c>
       <c r="I18" s="24" t="n">
         <v>1.1</v>
       </c>
-      <c r="J18" s="25" t="inlineStr">
+      <c r="J18" s="24" t="inlineStr">
         <is>
           <t>F02</t>
         </is>
@@ -1347,13 +1321,15 @@
       <c r="E19" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="26" t="n"/>
-      <c r="G19" s="26" t="n"/>
-      <c r="H19" s="26" t="n"/>
+      <c r="F19" s="24" t="n"/>
+      <c r="G19" s="24" t="n"/>
+      <c r="H19" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="J19" s="26" t="n"/>
+      <c r="J19" s="24" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="24" t="n">
@@ -1373,13 +1349,15 @@
       <c r="E20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="27" t="n"/>
-      <c r="G20" s="27" t="n"/>
-      <c r="H20" s="27" t="n"/>
+      <c r="F20" s="24" t="n"/>
+      <c r="G20" s="24" t="n"/>
+      <c r="H20" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I20" s="24" t="n">
         <v>0.2</v>
       </c>
-      <c r="J20" s="27" t="n"/>
+      <c r="J20" s="24" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="24" t="n">
@@ -1435,19 +1413,19 @@
       <c r="E22" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="24" t="n">
         <v>4.3</v>
       </c>
       <c r="I22" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="25" t="inlineStr">
+      <c r="J22" s="24" t="inlineStr">
         <is>
           <t>F04</t>
         </is>
@@ -1471,13 +1449,15 @@
       <c r="E23" s="24" t="n">
         <v>137</v>
       </c>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="27" t="n"/>
-      <c r="H23" s="27" t="n"/>
+      <c r="F23" s="24" t="n"/>
+      <c r="G23" s="24" t="n"/>
+      <c r="H23" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I23" s="24" t="n">
         <v>2.1</v>
       </c>
-      <c r="J23" s="27" t="n"/>
+      <c r="J23" s="24" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="24" t="n">
@@ -1497,19 +1477,19 @@
       <c r="E24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="24" t="n">
         <v>14</v>
       </c>
       <c r="I24" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="25" t="inlineStr">
+      <c r="J24" s="24" t="inlineStr">
         <is>
           <t>F05</t>
         </is>
@@ -1533,13 +1513,15 @@
       <c r="E25" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="26" t="n"/>
-      <c r="G25" s="26" t="n"/>
-      <c r="H25" s="26" t="n"/>
+      <c r="F25" s="24" t="n"/>
+      <c r="G25" s="24" t="n"/>
+      <c r="H25" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J25" s="26" t="n"/>
+      <c r="J25" s="24" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="24" t="n">
@@ -1559,13 +1541,15 @@
       <c r="E26" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="27" t="n"/>
-      <c r="G26" s="27" t="n"/>
-      <c r="H26" s="27" t="n"/>
+      <c r="F26" s="24" t="n"/>
+      <c r="G26" s="24" t="n"/>
+      <c r="H26" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J26" s="27" t="n"/>
+      <c r="J26" s="24" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="24" t="n">
@@ -1621,19 +1605,19 @@
       <c r="E28" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="24" t="n">
         <v>7.55</v>
       </c>
       <c r="I28" s="24" t="n">
         <v>0.15</v>
       </c>
-      <c r="J28" s="25" t="inlineStr">
+      <c r="J28" s="24" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
@@ -1657,13 +1641,15 @@
       <c r="E29" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="F29" s="26" t="n"/>
-      <c r="G29" s="26" t="n"/>
-      <c r="H29" s="26" t="n"/>
+      <c r="F29" s="24" t="n"/>
+      <c r="G29" s="24" t="n"/>
+      <c r="H29" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" s="24" t="n">
         <v>2.5</v>
       </c>
-      <c r="J29" s="26" t="n"/>
+      <c r="J29" s="24" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="24" t="n">
@@ -1683,13 +1669,15 @@
       <c r="E30" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="F30" s="26" t="n"/>
-      <c r="G30" s="26" t="n"/>
-      <c r="H30" s="26" t="n"/>
+      <c r="F30" s="24" t="n"/>
+      <c r="G30" s="24" t="n"/>
+      <c r="H30" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="26" t="n"/>
+      <c r="J30" s="24" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="24" t="n">
@@ -1709,13 +1697,15 @@
       <c r="E31" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="F31" s="26" t="n"/>
-      <c r="G31" s="26" t="n"/>
-      <c r="H31" s="26" t="n"/>
+      <c r="F31" s="24" t="n"/>
+      <c r="G31" s="24" t="n"/>
+      <c r="H31" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I31" s="24" t="n">
         <v>0.2</v>
       </c>
-      <c r="J31" s="26" t="n"/>
+      <c r="J31" s="24" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="24" t="n">
@@ -1735,13 +1725,15 @@
       <c r="E32" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="F32" s="26" t="n"/>
-      <c r="G32" s="26" t="n"/>
-      <c r="H32" s="26" t="n"/>
+      <c r="F32" s="24" t="n"/>
+      <c r="G32" s="24" t="n"/>
+      <c r="H32" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" s="24" t="n">
         <v>0.2</v>
       </c>
-      <c r="J32" s="26" t="n"/>
+      <c r="J32" s="24" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="24" t="n">
@@ -1761,13 +1753,15 @@
       <c r="E33" s="24" t="n">
         <v>140</v>
       </c>
-      <c r="F33" s="26" t="n"/>
-      <c r="G33" s="26" t="n"/>
-      <c r="H33" s="26" t="n"/>
+      <c r="F33" s="24" t="n"/>
+      <c r="G33" s="24" t="n"/>
+      <c r="H33" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I33" s="24" t="n">
         <v>0.7</v>
       </c>
-      <c r="J33" s="26" t="n"/>
+      <c r="J33" s="24" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="24" t="n">
@@ -1787,13 +1781,15 @@
       <c r="E34" s="24" t="n">
         <v>250</v>
       </c>
-      <c r="F34" s="27" t="n"/>
-      <c r="G34" s="27" t="n"/>
-      <c r="H34" s="27" t="n"/>
+      <c r="F34" s="24" t="n"/>
+      <c r="G34" s="24" t="n"/>
+      <c r="H34" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I34" s="24" t="n">
         <v>1.25</v>
       </c>
-      <c r="J34" s="27" t="n"/>
+      <c r="J34" s="24" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="24" t="n">
@@ -1813,19 +1809,19 @@
       <c r="E35" s="24" t="n">
         <v>388</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="25" t="n">
+      <c r="G35" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="24" t="n">
         <v>20</v>
       </c>
       <c r="I35" s="24" t="n">
         <v>3.49</v>
       </c>
-      <c r="J35" s="25" t="inlineStr">
+      <c r="J35" s="24" t="inlineStr">
         <is>
           <t>F08</t>
         </is>
@@ -1849,13 +1845,15 @@
       <c r="E36" s="24" t="n">
         <v>457</v>
       </c>
-      <c r="F36" s="26" t="n"/>
-      <c r="G36" s="26" t="n"/>
-      <c r="H36" s="26" t="n"/>
+      <c r="F36" s="24" t="n"/>
+      <c r="G36" s="24" t="n"/>
+      <c r="H36" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I36" s="24" t="n">
         <v>4.11</v>
       </c>
-      <c r="J36" s="26" t="n"/>
+      <c r="J36" s="24" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="24" t="n">
@@ -1875,13 +1873,15 @@
       <c r="E37" s="24" t="n">
         <v>458</v>
       </c>
-      <c r="F37" s="26" t="n"/>
-      <c r="G37" s="26" t="n"/>
-      <c r="H37" s="26" t="n"/>
+      <c r="F37" s="24" t="n"/>
+      <c r="G37" s="24" t="n"/>
+      <c r="H37" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I37" s="24" t="n">
         <v>4.12</v>
       </c>
-      <c r="J37" s="26" t="n"/>
+      <c r="J37" s="24" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="24" t="n">
@@ -1901,13 +1901,15 @@
       <c r="E38" s="24" t="n">
         <v>287</v>
       </c>
-      <c r="F38" s="26" t="n"/>
-      <c r="G38" s="26" t="n"/>
-      <c r="H38" s="26" t="n"/>
+      <c r="F38" s="24" t="n"/>
+      <c r="G38" s="24" t="n"/>
+      <c r="H38" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I38" s="24" t="n">
         <v>2.58</v>
       </c>
-      <c r="J38" s="26" t="n"/>
+      <c r="J38" s="24" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="24" t="n">
@@ -1927,13 +1929,15 @@
       <c r="E39" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="F39" s="26" t="n"/>
-      <c r="G39" s="26" t="n"/>
-      <c r="H39" s="26" t="n"/>
+      <c r="F39" s="24" t="n"/>
+      <c r="G39" s="24" t="n"/>
+      <c r="H39" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I39" s="24" t="n">
         <v>0.36</v>
       </c>
-      <c r="J39" s="26" t="n"/>
+      <c r="J39" s="24" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="24" t="n">
@@ -1953,13 +1957,15 @@
       <c r="E40" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="F40" s="26" t="n"/>
-      <c r="G40" s="26" t="n"/>
-      <c r="H40" s="26" t="n"/>
+      <c r="F40" s="24" t="n"/>
+      <c r="G40" s="24" t="n"/>
+      <c r="H40" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I40" s="24" t="n">
         <v>0.54</v>
       </c>
-      <c r="J40" s="26" t="n"/>
+      <c r="J40" s="24" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="24" t="n">
@@ -1979,13 +1985,15 @@
       <c r="E41" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="F41" s="26" t="n"/>
-      <c r="G41" s="26" t="n"/>
-      <c r="H41" s="26" t="n"/>
+      <c r="F41" s="24" t="n"/>
+      <c r="G41" s="24" t="n"/>
+      <c r="H41" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I41" s="24" t="n">
         <v>0.45</v>
       </c>
-      <c r="J41" s="26" t="n"/>
+      <c r="J41" s="24" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="24" t="n">
@@ -2005,13 +2013,15 @@
       <c r="E42" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="F42" s="26" t="n"/>
-      <c r="G42" s="26" t="n"/>
-      <c r="H42" s="26" t="n"/>
+      <c r="F42" s="24" t="n"/>
+      <c r="G42" s="24" t="n"/>
+      <c r="H42" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I42" s="24" t="n">
         <v>0.45</v>
       </c>
-      <c r="J42" s="26" t="n"/>
+      <c r="J42" s="24" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="24" t="n">
@@ -2031,13 +2041,15 @@
       <c r="E43" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="F43" s="27" t="n"/>
-      <c r="G43" s="27" t="n"/>
-      <c r="H43" s="27" t="n"/>
+      <c r="F43" s="24" t="n"/>
+      <c r="G43" s="24" t="n"/>
+      <c r="H43" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I43" s="24" t="n">
         <v>0.99</v>
       </c>
-      <c r="J43" s="27" t="n"/>
+      <c r="J43" s="24" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="24" t="n">
@@ -2129,19 +2141,19 @@
       <c r="E46" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="24" t="n">
         <v>0.3</v>
       </c>
-      <c r="J46" s="25" t="inlineStr">
+      <c r="J46" s="24" t="inlineStr">
         <is>
           <t>F133</t>
         </is>
@@ -2165,13 +2177,15 @@
       <c r="E47" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="27" t="n"/>
-      <c r="G47" s="27" t="n"/>
-      <c r="H47" s="27" t="n"/>
+      <c r="F47" s="24" t="n"/>
+      <c r="G47" s="24" t="n"/>
+      <c r="H47" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I47" s="24" t="n">
         <v>0.6</v>
       </c>
-      <c r="J47" s="27" t="n"/>
+      <c r="J47" s="24" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="24" t="n">
@@ -2407,19 +2421,19 @@
       <c r="E54" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F54" s="25" t="n">
+      <c r="F54" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="24" t="n">
         <v>5</v>
       </c>
       <c r="I54" s="24" t="n">
         <v>0.09</v>
       </c>
-      <c r="J54" s="25" t="inlineStr">
+      <c r="J54" s="24" t="inlineStr">
         <is>
           <t>F167</t>
         </is>
@@ -2443,13 +2457,15 @@
       <c r="E55" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F55" s="26" t="n"/>
-      <c r="G55" s="26" t="n"/>
-      <c r="H55" s="26" t="n"/>
+      <c r="F55" s="24" t="n"/>
+      <c r="G55" s="24" t="n"/>
+      <c r="H55" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I55" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="J55" s="26" t="n"/>
+      <c r="J55" s="24" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="24" t="n">
@@ -2469,13 +2485,15 @@
       <c r="E56" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="F56" s="26" t="n"/>
-      <c r="G56" s="26" t="n"/>
-      <c r="H56" s="26" t="n"/>
+      <c r="F56" s="24" t="n"/>
+      <c r="G56" s="24" t="n"/>
+      <c r="H56" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I56" s="24" t="n">
         <v>4.5</v>
       </c>
-      <c r="J56" s="26" t="n"/>
+      <c r="J56" s="24" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="24" t="n">
@@ -2495,13 +2513,15 @@
       <c r="E57" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F57" s="26" t="n"/>
-      <c r="G57" s="26" t="n"/>
-      <c r="H57" s="26" t="n"/>
+      <c r="F57" s="24" t="n"/>
+      <c r="G57" s="24" t="n"/>
+      <c r="H57" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I57" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="J57" s="26" t="n"/>
+      <c r="J57" s="24" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="24" t="n">
@@ -2521,13 +2541,15 @@
       <c r="E58" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="26" t="n"/>
-      <c r="G58" s="26" t="n"/>
-      <c r="H58" s="26" t="n"/>
+      <c r="F58" s="24" t="n"/>
+      <c r="G58" s="24" t="n"/>
+      <c r="H58" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I58" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="J58" s="26" t="n"/>
+      <c r="J58" s="24" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="24" t="n">
@@ -2547,13 +2569,15 @@
       <c r="E59" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F59" s="26" t="n"/>
-      <c r="G59" s="26" t="n"/>
-      <c r="H59" s="26" t="n"/>
+      <c r="F59" s="24" t="n"/>
+      <c r="G59" s="24" t="n"/>
+      <c r="H59" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I59" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="J59" s="26" t="n"/>
+      <c r="J59" s="24" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="24" t="n">
@@ -2573,13 +2597,15 @@
       <c r="E60" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F60" s="26" t="n"/>
-      <c r="G60" s="26" t="n"/>
-      <c r="H60" s="26" t="n"/>
+      <c r="F60" s="24" t="n"/>
+      <c r="G60" s="24" t="n"/>
+      <c r="H60" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I60" s="24" t="n">
         <v>0.09</v>
       </c>
-      <c r="J60" s="26" t="n"/>
+      <c r="J60" s="24" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="24" t="n">
@@ -2599,13 +2625,15 @@
       <c r="E61" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F61" s="26" t="n"/>
-      <c r="G61" s="26" t="n"/>
-      <c r="H61" s="26" t="n"/>
+      <c r="F61" s="24" t="n"/>
+      <c r="G61" s="24" t="n"/>
+      <c r="H61" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I61" s="24" t="n">
         <v>0.09</v>
       </c>
-      <c r="J61" s="26" t="n"/>
+      <c r="J61" s="24" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="24" t="n">
@@ -2625,13 +2653,15 @@
       <c r="E62" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F62" s="26" t="n"/>
-      <c r="G62" s="26" t="n"/>
-      <c r="H62" s="26" t="n"/>
+      <c r="F62" s="24" t="n"/>
+      <c r="G62" s="24" t="n"/>
+      <c r="H62" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I62" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="J62" s="26" t="n"/>
+      <c r="J62" s="24" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="24" t="n">
@@ -2651,13 +2681,15 @@
       <c r="E63" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F63" s="26" t="n"/>
-      <c r="G63" s="26" t="n"/>
-      <c r="H63" s="26" t="n"/>
+      <c r="F63" s="24" t="n"/>
+      <c r="G63" s="24" t="n"/>
+      <c r="H63" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I63" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="J63" s="26" t="n"/>
+      <c r="J63" s="24" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="24" t="n">
@@ -2677,13 +2709,15 @@
       <c r="E64" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F64" s="26" t="n"/>
-      <c r="G64" s="26" t="n"/>
-      <c r="H64" s="26" t="n"/>
+      <c r="F64" s="24" t="n"/>
+      <c r="G64" s="24" t="n"/>
+      <c r="H64" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I64" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="J64" s="26" t="n"/>
+      <c r="J64" s="24" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="24" t="n">
@@ -2703,13 +2737,15 @@
       <c r="E65" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F65" s="27" t="n"/>
-      <c r="G65" s="27" t="n"/>
-      <c r="H65" s="27" t="n"/>
+      <c r="F65" s="24" t="n"/>
+      <c r="G65" s="24" t="n"/>
+      <c r="H65" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I65" s="24" t="n">
         <v>0.02</v>
       </c>
-      <c r="J65" s="27" t="n"/>
+      <c r="J65" s="24" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="24" t="n">
@@ -2729,19 +2765,19 @@
       <c r="E66" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F66" s="25" t="n">
+      <c r="F66" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="G66" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="H66" s="25" t="n">
+      <c r="H66" s="24" t="n">
         <v>9</v>
       </c>
       <c r="I66" s="24" t="n">
         <v>4.2</v>
       </c>
-      <c r="J66" s="25" t="inlineStr">
+      <c r="J66" s="24" t="inlineStr">
         <is>
           <t>F168</t>
         </is>
@@ -2765,13 +2801,15 @@
       <c r="E67" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F67" s="27" t="n"/>
-      <c r="G67" s="27" t="n"/>
-      <c r="H67" s="27" t="n"/>
+      <c r="F67" s="24" t="n"/>
+      <c r="G67" s="24" t="n"/>
+      <c r="H67" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I67" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="J67" s="27" t="n"/>
+      <c r="J67" s="24" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="24" t="n"/>
@@ -2796,130 +2834,98 @@
       <c r="J68" s="24" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="28" t="inlineStr">
+      <c r="A69" s="25" t="inlineStr">
         <is>
           <t>PACKED IN 168 PACKAGES ONLY.</t>
         </is>
       </c>
-      <c r="B69" s="29" t="n"/>
-      <c r="C69" s="30" t="n"/>
-      <c r="D69" s="30" t="n"/>
-      <c r="E69" s="30" t="n"/>
-      <c r="F69" s="30" t="n"/>
-      <c r="G69" s="30" t="n"/>
-      <c r="H69" s="31" t="n"/>
-      <c r="I69" s="30" t="n"/>
-      <c r="J69" s="32" t="n"/>
+      <c r="B69" s="26" t="n"/>
+      <c r="C69" s="27" t="n"/>
+      <c r="D69" s="27" t="n"/>
+      <c r="E69" s="27" t="n"/>
+      <c r="F69" s="27" t="n"/>
+      <c r="G69" s="27" t="n"/>
+      <c r="H69" s="28" t="n"/>
+      <c r="I69" s="27" t="n"/>
+      <c r="J69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="33" t="inlineStr">
+      <c r="A70" s="30" t="inlineStr">
         <is>
           <t>NET WEIGHT: 3156.66  KGS</t>
         </is>
       </c>
-      <c r="B70" s="34" t="n"/>
-      <c r="C70" s="35" t="n"/>
-      <c r="D70" s="35" t="n"/>
-      <c r="E70" s="35" t="n"/>
-      <c r="F70" s="35" t="n"/>
-      <c r="G70" s="35" t="n"/>
-      <c r="H70" s="36" t="n"/>
-      <c r="I70" s="35" t="n"/>
-      <c r="J70" s="37" t="n"/>
+      <c r="B70" s="31" t="n"/>
+      <c r="C70" s="32" t="n"/>
+      <c r="D70" s="32" t="n"/>
+      <c r="E70" s="32" t="n"/>
+      <c r="F70" s="32" t="n"/>
+      <c r="G70" s="32" t="n"/>
+      <c r="H70" s="33" t="n"/>
+      <c r="I70" s="32" t="n"/>
+      <c r="J70" s="34" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="33" t="inlineStr">
+      <c r="A71" s="30" t="inlineStr">
         <is>
           <t>GROSS WEIGHT:  3374.84 KGS</t>
         </is>
       </c>
-      <c r="B71" s="34" t="n"/>
-      <c r="C71" s="35" t="n"/>
-      <c r="D71" s="35" t="n"/>
-      <c r="E71" s="35" t="n"/>
-      <c r="F71" s="35" t="n"/>
-      <c r="G71" s="35" t="n"/>
-      <c r="H71" s="36" t="n"/>
-      <c r="I71" s="35" t="n"/>
-      <c r="J71" s="37" t="n"/>
+      <c r="B71" s="31" t="n"/>
+      <c r="C71" s="32" t="n"/>
+      <c r="D71" s="32" t="n"/>
+      <c r="E71" s="32" t="n"/>
+      <c r="F71" s="32" t="n"/>
+      <c r="G71" s="32" t="n"/>
+      <c r="H71" s="33" t="n"/>
+      <c r="I71" s="32" t="n"/>
+      <c r="J71" s="34" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="33" t="inlineStr">
+      <c r="A72" s="30" t="inlineStr">
         <is>
           <t>TOTAL MEASUREMENT:18.32 CBM</t>
         </is>
       </c>
-      <c r="B72" s="34" t="n"/>
-      <c r="C72" s="35" t="n"/>
-      <c r="D72" s="35" t="n"/>
-      <c r="E72" s="35" t="n"/>
-      <c r="F72" s="35" t="n"/>
-      <c r="G72" s="35" t="n"/>
-      <c r="H72" s="36" t="n"/>
-      <c r="I72" s="35" t="n"/>
-      <c r="J72" s="37" t="n"/>
+      <c r="B72" s="31" t="n"/>
+      <c r="C72" s="32" t="n"/>
+      <c r="D72" s="32" t="n"/>
+      <c r="E72" s="32" t="n"/>
+      <c r="F72" s="32" t="n"/>
+      <c r="G72" s="32" t="n"/>
+      <c r="H72" s="33" t="n"/>
+      <c r="I72" s="32" t="n"/>
+      <c r="J72" s="34" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="38" t="inlineStr">
+      <c r="A73" s="35" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B73" s="39" t="n"/>
-      <c r="C73" s="40" t="n"/>
-      <c r="D73" s="40" t="n"/>
-      <c r="E73" s="40" t="n"/>
-      <c r="F73" s="40" t="n"/>
-      <c r="G73" s="40" t="n"/>
-      <c r="H73" s="41" t="n"/>
-      <c r="I73" s="40" t="n"/>
-      <c r="J73" s="42" t="n"/>
+      <c r="B73" s="36" t="n"/>
+      <c r="C73" s="37" t="n"/>
+      <c r="D73" s="37" t="n"/>
+      <c r="E73" s="37" t="n"/>
+      <c r="F73" s="37" t="n"/>
+      <c r="G73" s="37" t="n"/>
+      <c r="H73" s="38" t="n"/>
+      <c r="I73" s="37" t="n"/>
+      <c r="J73" s="39" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="11">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G66:G67"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C10"/>
-    <mergeCell ref="F35:F43"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F54:F65"/>
-    <mergeCell ref="J35:J43"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H28:H34"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H54:H65"/>
-    <mergeCell ref="G35:G43"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J54:J65"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H35:H43"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G54:G65"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2951,35 +2957,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="inlineStr">
+      <c r="A1" s="40" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
-      <c r="B1" s="44" t="n"/>
-      <c r="C1" s="44" t="n"/>
-      <c r="D1" s="44" t="n"/>
-      <c r="E1" s="44" t="n"/>
-      <c r="F1" s="44" t="n"/>
-      <c r="G1" s="44" t="n"/>
-      <c r="H1" s="45" t="n"/>
+      <c r="B1" s="41" t="n"/>
+      <c r="C1" s="41" t="n"/>
+      <c r="D1" s="41" t="n"/>
+      <c r="E1" s="41" t="n"/>
+      <c r="F1" s="41" t="n"/>
+      <c r="G1" s="41" t="n"/>
+      <c r="H1" s="42" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="inlineStr">
+      <c r="A2" s="43" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
-      <c r="B2" s="44" t="n"/>
-      <c r="C2" s="44" t="n"/>
-      <c r="D2" s="44" t="n"/>
-      <c r="E2" s="44" t="n"/>
-      <c r="F2" s="44" t="n"/>
-      <c r="G2" s="44" t="n"/>
-      <c r="H2" s="45" t="n"/>
+      <c r="B2" s="41" t="n"/>
+      <c r="C2" s="41" t="n"/>
+      <c r="D2" s="41" t="n"/>
+      <c r="E2" s="41" t="n"/>
+      <c r="F2" s="41" t="n"/>
+      <c r="G2" s="41" t="n"/>
+      <c r="H2" s="42" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
@@ -2993,58 +2999,58 @@
       <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="inlineStr">
+      <c r="A4" s="45" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="49" t="n"/>
-      <c r="C4" s="49" t="n"/>
-      <c r="D4" s="49" t="n"/>
-      <c r="E4" s="50" t="n"/>
-      <c r="F4" s="49" t="inlineStr">
+      <c r="B4" s="46" t="n"/>
+      <c r="C4" s="46" t="n"/>
+      <c r="D4" s="46" t="n"/>
+      <c r="E4" s="47" t="n"/>
+      <c r="F4" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">CI No.: </t>
         </is>
       </c>
-      <c r="G4" s="49" t="inlineStr">
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>CXCI2025012201</t>
         </is>
       </c>
-      <c r="H4" s="51" t="n"/>
+      <c r="H4" s="48" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="inlineStr">
+      <c r="A5" s="49" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D5" s="53" t="n"/>
-      <c r="E5" s="50" t="n"/>
-      <c r="F5" s="54" t="inlineStr">
+      <c r="D5" s="50" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="51" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="55" t="n">
+      <c r="G5" s="52" t="n">
         <v>45679</v>
       </c>
-      <c r="H5" s="56" t="n"/>
+      <c r="H5" s="53" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="57" t="n"/>
-      <c r="B6" s="58" t="n"/>
-      <c r="C6" s="58" t="n"/>
-      <c r="D6" s="59" t="n"/>
-      <c r="E6" s="60" t="n"/>
-      <c r="F6" s="61" t="inlineStr">
+      <c r="A6" s="54" t="n"/>
+      <c r="B6" s="55" t="n"/>
+      <c r="C6" s="55" t="n"/>
+      <c r="D6" s="56" t="n"/>
+      <c r="E6" s="57" t="n"/>
+      <c r="F6" s="58" t="inlineStr">
         <is>
           <t>PO No.:</t>
         </is>
       </c>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="62" t="n"/>
+      <c r="G6" s="58" t="n"/>
+      <c r="H6" s="59" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -3107,7 +3113,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E8" s="63" t="n">
+      <c r="E8" s="60" t="n">
         <v>0.697</v>
       </c>
       <c r="F8" s="24" t="n">
@@ -3118,7 +3124,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="64" t="n">
+      <c r="H8" s="61" t="n">
         <v>348.5</v>
       </c>
     </row>
@@ -3141,7 +3147,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E9" s="63" t="n">
+      <c r="E9" s="60" t="n">
         <v>15.334</v>
       </c>
       <c r="F9" s="24" t="n">
@@ -3152,7 +3158,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="64" t="n">
+      <c r="H9" s="61" t="n">
         <v>92</v>
       </c>
     </row>
@@ -3175,7 +3181,7 @@
           <t>12-14</t>
         </is>
       </c>
-      <c r="E10" s="63" t="n">
+      <c r="E10" s="60" t="n">
         <v>10.8732</v>
       </c>
       <c r="F10" s="24" t="n">
@@ -3186,7 +3192,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="64" t="n">
+      <c r="H10" s="61" t="n">
         <v>21.75</v>
       </c>
     </row>
@@ -3209,7 +3215,7 @@
           <t>8-14</t>
         </is>
       </c>
-      <c r="E11" s="63" t="n">
+      <c r="E11" s="60" t="n">
         <v>10.8732</v>
       </c>
       <c r="F11" s="24" t="n">
@@ -3220,7 +3226,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="64" t="n">
+      <c r="H11" s="61" t="n">
         <v>10.87</v>
       </c>
     </row>
@@ -3243,7 +3249,7 @@
           <t>QLDZ.0014</t>
         </is>
       </c>
-      <c r="E12" s="63" t="n">
+      <c r="E12" s="60" t="n">
         <v>3.15044</v>
       </c>
       <c r="F12" s="24" t="n">
@@ -3254,7 +3260,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="64" t="n">
+      <c r="H12" s="61" t="n">
         <v>315.04</v>
       </c>
     </row>
@@ -3277,7 +3283,7 @@
           <t>N510059196AA</t>
         </is>
       </c>
-      <c r="E13" s="63" t="n">
+      <c r="E13" s="60" t="n">
         <v>0.11152</v>
       </c>
       <c r="F13" s="24" t="n">
@@ -3288,7 +3294,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="64" t="n">
+      <c r="H13" s="61" t="n">
         <v>15.28</v>
       </c>
     </row>
@@ -3311,7 +3317,7 @@
           <t>FA2P5N1W20360133</t>
         </is>
       </c>
-      <c r="E14" s="63" t="n">
+      <c r="E14" s="60" t="n">
         <v>158.916</v>
       </c>
       <c r="F14" s="24" t="n">
@@ -3322,7 +3328,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="64" t="n">
+      <c r="H14" s="61" t="n">
         <v>158.92</v>
       </c>
     </row>
@@ -3345,7 +3351,7 @@
           <t>STM86118S</t>
         </is>
       </c>
-      <c r="E15" s="63" t="n">
+      <c r="E15" s="60" t="n">
         <v>32.062</v>
       </c>
       <c r="F15" s="24" t="n">
@@ -3356,7 +3362,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="64" t="n">
+      <c r="H15" s="61" t="n">
         <v>32.06</v>
       </c>
     </row>
@@ -3379,7 +3385,7 @@
           <t>STM8680</t>
         </is>
       </c>
-      <c r="E16" s="63" t="n">
+      <c r="E16" s="60" t="n">
         <v>25.789</v>
       </c>
       <c r="F16" s="24" t="n">
@@ -3390,7 +3396,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="64" t="n">
+      <c r="H16" s="61" t="n">
         <v>77.37</v>
       </c>
     </row>
@@ -3413,7 +3419,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E17" s="63" t="n">
+      <c r="E17" s="60" t="n">
         <v>48.79</v>
       </c>
       <c r="F17" s="24" t="n">
@@ -3424,7 +3430,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="64" t="n">
+      <c r="H17" s="61" t="n">
         <v>243.95</v>
       </c>
     </row>
@@ -3447,7 +3453,7 @@
           <t>900M-T-sk</t>
         </is>
       </c>
-      <c r="E18" s="63" t="n">
+      <c r="E18" s="60" t="n">
         <v>0.697</v>
       </c>
       <c r="F18" s="24" t="n">
@@ -3458,7 +3464,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="64" t="n">
+      <c r="H18" s="61" t="n">
         <v>20.91</v>
       </c>
     </row>
@@ -3481,7 +3487,7 @@
           <t>900M-T-B</t>
         </is>
       </c>
-      <c r="E19" s="63" t="n">
+      <c r="E19" s="60" t="n">
         <v>0.697</v>
       </c>
       <c r="F19" s="24" t="n">
@@ -3492,7 +3498,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="64" t="n">
+      <c r="H19" s="61" t="n">
         <v>348.5</v>
       </c>
     </row>
@@ -3515,7 +3521,7 @@
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E20" s="63" t="n">
+      <c r="E20" s="60" t="n">
         <v>0.697</v>
       </c>
       <c r="F20" s="24" t="n">
@@ -3526,7 +3532,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="64" t="n">
+      <c r="H20" s="61" t="n">
         <v>278.8</v>
       </c>
     </row>
@@ -3549,7 +3555,7 @@
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E21" s="63" t="n">
+      <c r="E21" s="60" t="n">
         <v>0.697</v>
       </c>
       <c r="F21" s="24" t="n">
@@ -3560,7 +3566,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="64" t="n">
+      <c r="H21" s="61" t="n">
         <v>27.88</v>
       </c>
     </row>
@@ -3583,7 +3589,7 @@
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E22" s="63" t="n">
+      <c r="E22" s="60" t="n">
         <v>0.4182</v>
       </c>
       <c r="F22" s="24" t="n">
@@ -3594,7 +3600,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="64" t="n">
+      <c r="H22" s="61" t="n">
         <v>16.73</v>
       </c>
     </row>
@@ -3617,7 +3623,7 @@
           <t>WRNT-013</t>
         </is>
       </c>
-      <c r="E23" s="63" t="n">
+      <c r="E23" s="60" t="n">
         <v>0.16728</v>
       </c>
       <c r="F23" s="24" t="n">
@@ -3628,7 +3634,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="64" t="n">
+      <c r="H23" s="61" t="n">
         <v>23.42</v>
       </c>
     </row>
@@ -3651,7 +3657,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E24" s="63" t="n">
+      <c r="E24" s="60" t="n">
         <v>0.138006</v>
       </c>
       <c r="F24" s="24" t="n">
@@ -3662,7 +3668,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="64" t="n">
+      <c r="H24" s="61" t="n">
         <v>34.5</v>
       </c>
     </row>
@@ -3685,7 +3691,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E25" s="63" t="n">
+      <c r="E25" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F25" s="24" t="n">
@@ -3696,7 +3702,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="64" t="n">
+      <c r="H25" s="61" t="n">
         <v>71.40000000000001</v>
       </c>
     </row>
@@ -3719,7 +3725,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E26" s="63" t="n">
+      <c r="E26" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F26" s="24" t="n">
@@ -3730,7 +3736,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="64" t="n">
+      <c r="H26" s="61" t="n">
         <v>84.09</v>
       </c>
     </row>
@@ -3753,7 +3759,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E27" s="63" t="n">
+      <c r="E27" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F27" s="24" t="n">
@@ -3764,7 +3770,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="64" t="n">
+      <c r="H27" s="61" t="n">
         <v>84.28</v>
       </c>
     </row>
@@ -3787,7 +3793,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E28" s="63" t="n">
+      <c r="E28" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F28" s="24" t="n">
@@ -3798,7 +3804,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="64" t="n">
+      <c r="H28" s="61" t="n">
         <v>52.81</v>
       </c>
     </row>
@@ -3821,7 +3827,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E29" s="63" t="n">
+      <c r="E29" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F29" s="24" t="n">
@@ -3832,7 +3838,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="64" t="n">
+      <c r="H29" s="61" t="n">
         <v>7.36</v>
       </c>
     </row>
@@ -3855,7 +3861,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E30" s="63" t="n">
+      <c r="E30" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F30" s="24" t="n">
@@ -3866,7 +3872,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="64" t="n">
+      <c r="H30" s="61" t="n">
         <v>11.04</v>
       </c>
     </row>
@@ -3889,7 +3895,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E31" s="63" t="n">
+      <c r="E31" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F31" s="24" t="n">
@@ -3900,7 +3906,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="64" t="n">
+      <c r="H31" s="61" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -3923,7 +3929,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E32" s="63" t="n">
+      <c r="E32" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F32" s="24" t="n">
@@ -3934,7 +3940,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H32" s="64" t="n">
+      <c r="H32" s="61" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -3957,7 +3963,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E33" s="63" t="n">
+      <c r="E33" s="60" t="n">
         <v>0.184008</v>
       </c>
       <c r="F33" s="24" t="n">
@@ -3968,7 +3974,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H33" s="64" t="n">
+      <c r="H33" s="61" t="n">
         <v>20.24</v>
       </c>
     </row>
@@ -3991,7 +3997,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E34" s="63" t="n">
+      <c r="E34" s="60" t="n">
         <v>2.06312</v>
       </c>
       <c r="F34" s="24" t="n">
@@ -4002,7 +4008,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H34" s="64" t="n">
+      <c r="H34" s="61" t="n">
         <v>4208.76</v>
       </c>
     </row>
@@ -4025,7 +4031,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E35" s="63" t="n">
+      <c r="E35" s="60" t="n">
         <v>1.01762</v>
       </c>
       <c r="F35" s="24" t="n">
@@ -4036,7 +4042,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H35" s="64" t="n">
+      <c r="H35" s="61" t="n">
         <v>2849.34</v>
       </c>
     </row>
@@ -4059,7 +4065,7 @@
           <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
-      <c r="E36" s="63" t="n">
+      <c r="E36" s="60" t="n">
         <v>80.852</v>
       </c>
       <c r="F36" s="24" t="n">
@@ -4070,7 +4076,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H36" s="64" t="n">
+      <c r="H36" s="61" t="n">
         <v>161.7</v>
       </c>
     </row>
@@ -4093,7 +4099,7 @@
           <t>KLV-M913A-A10</t>
         </is>
       </c>
-      <c r="E37" s="63" t="n">
+      <c r="E37" s="60" t="n">
         <v>11.152</v>
       </c>
       <c r="F37" s="24" t="n">
@@ -4104,7 +4110,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H37" s="64" t="n">
+      <c r="H37" s="61" t="n">
         <v>55.76</v>
       </c>
     </row>
@@ -4127,7 +4133,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E38" s="63" t="n">
+      <c r="E38" s="60" t="n">
         <v>161.704</v>
       </c>
       <c r="F38" s="24" t="n">
@@ -4138,7 +4144,7 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H38" s="64" t="n">
+      <c r="H38" s="61" t="n">
         <v>485.11</v>
       </c>
     </row>
@@ -4161,7 +4167,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E39" s="63" t="n">
+      <c r="E39" s="60" t="n">
         <v>181.22</v>
       </c>
       <c r="F39" s="24" t="n">
@@ -4172,7 +4178,7 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H39" s="64" t="n">
+      <c r="H39" s="61" t="n">
         <v>2174.64</v>
       </c>
     </row>
@@ -4195,7 +4201,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E40" s="63" t="n">
+      <c r="E40" s="60" t="n">
         <v>41.82</v>
       </c>
       <c r="F40" s="24" t="n">
@@ -4206,7 +4212,7 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H40" s="64" t="n">
+      <c r="H40" s="61" t="n">
         <v>376.38</v>
       </c>
     </row>
@@ -4229,7 +4235,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E41" s="63" t="n">
+      <c r="E41" s="60" t="n">
         <v>473.96</v>
       </c>
       <c r="F41" s="24" t="n">
@@ -4240,7 +4246,7 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H41" s="64" t="n">
+      <c r="H41" s="61" t="n">
         <v>4739.6</v>
       </c>
     </row>
@@ -4263,7 +4269,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E42" s="63" t="n">
+      <c r="E42" s="60" t="n">
         <v>717.91</v>
       </c>
       <c r="F42" s="24" t="n">
@@ -4274,7 +4280,7 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H42" s="64" t="n">
+      <c r="H42" s="61" t="n">
         <v>7179.1</v>
       </c>
     </row>
@@ -4297,7 +4303,7 @@
           <t>AEVF4</t>
         </is>
       </c>
-      <c r="E43" s="63" t="n">
+      <c r="E43" s="60" t="n">
         <v>130.339</v>
       </c>
       <c r="F43" s="24" t="n">
@@ -4308,7 +4314,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H43" s="64" t="n">
+      <c r="H43" s="61" t="n">
         <v>130.34</v>
       </c>
     </row>
@@ -4331,7 +4337,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E44" s="63" t="n">
+      <c r="E44" s="60" t="n">
         <v>3.0668</v>
       </c>
       <c r="F44" s="24" t="n">
@@ -4342,7 +4348,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H44" s="64" t="n">
+      <c r="H44" s="61" t="n">
         <v>30.67</v>
       </c>
     </row>
@@ -4365,7 +4371,7 @@
           <t>TG-205A-FU</t>
         </is>
       </c>
-      <c r="E45" s="63" t="n">
+      <c r="E45" s="60" t="n">
         <v>48.79</v>
       </c>
       <c r="F45" s="24" t="n">
@@ -4376,7 +4382,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H45" s="64" t="n">
+      <c r="H45" s="61" t="n">
         <v>243.95</v>
       </c>
     </row>
@@ -4399,7 +4405,7 @@
           <t>LS1D-01033</t>
         </is>
       </c>
-      <c r="E46" s="63" t="n">
+      <c r="E46" s="60" t="n">
         <v>1.1152</v>
       </c>
       <c r="F46" s="24" t="n">
@@ -4410,7 +4416,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H46" s="64" t="n">
+      <c r="H46" s="61" t="n">
         <v>557.6</v>
       </c>
     </row>
@@ -4433,7 +4439,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E47" s="63" t="n">
+      <c r="E47" s="60" t="n">
         <v>15.334</v>
       </c>
       <c r="F47" s="24" t="n">
@@ -4444,7 +4450,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H47" s="64" t="n">
+      <c r="H47" s="61" t="n">
         <v>61.34</v>
       </c>
     </row>
@@ -4467,7 +4473,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E48" s="63" t="n">
+      <c r="E48" s="60" t="n">
         <v>25.99113</v>
       </c>
       <c r="F48" s="24" t="n">
@@ -4478,7 +4484,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H48" s="64" t="n">
+      <c r="H48" s="61" t="n">
         <v>129.96</v>
       </c>
     </row>
@@ -4501,7 +4507,7 @@
           <t>KYB-M7027-001</t>
         </is>
       </c>
-      <c r="E49" s="63" t="n">
+      <c r="E49" s="60" t="n">
         <v>690.03</v>
       </c>
       <c r="F49" s="24" t="n">
@@ -4512,7 +4518,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H49" s="64" t="n">
+      <c r="H49" s="61" t="n">
         <v>1380.06</v>
       </c>
     </row>
@@ -4535,7 +4541,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E50" s="63" t="n">
+      <c r="E50" s="60" t="n">
         <v>0.9061</v>
       </c>
       <c r="F50" s="24" t="n">
@@ -4546,7 +4552,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H50" s="64" t="n">
+      <c r="H50" s="61" t="n">
         <v>9.06</v>
       </c>
     </row>
@@ -4569,7 +4575,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E51" s="63" t="n">
+      <c r="E51" s="60" t="n">
         <v>0.9061</v>
       </c>
       <c r="F51" s="24" t="n">
@@ -4580,7 +4586,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H51" s="64" t="n">
+      <c r="H51" s="61" t="n">
         <v>9.06</v>
       </c>
     </row>
@@ -4603,7 +4609,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E52" s="63" t="n">
+      <c r="E52" s="60" t="n">
         <v>30.668</v>
       </c>
       <c r="F52" s="24" t="n">
@@ -4614,7 +4620,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H52" s="64" t="n">
+      <c r="H52" s="61" t="n">
         <v>61.34</v>
       </c>
     </row>
@@ -4637,7 +4643,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E53" s="63" t="n">
+      <c r="E53" s="60" t="n">
         <v>30.668</v>
       </c>
       <c r="F53" s="24" t="n">
@@ -4648,7 +4654,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H53" s="64" t="n">
+      <c r="H53" s="61" t="n">
         <v>61.34</v>
       </c>
     </row>
@@ -4671,7 +4677,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E54" s="63" t="n">
+      <c r="E54" s="60" t="n">
         <v>30.668</v>
       </c>
       <c r="F54" s="24" t="n">
@@ -4682,7 +4688,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H54" s="64" t="n">
+      <c r="H54" s="61" t="n">
         <v>61.34</v>
       </c>
     </row>
@@ -4705,7 +4711,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E55" s="63" t="n">
+      <c r="E55" s="60" t="n">
         <v>30.668</v>
       </c>
       <c r="F55" s="24" t="n">
@@ -4716,7 +4722,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H55" s="64" t="n">
+      <c r="H55" s="61" t="n">
         <v>61.34</v>
       </c>
     </row>
@@ -4739,7 +4745,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E56" s="63" t="n">
+      <c r="E56" s="60" t="n">
         <v>45.7232</v>
       </c>
       <c r="F56" s="24" t="n">
@@ -4750,7 +4756,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H56" s="64" t="n">
+      <c r="H56" s="61" t="n">
         <v>91.45</v>
       </c>
     </row>
@@ -4773,7 +4779,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E57" s="63" t="n">
+      <c r="E57" s="60" t="n">
         <v>45.7232</v>
       </c>
       <c r="F57" s="24" t="n">
@@ -4784,7 +4790,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H57" s="64" t="n">
+      <c r="H57" s="61" t="n">
         <v>91.45</v>
       </c>
     </row>
@@ -4793,77 +4799,77 @@
       <c r="B58" s="24" t="n"/>
       <c r="C58" s="24" t="n"/>
       <c r="D58" s="24" t="n"/>
-      <c r="E58" s="63" t="n"/>
+      <c r="E58" s="60" t="n"/>
       <c r="F58" s="24" t="n">
         <v>9506</v>
       </c>
       <c r="G58" s="24" t="n"/>
-      <c r="H58" s="64" t="n">
+      <c r="H58" s="61" t="n">
         <v>27626.79</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="65" t="inlineStr">
+      <c r="A59" s="62" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
-      <c r="B59" s="66" t="n"/>
-      <c r="C59" s="66" t="n"/>
-      <c r="D59" s="66" t="n"/>
-      <c r="E59" s="66" t="n"/>
-      <c r="F59" s="66" t="n"/>
-      <c r="G59" s="66" t="n"/>
-      <c r="H59" s="67" t="n"/>
-      <c r="I59" s="35" t="n"/>
+      <c r="B59" s="63" t="n"/>
+      <c r="C59" s="63" t="n"/>
+      <c r="D59" s="63" t="n"/>
+      <c r="E59" s="63" t="n"/>
+      <c r="F59" s="63" t="n"/>
+      <c r="G59" s="63" t="n"/>
+      <c r="H59" s="64" t="n"/>
+      <c r="I59" s="32" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="68" t="inlineStr">
+      <c r="A60" s="65" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B60" s="69" t="n"/>
-      <c r="C60" s="70" t="n"/>
-      <c r="D60" s="70" t="n"/>
-      <c r="E60" s="70" t="n"/>
-      <c r="F60" s="70" t="n"/>
-      <c r="G60" s="70" t="n"/>
-      <c r="H60" s="71" t="n"/>
-      <c r="I60" s="35" t="n"/>
+      <c r="B60" s="66" t="n"/>
+      <c r="C60" s="67" t="n"/>
+      <c r="D60" s="67" t="n"/>
+      <c r="E60" s="67" t="n"/>
+      <c r="F60" s="67" t="n"/>
+      <c r="G60" s="67" t="n"/>
+      <c r="H60" s="68" t="n"/>
+      <c r="I60" s="32" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="68" t="inlineStr">
+      <c r="A61" s="65" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B61" s="69" t="n"/>
-      <c r="C61" s="70" t="n"/>
-      <c r="D61" s="70" t="n"/>
-      <c r="E61" s="70" t="n"/>
-      <c r="F61" s="70" t="n"/>
-      <c r="G61" s="70" t="n"/>
-      <c r="H61" s="71" t="n"/>
-      <c r="I61" s="72" t="n"/>
+      <c r="B61" s="66" t="n"/>
+      <c r="C61" s="67" t="n"/>
+      <c r="D61" s="67" t="n"/>
+      <c r="E61" s="67" t="n"/>
+      <c r="F61" s="67" t="n"/>
+      <c r="G61" s="67" t="n"/>
+      <c r="H61" s="68" t="n"/>
+      <c r="I61" s="69" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="73" t="inlineStr">
+      <c r="A62" s="70" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B62" s="74" t="n"/>
-      <c r="C62" s="70" t="n"/>
-      <c r="D62" s="70" t="n"/>
-      <c r="E62" s="70" t="n"/>
-      <c r="F62" s="70" t="n"/>
-      <c r="G62" s="70" t="n"/>
-      <c r="H62" s="71" t="n"/>
-      <c r="I62" s="50" t="n"/>
+      <c r="B62" s="71" t="n"/>
+      <c r="C62" s="67" t="n"/>
+      <c r="D62" s="67" t="n"/>
+      <c r="E62" s="67" t="n"/>
+      <c r="F62" s="67" t="n"/>
+      <c r="G62" s="67" t="n"/>
+      <c r="H62" s="68" t="n"/>
+      <c r="I62" s="47" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="75" t="inlineStr">
+      <c r="A63" s="72" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -4872,14 +4878,14 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B63" s="58" t="n"/>
-      <c r="C63" s="58" t="n"/>
-      <c r="D63" s="58" t="n"/>
-      <c r="E63" s="58" t="n"/>
-      <c r="F63" s="58" t="n"/>
-      <c r="G63" s="58" t="n"/>
-      <c r="H63" s="76" t="n"/>
-      <c r="I63" s="35" t="n"/>
+      <c r="B63" s="55" t="n"/>
+      <c r="C63" s="55" t="n"/>
+      <c r="D63" s="55" t="n"/>
+      <c r="E63" s="55" t="n"/>
+      <c r="F63" s="55" t="n"/>
+      <c r="G63" s="55" t="n"/>
+      <c r="H63" s="73" t="n"/>
+      <c r="I63" s="32" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commercial Invoice" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504219801" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4797,7 +4797,11 @@
     <row r="58">
       <c r="A58" s="24" t="n"/>
       <c r="B58" s="24" t="n"/>
-      <c r="C58" s="24" t="n"/>
+      <c r="C58" s="24" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="D58" s="24" t="n"/>
       <c r="E58" s="60" t="n"/>
       <c r="F58" s="24" t="n">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504219801" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504225963" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1240,20 +1240,24 @@
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C17" s="24" t="n"/>
+      <c r="C17" s="24" t="inlineStr">
+        <is>
+          <t>铣刀</t>
+        </is>
+      </c>
       <c r="D17" s="24" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="E17" s="24" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="G17" s="24" t="n">
-        <v>0.01</v>
+        <v>0.00996</v>
       </c>
       <c r="H17" s="24" t="n">
         <v>2.8</v>
@@ -1276,7 +1280,11 @@
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C18" s="24" t="n"/>
+      <c r="C18" s="24" t="inlineStr">
+        <is>
+          <t>红外发热管</t>
+        </is>
+      </c>
       <c r="D18" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1312,7 +1320,11 @@
           <t>E100.020310014</t>
         </is>
       </c>
-      <c r="C19" s="24" t="n"/>
+      <c r="C19" s="24" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
       <c r="D19" s="24" t="inlineStr">
         <is>
           <t>12-14</t>
@@ -1340,7 +1352,11 @@
           <t>E100.020310015</t>
         </is>
       </c>
-      <c r="C20" s="24" t="n"/>
+      <c r="C20" s="24" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
       <c r="D20" s="24" t="inlineStr">
         <is>
           <t>8-14</t>
@@ -1368,7 +1384,11 @@
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C21" s="24" t="n"/>
+      <c r="C21" s="24" t="inlineStr">
+        <is>
+          <t>红外发热管</t>
+        </is>
+      </c>
       <c r="D21" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1404,7 +1424,11 @@
           <t>E100.A37-066-02-00</t>
         </is>
       </c>
-      <c r="C22" s="24" t="n"/>
+      <c r="C22" s="24" t="inlineStr">
+        <is>
+          <t>重型双柱爪</t>
+        </is>
+      </c>
       <c r="D22" s="24" t="inlineStr">
         <is>
           <t>QLDZ.0014</t>
@@ -1440,7 +1464,11 @@
           <t>J100.020715018</t>
         </is>
       </c>
-      <c r="C23" s="24" t="n"/>
+      <c r="C23" s="24" t="inlineStr">
+        <is>
+          <t>过滤棉</t>
+        </is>
+      </c>
       <c r="D23" s="24" t="inlineStr">
         <is>
           <t>N510059196AA</t>
@@ -1468,7 +1496,11 @@
           <t>E100.020200009</t>
         </is>
       </c>
-      <c r="C24" s="24" t="n"/>
+      <c r="C24" s="24" t="inlineStr">
+        <is>
+          <t>变频器</t>
+        </is>
+      </c>
       <c r="D24" s="24" t="inlineStr">
         <is>
           <t>FA2P5N1W20360133</t>
@@ -1504,7 +1536,11 @@
           <t>E100.020310017</t>
         </is>
       </c>
-      <c r="C25" s="24" t="n"/>
+      <c r="C25" s="24" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D25" s="24" t="inlineStr">
         <is>
           <t>STM86118S</t>
@@ -1532,7 +1568,11 @@
           <t>E100.020310012</t>
         </is>
       </c>
-      <c r="C26" s="24" t="n"/>
+      <c r="C26" s="24" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D26" s="24" t="inlineStr">
         <is>
           <t>STM8680</t>
@@ -1560,7 +1600,11 @@
           <t>E100.A33-013-03-00</t>
         </is>
       </c>
-      <c r="C27" s="24" t="n"/>
+      <c r="C27" s="24" t="inlineStr">
+        <is>
+          <t>气密阀</t>
+        </is>
+      </c>
       <c r="D27" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1596,7 +1640,11 @@
           <t>J100.S07-010-10-00</t>
         </is>
       </c>
-      <c r="C28" s="24" t="n"/>
+      <c r="C28" s="24" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D28" s="24" t="inlineStr">
         <is>
           <t>900M-T-sk</t>
@@ -1632,7 +1680,11 @@
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C29" s="24" t="n"/>
+      <c r="C29" s="24" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D29" s="24" t="inlineStr">
         <is>
           <t>900M-T-B</t>
@@ -1660,7 +1712,11 @@
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C30" s="24" t="n"/>
+      <c r="C30" s="24" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D30" s="24" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
@@ -1688,7 +1744,11 @@
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C31" s="24" t="n"/>
+      <c r="C31" s="24" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D31" s="24" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
@@ -1716,7 +1776,11 @@
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C32" s="24" t="n"/>
+      <c r="C32" s="24" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D32" s="24" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
@@ -1744,7 +1808,11 @@
           <t>C100.C06-007-01-00</t>
         </is>
       </c>
-      <c r="C33" s="24" t="n"/>
+      <c r="C33" s="24" t="inlineStr">
+        <is>
+          <t>热电偶</t>
+        </is>
+      </c>
       <c r="D33" s="24" t="inlineStr">
         <is>
           <t>WRNT-013</t>
@@ -1772,7 +1840,11 @@
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C34" s="24" t="n"/>
+      <c r="C34" s="24" t="inlineStr">
+        <is>
+          <t>焊接海绵</t>
+        </is>
+      </c>
       <c r="D34" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1800,7 +1872,11 @@
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C35" s="24" t="n"/>
+      <c r="C35" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D35" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1836,7 +1912,11 @@
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C36" s="24" t="n"/>
+      <c r="C36" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D36" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1864,7 +1944,11 @@
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C37" s="24" t="n"/>
+      <c r="C37" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D37" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1892,7 +1976,11 @@
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C38" s="24" t="n"/>
+      <c r="C38" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D38" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1920,7 +2008,11 @@
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C39" s="24" t="n"/>
+      <c r="C39" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D39" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1948,7 +2040,11 @@
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C40" s="24" t="n"/>
+      <c r="C40" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D40" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -1976,7 +2072,11 @@
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C41" s="24" t="n"/>
+      <c r="C41" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D41" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2004,7 +2104,11 @@
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C42" s="24" t="n"/>
+      <c r="C42" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D42" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2032,7 +2136,11 @@
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C43" s="24" t="n"/>
+      <c r="C43" s="24" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D43" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2060,7 +2168,11 @@
           <t>C100.C06-006-01-00</t>
         </is>
       </c>
-      <c r="C44" s="24" t="n"/>
+      <c r="C44" s="24" t="inlineStr">
+        <is>
+          <t>钢网擦拭纸</t>
+        </is>
+      </c>
       <c r="D44" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2096,7 +2208,11 @@
           <t>C100.C06-006-02-00</t>
         </is>
       </c>
-      <c r="C45" s="24" t="n"/>
+      <c r="C45" s="24" t="inlineStr">
+        <is>
+          <t>钢网擦拭纸</t>
+        </is>
+      </c>
       <c r="D45" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2132,7 +2248,11 @@
           <t>E100.020349014</t>
         </is>
       </c>
-      <c r="C46" s="24" t="n"/>
+      <c r="C46" s="24" t="inlineStr">
+        <is>
+          <t>烧录座</t>
+        </is>
+      </c>
       <c r="D46" s="24" t="inlineStr">
         <is>
           <t>AT-TSSOP20-CMS</t>
@@ -2168,7 +2288,11 @@
           <t>E100.A37-154-01-00</t>
         </is>
       </c>
-      <c r="C47" s="24" t="n"/>
+      <c r="C47" s="24" t="inlineStr">
+        <is>
+          <t>滑轮</t>
+        </is>
+      </c>
       <c r="D47" s="24" t="inlineStr">
         <is>
           <t>KLV-M913A-A10</t>
@@ -2196,7 +2320,11 @@
           <t>E100.0111901002</t>
         </is>
       </c>
-      <c r="C48" s="24" t="n"/>
+      <c r="C48" s="24" t="inlineStr">
+        <is>
+          <t>打包架</t>
+        </is>
+      </c>
       <c r="D48" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2215,7 +2343,7 @@
         <v>34.24</v>
       </c>
       <c r="I48" s="24" t="n">
-        <v>66.09999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="J48" s="24" t="inlineStr">
         <is>
@@ -2232,7 +2360,11 @@
           <t>J100.031003005</t>
         </is>
       </c>
-      <c r="C49" s="24" t="n"/>
+      <c r="C49" s="24" t="inlineStr">
+        <is>
+          <t>周转车</t>
+        </is>
+      </c>
       <c r="D49" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2268,7 +2400,11 @@
           <t>E100.021335001</t>
         </is>
       </c>
-      <c r="C50" s="24" t="n"/>
+      <c r="C50" s="24" t="inlineStr">
+        <is>
+          <t>物料架</t>
+        </is>
+      </c>
       <c r="D50" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2287,7 +2423,7 @@
         <v>10.63</v>
       </c>
       <c r="I50" s="24" t="n">
-        <v>0</v>
+        <v>207.46</v>
       </c>
       <c r="J50" s="24" t="inlineStr">
         <is>
@@ -2304,7 +2440,11 @@
           <t>E100.E17-003-01-00</t>
         </is>
       </c>
-      <c r="C51" s="24" t="n"/>
+      <c r="C51" s="24" t="inlineStr">
+        <is>
+          <t>屏蔽箱</t>
+        </is>
+      </c>
       <c r="D51" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2340,7 +2480,11 @@
           <t>E100.E17-004-01-00</t>
         </is>
       </c>
-      <c r="C52" s="24" t="n"/>
+      <c r="C52" s="24" t="inlineStr">
+        <is>
+          <t>屏蔽箱</t>
+        </is>
+      </c>
       <c r="D52" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2376,7 +2520,11 @@
           <t>E100.020396013</t>
         </is>
       </c>
-      <c r="C53" s="24" t="n"/>
+      <c r="C53" s="24" t="inlineStr">
+        <is>
+          <t>马达</t>
+        </is>
+      </c>
       <c r="D53" s="24" t="inlineStr">
         <is>
           <t>AEVF4</t>
@@ -2412,7 +2560,11 @@
           <t>E100.0203104001</t>
         </is>
       </c>
-      <c r="C54" s="24" t="n"/>
+      <c r="C54" s="24" t="inlineStr">
+        <is>
+          <t>太阳片</t>
+        </is>
+      </c>
       <c r="D54" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2448,7 +2600,11 @@
           <t>E100.0203154000</t>
         </is>
       </c>
-      <c r="C55" s="24" t="n"/>
+      <c r="C55" s="24" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D55" s="24" t="inlineStr">
         <is>
           <t>TG-205A-FU</t>
@@ -2476,7 +2632,11 @@
           <t>E100.0203125000</t>
         </is>
       </c>
-      <c r="C56" s="24" t="n"/>
+      <c r="C56" s="24" t="inlineStr">
+        <is>
+          <t>链夹</t>
+        </is>
+      </c>
       <c r="D56" s="24" t="inlineStr">
         <is>
           <t>LS1D-01033</t>
@@ -2504,7 +2664,11 @@
           <t>E100.0203162159</t>
         </is>
       </c>
-      <c r="C57" s="24" t="n"/>
+      <c r="C57" s="24" t="inlineStr">
+        <is>
+          <t>调节座</t>
+        </is>
+      </c>
       <c r="D57" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2532,7 +2696,11 @@
           <t>E100.0203133001</t>
         </is>
       </c>
-      <c r="C58" s="24" t="n"/>
+      <c r="C58" s="24" t="inlineStr">
+        <is>
+          <t>模头</t>
+        </is>
+      </c>
       <c r="D58" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2560,7 +2728,11 @@
           <t>E100.E00-011-15-01</t>
         </is>
       </c>
-      <c r="C59" s="24" t="n"/>
+      <c r="C59" s="24" t="inlineStr">
+        <is>
+          <t>电刷</t>
+        </is>
+      </c>
       <c r="D59" s="24" t="inlineStr">
         <is>
           <t>KYB-M7027-001</t>
@@ -2588,7 +2760,11 @@
           <t>E100.020396061</t>
         </is>
       </c>
-      <c r="C60" s="24" t="n"/>
+      <c r="C60" s="24" t="inlineStr">
+        <is>
+          <t>密封圈</t>
+        </is>
+      </c>
       <c r="D60" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2616,7 +2792,11 @@
           <t>E100.020396062</t>
         </is>
       </c>
-      <c r="C61" s="24" t="n"/>
+      <c r="C61" s="24" t="inlineStr">
+        <is>
+          <t>密封圈</t>
+        </is>
+      </c>
       <c r="D61" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2644,7 +2824,11 @@
           <t>E100.020396047</t>
         </is>
       </c>
-      <c r="C62" s="24" t="n"/>
+      <c r="C62" s="24" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D62" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2672,7 +2856,11 @@
           <t>E100.020396048</t>
         </is>
       </c>
-      <c r="C63" s="24" t="n"/>
+      <c r="C63" s="24" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D63" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2700,7 +2888,11 @@
           <t>E100.020396049</t>
         </is>
       </c>
-      <c r="C64" s="24" t="n"/>
+      <c r="C64" s="24" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D64" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2728,7 +2920,11 @@
           <t>E100.020396050</t>
         </is>
       </c>
-      <c r="C65" s="24" t="n"/>
+      <c r="C65" s="24" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D65" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2756,7 +2952,11 @@
           <t>E100.020396055</t>
         </is>
       </c>
-      <c r="C66" s="24" t="n"/>
+      <c r="C66" s="24" t="inlineStr">
+        <is>
+          <t>发热板</t>
+        </is>
+      </c>
       <c r="D66" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2792,7 +2992,11 @@
           <t>E100.020396056</t>
         </is>
       </c>
-      <c r="C67" s="24" t="n"/>
+      <c r="C67" s="24" t="inlineStr">
+        <is>
+          <t>发热板</t>
+        </is>
+      </c>
       <c r="D67" s="24" t="inlineStr">
         <is>
           <t>/</t>
@@ -2821,7 +3025,7 @@
       </c>
       <c r="D68" s="24" t="n"/>
       <c r="E68" s="24" t="n">
-        <v>9506</v>
+        <v>9504</v>
       </c>
       <c r="F68" s="24" t="n"/>
       <c r="G68" s="24" t="n"/>
@@ -2829,7 +3033,7 @@
         <v>288.16</v>
       </c>
       <c r="I68" s="24" t="n">
-        <v>2953.559999999999</v>
+        <v>3160.94</v>
       </c>
       <c r="J68" s="24" t="n"/>
     </row>
@@ -3105,7 +3309,7 @@
       </c>
       <c r="C8" s="24" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
+          <t>铣刀</t>
         </is>
       </c>
       <c r="D8" s="24" t="inlineStr">
@@ -3117,7 +3321,7 @@
         <v>0.697</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
@@ -3125,7 +3329,7 @@
         </is>
       </c>
       <c r="H8" s="61" t="n">
-        <v>348.5</v>
+        <v>347.11</v>
       </c>
     </row>
     <row r="9">
@@ -3139,7 +3343,7 @@
       </c>
       <c r="C9" s="24" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>红外发热管</t>
         </is>
       </c>
       <c r="D9" s="24" t="inlineStr">
@@ -3173,7 +3377,7 @@
       </c>
       <c r="C10" s="24" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>联轴器</t>
         </is>
       </c>
       <c r="D10" s="24" t="inlineStr">
@@ -3207,7 +3411,7 @@
       </c>
       <c r="C11" s="24" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>联轴器</t>
         </is>
       </c>
       <c r="D11" s="24" t="inlineStr">
@@ -3241,7 +3445,7 @@
       </c>
       <c r="C12" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>重型双柱爪</t>
         </is>
       </c>
       <c r="D12" s="24" t="inlineStr">
@@ -3275,7 +3479,7 @@
       </c>
       <c r="C13" s="24" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>过滤棉</t>
         </is>
       </c>
       <c r="D13" s="24" t="inlineStr">
@@ -3309,7 +3513,7 @@
       </c>
       <c r="C14" s="24" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>变频器</t>
         </is>
       </c>
       <c r="D14" s="24" t="inlineStr">
@@ -3343,7 +3547,7 @@
       </c>
       <c r="C15" s="24" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D15" s="24" t="inlineStr">
@@ -3377,7 +3581,7 @@
       </c>
       <c r="C16" s="24" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D16" s="24" t="inlineStr">
@@ -3411,7 +3615,7 @@
       </c>
       <c r="C17" s="24" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>气密阀</t>
         </is>
       </c>
       <c r="D17" s="24" t="inlineStr">
@@ -3445,7 +3649,7 @@
       </c>
       <c r="C18" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D18" s="24" t="inlineStr">
@@ -3479,7 +3683,7 @@
       </c>
       <c r="C19" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D19" s="24" t="inlineStr">
@@ -3513,7 +3717,7 @@
       </c>
       <c r="C20" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D20" s="24" t="inlineStr">
@@ -3547,7 +3751,7 @@
       </c>
       <c r="C21" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D21" s="24" t="inlineStr">
@@ -3581,7 +3785,7 @@
       </c>
       <c r="C22" s="24" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D22" s="24" t="inlineStr">
@@ -3615,7 +3819,7 @@
       </c>
       <c r="C23" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>热电偶</t>
         </is>
       </c>
       <c r="D23" s="24" t="inlineStr">
@@ -3649,7 +3853,7 @@
       </c>
       <c r="C24" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>焊接海绵</t>
         </is>
       </c>
       <c r="D24" s="24" t="inlineStr">
@@ -3683,7 +3887,7 @@
       </c>
       <c r="C25" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D25" s="24" t="inlineStr">
@@ -3717,7 +3921,7 @@
       </c>
       <c r="C26" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D26" s="24" t="inlineStr">
@@ -3751,7 +3955,7 @@
       </c>
       <c r="C27" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D27" s="24" t="inlineStr">
@@ -3785,7 +3989,7 @@
       </c>
       <c r="C28" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D28" s="24" t="inlineStr">
@@ -3819,7 +4023,7 @@
       </c>
       <c r="C29" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D29" s="24" t="inlineStr">
@@ -3853,7 +4057,7 @@
       </c>
       <c r="C30" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D30" s="24" t="inlineStr">
@@ -3887,7 +4091,7 @@
       </c>
       <c r="C31" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D31" s="24" t="inlineStr">
@@ -3921,7 +4125,7 @@
       </c>
       <c r="C32" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D32" s="24" t="inlineStr">
@@ -3955,7 +4159,7 @@
       </c>
       <c r="C33" s="24" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D33" s="24" t="inlineStr">
@@ -3989,7 +4193,7 @@
       </c>
       <c r="C34" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>钢网擦拭纸</t>
         </is>
       </c>
       <c r="D34" s="24" t="inlineStr">
@@ -4023,7 +4227,7 @@
       </c>
       <c r="C35" s="24" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>钢网擦拭纸</t>
         </is>
       </c>
       <c r="D35" s="24" t="inlineStr">
@@ -4057,7 +4261,7 @@
       </c>
       <c r="C36" s="24" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>烧录座</t>
         </is>
       </c>
       <c r="D36" s="24" t="inlineStr">
@@ -4091,7 +4295,7 @@
       </c>
       <c r="C37" s="24" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>滑轮</t>
         </is>
       </c>
       <c r="D37" s="24" t="inlineStr">
@@ -4125,7 +4329,7 @@
       </c>
       <c r="C38" s="24" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>打包架</t>
         </is>
       </c>
       <c r="D38" s="24" t="inlineStr">
@@ -4159,7 +4363,7 @@
       </c>
       <c r="C39" s="24" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>周转车</t>
         </is>
       </c>
       <c r="D39" s="24" t="inlineStr">
@@ -4193,7 +4397,7 @@
       </c>
       <c r="C40" s="24" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>物料架</t>
         </is>
       </c>
       <c r="D40" s="24" t="inlineStr">
@@ -4227,7 +4431,7 @@
       </c>
       <c r="C41" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>屏蔽箱</t>
         </is>
       </c>
       <c r="D41" s="24" t="inlineStr">
@@ -4261,7 +4465,7 @@
       </c>
       <c r="C42" s="24" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>屏蔽箱</t>
         </is>
       </c>
       <c r="D42" s="24" t="inlineStr">
@@ -4295,7 +4499,7 @@
       </c>
       <c r="C43" s="24" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="D43" s="24" t="inlineStr">
@@ -4329,7 +4533,7 @@
       </c>
       <c r="C44" s="24" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>太阳片</t>
         </is>
       </c>
       <c r="D44" s="24" t="inlineStr">
@@ -4363,7 +4567,7 @@
       </c>
       <c r="C45" s="24" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D45" s="24" t="inlineStr">
@@ -4397,7 +4601,7 @@
       </c>
       <c r="C46" s="24" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>链夹</t>
         </is>
       </c>
       <c r="D46" s="24" t="inlineStr">
@@ -4431,7 +4635,7 @@
       </c>
       <c r="C47" s="24" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>调节座</t>
         </is>
       </c>
       <c r="D47" s="24" t="inlineStr">
@@ -4465,7 +4669,7 @@
       </c>
       <c r="C48" s="24" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>模头</t>
         </is>
       </c>
       <c r="D48" s="24" t="inlineStr">
@@ -4499,7 +4703,7 @@
       </c>
       <c r="C49" s="24" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>电刷</t>
         </is>
       </c>
       <c r="D49" s="24" t="inlineStr">
@@ -4533,7 +4737,7 @@
       </c>
       <c r="C50" s="24" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>密封圈</t>
         </is>
       </c>
       <c r="D50" s="24" t="inlineStr">
@@ -4567,7 +4771,7 @@
       </c>
       <c r="C51" s="24" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>密封圈</t>
         </is>
       </c>
       <c r="D51" s="24" t="inlineStr">
@@ -4601,7 +4805,7 @@
       </c>
       <c r="C52" s="24" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D52" s="24" t="inlineStr">
@@ -4635,7 +4839,7 @@
       </c>
       <c r="C53" s="24" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D53" s="24" t="inlineStr">
@@ -4669,7 +4873,7 @@
       </c>
       <c r="C54" s="24" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D54" s="24" t="inlineStr">
@@ -4703,7 +4907,7 @@
       </c>
       <c r="C55" s="24" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D55" s="24" t="inlineStr">
@@ -4737,7 +4941,7 @@
       </c>
       <c r="C56" s="24" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>发热板</t>
         </is>
       </c>
       <c r="D56" s="24" t="inlineStr">
@@ -4771,7 +4975,7 @@
       </c>
       <c r="C57" s="24" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>发热板</t>
         </is>
       </c>
       <c r="D57" s="24" t="inlineStr">
@@ -4805,11 +5009,11 @@
       <c r="D58" s="24" t="n"/>
       <c r="E58" s="60" t="n"/>
       <c r="F58" s="24" t="n">
-        <v>9506</v>
+        <v>9504</v>
       </c>
       <c r="G58" s="24" t="n"/>
       <c r="H58" s="61" t="n">
-        <v>27626.79</v>
+        <v>27625.4</v>
       </c>
     </row>
     <row r="59">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504225963" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504226030" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="E17" s="24" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
       <c r="G17" s="24" t="n">
-        <v>0.00996</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="H17" s="24" t="n">
         <v>2.8</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D68" s="24" t="n"/>
       <c r="E68" s="24" t="n">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="F68" s="24" t="n"/>
       <c r="G68" s="24" t="n"/>
@@ -3297,6 +3297,11 @@
           <t>Amount</t>
         </is>
       </c>
+      <c r="I7" s="23" t="inlineStr">
+        <is>
+          <t>Total Net Weight (kg)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="n">
@@ -3321,7 +3326,7 @@
         <v>0.697</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
@@ -3329,7 +3334,10 @@
         </is>
       </c>
       <c r="H8" s="61" t="n">
-        <v>347.11</v>
+        <v>346.41</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
@@ -3365,6 +3373,9 @@
       <c r="H9" s="61" t="n">
         <v>92</v>
       </c>
+      <c r="I9" s="24" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="n">
@@ -3399,6 +3410,9 @@
       <c r="H10" s="61" t="n">
         <v>21.75</v>
       </c>
+      <c r="I10" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="24" t="n">
@@ -3433,6 +3447,9 @@
       <c r="H11" s="61" t="n">
         <v>10.87</v>
       </c>
+      <c r="I11" s="24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="n">
@@ -3467,6 +3484,9 @@
       <c r="H12" s="61" t="n">
         <v>315.04</v>
       </c>
+      <c r="I12" s="24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="n">
@@ -3501,6 +3521,9 @@
       <c r="H13" s="61" t="n">
         <v>15.28</v>
       </c>
+      <c r="I13" s="24" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="n">
@@ -3535,6 +3558,9 @@
       <c r="H14" s="61" t="n">
         <v>158.92</v>
       </c>
+      <c r="I14" s="24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="n">
@@ -3569,6 +3595,9 @@
       <c r="H15" s="61" t="n">
         <v>32.06</v>
       </c>
+      <c r="I15" s="24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="n">
@@ -3603,6 +3632,9 @@
       <c r="H16" s="61" t="n">
         <v>77.37</v>
       </c>
+      <c r="I16" s="24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="n">
@@ -3637,6 +3669,9 @@
       <c r="H17" s="61" t="n">
         <v>243.95</v>
       </c>
+      <c r="I17" s="24" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="n">
@@ -3671,6 +3706,9 @@
       <c r="H18" s="61" t="n">
         <v>20.91</v>
       </c>
+      <c r="I18" s="24" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="n">
@@ -3705,6 +3743,9 @@
       <c r="H19" s="61" t="n">
         <v>348.5</v>
       </c>
+      <c r="I19" s="24" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="n">
@@ -3739,6 +3780,9 @@
       <c r="H20" s="61" t="n">
         <v>278.8</v>
       </c>
+      <c r="I20" s="24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="n">
@@ -3773,6 +3817,9 @@
       <c r="H21" s="61" t="n">
         <v>27.88</v>
       </c>
+      <c r="I21" s="24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="n">
@@ -3807,6 +3854,9 @@
       <c r="H22" s="61" t="n">
         <v>16.73</v>
       </c>
+      <c r="I22" s="24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="n">
@@ -3841,6 +3891,9 @@
       <c r="H23" s="61" t="n">
         <v>23.42</v>
       </c>
+      <c r="I23" s="24" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="n">
@@ -3875,6 +3928,9 @@
       <c r="H24" s="61" t="n">
         <v>34.5</v>
       </c>
+      <c r="I24" s="24" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="n">
@@ -3909,6 +3965,9 @@
       <c r="H25" s="61" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="I25" s="24" t="n">
+        <v>3.49</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="n">
@@ -3943,6 +4002,9 @@
       <c r="H26" s="61" t="n">
         <v>84.09</v>
       </c>
+      <c r="I26" s="24" t="n">
+        <v>4.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="n">
@@ -3977,6 +4039,9 @@
       <c r="H27" s="61" t="n">
         <v>84.28</v>
       </c>
+      <c r="I27" s="24" t="n">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="n">
@@ -4011,6 +4076,9 @@
       <c r="H28" s="61" t="n">
         <v>52.81</v>
       </c>
+      <c r="I28" s="24" t="n">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="n">
@@ -4045,6 +4113,9 @@
       <c r="H29" s="61" t="n">
         <v>7.36</v>
       </c>
+      <c r="I29" s="24" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="n">
@@ -4079,6 +4150,9 @@
       <c r="H30" s="61" t="n">
         <v>11.04</v>
       </c>
+      <c r="I30" s="24" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="n">
@@ -4113,6 +4187,9 @@
       <c r="H31" s="61" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="I31" s="24" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="n">
@@ -4147,6 +4224,9 @@
       <c r="H32" s="61" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="I32" s="24" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="n">
@@ -4181,6 +4261,9 @@
       <c r="H33" s="61" t="n">
         <v>20.24</v>
       </c>
+      <c r="I33" s="24" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="24" t="n">
@@ -4215,6 +4298,9 @@
       <c r="H34" s="61" t="n">
         <v>4208.76</v>
       </c>
+      <c r="I34" s="24" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="24" t="n">
@@ -4249,6 +4335,9 @@
       <c r="H35" s="61" t="n">
         <v>2849.34</v>
       </c>
+      <c r="I35" s="24" t="n">
+        <v>866</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="24" t="n">
@@ -4283,6 +4372,9 @@
       <c r="H36" s="61" t="n">
         <v>161.7</v>
       </c>
+      <c r="I36" s="24" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="24" t="n">
@@ -4317,6 +4409,9 @@
       <c r="H37" s="61" t="n">
         <v>55.76</v>
       </c>
+      <c r="I37" s="24" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="24" t="n">
@@ -4351,6 +4446,9 @@
       <c r="H38" s="61" t="n">
         <v>485.11</v>
       </c>
+      <c r="I38" s="24" t="n">
+        <v>66.02</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="24" t="n">
@@ -4385,6 +4483,9 @@
       <c r="H39" s="61" t="n">
         <v>2174.64</v>
       </c>
+      <c r="I39" s="24" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="24" t="n">
@@ -4419,6 +4520,9 @@
       <c r="H40" s="61" t="n">
         <v>376.38</v>
       </c>
+      <c r="I40" s="24" t="n">
+        <v>207.46</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="24" t="n">
@@ -4453,6 +4557,9 @@
       <c r="H41" s="61" t="n">
         <v>4739.6</v>
       </c>
+      <c r="I41" s="24" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="24" t="n">
@@ -4487,6 +4594,9 @@
       <c r="H42" s="61" t="n">
         <v>7179.1</v>
       </c>
+      <c r="I42" s="24" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="24" t="n">
@@ -4521,6 +4631,9 @@
       <c r="H43" s="61" t="n">
         <v>130.34</v>
       </c>
+      <c r="I43" s="24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="24" t="n">
@@ -4555,6 +4668,9 @@
       <c r="H44" s="61" t="n">
         <v>30.67</v>
       </c>
+      <c r="I44" s="24" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="24" t="n">
@@ -4589,6 +4705,9 @@
       <c r="H45" s="61" t="n">
         <v>243.95</v>
       </c>
+      <c r="I45" s="24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="24" t="n">
@@ -4623,6 +4742,9 @@
       <c r="H46" s="61" t="n">
         <v>557.6</v>
       </c>
+      <c r="I46" s="24" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="24" t="n">
@@ -4657,6 +4779,9 @@
       <c r="H47" s="61" t="n">
         <v>61.34</v>
       </c>
+      <c r="I47" s="24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="24" t="n">
@@ -4691,6 +4816,9 @@
       <c r="H48" s="61" t="n">
         <v>129.96</v>
       </c>
+      <c r="I48" s="24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="n">
@@ -4725,6 +4853,9 @@
       <c r="H49" s="61" t="n">
         <v>1380.06</v>
       </c>
+      <c r="I49" s="24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="n">
@@ -4759,6 +4890,9 @@
       <c r="H50" s="61" t="n">
         <v>9.06</v>
       </c>
+      <c r="I50" s="24" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="n">
@@ -4793,6 +4927,9 @@
       <c r="H51" s="61" t="n">
         <v>9.06</v>
       </c>
+      <c r="I51" s="24" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="n">
@@ -4827,6 +4964,9 @@
       <c r="H52" s="61" t="n">
         <v>61.34</v>
       </c>
+      <c r="I52" s="24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="24" t="n">
@@ -4861,6 +5001,9 @@
       <c r="H53" s="61" t="n">
         <v>61.34</v>
       </c>
+      <c r="I53" s="24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="24" t="n">
@@ -4895,6 +5038,9 @@
       <c r="H54" s="61" t="n">
         <v>61.34</v>
       </c>
+      <c r="I54" s="24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="24" t="n">
@@ -4929,6 +5075,9 @@
       <c r="H55" s="61" t="n">
         <v>61.34</v>
       </c>
+      <c r="I55" s="24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="24" t="n">
@@ -4963,6 +5112,9 @@
       <c r="H56" s="61" t="n">
         <v>91.45</v>
       </c>
+      <c r="I56" s="24" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="24" t="n">
@@ -4996,6 +5148,9 @@
       </c>
       <c r="H57" s="61" t="n">
         <v>91.45</v>
+      </c>
+      <c r="I57" s="24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -5009,11 +5164,14 @@
       <c r="D58" s="24" t="n"/>
       <c r="E58" s="60" t="n"/>
       <c r="F58" s="24" t="n">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="G58" s="24" t="n"/>
       <c r="H58" s="61" t="n">
-        <v>27625.4</v>
+        <v>27624.7</v>
+      </c>
+      <c r="I58" s="24" t="n">
+        <v>3160.94</v>
       </c>
     </row>
     <row r="59">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504226030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504226150" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3259,32 +3259,32 @@
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
         <is>
-          <t>NO.</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="B7" s="23" t="inlineStr">
         <is>
-          <t>Material code</t>
+          <t>Part Number</t>
         </is>
       </c>
       <c r="C7" s="23" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
-          <t>Model NO.</t>
+          <t>Model Number</t>
         </is>
       </c>
       <c r="E7" s="23" t="inlineStr">
         <is>
-          <t>Unit Price</t>
+          <t>Unit Price (CIF, USD)</t>
         </is>
       </c>
       <c r="F7" s="23" t="inlineStr">
         <is>
-          <t>Qty</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G7" s="23" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="H7" s="23" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Total Amount (CIF, USD)</t>
         </is>
       </c>
       <c r="I7" s="23" t="inlineStr">

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504226150" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504226736" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,7 @@
     <numFmt numFmtId="167" formatCode="0.00_ "/>
     <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,6 +69,9 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -161,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -297,6 +300,34 @@
       <bottom style="thin"/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -363,9 +394,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -373,105 +404,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -528,11 +559,16 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -548,13 +584,13 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -3141,7 +3177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5175,67 +5211,93 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="62" t="inlineStr">
-        <is>
-          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
-        </is>
-      </c>
-      <c r="B59" s="63" t="n"/>
-      <c r="C59" s="63" t="n"/>
-      <c r="D59" s="63" t="n"/>
-      <c r="E59" s="63" t="n"/>
-      <c r="F59" s="63" t="n"/>
-      <c r="G59" s="63" t="n"/>
-      <c r="H59" s="64" t="n"/>
-      <c r="I59" s="32" t="n"/>
+      <c r="A59" s="24" t="n"/>
+      <c r="B59" s="24" t="n"/>
+      <c r="C59" s="24" t="n"/>
+      <c r="D59" s="24" t="n"/>
+      <c r="E59" s="60" t="n"/>
+      <c r="F59" s="24" t="n"/>
+      <c r="G59" s="24" t="n"/>
+      <c r="H59" s="61" t="n"/>
+      <c r="I59" s="24" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="65" t="inlineStr">
-        <is>
-          <t>COUNTRY OF ORIGIN: CHINA</t>
-        </is>
-      </c>
-      <c r="B60" s="66" t="n"/>
-      <c r="C60" s="67" t="n"/>
-      <c r="D60" s="67" t="n"/>
-      <c r="E60" s="67" t="n"/>
-      <c r="F60" s="67" t="n"/>
-      <c r="G60" s="67" t="n"/>
-      <c r="H60" s="68" t="n"/>
-      <c r="I60" s="32" t="n"/>
+      <c r="A60" s="62" t="inlineStr">
+        <is>
+          <t>Amount in Words: SAY USD TWENTY-SEVEN THOUSAND SIX HUNDRED AND TWENTY-FOUR AND CENTS SEVENTY ONLY.</t>
+        </is>
+      </c>
+      <c r="B60" s="63" t="n"/>
+      <c r="C60" s="63" t="n"/>
+      <c r="D60" s="63" t="n"/>
+      <c r="E60" s="63" t="n"/>
+      <c r="F60" s="63" t="n"/>
+      <c r="G60" s="63" t="n"/>
+      <c r="H60" s="63" t="n"/>
+      <c r="I60" s="64" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="65" t="inlineStr">
         <is>
+          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+        </is>
+      </c>
+      <c r="B61" s="66" t="n"/>
+      <c r="C61" s="66" t="n"/>
+      <c r="D61" s="66" t="n"/>
+      <c r="E61" s="66" t="n"/>
+      <c r="F61" s="66" t="n"/>
+      <c r="G61" s="66" t="n"/>
+      <c r="H61" s="67" t="n"/>
+      <c r="I61" s="32" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="68" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B62" s="69" t="n"/>
+      <c r="C62" s="70" t="n"/>
+      <c r="D62" s="70" t="n"/>
+      <c r="E62" s="70" t="n"/>
+      <c r="F62" s="70" t="n"/>
+      <c r="G62" s="70" t="n"/>
+      <c r="H62" s="71" t="n"/>
+      <c r="I62" s="32" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="68" t="inlineStr">
+        <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B61" s="66" t="n"/>
-      <c r="C61" s="67" t="n"/>
-      <c r="D61" s="67" t="n"/>
-      <c r="E61" s="67" t="n"/>
-      <c r="F61" s="67" t="n"/>
-      <c r="G61" s="67" t="n"/>
-      <c r="H61" s="68" t="n"/>
-      <c r="I61" s="69" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="70" t="inlineStr">
+      <c r="B63" s="69" t="n"/>
+      <c r="C63" s="70" t="n"/>
+      <c r="D63" s="70" t="n"/>
+      <c r="E63" s="70" t="n"/>
+      <c r="F63" s="70" t="n"/>
+      <c r="G63" s="70" t="n"/>
+      <c r="H63" s="71" t="n"/>
+      <c r="I63" s="72" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="73" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B62" s="71" t="n"/>
-      <c r="C62" s="67" t="n"/>
-      <c r="D62" s="67" t="n"/>
-      <c r="E62" s="67" t="n"/>
-      <c r="F62" s="67" t="n"/>
-      <c r="G62" s="67" t="n"/>
-      <c r="H62" s="68" t="n"/>
-      <c r="I62" s="47" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="72" t="inlineStr">
+      <c r="B64" s="74" t="n"/>
+      <c r="C64" s="70" t="n"/>
+      <c r="D64" s="70" t="n"/>
+      <c r="E64" s="70" t="n"/>
+      <c r="F64" s="70" t="n"/>
+      <c r="G64" s="70" t="n"/>
+      <c r="H64" s="71" t="n"/>
+      <c r="I64" s="47" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="75" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -5244,23 +5306,24 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B63" s="55" t="n"/>
-      <c r="C63" s="55" t="n"/>
-      <c r="D63" s="55" t="n"/>
-      <c r="E63" s="55" t="n"/>
-      <c r="F63" s="55" t="n"/>
-      <c r="G63" s="55" t="n"/>
-      <c r="H63" s="73" t="n"/>
-      <c r="I63" s="32" t="n"/>
+      <c r="B65" s="55" t="n"/>
+      <c r="C65" s="55" t="n"/>
+      <c r="D65" s="55" t="n"/>
+      <c r="E65" s="55" t="n"/>
+      <c r="F65" s="55" t="n"/>
+      <c r="G65" s="55" t="n"/>
+      <c r="H65" s="76" t="n"/>
+      <c r="I65" s="32" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A60:I60"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A63:H63"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A61:H61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504226736" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504227020" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,7 @@
     <numFmt numFmtId="167" formatCode="0.00_ "/>
     <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,6 +68,12 @@
       <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -394,9 +400,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -404,105 +410,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -557,9 +563,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -584,10 +593,10 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3177,7 +3186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3340,1873 +3349,1873 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="inlineStr">
+      <c r="B8" s="60" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C8" s="24" t="inlineStr">
+      <c r="C8" s="60" t="inlineStr">
         <is>
           <t>铣刀</t>
         </is>
       </c>
-      <c r="D8" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E8" s="60" t="n">
+      <c r="D8" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E8" s="61" t="n">
         <v>0.697</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="60" t="n">
         <v>497</v>
       </c>
-      <c r="G8" s="24" t="inlineStr">
+      <c r="G8" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="61" t="n">
+      <c r="H8" s="62" t="n">
         <v>346.41</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="60" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="n">
+      <c r="A9" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="inlineStr">
+      <c r="B9" s="60" t="inlineStr">
         <is>
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C9" s="24" t="inlineStr">
+      <c r="C9" s="60" t="inlineStr">
         <is>
           <t>红外发热管</t>
         </is>
       </c>
-      <c r="D9" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E9" s="60" t="n">
+      <c r="D9" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E9" s="61" t="n">
         <v>15.334</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="60" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="24" t="inlineStr">
+      <c r="G9" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="61" t="n">
+      <c r="H9" s="62" t="n">
         <v>92</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="60" t="n">
         <v>2.65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="60" t="inlineStr">
         <is>
           <t>E100.020310014</t>
         </is>
       </c>
-      <c r="C10" s="24" t="inlineStr">
+      <c r="C10" s="60" t="inlineStr">
         <is>
           <t>联轴器</t>
         </is>
       </c>
-      <c r="D10" s="24" t="inlineStr">
+      <c r="D10" s="60" t="inlineStr">
         <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="E10" s="60" t="n">
+      <c r="E10" s="61" t="n">
         <v>10.8732</v>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="24" t="inlineStr">
+      <c r="G10" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="61" t="n">
+      <c r="H10" s="62" t="n">
         <v>21.75</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="60" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="inlineStr">
+      <c r="B11" s="60" t="inlineStr">
         <is>
           <t>E100.020310015</t>
         </is>
       </c>
-      <c r="C11" s="24" t="inlineStr">
+      <c r="C11" s="60" t="inlineStr">
         <is>
           <t>联轴器</t>
         </is>
       </c>
-      <c r="D11" s="24" t="inlineStr">
+      <c r="D11" s="60" t="inlineStr">
         <is>
           <t>8-14</t>
         </is>
       </c>
-      <c r="E11" s="60" t="n">
+      <c r="E11" s="61" t="n">
         <v>10.8732</v>
       </c>
-      <c r="F11" s="24" t="n">
+      <c r="F11" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="inlineStr">
+      <c r="G11" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="61" t="n">
+      <c r="H11" s="62" t="n">
         <v>10.87</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="60" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="inlineStr">
+      <c r="B12" s="60" t="inlineStr">
         <is>
           <t>E100.A37-066-02-00</t>
         </is>
       </c>
-      <c r="C12" s="24" t="inlineStr">
+      <c r="C12" s="60" t="inlineStr">
         <is>
           <t>重型双柱爪</t>
         </is>
       </c>
-      <c r="D12" s="24" t="inlineStr">
+      <c r="D12" s="60" t="inlineStr">
         <is>
           <t>QLDZ.0014</t>
         </is>
       </c>
-      <c r="E12" s="60" t="n">
+      <c r="E12" s="61" t="n">
         <v>3.15044</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="60" t="n">
         <v>100</v>
       </c>
-      <c r="G12" s="24" t="inlineStr">
+      <c r="G12" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="61" t="n">
+      <c r="H12" s="62" t="n">
         <v>315.04</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="60" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="inlineStr">
+      <c r="B13" s="60" t="inlineStr">
         <is>
           <t>J100.020715018</t>
         </is>
       </c>
-      <c r="C13" s="24" t="inlineStr">
+      <c r="C13" s="60" t="inlineStr">
         <is>
           <t>过滤棉</t>
         </is>
       </c>
-      <c r="D13" s="24" t="inlineStr">
+      <c r="D13" s="60" t="inlineStr">
         <is>
           <t>N510059196AA</t>
         </is>
       </c>
-      <c r="E13" s="60" t="n">
+      <c r="E13" s="61" t="n">
         <v>0.11152</v>
       </c>
-      <c r="F13" s="24" t="n">
+      <c r="F13" s="60" t="n">
         <v>137</v>
       </c>
-      <c r="G13" s="24" t="inlineStr">
+      <c r="G13" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="61" t="n">
+      <c r="H13" s="62" t="n">
         <v>15.28</v>
       </c>
-      <c r="I13" s="24" t="n">
+      <c r="I13" s="60" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="n">
+      <c r="A14" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="24" t="inlineStr">
+      <c r="B14" s="60" t="inlineStr">
         <is>
           <t>E100.020200009</t>
         </is>
       </c>
-      <c r="C14" s="24" t="inlineStr">
+      <c r="C14" s="60" t="inlineStr">
         <is>
           <t>变频器</t>
         </is>
       </c>
-      <c r="D14" s="24" t="inlineStr">
+      <c r="D14" s="60" t="inlineStr">
         <is>
           <t>FA2P5N1W20360133</t>
         </is>
       </c>
-      <c r="E14" s="60" t="n">
+      <c r="E14" s="61" t="n">
         <v>158.916</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="24" t="inlineStr">
+      <c r="G14" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="61" t="n">
+      <c r="H14" s="62" t="n">
         <v>158.92</v>
       </c>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="60" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="60" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="24" t="inlineStr">
+      <c r="B15" s="60" t="inlineStr">
         <is>
           <t>E100.020310017</t>
         </is>
       </c>
-      <c r="C15" s="24" t="inlineStr">
+      <c r="C15" s="60" t="inlineStr">
         <is>
           <t>电机</t>
         </is>
       </c>
-      <c r="D15" s="24" t="inlineStr">
+      <c r="D15" s="60" t="inlineStr">
         <is>
           <t>STM86118S</t>
         </is>
       </c>
-      <c r="E15" s="60" t="n">
+      <c r="E15" s="61" t="n">
         <v>32.062</v>
       </c>
-      <c r="F15" s="24" t="n">
+      <c r="F15" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="24" t="inlineStr">
+      <c r="G15" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="61" t="n">
+      <c r="H15" s="62" t="n">
         <v>32.06</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="60" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="60" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="24" t="inlineStr">
+      <c r="B16" s="60" t="inlineStr">
         <is>
           <t>E100.020310012</t>
         </is>
       </c>
-      <c r="C16" s="24" t="inlineStr">
+      <c r="C16" s="60" t="inlineStr">
         <is>
           <t>电机</t>
         </is>
       </c>
-      <c r="D16" s="24" t="inlineStr">
+      <c r="D16" s="60" t="inlineStr">
         <is>
           <t>STM8680</t>
         </is>
       </c>
-      <c r="E16" s="60" t="n">
+      <c r="E16" s="61" t="n">
         <v>25.789</v>
       </c>
-      <c r="F16" s="24" t="n">
+      <c r="F16" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="24" t="inlineStr">
+      <c r="G16" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="61" t="n">
+      <c r="H16" s="62" t="n">
         <v>77.37</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="60" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="24" t="inlineStr">
+      <c r="B17" s="60" t="inlineStr">
         <is>
           <t>E100.A33-013-03-00</t>
         </is>
       </c>
-      <c r="C17" s="24" t="inlineStr">
+      <c r="C17" s="60" t="inlineStr">
         <is>
           <t>气密阀</t>
         </is>
       </c>
-      <c r="D17" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E17" s="60" t="n">
+      <c r="D17" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E17" s="61" t="n">
         <v>48.79</v>
       </c>
-      <c r="F17" s="24" t="n">
+      <c r="F17" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="G17" s="24" t="inlineStr">
+      <c r="G17" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="61" t="n">
+      <c r="H17" s="62" t="n">
         <v>243.95</v>
       </c>
-      <c r="I17" s="24" t="n">
+      <c r="I17" s="60" t="n">
         <v>1.23</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="n">
+      <c r="A18" s="60" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="24" t="inlineStr">
+      <c r="B18" s="60" t="inlineStr">
         <is>
           <t>J100.S07-010-10-00</t>
         </is>
       </c>
-      <c r="C18" s="24" t="inlineStr">
+      <c r="C18" s="60" t="inlineStr">
         <is>
           <t>烙铁头</t>
         </is>
       </c>
-      <c r="D18" s="24" t="inlineStr">
+      <c r="D18" s="60" t="inlineStr">
         <is>
           <t>900M-T-sk</t>
         </is>
       </c>
-      <c r="E18" s="60" t="n">
+      <c r="E18" s="61" t="n">
         <v>0.697</v>
       </c>
-      <c r="F18" s="24" t="n">
+      <c r="F18" s="60" t="n">
         <v>30</v>
       </c>
-      <c r="G18" s="24" t="inlineStr">
+      <c r="G18" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="61" t="n">
+      <c r="H18" s="62" t="n">
         <v>20.91</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I18" s="60" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="60" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="24" t="inlineStr">
+      <c r="B19" s="60" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C19" s="24" t="inlineStr">
+      <c r="C19" s="60" t="inlineStr">
         <is>
           <t>烙铁头</t>
         </is>
       </c>
-      <c r="D19" s="24" t="inlineStr">
+      <c r="D19" s="60" t="inlineStr">
         <is>
           <t>900M-T-B</t>
         </is>
       </c>
-      <c r="E19" s="60" t="n">
+      <c r="E19" s="61" t="n">
         <v>0.697</v>
       </c>
-      <c r="F19" s="24" t="n">
+      <c r="F19" s="60" t="n">
         <v>500</v>
       </c>
-      <c r="G19" s="24" t="inlineStr">
+      <c r="G19" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="61" t="n">
+      <c r="H19" s="62" t="n">
         <v>348.5</v>
       </c>
-      <c r="I19" s="24" t="n">
+      <c r="I19" s="60" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24" t="n">
+      <c r="A20" s="60" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="24" t="inlineStr">
+      <c r="B20" s="60" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C20" s="24" t="inlineStr">
+      <c r="C20" s="60" t="inlineStr">
         <is>
           <t>烙铁头</t>
         </is>
       </c>
-      <c r="D20" s="24" t="inlineStr">
+      <c r="D20" s="60" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E20" s="60" t="n">
+      <c r="E20" s="61" t="n">
         <v>0.697</v>
       </c>
-      <c r="F20" s="24" t="n">
+      <c r="F20" s="60" t="n">
         <v>400</v>
       </c>
-      <c r="G20" s="24" t="inlineStr">
+      <c r="G20" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="61" t="n">
+      <c r="H20" s="62" t="n">
         <v>278.8</v>
       </c>
-      <c r="I20" s="24" t="n">
+      <c r="I20" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="24" t="n">
+      <c r="A21" s="60" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="24" t="inlineStr">
+      <c r="B21" s="60" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C21" s="24" t="inlineStr">
+      <c r="C21" s="60" t="inlineStr">
         <is>
           <t>烙铁头</t>
         </is>
       </c>
-      <c r="D21" s="24" t="inlineStr">
+      <c r="D21" s="60" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E21" s="60" t="n">
+      <c r="E21" s="61" t="n">
         <v>0.697</v>
       </c>
-      <c r="F21" s="24" t="n">
+      <c r="F21" s="60" t="n">
         <v>40</v>
       </c>
-      <c r="G21" s="24" t="inlineStr">
+      <c r="G21" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="61" t="n">
+      <c r="H21" s="62" t="n">
         <v>27.88</v>
       </c>
-      <c r="I21" s="24" t="n">
+      <c r="I21" s="60" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="60" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="24" t="inlineStr">
+      <c r="B22" s="60" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C22" s="24" t="inlineStr">
+      <c r="C22" s="60" t="inlineStr">
         <is>
           <t>烙铁头</t>
         </is>
       </c>
-      <c r="D22" s="24" t="inlineStr">
+      <c r="D22" s="60" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E22" s="60" t="n">
+      <c r="E22" s="61" t="n">
         <v>0.4182</v>
       </c>
-      <c r="F22" s="24" t="n">
+      <c r="F22" s="60" t="n">
         <v>40</v>
       </c>
-      <c r="G22" s="24" t="inlineStr">
+      <c r="G22" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="61" t="n">
+      <c r="H22" s="62" t="n">
         <v>16.73</v>
       </c>
-      <c r="I22" s="24" t="n">
+      <c r="I22" s="60" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="n">
+      <c r="A23" s="60" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="24" t="inlineStr">
+      <c r="B23" s="60" t="inlineStr">
         <is>
           <t>C100.C06-007-01-00</t>
         </is>
       </c>
-      <c r="C23" s="24" t="inlineStr">
+      <c r="C23" s="60" t="inlineStr">
         <is>
           <t>热电偶</t>
         </is>
       </c>
-      <c r="D23" s="24" t="inlineStr">
+      <c r="D23" s="60" t="inlineStr">
         <is>
           <t>WRNT-013</t>
         </is>
       </c>
-      <c r="E23" s="60" t="n">
+      <c r="E23" s="61" t="n">
         <v>0.16728</v>
       </c>
-      <c r="F23" s="24" t="n">
+      <c r="F23" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G23" s="24" t="inlineStr">
+      <c r="G23" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="61" t="n">
+      <c r="H23" s="62" t="n">
         <v>23.42</v>
       </c>
-      <c r="I23" s="24" t="n">
+      <c r="I23" s="60" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="24" t="n">
+      <c r="A24" s="60" t="n">
         <v>17</v>
       </c>
-      <c r="B24" s="24" t="inlineStr">
+      <c r="B24" s="60" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C24" s="24" t="inlineStr">
+      <c r="C24" s="60" t="inlineStr">
         <is>
           <t>焊接海绵</t>
         </is>
       </c>
-      <c r="D24" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E24" s="60" t="n">
+      <c r="D24" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E24" s="61" t="n">
         <v>0.138006</v>
       </c>
-      <c r="F24" s="24" t="n">
+      <c r="F24" s="60" t="n">
         <v>250</v>
       </c>
-      <c r="G24" s="24" t="inlineStr">
+      <c r="G24" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="61" t="n">
+      <c r="H24" s="62" t="n">
         <v>34.5</v>
       </c>
-      <c r="I24" s="24" t="n">
+      <c r="I24" s="60" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="24" t="n">
+      <c r="A25" s="60" t="n">
         <v>18</v>
       </c>
-      <c r="B25" s="24" t="inlineStr">
+      <c r="B25" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D25" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E25" s="60" t="n">
+      <c r="D25" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E25" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F25" s="24" t="n">
+      <c r="F25" s="60" t="n">
         <v>388</v>
       </c>
-      <c r="G25" s="24" t="inlineStr">
+      <c r="G25" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="61" t="n">
+      <c r="H25" s="62" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="I25" s="24" t="n">
+      <c r="I25" s="60" t="n">
         <v>3.49</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24" t="n">
+      <c r="A26" s="60" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="24" t="inlineStr">
+      <c r="B26" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C26" s="24" t="inlineStr">
+      <c r="C26" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D26" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E26" s="60" t="n">
+      <c r="D26" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E26" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F26" s="24" t="n">
+      <c r="F26" s="60" t="n">
         <v>457</v>
       </c>
-      <c r="G26" s="24" t="inlineStr">
+      <c r="G26" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="61" t="n">
+      <c r="H26" s="62" t="n">
         <v>84.09</v>
       </c>
-      <c r="I26" s="24" t="n">
+      <c r="I26" s="60" t="n">
         <v>4.11</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="24" t="n">
+      <c r="A27" s="60" t="n">
         <v>20</v>
       </c>
-      <c r="B27" s="24" t="inlineStr">
+      <c r="B27" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C27" s="24" t="inlineStr">
+      <c r="C27" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D27" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E27" s="60" t="n">
+      <c r="D27" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E27" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F27" s="24" t="n">
+      <c r="F27" s="60" t="n">
         <v>458</v>
       </c>
-      <c r="G27" s="24" t="inlineStr">
+      <c r="G27" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="61" t="n">
+      <c r="H27" s="62" t="n">
         <v>84.28</v>
       </c>
-      <c r="I27" s="24" t="n">
+      <c r="I27" s="60" t="n">
         <v>4.12</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24" t="n">
+      <c r="A28" s="60" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="24" t="inlineStr">
+      <c r="B28" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D28" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E28" s="60" t="n">
+      <c r="D28" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E28" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="60" t="n">
         <v>287</v>
       </c>
-      <c r="G28" s="24" t="inlineStr">
+      <c r="G28" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="61" t="n">
+      <c r="H28" s="62" t="n">
         <v>52.81</v>
       </c>
-      <c r="I28" s="24" t="n">
+      <c r="I28" s="60" t="n">
         <v>2.58</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="24" t="n">
+      <c r="A29" s="60" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="24" t="inlineStr">
+      <c r="B29" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C29" s="24" t="inlineStr">
+      <c r="C29" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D29" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E29" s="60" t="n">
+      <c r="D29" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E29" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F29" s="24" t="n">
+      <c r="F29" s="60" t="n">
         <v>40</v>
       </c>
-      <c r="G29" s="24" t="inlineStr">
+      <c r="G29" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="61" t="n">
+      <c r="H29" s="62" t="n">
         <v>7.36</v>
       </c>
-      <c r="I29" s="24" t="n">
+      <c r="I29" s="60" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24" t="n">
+      <c r="A30" s="60" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="24" t="inlineStr">
+      <c r="B30" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C30" s="24" t="inlineStr">
+      <c r="C30" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D30" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E30" s="60" t="n">
+      <c r="D30" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E30" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F30" s="24" t="n">
+      <c r="F30" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="G30" s="24" t="inlineStr">
+      <c r="G30" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="61" t="n">
+      <c r="H30" s="62" t="n">
         <v>11.04</v>
       </c>
-      <c r="I30" s="24" t="n">
+      <c r="I30" s="60" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="24" t="n">
+      <c r="A31" s="60" t="n">
         <v>24</v>
       </c>
-      <c r="B31" s="24" t="inlineStr">
+      <c r="B31" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C31" s="24" t="inlineStr">
+      <c r="C31" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D31" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E31" s="60" t="n">
+      <c r="D31" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E31" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F31" s="24" t="n">
+      <c r="F31" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="G31" s="24" t="inlineStr">
+      <c r="G31" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="61" t="n">
+      <c r="H31" s="62" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I31" s="24" t="n">
+      <c r="I31" s="60" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="24" t="n">
+      <c r="A32" s="60" t="n">
         <v>25</v>
       </c>
-      <c r="B32" s="24" t="inlineStr">
+      <c r="B32" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C32" s="24" t="inlineStr">
+      <c r="C32" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D32" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E32" s="60" t="n">
+      <c r="D32" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E32" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F32" s="24" t="n">
+      <c r="F32" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="G32" s="24" t="inlineStr">
+      <c r="G32" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H32" s="61" t="n">
+      <c r="H32" s="62" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I32" s="24" t="n">
+      <c r="I32" s="60" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="24" t="n">
+      <c r="A33" s="60" t="n">
         <v>26</v>
       </c>
-      <c r="B33" s="24" t="inlineStr">
+      <c r="B33" s="60" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C33" s="24" t="inlineStr">
+      <c r="C33" s="60" t="inlineStr">
         <is>
           <t>电批头</t>
         </is>
       </c>
-      <c r="D33" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E33" s="60" t="n">
+      <c r="D33" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E33" s="61" t="n">
         <v>0.184008</v>
       </c>
-      <c r="F33" s="24" t="n">
+      <c r="F33" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G33" s="24" t="inlineStr">
+      <c r="G33" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H33" s="61" t="n">
+      <c r="H33" s="62" t="n">
         <v>20.24</v>
       </c>
-      <c r="I33" s="24" t="n">
+      <c r="I33" s="60" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="24" t="n">
+      <c r="A34" s="60" t="n">
         <v>27</v>
       </c>
-      <c r="B34" s="24" t="inlineStr">
+      <c r="B34" s="60" t="inlineStr">
         <is>
           <t>C100.C06-006-01-00</t>
         </is>
       </c>
-      <c r="C34" s="24" t="inlineStr">
+      <c r="C34" s="60" t="inlineStr">
         <is>
           <t>钢网擦拭纸</t>
         </is>
       </c>
-      <c r="D34" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E34" s="60" t="n">
+      <c r="D34" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E34" s="61" t="n">
         <v>2.06312</v>
       </c>
-      <c r="F34" s="24" t="n">
+      <c r="F34" s="60" t="n">
         <v>2040</v>
       </c>
-      <c r="G34" s="24" t="inlineStr">
+      <c r="G34" s="60" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H34" s="61" t="n">
+      <c r="H34" s="62" t="n">
         <v>4208.76</v>
       </c>
-      <c r="I34" s="24" t="n">
+      <c r="I34" s="60" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="24" t="n">
+      <c r="A35" s="60" t="n">
         <v>28</v>
       </c>
-      <c r="B35" s="24" t="inlineStr">
+      <c r="B35" s="60" t="inlineStr">
         <is>
           <t>C100.C06-006-02-00</t>
         </is>
       </c>
-      <c r="C35" s="24" t="inlineStr">
+      <c r="C35" s="60" t="inlineStr">
         <is>
           <t>钢网擦拭纸</t>
         </is>
       </c>
-      <c r="D35" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E35" s="60" t="n">
+      <c r="D35" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E35" s="61" t="n">
         <v>1.01762</v>
       </c>
-      <c r="F35" s="24" t="n">
+      <c r="F35" s="60" t="n">
         <v>2800</v>
       </c>
-      <c r="G35" s="24" t="inlineStr">
+      <c r="G35" s="60" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H35" s="61" t="n">
+      <c r="H35" s="62" t="n">
         <v>2849.34</v>
       </c>
-      <c r="I35" s="24" t="n">
+      <c r="I35" s="60" t="n">
         <v>866</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="24" t="n">
+      <c r="A36" s="60" t="n">
         <v>29</v>
       </c>
-      <c r="B36" s="24" t="inlineStr">
+      <c r="B36" s="60" t="inlineStr">
         <is>
           <t>E100.020349014</t>
         </is>
       </c>
-      <c r="C36" s="24" t="inlineStr">
+      <c r="C36" s="60" t="inlineStr">
         <is>
           <t>烧录座</t>
         </is>
       </c>
-      <c r="D36" s="24" t="inlineStr">
+      <c r="D36" s="60" t="inlineStr">
         <is>
           <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
-      <c r="E36" s="60" t="n">
+      <c r="E36" s="61" t="n">
         <v>80.852</v>
       </c>
-      <c r="F36" s="24" t="n">
+      <c r="F36" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G36" s="24" t="inlineStr">
+      <c r="G36" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H36" s="61" t="n">
+      <c r="H36" s="62" t="n">
         <v>161.7</v>
       </c>
-      <c r="I36" s="24" t="n">
+      <c r="I36" s="60" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="24" t="n">
+      <c r="A37" s="60" t="n">
         <v>30</v>
       </c>
-      <c r="B37" s="24" t="inlineStr">
+      <c r="B37" s="60" t="inlineStr">
         <is>
           <t>E100.A37-154-01-00</t>
         </is>
       </c>
-      <c r="C37" s="24" t="inlineStr">
+      <c r="C37" s="60" t="inlineStr">
         <is>
           <t>滑轮</t>
         </is>
       </c>
-      <c r="D37" s="24" t="inlineStr">
+      <c r="D37" s="60" t="inlineStr">
         <is>
           <t>KLV-M913A-A10</t>
         </is>
       </c>
-      <c r="E37" s="60" t="n">
+      <c r="E37" s="61" t="n">
         <v>11.152</v>
       </c>
-      <c r="F37" s="24" t="n">
+      <c r="F37" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="G37" s="24" t="inlineStr">
+      <c r="G37" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H37" s="61" t="n">
+      <c r="H37" s="62" t="n">
         <v>55.76</v>
       </c>
-      <c r="I37" s="24" t="n">
+      <c r="I37" s="60" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="24" t="n">
+      <c r="A38" s="60" t="n">
         <v>31</v>
       </c>
-      <c r="B38" s="24" t="inlineStr">
+      <c r="B38" s="60" t="inlineStr">
         <is>
           <t>E100.0111901002</t>
         </is>
       </c>
-      <c r="C38" s="24" t="inlineStr">
+      <c r="C38" s="60" t="inlineStr">
         <is>
           <t>打包架</t>
         </is>
       </c>
-      <c r="D38" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E38" s="60" t="n">
+      <c r="D38" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E38" s="61" t="n">
         <v>161.704</v>
       </c>
-      <c r="F38" s="24" t="n">
+      <c r="F38" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="G38" s="24" t="inlineStr">
+      <c r="G38" s="60" t="inlineStr">
         <is>
           <t>套</t>
         </is>
       </c>
-      <c r="H38" s="61" t="n">
+      <c r="H38" s="62" t="n">
         <v>485.11</v>
       </c>
-      <c r="I38" s="24" t="n">
+      <c r="I38" s="60" t="n">
         <v>66.02</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="24" t="n">
+      <c r="A39" s="60" t="n">
         <v>32</v>
       </c>
-      <c r="B39" s="24" t="inlineStr">
+      <c r="B39" s="60" t="inlineStr">
         <is>
           <t>J100.031003005</t>
         </is>
       </c>
-      <c r="C39" s="24" t="inlineStr">
+      <c r="C39" s="60" t="inlineStr">
         <is>
           <t>周转车</t>
         </is>
       </c>
-      <c r="D39" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E39" s="60" t="n">
+      <c r="D39" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E39" s="61" t="n">
         <v>181.22</v>
       </c>
-      <c r="F39" s="24" t="n">
+      <c r="F39" s="60" t="n">
         <v>12</v>
       </c>
-      <c r="G39" s="24" t="inlineStr">
+      <c r="G39" s="60" t="inlineStr">
         <is>
           <t>台</t>
         </is>
       </c>
-      <c r="H39" s="61" t="n">
+      <c r="H39" s="62" t="n">
         <v>2174.64</v>
       </c>
-      <c r="I39" s="24" t="n">
+      <c r="I39" s="60" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="24" t="n">
+      <c r="A40" s="60" t="n">
         <v>33</v>
       </c>
-      <c r="B40" s="24" t="inlineStr">
+      <c r="B40" s="60" t="inlineStr">
         <is>
           <t>E100.021335001</t>
         </is>
       </c>
-      <c r="C40" s="24" t="inlineStr">
+      <c r="C40" s="60" t="inlineStr">
         <is>
           <t>物料架</t>
         </is>
       </c>
-      <c r="D40" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E40" s="60" t="n">
+      <c r="D40" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E40" s="61" t="n">
         <v>41.82</v>
       </c>
-      <c r="F40" s="24" t="n">
+      <c r="F40" s="60" t="n">
         <v>9</v>
       </c>
-      <c r="G40" s="24" t="inlineStr">
+      <c r="G40" s="60" t="inlineStr">
         <is>
           <t>套</t>
         </is>
       </c>
-      <c r="H40" s="61" t="n">
+      <c r="H40" s="62" t="n">
         <v>376.38</v>
       </c>
-      <c r="I40" s="24" t="n">
+      <c r="I40" s="60" t="n">
         <v>207.46</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="24" t="n">
+      <c r="A41" s="60" t="n">
         <v>34</v>
       </c>
-      <c r="B41" s="24" t="inlineStr">
+      <c r="B41" s="60" t="inlineStr">
         <is>
           <t>E100.E17-003-01-00</t>
         </is>
       </c>
-      <c r="C41" s="24" t="inlineStr">
+      <c r="C41" s="60" t="inlineStr">
         <is>
           <t>屏蔽箱</t>
         </is>
       </c>
-      <c r="D41" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E41" s="60" t="n">
+      <c r="D41" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E41" s="61" t="n">
         <v>473.96</v>
       </c>
-      <c r="F41" s="24" t="n">
+      <c r="F41" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="G41" s="24" t="inlineStr">
+      <c r="G41" s="60" t="inlineStr">
         <is>
           <t>台</t>
         </is>
       </c>
-      <c r="H41" s="61" t="n">
+      <c r="H41" s="62" t="n">
         <v>4739.6</v>
       </c>
-      <c r="I41" s="24" t="n">
+      <c r="I41" s="60" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="24" t="n">
+      <c r="A42" s="60" t="n">
         <v>35</v>
       </c>
-      <c r="B42" s="24" t="inlineStr">
+      <c r="B42" s="60" t="inlineStr">
         <is>
           <t>E100.E17-004-01-00</t>
         </is>
       </c>
-      <c r="C42" s="24" t="inlineStr">
+      <c r="C42" s="60" t="inlineStr">
         <is>
           <t>屏蔽箱</t>
         </is>
       </c>
-      <c r="D42" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E42" s="60" t="n">
+      <c r="D42" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E42" s="61" t="n">
         <v>717.91</v>
       </c>
-      <c r="F42" s="24" t="n">
+      <c r="F42" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="G42" s="24" t="inlineStr">
+      <c r="G42" s="60" t="inlineStr">
         <is>
           <t>台</t>
         </is>
       </c>
-      <c r="H42" s="61" t="n">
+      <c r="H42" s="62" t="n">
         <v>7179.1</v>
       </c>
-      <c r="I42" s="24" t="n">
+      <c r="I42" s="60" t="n">
         <v>440</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="24" t="n">
+      <c r="A43" s="60" t="n">
         <v>36</v>
       </c>
-      <c r="B43" s="24" t="inlineStr">
+      <c r="B43" s="60" t="inlineStr">
         <is>
           <t>E100.020396013</t>
         </is>
       </c>
-      <c r="C43" s="24" t="inlineStr">
+      <c r="C43" s="60" t="inlineStr">
         <is>
           <t>马达</t>
         </is>
       </c>
-      <c r="D43" s="24" t="inlineStr">
+      <c r="D43" s="60" t="inlineStr">
         <is>
           <t>AEVF4</t>
         </is>
       </c>
-      <c r="E43" s="60" t="n">
+      <c r="E43" s="61" t="n">
         <v>130.339</v>
       </c>
-      <c r="F43" s="24" t="n">
+      <c r="F43" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="24" t="inlineStr">
+      <c r="G43" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H43" s="61" t="n">
+      <c r="H43" s="62" t="n">
         <v>130.34</v>
       </c>
-      <c r="I43" s="24" t="n">
+      <c r="I43" s="60" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="24" t="n">
+      <c r="A44" s="60" t="n">
         <v>37</v>
       </c>
-      <c r="B44" s="24" t="inlineStr">
+      <c r="B44" s="60" t="inlineStr">
         <is>
           <t>E100.0203104001</t>
         </is>
       </c>
-      <c r="C44" s="24" t="inlineStr">
+      <c r="C44" s="60" t="inlineStr">
         <is>
           <t>太阳片</t>
         </is>
       </c>
-      <c r="D44" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E44" s="60" t="n">
+      <c r="D44" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E44" s="61" t="n">
         <v>3.0668</v>
       </c>
-      <c r="F44" s="24" t="n">
+      <c r="F44" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="G44" s="24" t="inlineStr">
+      <c r="G44" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H44" s="61" t="n">
+      <c r="H44" s="62" t="n">
         <v>30.67</v>
       </c>
-      <c r="I44" s="24" t="n">
+      <c r="I44" s="60" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="24" t="n">
+      <c r="A45" s="60" t="n">
         <v>38</v>
       </c>
-      <c r="B45" s="24" t="inlineStr">
+      <c r="B45" s="60" t="inlineStr">
         <is>
           <t>E100.0203154000</t>
         </is>
       </c>
-      <c r="C45" s="24" t="inlineStr">
+      <c r="C45" s="60" t="inlineStr">
         <is>
           <t>电机</t>
         </is>
       </c>
-      <c r="D45" s="24" t="inlineStr">
+      <c r="D45" s="60" t="inlineStr">
         <is>
           <t>TG-205A-FU</t>
         </is>
       </c>
-      <c r="E45" s="60" t="n">
+      <c r="E45" s="61" t="n">
         <v>48.79</v>
       </c>
-      <c r="F45" s="24" t="n">
+      <c r="F45" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="G45" s="24" t="inlineStr">
+      <c r="G45" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H45" s="61" t="n">
+      <c r="H45" s="62" t="n">
         <v>243.95</v>
       </c>
-      <c r="I45" s="24" t="n">
+      <c r="I45" s="60" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="24" t="n">
+      <c r="A46" s="60" t="n">
         <v>39</v>
       </c>
-      <c r="B46" s="24" t="inlineStr">
+      <c r="B46" s="60" t="inlineStr">
         <is>
           <t>E100.0203125000</t>
         </is>
       </c>
-      <c r="C46" s="24" t="inlineStr">
+      <c r="C46" s="60" t="inlineStr">
         <is>
           <t>链夹</t>
         </is>
       </c>
-      <c r="D46" s="24" t="inlineStr">
+      <c r="D46" s="60" t="inlineStr">
         <is>
           <t>LS1D-01033</t>
         </is>
       </c>
-      <c r="E46" s="60" t="n">
+      <c r="E46" s="61" t="n">
         <v>1.1152</v>
       </c>
-      <c r="F46" s="24" t="n">
+      <c r="F46" s="60" t="n">
         <v>500</v>
       </c>
-      <c r="G46" s="24" t="inlineStr">
+      <c r="G46" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H46" s="61" t="n">
+      <c r="H46" s="62" t="n">
         <v>557.6</v>
       </c>
-      <c r="I46" s="24" t="n">
+      <c r="I46" s="60" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="24" t="n">
+      <c r="A47" s="60" t="n">
         <v>40</v>
       </c>
-      <c r="B47" s="24" t="inlineStr">
+      <c r="B47" s="60" t="inlineStr">
         <is>
           <t>E100.0203162159</t>
         </is>
       </c>
-      <c r="C47" s="24" t="inlineStr">
+      <c r="C47" s="60" t="inlineStr">
         <is>
           <t>调节座</t>
         </is>
       </c>
-      <c r="D47" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E47" s="60" t="n">
+      <c r="D47" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E47" s="61" t="n">
         <v>15.334</v>
       </c>
-      <c r="F47" s="24" t="n">
+      <c r="F47" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="G47" s="24" t="inlineStr">
+      <c r="G47" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H47" s="61" t="n">
+      <c r="H47" s="62" t="n">
         <v>61.34</v>
       </c>
-      <c r="I47" s="24" t="n">
+      <c r="I47" s="60" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="24" t="n">
+      <c r="A48" s="60" t="n">
         <v>41</v>
       </c>
-      <c r="B48" s="24" t="inlineStr">
+      <c r="B48" s="60" t="inlineStr">
         <is>
           <t>E100.0203133001</t>
         </is>
       </c>
-      <c r="C48" s="24" t="inlineStr">
+      <c r="C48" s="60" t="inlineStr">
         <is>
           <t>模头</t>
         </is>
       </c>
-      <c r="D48" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E48" s="60" t="n">
+      <c r="D48" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E48" s="61" t="n">
         <v>25.99113</v>
       </c>
-      <c r="F48" s="24" t="n">
+      <c r="F48" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="G48" s="24" t="inlineStr">
+      <c r="G48" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H48" s="61" t="n">
+      <c r="H48" s="62" t="n">
         <v>129.96</v>
       </c>
-      <c r="I48" s="24" t="n">
+      <c r="I48" s="60" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="24" t="n">
+      <c r="A49" s="60" t="n">
         <v>42</v>
       </c>
-      <c r="B49" s="24" t="inlineStr">
+      <c r="B49" s="60" t="inlineStr">
         <is>
           <t>E100.E00-011-15-01</t>
         </is>
       </c>
-      <c r="C49" s="24" t="inlineStr">
+      <c r="C49" s="60" t="inlineStr">
         <is>
           <t>电刷</t>
         </is>
       </c>
-      <c r="D49" s="24" t="inlineStr">
+      <c r="D49" s="60" t="inlineStr">
         <is>
           <t>KYB-M7027-001</t>
         </is>
       </c>
-      <c r="E49" s="60" t="n">
+      <c r="E49" s="61" t="n">
         <v>690.03</v>
       </c>
-      <c r="F49" s="24" t="n">
+      <c r="F49" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G49" s="24" t="inlineStr">
+      <c r="G49" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H49" s="61" t="n">
+      <c r="H49" s="62" t="n">
         <v>1380.06</v>
       </c>
-      <c r="I49" s="24" t="n">
+      <c r="I49" s="60" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="24" t="n">
+      <c r="A50" s="60" t="n">
         <v>43</v>
       </c>
-      <c r="B50" s="24" t="inlineStr">
+      <c r="B50" s="60" t="inlineStr">
         <is>
           <t>E100.020396061</t>
         </is>
       </c>
-      <c r="C50" s="24" t="inlineStr">
+      <c r="C50" s="60" t="inlineStr">
         <is>
           <t>密封圈</t>
         </is>
       </c>
-      <c r="D50" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E50" s="60" t="n">
+      <c r="D50" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E50" s="61" t="n">
         <v>0.9061</v>
       </c>
-      <c r="F50" s="24" t="n">
+      <c r="F50" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="G50" s="24" t="inlineStr">
+      <c r="G50" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H50" s="61" t="n">
+      <c r="H50" s="62" t="n">
         <v>9.06</v>
       </c>
-      <c r="I50" s="24" t="n">
+      <c r="I50" s="60" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="24" t="n">
+      <c r="A51" s="60" t="n">
         <v>44</v>
       </c>
-      <c r="B51" s="24" t="inlineStr">
+      <c r="B51" s="60" t="inlineStr">
         <is>
           <t>E100.020396062</t>
         </is>
       </c>
-      <c r="C51" s="24" t="inlineStr">
+      <c r="C51" s="60" t="inlineStr">
         <is>
           <t>密封圈</t>
         </is>
       </c>
-      <c r="D51" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E51" s="60" t="n">
+      <c r="D51" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E51" s="61" t="n">
         <v>0.9061</v>
       </c>
-      <c r="F51" s="24" t="n">
+      <c r="F51" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="G51" s="24" t="inlineStr">
+      <c r="G51" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H51" s="61" t="n">
+      <c r="H51" s="62" t="n">
         <v>9.06</v>
       </c>
-      <c r="I51" s="24" t="n">
+      <c r="I51" s="60" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="24" t="n">
+      <c r="A52" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="B52" s="24" t="inlineStr">
+      <c r="B52" s="60" t="inlineStr">
         <is>
           <t>E100.020396047</t>
         </is>
       </c>
-      <c r="C52" s="24" t="inlineStr">
+      <c r="C52" s="60" t="inlineStr">
         <is>
           <t>齿轮</t>
         </is>
       </c>
-      <c r="D52" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E52" s="60" t="n">
+      <c r="D52" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E52" s="61" t="n">
         <v>30.668</v>
       </c>
-      <c r="F52" s="24" t="n">
+      <c r="F52" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="24" t="inlineStr">
+      <c r="G52" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H52" s="61" t="n">
+      <c r="H52" s="62" t="n">
         <v>61.34</v>
       </c>
-      <c r="I52" s="24" t="n">
+      <c r="I52" s="60" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="24" t="n">
+      <c r="A53" s="60" t="n">
         <v>46</v>
       </c>
-      <c r="B53" s="24" t="inlineStr">
+      <c r="B53" s="60" t="inlineStr">
         <is>
           <t>E100.020396048</t>
         </is>
       </c>
-      <c r="C53" s="24" t="inlineStr">
+      <c r="C53" s="60" t="inlineStr">
         <is>
           <t>齿轮</t>
         </is>
       </c>
-      <c r="D53" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E53" s="60" t="n">
+      <c r="D53" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E53" s="61" t="n">
         <v>30.668</v>
       </c>
-      <c r="F53" s="24" t="n">
+      <c r="F53" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="24" t="inlineStr">
+      <c r="G53" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H53" s="61" t="n">
+      <c r="H53" s="62" t="n">
         <v>61.34</v>
       </c>
-      <c r="I53" s="24" t="n">
+      <c r="I53" s="60" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="24" t="n">
+      <c r="A54" s="60" t="n">
         <v>47</v>
       </c>
-      <c r="B54" s="24" t="inlineStr">
+      <c r="B54" s="60" t="inlineStr">
         <is>
           <t>E100.020396049</t>
         </is>
       </c>
-      <c r="C54" s="24" t="inlineStr">
+      <c r="C54" s="60" t="inlineStr">
         <is>
           <t>齿轮</t>
         </is>
       </c>
-      <c r="D54" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E54" s="60" t="n">
+      <c r="D54" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E54" s="61" t="n">
         <v>30.668</v>
       </c>
-      <c r="F54" s="24" t="n">
+      <c r="F54" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G54" s="24" t="inlineStr">
+      <c r="G54" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H54" s="61" t="n">
+      <c r="H54" s="62" t="n">
         <v>61.34</v>
       </c>
-      <c r="I54" s="24" t="n">
+      <c r="I54" s="60" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="24" t="n">
+      <c r="A55" s="60" t="n">
         <v>48</v>
       </c>
-      <c r="B55" s="24" t="inlineStr">
+      <c r="B55" s="60" t="inlineStr">
         <is>
           <t>E100.020396050</t>
         </is>
       </c>
-      <c r="C55" s="24" t="inlineStr">
+      <c r="C55" s="60" t="inlineStr">
         <is>
           <t>齿轮</t>
         </is>
       </c>
-      <c r="D55" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E55" s="60" t="n">
+      <c r="D55" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E55" s="61" t="n">
         <v>30.668</v>
       </c>
-      <c r="F55" s="24" t="n">
+      <c r="F55" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G55" s="24" t="inlineStr">
+      <c r="G55" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H55" s="61" t="n">
+      <c r="H55" s="62" t="n">
         <v>61.34</v>
       </c>
-      <c r="I55" s="24" t="n">
+      <c r="I55" s="60" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n">
+      <c r="A56" s="60" t="n">
         <v>49</v>
       </c>
-      <c r="B56" s="24" t="inlineStr">
+      <c r="B56" s="60" t="inlineStr">
         <is>
           <t>E100.020396055</t>
         </is>
       </c>
-      <c r="C56" s="24" t="inlineStr">
+      <c r="C56" s="60" t="inlineStr">
         <is>
           <t>发热板</t>
         </is>
       </c>
-      <c r="D56" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E56" s="60" t="n">
+      <c r="D56" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E56" s="61" t="n">
         <v>45.7232</v>
       </c>
-      <c r="F56" s="24" t="n">
+      <c r="F56" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G56" s="24" t="inlineStr">
+      <c r="G56" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H56" s="61" t="n">
+      <c r="H56" s="62" t="n">
         <v>91.45</v>
       </c>
-      <c r="I56" s="24" t="n">
+      <c r="I56" s="60" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="24" t="n">
+      <c r="A57" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="B57" s="24" t="inlineStr">
+      <c r="B57" s="60" t="inlineStr">
         <is>
           <t>E100.020396056</t>
         </is>
       </c>
-      <c r="C57" s="24" t="inlineStr">
+      <c r="C57" s="60" t="inlineStr">
         <is>
           <t>发热板</t>
         </is>
       </c>
-      <c r="D57" s="24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E57" s="60" t="n">
+      <c r="D57" s="60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E57" s="61" t="n">
         <v>45.7232</v>
       </c>
-      <c r="F57" s="24" t="n">
+      <c r="F57" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G57" s="24" t="inlineStr">
+      <c r="G57" s="60" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H57" s="61" t="n">
+      <c r="H57" s="62" t="n">
         <v>91.45</v>
       </c>
-      <c r="I57" s="24" t="n">
+      <c r="I57" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="24" t="n"/>
       <c r="B58" s="24" t="n"/>
-      <c r="C58" s="24" t="inlineStr">
+      <c r="C58" s="60" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
       <c r="D58" s="24" t="n"/>
-      <c r="E58" s="60" t="n"/>
-      <c r="F58" s="24" t="n">
+      <c r="E58" s="63" t="n"/>
+      <c r="F58" s="60" t="n">
         <v>9503</v>
       </c>
       <c r="G58" s="24" t="n"/>
-      <c r="H58" s="61" t="n">
+      <c r="H58" s="62" t="n">
         <v>27624.7</v>
       </c>
-      <c r="I58" s="24" t="n">
+      <c r="I58" s="60" t="n">
         <v>3160.94</v>
       </c>
     </row>
@@ -5215,31 +5224,31 @@
       <c r="B59" s="24" t="n"/>
       <c r="C59" s="24" t="n"/>
       <c r="D59" s="24" t="n"/>
-      <c r="E59" s="60" t="n"/>
+      <c r="E59" s="63" t="n"/>
       <c r="F59" s="24" t="n"/>
       <c r="G59" s="24" t="n"/>
-      <c r="H59" s="61" t="n"/>
+      <c r="H59" s="64" t="n"/>
       <c r="I59" s="24" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="62" t="inlineStr">
+      <c r="A60" s="65" t="inlineStr">
         <is>
           <t>Amount in Words: SAY USD TWENTY-SEVEN THOUSAND SIX HUNDRED AND TWENTY-FOUR AND CENTS SEVENTY ONLY.</t>
         </is>
       </c>
-      <c r="B60" s="63" t="n"/>
-      <c r="C60" s="63" t="n"/>
-      <c r="D60" s="63" t="n"/>
-      <c r="E60" s="63" t="n"/>
-      <c r="F60" s="63" t="n"/>
-      <c r="G60" s="63" t="n"/>
-      <c r="H60" s="63" t="n"/>
-      <c r="I60" s="64" t="n"/>
+      <c r="B60" s="66" t="n"/>
+      <c r="C60" s="66" t="n"/>
+      <c r="D60" s="66" t="n"/>
+      <c r="E60" s="66" t="n"/>
+      <c r="F60" s="66" t="n"/>
+      <c r="G60" s="66" t="n"/>
+      <c r="H60" s="66" t="n"/>
+      <c r="I60" s="67" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="65" t="inlineStr">
         <is>
-          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+          <t>Country Of Origin: China</t>
         </is>
       </c>
       <c r="B61" s="66" t="n"/>
@@ -5248,56 +5257,176 @@
       <c r="E61" s="66" t="n"/>
       <c r="F61" s="66" t="n"/>
       <c r="G61" s="66" t="n"/>
-      <c r="H61" s="67" t="n"/>
-      <c r="I61" s="32" t="n"/>
+      <c r="H61" s="66" t="n"/>
+      <c r="I61" s="67" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="68" t="inlineStr">
+      <c r="A62" s="65" t="inlineStr">
+        <is>
+          <t>Payment Term: 100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+        </is>
+      </c>
+      <c r="B62" s="66" t="n"/>
+      <c r="C62" s="66" t="n"/>
+      <c r="D62" s="66" t="n"/>
+      <c r="E62" s="66" t="n"/>
+      <c r="F62" s="66" t="n"/>
+      <c r="G62" s="66" t="n"/>
+      <c r="H62" s="66" t="n"/>
+      <c r="I62" s="67" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="65" t="inlineStr">
+        <is>
+          <t>Delivery Term: CIF</t>
+        </is>
+      </c>
+      <c r="B63" s="66" t="n"/>
+      <c r="C63" s="66" t="n"/>
+      <c r="D63" s="66" t="n"/>
+      <c r="E63" s="66" t="n"/>
+      <c r="F63" s="66" t="n"/>
+      <c r="G63" s="66" t="n"/>
+      <c r="H63" s="66" t="n"/>
+      <c r="I63" s="67" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="65" t="inlineStr">
+        <is>
+          <t>Company Name:  Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+      <c r="B64" s="66" t="n"/>
+      <c r="C64" s="66" t="n"/>
+      <c r="D64" s="66" t="n"/>
+      <c r="E64" s="66" t="n"/>
+      <c r="F64" s="66" t="n"/>
+      <c r="G64" s="66" t="n"/>
+      <c r="H64" s="66" t="n"/>
+      <c r="I64" s="67" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="65" t="inlineStr">
+        <is>
+          <t>Account number:  811030101280058437</t>
+        </is>
+      </c>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="66" t="n"/>
+      <c r="D65" s="66" t="n"/>
+      <c r="E65" s="66" t="n"/>
+      <c r="F65" s="66" t="n"/>
+      <c r="G65" s="66" t="n"/>
+      <c r="H65" s="66" t="n"/>
+      <c r="I65" s="67" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="65" t="inlineStr">
+        <is>
+          <t>Bank Name: China citic bank shenzhen branch</t>
+        </is>
+      </c>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="66" t="n"/>
+      <c r="D66" s="66" t="n"/>
+      <c r="E66" s="66" t="n"/>
+      <c r="F66" s="66" t="n"/>
+      <c r="G66" s="66" t="n"/>
+      <c r="H66" s="66" t="n"/>
+      <c r="I66" s="67" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="65" t="inlineStr">
+        <is>
+          <t>Bank Address: 8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china</t>
+        </is>
+      </c>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="66" t="n"/>
+      <c r="D67" s="66" t="n"/>
+      <c r="E67" s="66" t="n"/>
+      <c r="F67" s="66" t="n"/>
+      <c r="G67" s="66" t="n"/>
+      <c r="H67" s="66" t="n"/>
+      <c r="I67" s="67" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="65" t="inlineStr">
+        <is>
+          <t>SWIFT No.: CIBKCNBJ518</t>
+        </is>
+      </c>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="66" t="n"/>
+      <c r="D68" s="66" t="n"/>
+      <c r="E68" s="66" t="n"/>
+      <c r="F68" s="66" t="n"/>
+      <c r="G68" s="66" t="n"/>
+      <c r="H68" s="66" t="n"/>
+      <c r="I68" s="67" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="68" t="inlineStr">
+        <is>
+          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+        </is>
+      </c>
+      <c r="B69" s="69" t="n"/>
+      <c r="C69" s="69" t="n"/>
+      <c r="D69" s="69" t="n"/>
+      <c r="E69" s="69" t="n"/>
+      <c r="F69" s="69" t="n"/>
+      <c r="G69" s="69" t="n"/>
+      <c r="H69" s="70" t="n"/>
+      <c r="I69" s="32" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="71" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B62" s="69" t="n"/>
-      <c r="C62" s="70" t="n"/>
-      <c r="D62" s="70" t="n"/>
-      <c r="E62" s="70" t="n"/>
-      <c r="F62" s="70" t="n"/>
-      <c r="G62" s="70" t="n"/>
-      <c r="H62" s="71" t="n"/>
-      <c r="I62" s="32" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="68" t="inlineStr">
+      <c r="B70" s="72" t="n"/>
+      <c r="C70" s="73" t="n"/>
+      <c r="D70" s="73" t="n"/>
+      <c r="E70" s="73" t="n"/>
+      <c r="F70" s="73" t="n"/>
+      <c r="G70" s="73" t="n"/>
+      <c r="H70" s="74" t="n"/>
+      <c r="I70" s="32" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="71" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B63" s="69" t="n"/>
-      <c r="C63" s="70" t="n"/>
-      <c r="D63" s="70" t="n"/>
-      <c r="E63" s="70" t="n"/>
-      <c r="F63" s="70" t="n"/>
-      <c r="G63" s="70" t="n"/>
-      <c r="H63" s="71" t="n"/>
-      <c r="I63" s="72" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="73" t="inlineStr">
+      <c r="B71" s="72" t="n"/>
+      <c r="C71" s="73" t="n"/>
+      <c r="D71" s="73" t="n"/>
+      <c r="E71" s="73" t="n"/>
+      <c r="F71" s="73" t="n"/>
+      <c r="G71" s="73" t="n"/>
+      <c r="H71" s="74" t="n"/>
+      <c r="I71" s="75" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="76" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B64" s="74" t="n"/>
-      <c r="C64" s="70" t="n"/>
-      <c r="D64" s="70" t="n"/>
-      <c r="E64" s="70" t="n"/>
-      <c r="F64" s="70" t="n"/>
-      <c r="G64" s="70" t="n"/>
-      <c r="H64" s="71" t="n"/>
-      <c r="I64" s="47" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="75" t="inlineStr">
+      <c r="B72" s="77" t="n"/>
+      <c r="C72" s="73" t="n"/>
+      <c r="D72" s="73" t="n"/>
+      <c r="E72" s="73" t="n"/>
+      <c r="F72" s="73" t="n"/>
+      <c r="G72" s="73" t="n"/>
+      <c r="H72" s="74" t="n"/>
+      <c r="I72" s="47" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="78" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -5306,24 +5435,32 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B65" s="55" t="n"/>
-      <c r="C65" s="55" t="n"/>
-      <c r="D65" s="55" t="n"/>
-      <c r="E65" s="55" t="n"/>
-      <c r="F65" s="55" t="n"/>
-      <c r="G65" s="55" t="n"/>
-      <c r="H65" s="76" t="n"/>
-      <c r="I65" s="32" t="n"/>
+      <c r="B73" s="55" t="n"/>
+      <c r="C73" s="55" t="n"/>
+      <c r="D73" s="55" t="n"/>
+      <c r="E73" s="55" t="n"/>
+      <c r="F73" s="55" t="n"/>
+      <c r="G73" s="55" t="n"/>
+      <c r="H73" s="79" t="n"/>
+      <c r="I73" s="32" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A65:I65"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A69:H69"/>
     <mergeCell ref="A60:I60"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A61:I61"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:I62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI20250423125" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504234383" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,9 +18,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="20">
@@ -71,7 +71,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
@@ -527,7 +526,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -548,9 +547,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -3218,7 +3217,7 @@
     <row r="4">
       <c r="A4" s="45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
+          <t xml:space="preserve">Buyer:                                                                   </t>
         </is>
       </c>
       <c r="B4" s="46" t="n"/>
@@ -3227,20 +3226,16 @@
       <c r="E4" s="47" t="n"/>
       <c r="F4" s="46" t="inlineStr">
         <is>
-          <t xml:space="preserve">CI No.: </t>
-        </is>
-      </c>
-      <c r="G4" s="46" t="inlineStr">
-        <is>
-          <t>CXCI2025012201</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Invoice Number: </t>
+        </is>
+      </c>
+      <c r="G4" s="46" t="n"/>
       <c r="H4" s="48" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="49" t="inlineStr">
         <is>
-          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+          <t>ADD:</t>
         </is>
       </c>
       <c r="D5" s="50" t="n"/>
@@ -3250,9 +3245,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="52" t="n">
-        <v>45679</v>
-      </c>
+      <c r="G5" s="52" t="n"/>
       <c r="H5" s="53" t="n"/>
     </row>
     <row r="6">
@@ -3261,11 +3254,7 @@
       <c r="C6" s="55" t="n"/>
       <c r="D6" s="56" t="n"/>
       <c r="E6" s="57" t="n"/>
-      <c r="F6" s="58" t="inlineStr">
-        <is>
-          <t>PO No.:</t>
-        </is>
-      </c>
+      <c r="F6" s="58" t="n"/>
       <c r="G6" s="58" t="n"/>
       <c r="H6" s="59" t="n"/>
     </row>
@@ -5253,7 +5242,7 @@
     <row r="62">
       <c r="A62" s="68" t="inlineStr">
         <is>
-          <t>Country Of Origin: China</t>
+          <t xml:space="preserve">Country Of Origin: </t>
         </is>
       </c>
       <c r="B62" s="69" t="n"/>
@@ -5268,7 +5257,7 @@
     <row r="63">
       <c r="A63" s="71" t="inlineStr">
         <is>
-          <t>Payment Term: 100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+          <t xml:space="preserve">Payment Term: </t>
         </is>
       </c>
       <c r="I63" s="72" t="n"/>
@@ -5276,7 +5265,7 @@
     <row r="64">
       <c r="A64" s="71" t="inlineStr">
         <is>
-          <t>Delivery Term: CIF</t>
+          <t xml:space="preserve">Delivery Term: </t>
         </is>
       </c>
       <c r="I64" s="72" t="n"/>
@@ -5284,7 +5273,7 @@
     <row r="65">
       <c r="A65" s="71" t="inlineStr">
         <is>
-          <t>Company Name:  Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+          <t>Company Name: Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
       <c r="I65" s="72" t="n"/>
@@ -5292,7 +5281,7 @@
     <row r="66">
       <c r="A66" s="71" t="inlineStr">
         <is>
-          <t>Account number:  811030101280058376</t>
+          <t>Account number: 8110301012800584376</t>
         </is>
       </c>
       <c r="I66" s="72" t="n"/>

--- a/outputs/export_invoice.xlsx
+++ b/outputs/export_invoice.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504234383" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI202504234693" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
   </numFmts>
@@ -75,7 +75,8 @@
       <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Arial"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -163,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -300,45 +301,33 @@
     </border>
     <border>
       <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
       <right style="thin"/>
       <top style="thin"/>
     </border>
     <border>
       <left style="thin"/>
+    </border>
+    <border>
       <right style="thin"/>
+      <top/>
       <bottom/>
     </border>
     <border>
       <left style="thin"/>
-      <right style="thin"/>
       <bottom style="thin"/>
     </border>
     <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <right style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
     </border>
     <border>
       <left/>
@@ -383,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,10 +440,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -495,12 +484,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -554,22 +543,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3153,7 +3148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,7 +3170,7 @@
     <row r="1">
       <c r="A1" s="40" t="inlineStr">
         <is>
-          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+          <t>test Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
       <c r="B1" s="41" t="n"/>
@@ -5245,85 +5240,156 @@
           <t xml:space="preserve">Country Of Origin: </t>
         </is>
       </c>
-      <c r="B62" s="69" t="n"/>
-      <c r="C62" s="69" t="n"/>
-      <c r="D62" s="69" t="n"/>
-      <c r="E62" s="69" t="n"/>
-      <c r="F62" s="69" t="n"/>
-      <c r="G62" s="69" t="n"/>
-      <c r="H62" s="69" t="n"/>
-      <c r="I62" s="70" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="71" t="inlineStr">
+      <c r="A63" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">Payment Term: </t>
         </is>
       </c>
-      <c r="I63" s="72" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="71" t="inlineStr">
+      <c r="A64" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">Delivery Term: </t>
         </is>
       </c>
-      <c r="I64" s="72" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="71" t="inlineStr">
-        <is>
-          <t>Company Name: Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
-        </is>
-      </c>
-      <c r="I65" s="72" t="n"/>
+      <c r="A65" s="68" t="inlineStr">
+        <is>
+          <t>Company Name: test Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="71" t="inlineStr">
+      <c r="A66" s="68" t="inlineStr">
         <is>
           <t>Account number: 8110301012800584376</t>
         </is>
       </c>
-      <c r="I66" s="72" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="71" t="inlineStr">
-        <is>
-          <t>Bank Name: China citic bank shenzhen branch</t>
-        </is>
-      </c>
-      <c r="I67" s="72" t="n"/>
+      <c r="A67" s="68" t="inlineStr">
+        <is>
+          <t>Bank Name:  China citic bank shenzhen branch</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="71" t="inlineStr">
-        <is>
-          <t>Bank Address:8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china</t>
-        </is>
-      </c>
-      <c r="I68" s="72" t="n"/>
+      <c r="A68" s="68" t="inlineStr">
+        <is>
+          <t>Bank Address: 8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="73" t="inlineStr">
+      <c r="A69" s="68" t="inlineStr">
         <is>
           <t>SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
-      <c r="B69" s="74" t="n"/>
-      <c r="C69" s="74" t="n"/>
-      <c r="D69" s="74" t="n"/>
-      <c r="E69" s="74" t="n"/>
-      <c r="F69" s="74" t="n"/>
-      <c r="G69" s="74" t="n"/>
-      <c r="H69" s="74" t="n"/>
-      <c r="I69" s="75" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Country Of Origin: </t>
+        </is>
+      </c>
+      <c r="B70" s="70" t="n"/>
+      <c r="C70" s="70" t="n"/>
+      <c r="D70" s="70" t="n"/>
+      <c r="E70" s="70" t="n"/>
+      <c r="F70" s="70" t="n"/>
+      <c r="G70" s="70" t="n"/>
+      <c r="H70" s="70" t="n"/>
+      <c r="I70" s="71" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="72" t="inlineStr">
+        <is>
+          <t>Authorized Signature: _________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="72" t="inlineStr">
+        <is>
+          <t>Date: _________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Payment Term: </t>
+        </is>
+      </c>
+      <c r="I73" s="74" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delivery Term: </t>
+        </is>
+      </c>
+      <c r="I74" s="74" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="73" t="inlineStr">
+        <is>
+          <t>Company Name: test Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+      <c r="I75" s="74" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="73" t="inlineStr">
+        <is>
+          <t>Account number: 8110301012800584376</t>
+        </is>
+      </c>
+      <c r="I76" s="74" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="73" t="inlineStr">
+        <is>
+          <t>Bank Name:  China citic bank shenzhen branch</t>
+        </is>
+      </c>
+      <c r="I77" s="74" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="73" t="inlineStr">
+        <is>
+          <t>Bank Address: 8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china</t>
+        </is>
+      </c>
+      <c r="I78" s="74" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="75" t="inlineStr">
+        <is>
+          <t>SWIFT No.: CIBKCNBJ518</t>
+        </is>
+      </c>
+      <c r="B79" s="76" t="n"/>
+      <c r="C79" s="76" t="n"/>
+      <c r="D79" s="76" t="n"/>
+      <c r="E79" s="76" t="n"/>
+      <c r="F79" s="76" t="n"/>
+      <c r="G79" s="76" t="n"/>
+      <c r="H79" s="76" t="n"/>
+      <c r="I79" s="77" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="A64:I64"/>
     <mergeCell ref="A65:I65"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A63:I63"/>
     <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A63:I63"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A66:I66"/>
@@ -5332,6 +5398,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A69:I69"/>
     <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A72:I72"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
